--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid282684"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid681936"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid681936"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid905499"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,129 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>08/05/2024</t>
+  </si>
+  <si>
+    <t>07/05/2024</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>06/05/2024</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>30/04/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>29/04/2024</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>24/04/2024</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>23/04/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>18/04/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>16/04/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
     <t>12/04/2024</t>
   </si>
   <si>
     <t>0.958</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>11/04/2024</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>09/04/2024</t>
   </si>
   <si>
@@ -53,9 +161,6 @@
     <t>05/04/2024</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>04/04/2024</t>
   </si>
   <si>
@@ -65,9 +170,6 @@
     <t>03/04/2024</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
     <t>02/04/2024</t>
   </si>
   <si>
@@ -131,18 +233,12 @@
     <t>15/03/2024</t>
   </si>
   <si>
-    <t>0.950</t>
-  </si>
-  <si>
     <t>14/03/2024</t>
   </si>
   <si>
     <t>13/03/2024</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>12/03/2024</t>
   </si>
   <si>
@@ -152,9 +248,6 @@
     <t>08/03/2024</t>
   </si>
   <si>
-    <t>0.961</t>
-  </si>
-  <si>
     <t>07/03/2024</t>
   </si>
   <si>
@@ -236,9 +329,6 @@
     <t>14/02/2024</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>13/02/2024</t>
   </si>
   <si>
@@ -248,9 +338,6 @@
     <t>09/02/2024</t>
   </si>
   <si>
-    <t>0.939</t>
-  </si>
-  <si>
     <t>08/02/2024</t>
   </si>
   <si>
@@ -1721,9 +1808,6 @@
     <t>25/08/2022</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>24/08/2022</t>
   </si>
   <si>
@@ -1733,9 +1817,6 @@
     <t>22/08/2022</t>
   </si>
   <si>
-    <t>0.945</t>
-  </si>
-  <si>
     <t>19/08/2022</t>
   </si>
   <si>
@@ -1784,18 +1865,12 @@
     <t>02/08/2022</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>01/08/2022</t>
   </si>
   <si>
     <t>29/07/2022</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>28/07/2022</t>
   </si>
   <si>
@@ -1805,9 +1880,6 @@
     <t>27/07/2022</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>26/07/2022</t>
   </si>
   <si>
@@ -1824,9 +1896,6 @@
   </si>
   <si>
     <t>21/07/2022</t>
-  </si>
-  <si>
-    <t>0.943</t>
   </si>
   <si>
     <t>20/07/2022</t>
@@ -2352,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2360,10 +2429,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2451,7 +2520,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2459,10 +2528,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2470,10 +2539,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2481,10 +2550,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2492,10 +2561,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2503,10 +2572,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2514,7 +2583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -2525,10 +2594,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2536,10 +2605,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2547,10 +2616,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2558,10 +2627,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2569,10 +2638,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2580,10 +2649,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2591,10 +2660,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2605,7 +2674,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2613,10 +2682,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2624,10 +2693,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2635,10 +2704,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2646,10 +2715,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2657,10 +2726,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2668,7 +2737,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
@@ -2679,10 +2748,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2690,10 +2759,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2701,10 +2770,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2712,10 +2781,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2723,10 +2792,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2734,10 +2803,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2745,10 +2814,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2756,10 +2825,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2767,10 +2836,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2781,7 +2850,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2789,10 +2858,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2800,10 +2869,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2811,10 +2880,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2822,10 +2891,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2833,10 +2902,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2844,10 +2913,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2855,10 +2924,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2866,10 +2935,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2877,10 +2946,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2888,10 +2957,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2899,10 +2968,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2910,10 +2979,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2921,10 +2990,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2932,10 +3001,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2943,10 +3012,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2954,10 +3023,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2965,10 +3034,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2976,10 +3045,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2987,10 +3056,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2998,10 +3067,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3009,10 +3078,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3020,10 +3089,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3031,10 +3100,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3042,10 +3111,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3053,10 +3122,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3064,10 +3133,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3075,10 +3144,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3086,10 +3155,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3097,10 +3166,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3108,10 +3177,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3119,10 +3188,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3130,10 +3199,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3141,10 +3210,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3152,10 +3221,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3163,10 +3232,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3174,10 +3243,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3185,10 +3254,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3196,10 +3265,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3207,10 +3276,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3218,10 +3287,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3229,10 +3298,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3240,10 +3309,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3251,10 +3320,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3262,10 +3331,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3273,10 +3342,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3284,10 +3353,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3295,10 +3364,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3306,10 +3375,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3317,10 +3386,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3328,10 +3397,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3339,10 +3408,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3350,10 +3419,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3361,10 +3430,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3372,10 +3441,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3383,10 +3452,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3394,10 +3463,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3405,10 +3474,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3416,10 +3485,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3427,10 +3496,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3438,10 +3507,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3449,10 +3518,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3460,10 +3529,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" t="s">
         <v>181</v>
-      </c>
-      <c r="B105" t="s">
-        <v>170</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3529,7 +3598,7 @@
         <v>192</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3537,10 +3606,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
         <v>194</v>
-      </c>
-      <c r="B112" t="s">
-        <v>195</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3548,10 +3617,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3559,10 +3628,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3570,10 +3639,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3581,10 +3650,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3592,10 +3661,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3603,10 +3672,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3614,10 +3683,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3625,10 +3694,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3636,10 +3705,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3647,10 +3716,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B122" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3658,10 +3727,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3669,10 +3738,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3680,10 +3749,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3691,10 +3760,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3702,10 +3771,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3713,10 +3782,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B128" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3724,10 +3793,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3735,10 +3804,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3746,10 +3815,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3757,10 +3826,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3768,10 +3837,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3779,10 +3848,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B134" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3790,10 +3859,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3801,10 +3870,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3812,10 +3881,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3823,10 +3892,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3834,10 +3903,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3845,10 +3914,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3856,10 +3925,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B141" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3867,10 +3936,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3878,10 +3947,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" t="s">
         <v>244</v>
-      </c>
-      <c r="B143" t="s">
-        <v>218</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3892,7 +3961,7 @@
         <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3900,10 +3969,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" t="s">
         <v>247</v>
-      </c>
-      <c r="B145" t="s">
-        <v>248</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3911,10 +3980,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>248</v>
+      </c>
+      <c r="B146" t="s">
         <v>249</v>
-      </c>
-      <c r="B146" t="s">
-        <v>170</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3925,7 +3994,7 @@
         <v>250</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3933,10 +4002,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B148" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3944,10 +4013,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3955,10 +4024,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3966,10 +4035,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3977,10 +4046,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3988,10 +4057,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3999,10 +4068,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4010,10 +4079,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4021,10 +4090,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4032,10 +4101,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4043,10 +4112,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4054,10 +4123,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4065,10 +4134,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B160" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4076,10 +4145,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4087,10 +4156,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4098,10 +4167,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B163" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4109,10 +4178,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4120,10 +4189,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4131,10 +4200,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4142,10 +4211,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4153,10 +4222,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4164,10 +4233,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B169" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4175,10 +4244,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4186,10 +4255,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4197,10 +4266,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B172" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4208,10 +4277,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4219,10 +4288,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B174" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4230,10 +4299,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4241,10 +4310,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4252,10 +4321,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B177" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4263,10 +4332,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4274,10 +4343,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4285,10 +4354,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B180" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4296,10 +4365,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4307,10 +4376,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4318,10 +4387,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B183" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4329,10 +4398,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B184" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4340,10 +4409,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B185" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4351,10 +4420,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B186" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4362,10 +4431,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4373,10 +4442,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4384,10 +4453,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B189" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4395,10 +4464,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B190" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4406,10 +4475,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B191" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4417,10 +4486,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B192" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4428,10 +4497,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B193" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4439,10 +4508,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B194" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4450,10 +4519,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4461,10 +4530,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B196" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4472,10 +4541,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B197" t="s">
-        <v>152</v>
+        <v>318</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4483,10 +4552,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B198" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4494,10 +4563,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B199" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4505,10 +4574,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B200" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4516,10 +4585,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B201" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4527,10 +4596,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B202" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4538,10 +4607,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B203" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4549,10 +4618,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B204" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4560,10 +4629,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B205" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4571,10 +4640,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B206" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4582,10 +4651,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B207" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4593,10 +4662,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B208" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4604,10 +4673,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B209" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4615,10 +4684,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B210" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4626,10 +4695,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B211" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4637,10 +4706,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B212" t="s">
-        <v>129</v>
+        <v>318</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4648,10 +4717,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B213" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4659,10 +4728,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B214" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4670,10 +4739,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B215" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4681,10 +4750,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B216" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4692,10 +4761,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B217" t="s">
-        <v>334</v>
+        <v>181</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4703,10 +4772,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B218" t="s">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4714,10 +4783,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B219" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4725,10 +4794,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B220" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4736,10 +4805,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B221" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4747,10 +4816,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B222" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4758,10 +4827,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B223" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4769,10 +4838,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B224" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4780,10 +4849,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B225" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4791,10 +4860,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4802,10 +4871,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B227" t="s">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4813,10 +4882,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B228" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4824,10 +4893,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B229" t="s">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4835,10 +4904,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B230" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4846,10 +4915,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B231" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4857,10 +4926,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B232" t="s">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4868,10 +4937,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B233" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4879,10 +4948,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B234" t="s">
-        <v>353</v>
+        <v>185</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4890,10 +4959,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B235" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4901,10 +4970,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B236" t="s">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4912,10 +4981,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B237" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4923,10 +4992,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B238" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4934,10 +5003,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B239" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4945,10 +5014,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B240" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4956,10 +5025,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4967,10 +5036,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B242" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4978,10 +5047,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4989,10 +5058,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B244" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5000,10 +5069,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B245" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5011,10 +5080,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B246" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5022,10 +5091,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B247" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5033,10 +5102,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B248" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5044,10 +5113,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B249" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5055,10 +5124,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B250" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5066,10 +5135,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5077,10 +5146,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B252" t="s">
-        <v>160</v>
+        <v>379</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5088,10 +5157,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B253" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5099,10 +5168,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B254" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5110,10 +5179,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B255" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5121,10 +5190,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5132,10 +5201,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B257" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5143,10 +5212,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B258" t="s">
-        <v>248</v>
+        <v>379</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5154,10 +5223,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B259" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5165,10 +5234,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B260" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5176,10 +5245,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B261" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5187,10 +5256,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B262" t="s">
-        <v>353</v>
+        <v>189</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5198,10 +5267,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B263" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5209,10 +5278,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B264" t="s">
-        <v>384</v>
+        <v>218</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5220,10 +5289,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B265" t="s">
-        <v>386</v>
+        <v>247</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5231,10 +5300,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B266" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5242,10 +5311,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B267" t="s">
-        <v>389</v>
+        <v>189</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5253,10 +5322,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B268" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5264,10 +5333,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5275,10 +5344,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B270" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5286,10 +5355,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B271" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5297,10 +5366,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B272" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5308,10 +5377,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B273" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5319,10 +5388,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B274" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5330,10 +5399,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B275" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5341,10 +5410,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B276" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5352,10 +5421,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B277" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5363,10 +5432,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B278" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5374,10 +5443,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B279" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5385,10 +5454,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B280" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5396,10 +5465,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B281" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5407,10 +5476,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B282" t="s">
-        <v>227</v>
+        <v>382</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5418,10 +5487,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B283" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5429,10 +5498,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B284" t="s">
-        <v>189</v>
+        <v>413</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5440,10 +5509,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>415</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5451,10 +5520,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B286" t="s">
-        <v>384</v>
+        <v>220</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5462,10 +5531,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B287" t="s">
-        <v>191</v>
+        <v>418</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5473,10 +5542,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B288" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5484,10 +5553,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B289" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5495,10 +5564,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B290" t="s">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5506,10 +5575,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B291" t="s">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5517,10 +5586,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B292" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5528,10 +5597,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B293" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5539,10 +5608,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B294" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5550,10 +5619,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B295" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5561,10 +5630,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B296" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5572,10 +5641,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B297" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5583,10 +5652,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B298" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5594,10 +5663,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B299" t="s">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5605,10 +5674,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B300" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5616,10 +5685,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B301" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5627,10 +5696,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B302" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5638,10 +5707,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B303" t="s">
-        <v>272</v>
+        <v>413</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5649,10 +5718,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B304" t="s">
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5660,10 +5729,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B305" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5671,10 +5740,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B306" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5682,10 +5751,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B307" t="s">
-        <v>433</v>
+        <v>220</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5693,10 +5762,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B308" t="s">
-        <v>435</v>
+        <v>265</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5704,10 +5773,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B309" t="s">
-        <v>437</v>
+        <v>218</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5715,10 +5784,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B310" t="s">
-        <v>439</v>
+        <v>218</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5726,10 +5795,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B311" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5737,10 +5806,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B312" t="s">
-        <v>442</v>
+        <v>216</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5748,10 +5817,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B313" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5759,10 +5828,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B314" t="s">
-        <v>439</v>
+        <v>258</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5770,10 +5839,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B315" t="s">
-        <v>437</v>
+        <v>214</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5781,10 +5850,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B316" t="s">
-        <v>447</v>
+        <v>308</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5792,10 +5861,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B317" t="s">
-        <v>449</v>
+        <v>265</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5806,7 +5875,7 @@
         <v>450</v>
       </c>
       <c r="B318" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5817,7 +5886,7 @@
         <v>451</v>
       </c>
       <c r="B319" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5825,10 +5894,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B320" t="s">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5836,10 +5905,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B321" t="s">
-        <v>455</v>
+        <v>214</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5847,10 +5916,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B322" t="s">
-        <v>447</v>
+        <v>242</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5858,10 +5927,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B323" t="s">
-        <v>458</v>
+        <v>301</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5869,10 +5938,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B324" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5880,10 +5949,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B325" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5891,10 +5960,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B326" t="s">
-        <v>207</v>
+        <v>460</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5902,10 +5971,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B327" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5913,10 +5982,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
+        <v>463</v>
+      </c>
+      <c r="B328" t="s">
         <v>464</v>
-      </c>
-      <c r="B328" t="s">
-        <v>274</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5938,7 +6007,7 @@
         <v>467</v>
       </c>
       <c r="B330" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5946,10 +6015,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B331" t="s">
-        <v>428</v>
+        <v>226</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5957,10 +6026,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B332" t="s">
-        <v>195</v>
+        <v>471</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5968,10 +6037,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B333" t="s">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5979,10 +6048,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B334" t="s">
-        <v>185</v>
+        <v>468</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5990,10 +6059,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B335" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6001,10 +6070,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B336" t="s">
-        <v>193</v>
+        <v>476</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6012,10 +6081,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B337" t="s">
-        <v>240</v>
+        <v>478</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6023,10 +6092,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B338" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6034,10 +6103,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>210</v>
+        <v>481</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6045,10 +6114,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B340" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6056,10 +6125,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>350</v>
+        <v>484</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6067,10 +6136,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B342" t="s">
-        <v>187</v>
+        <v>476</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6078,10 +6147,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B343" t="s">
-        <v>353</v>
+        <v>487</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6089,10 +6158,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B344" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6100,10 +6169,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B345" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6111,10 +6180,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B346" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6122,10 +6191,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B347" t="s">
-        <v>187</v>
+        <v>464</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6133,10 +6202,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B348" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6144,10 +6213,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B349" t="s">
-        <v>384</v>
+        <v>495</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6155,10 +6224,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B350" t="s">
-        <v>240</v>
+        <v>495</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6166,10 +6235,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B351" t="s">
-        <v>240</v>
+        <v>457</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6177,10 +6246,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B352" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6188,10 +6257,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B353" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6199,10 +6268,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B354" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6210,10 +6279,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B355" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6221,10 +6290,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B356" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6232,10 +6301,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B357" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6243,10 +6312,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B358" t="s">
-        <v>428</v>
+        <v>222</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6254,10 +6323,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B359" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6265,10 +6334,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B360" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6276,10 +6345,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B361" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6287,10 +6356,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B362" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6298,10 +6367,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B363" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6309,10 +6378,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B364" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6320,10 +6389,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B365" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6331,10 +6400,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B366" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6342,10 +6411,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B367" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6353,10 +6422,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B368" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6364,10 +6433,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B369" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6375,10 +6444,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B370" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6386,10 +6455,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B371" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6397,10 +6466,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B372" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6408,10 +6477,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B373" t="s">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6419,10 +6488,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B374" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6430,10 +6499,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B375" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6441,10 +6510,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B376" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6452,10 +6521,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B377" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6463,10 +6532,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B378" t="s">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6474,10 +6543,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B379" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6485,10 +6554,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B380" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6496,10 +6565,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B381" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6507,10 +6576,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B382" t="s">
-        <v>521</v>
+        <v>308</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6518,10 +6587,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B383" t="s">
-        <v>523</v>
+        <v>249</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6529,10 +6598,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B384" t="s">
-        <v>525</v>
+        <v>288</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6540,10 +6609,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B385" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6551,10 +6620,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B386" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6562,10 +6631,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B387" t="s">
-        <v>530</v>
+        <v>181</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6573,10 +6642,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B388" t="s">
-        <v>530</v>
+        <v>181</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6584,10 +6653,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B389" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6595,10 +6664,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B390" t="s">
-        <v>534</v>
+        <v>363</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6606,10 +6675,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B391" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6617,10 +6686,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B392" t="s">
-        <v>537</v>
+        <v>154</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6628,10 +6697,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B393" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6639,10 +6708,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B394" t="s">
-        <v>541</v>
+        <v>318</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6653,7 +6722,7 @@
         <v>542</v>
       </c>
       <c r="B395" t="s">
-        <v>541</v>
+        <v>189</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6664,7 +6733,7 @@
         <v>543</v>
       </c>
       <c r="B396" t="s">
-        <v>544</v>
+        <v>187</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6672,10 +6741,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B397" t="s">
-        <v>546</v>
+        <v>194</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6683,10 +6752,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B398" t="s">
-        <v>548</v>
+        <v>199</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6694,10 +6763,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B399" t="s">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6705,10 +6774,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B400" t="s">
-        <v>552</v>
+        <v>167</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6716,10 +6785,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B401" t="s">
-        <v>544</v>
+        <v>140</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6727,10 +6796,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B402" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6738,10 +6807,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B403" t="s">
-        <v>89</v>
+        <v>552</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6749,10 +6818,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B404" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6760,10 +6829,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B405" t="s">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6771,10 +6840,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B406" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6782,10 +6851,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B407" t="s">
-        <v>63</v>
+        <v>559</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6793,10 +6862,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B408" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6804,10 +6873,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B409" t="s">
-        <v>565</v>
+        <v>162</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6815,10 +6884,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B410" t="s">
-        <v>69</v>
+        <v>563</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6826,10 +6895,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B411" t="s">
-        <v>568</v>
+        <v>146</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6837,10 +6906,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>67</v>
+        <v>566</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6848,10 +6917,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B413" t="s">
-        <v>71</v>
+        <v>568</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6859,10 +6928,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B414" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6870,10 +6939,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B415" t="s">
-        <v>45</v>
+        <v>570</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6881,10 +6950,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B416" t="s">
-        <v>51</v>
+        <v>573</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6892,10 +6961,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
+        <v>574</v>
+      </c>
+      <c r="B417" t="s">
         <v>575</v>
-      </c>
-      <c r="B417" t="s">
-        <v>47</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6917,7 +6986,7 @@
         <v>578</v>
       </c>
       <c r="B419" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6925,10 +6994,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B420" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6936,10 +7005,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B421" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6947,10 +7016,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B422" t="s">
-        <v>14</v>
+        <v>584</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6958,10 +7027,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B423" t="s">
-        <v>581</v>
+        <v>118</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6969,10 +7038,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B424" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6980,10 +7049,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B425" t="s">
-        <v>585</v>
+        <v>122</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6991,10 +7060,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B426" t="s">
-        <v>45</v>
+        <v>590</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7002,10 +7071,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B427" t="s">
-        <v>589</v>
+        <v>94</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7013,10 +7082,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B428" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7024,10 +7093,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B429" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7035,10 +7104,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B430" t="s">
-        <v>594</v>
+        <v>100</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7046,10 +7115,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B431" t="s">
-        <v>596</v>
+        <v>18</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7060,7 +7129,7 @@
         <v>597</v>
       </c>
       <c r="B432" t="s">
-        <v>548</v>
+        <v>98</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7071,7 +7140,7 @@
         <v>598</v>
       </c>
       <c r="B433" t="s">
-        <v>599</v>
+        <v>102</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7079,10 +7148,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B434" t="s">
-        <v>601</v>
+        <v>39</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7090,10 +7159,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B435" t="s">
-        <v>603</v>
+        <v>14</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7101,10 +7170,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B436" t="s">
-        <v>605</v>
+        <v>82</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7112,10 +7181,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B437" t="s">
-        <v>607</v>
+        <v>78</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7123,10 +7192,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B438" t="s">
-        <v>93</v>
+        <v>604</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7134,10 +7203,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B439" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7145,10 +7214,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B440" t="s">
-        <v>612</v>
+        <v>54</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7156,10 +7225,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B441" t="s">
-        <v>91</v>
+        <v>608</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7167,10 +7236,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B442" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7178,10 +7247,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B443" t="s">
-        <v>85</v>
+        <v>608</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7189,10 +7258,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B444" t="s">
-        <v>85</v>
+        <v>612</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7200,10 +7269,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B445" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7211,10 +7280,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B446" t="s">
-        <v>619</v>
+        <v>14</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7222,10 +7291,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B447" t="s">
-        <v>558</v>
+        <v>30</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7233,10 +7302,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B448" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7244,10 +7313,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B449" t="s">
-        <v>623</v>
+        <v>36</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7255,10 +7324,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B450" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7266,10 +7335,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B451" t="s">
-        <v>627</v>
+        <v>34</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7277,10 +7346,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B452" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7288,10 +7357,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B453" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7299,10 +7368,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B454" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7310,10 +7379,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B455" t="s">
-        <v>623</v>
+        <v>20</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7321,10 +7390,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B456" t="s">
-        <v>95</v>
+        <v>628</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7332,10 +7401,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B457" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7343,10 +7412,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B458" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7354,10 +7423,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B459" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7365,10 +7434,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B460" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7376,10 +7445,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B461" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7387,10 +7456,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B462" t="s">
-        <v>544</v>
+        <v>120</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7398,10 +7467,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B463" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7409,10 +7478,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B464" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7420,10 +7489,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B465" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7431,10 +7500,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B466" t="s">
-        <v>12</v>
+        <v>642</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7442,10 +7511,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B467" t="s">
-        <v>41</v>
+        <v>587</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7453,10 +7522,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B468" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7464,10 +7533,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B469" t="s">
-        <v>10</v>
+        <v>646</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7475,10 +7544,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
+        <v>647</v>
+      </c>
+      <c r="B470" t="s">
         <v>648</v>
-      </c>
-      <c r="B470" t="s">
-        <v>14</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7500,7 +7569,7 @@
         <v>651</v>
       </c>
       <c r="B472" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7511,7 +7580,7 @@
         <v>652</v>
       </c>
       <c r="B473" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7519,10 +7588,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
+        <v>653</v>
+      </c>
+      <c r="B474" t="s">
         <v>654</v>
-      </c>
-      <c r="B474" t="s">
-        <v>653</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7533,7 +7602,7 @@
         <v>655</v>
       </c>
       <c r="B475" t="s">
-        <v>38</v>
+        <v>646</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7544,9 +7613,229 @@
         <v>656</v>
       </c>
       <c r="B476" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>657</v>
+      </c>
+      <c r="B477" t="s">
+        <v>587</v>
+      </c>
+      <c r="C477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>658</v>
+      </c>
+      <c r="B478" t="s">
+        <v>132</v>
+      </c>
+      <c r="C478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>659</v>
+      </c>
+      <c r="B479" t="s">
+        <v>587</v>
+      </c>
+      <c r="C479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>660</v>
+      </c>
+      <c r="B480" t="s">
+        <v>661</v>
+      </c>
+      <c r="C480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>662</v>
+      </c>
+      <c r="B481" t="s">
+        <v>132</v>
+      </c>
+      <c r="C481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>663</v>
+      </c>
+      <c r="B482" t="s">
+        <v>573</v>
+      </c>
+      <c r="C482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>664</v>
+      </c>
+      <c r="B483" t="s">
+        <v>26</v>
+      </c>
+      <c r="C483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>665</v>
+      </c>
+      <c r="B484" t="s">
+        <v>89</v>
+      </c>
+      <c r="C484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>666</v>
+      </c>
+      <c r="B485" t="s">
+        <v>4</v>
+      </c>
+      <c r="C485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>667</v>
+      </c>
+      <c r="B486" t="s">
+        <v>9</v>
+      </c>
+      <c r="C486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>668</v>
+      </c>
+      <c r="B487" t="s">
+        <v>4</v>
+      </c>
+      <c r="C487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>669</v>
+      </c>
+      <c r="B488" t="s">
+        <v>70</v>
+      </c>
+      <c r="C488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>670</v>
+      </c>
+      <c r="B489" t="s">
+        <v>46</v>
+      </c>
+      <c r="C489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>671</v>
+      </c>
+      <c r="B490" t="s">
+        <v>49</v>
+      </c>
+      <c r="C490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>672</v>
+      </c>
+      <c r="B491" t="s">
+        <v>673</v>
+      </c>
+      <c r="C491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>674</v>
+      </c>
+      <c r="B492" t="s">
+        <v>70</v>
+      </c>
+      <c r="C492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>675</v>
+      </c>
+      <c r="B493" t="s">
+        <v>676</v>
+      </c>
+      <c r="C493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>677</v>
+      </c>
+      <c r="B494" t="s">
+        <v>676</v>
+      </c>
+      <c r="C494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>678</v>
+      </c>
+      <c r="B495" t="s">
+        <v>28</v>
+      </c>
+      <c r="C495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>679</v>
+      </c>
+      <c r="B496" t="s">
+        <v>28</v>
+      </c>
+      <c r="C496" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid905499"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid529033"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
     <t>13/05/2024</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
@@ -53,9 +143,6 @@
     <t>07/05/2024</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
     <t>06/05/2024</t>
   </si>
   <si>
@@ -164,9 +251,6 @@
     <t>04/04/2024</t>
   </si>
   <si>
-    <t>0.959</t>
-  </si>
-  <si>
     <t>03/04/2024</t>
   </si>
   <si>
@@ -179,21 +263,12 @@
     <t>01/04/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>28/03/2024</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>27/03/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>26/03/2024</t>
   </si>
   <si>
@@ -218,9 +293,6 @@
     <t>20/03/2024</t>
   </si>
   <si>
-    <t>0.976</t>
-  </si>
-  <si>
     <t>19/03/2024</t>
   </si>
   <si>
@@ -263,13 +335,7 @@
     <t>04/03/2024</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>01/03/2024</t>
-  </si>
-  <si>
-    <t>0.972</t>
   </si>
   <si>
     <t>29/02/2024</t>
@@ -2432,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2440,10 +2506,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2451,10 +2517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2462,10 +2528,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2473,10 +2539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2484,10 +2550,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2509,7 +2575,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2517,10 +2583,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2528,10 +2594,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2539,10 +2605,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2550,10 +2616,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2561,10 +2627,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2572,10 +2638,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2583,10 +2649,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2594,10 +2660,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2605,10 +2671,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2616,10 +2682,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2627,10 +2693,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2638,10 +2704,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2649,10 +2715,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2660,10 +2726,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2671,10 +2737,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2682,10 +2748,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2693,10 +2759,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2704,10 +2770,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2715,10 +2781,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2726,10 +2792,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2737,10 +2803,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2748,10 +2814,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2759,10 +2825,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2770,10 +2836,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2781,10 +2847,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2792,10 +2858,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2803,10 +2869,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2814,10 +2880,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2825,10 +2891,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2836,10 +2902,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2847,10 +2913,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2858,10 +2924,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
         <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2872,7 +2938,7 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2883,7 +2949,7 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2891,10 +2957,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2902,10 +2968,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
         <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2916,7 +2982,7 @@
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2924,10 +2990,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2935,10 +3001,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2946,10 +3012,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2957,10 +3023,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2968,10 +3034,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2979,10 +3045,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2990,10 +3056,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3001,10 +3067,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3012,10 +3078,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3023,10 +3089,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3034,10 +3100,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3045,10 +3111,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3056,10 +3122,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3067,10 +3133,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3078,10 +3144,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3089,10 +3155,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3100,10 +3166,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3111,10 +3177,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3122,10 +3188,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3133,10 +3199,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3144,10 +3210,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3155,10 +3221,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3166,10 +3232,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3177,10 +3243,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3188,10 +3254,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3199,10 +3265,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3210,10 +3276,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3221,10 +3287,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3232,10 +3298,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3243,10 +3309,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3254,10 +3320,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3265,10 +3331,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3276,10 +3342,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3287,10 +3353,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3298,10 +3364,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3309,10 +3375,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3320,10 +3386,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3331,10 +3397,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3342,10 +3408,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3353,10 +3419,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3364,10 +3430,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3375,10 +3441,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3386,10 +3452,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3397,10 +3463,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3408,10 +3474,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3419,10 +3485,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3430,10 +3496,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3441,10 +3507,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3452,10 +3518,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3463,10 +3529,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3474,10 +3540,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3485,10 +3551,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3496,10 +3562,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3507,10 +3573,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3518,10 +3584,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3529,10 +3595,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3540,10 +3606,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3551,10 +3617,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3562,10 +3628,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3573,10 +3639,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3584,10 +3650,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3595,10 +3661,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3606,10 +3672,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3617,10 +3683,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3628,10 +3694,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3639,10 +3705,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3650,10 +3716,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3661,10 +3727,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3672,10 +3738,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3683,10 +3749,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3694,10 +3760,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3705,10 +3771,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3716,10 +3782,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3727,10 +3793,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B123" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3738,10 +3804,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3749,10 +3815,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3760,10 +3826,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3771,10 +3837,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3782,10 +3848,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3793,10 +3859,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3804,10 +3870,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3815,10 +3881,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3826,10 +3892,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3837,10 +3903,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3848,10 +3914,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3859,10 +3925,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3870,10 +3936,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3881,10 +3947,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3892,10 +3958,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3903,10 +3969,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3914,10 +3980,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3925,10 +3991,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3936,10 +4002,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B142" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3947,10 +4013,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3958,10 +4024,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3969,10 +4035,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B145" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3980,10 +4046,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B146" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3991,10 +4057,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4002,10 +4068,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4013,10 +4079,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B149" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4024,10 +4090,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4035,10 +4101,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4046,10 +4112,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4057,10 +4123,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4068,10 +4134,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4079,10 +4145,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4090,10 +4156,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4101,10 +4167,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4112,10 +4178,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4123,10 +4189,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B159" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4134,10 +4200,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4145,10 +4211,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4156,10 +4222,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4167,10 +4233,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4178,10 +4244,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4189,10 +4255,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4200,10 +4266,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4211,10 +4277,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B167" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4222,10 +4288,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B168" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4233,10 +4299,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4244,10 +4310,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4255,10 +4321,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4266,10 +4332,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B172" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4277,10 +4343,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4288,10 +4354,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4299,10 +4365,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4310,10 +4376,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4321,10 +4387,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B177" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4332,10 +4398,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B178" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4343,10 +4409,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4354,10 +4420,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B180" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4365,10 +4431,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4376,10 +4442,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4387,10 +4453,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B183" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4398,10 +4464,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B184" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4409,10 +4475,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B185" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4420,10 +4486,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B186" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4431,10 +4497,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B187" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4442,10 +4508,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B188" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4453,10 +4519,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4464,10 +4530,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4475,10 +4541,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4486,10 +4552,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B192" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4497,10 +4563,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B193" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4508,10 +4574,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B194" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4519,10 +4585,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4530,10 +4596,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B196" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4541,10 +4607,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B197" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4552,10 +4618,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B198" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4563,10 +4629,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B199" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4574,10 +4640,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B200" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4585,10 +4651,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B201" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4596,10 +4662,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B202" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4607,10 +4673,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4618,10 +4684,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>324</v>
+      </c>
+      <c r="B204" t="s">
         <v>325</v>
-      </c>
-      <c r="B204" t="s">
-        <v>275</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4632,7 +4698,7 @@
         <v>326</v>
       </c>
       <c r="B205" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4643,7 +4709,7 @@
         <v>327</v>
       </c>
       <c r="B206" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4651,10 +4717,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B207" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4662,10 +4728,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B208" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4673,10 +4739,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4684,10 +4750,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B210" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4695,10 +4761,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B211" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4706,10 +4772,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B212" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4717,10 +4783,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B213" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4728,10 +4794,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B214" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4739,10 +4805,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B215" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4750,10 +4816,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B216" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4761,10 +4827,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B217" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4772,10 +4838,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B218" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4783,10 +4849,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B219" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4794,10 +4860,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B220" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4805,10 +4871,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B221" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4816,10 +4882,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B222" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4827,10 +4893,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B223" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4838,10 +4904,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B224" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4849,10 +4915,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B225" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4860,10 +4926,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B226" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4874,7 +4940,7 @@
         <v>351</v>
       </c>
       <c r="B227" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4882,10 +4948,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B228" t="s">
-        <v>162</v>
+        <v>310</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4893,10 +4959,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B229" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4904,10 +4970,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B230" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4915,10 +4981,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B231" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4926,10 +4992,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B232" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4937,10 +5003,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B233" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4948,10 +5014,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B234" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4959,10 +5025,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4970,10 +5036,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B236" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4981,10 +5047,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>361</v>
+      </c>
+      <c r="B237" t="s">
         <v>362</v>
-      </c>
-      <c r="B237" t="s">
-        <v>363</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4992,10 +5058,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>363</v>
+      </c>
+      <c r="B238" t="s">
         <v>364</v>
-      </c>
-      <c r="B238" t="s">
-        <v>207</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5006,7 +5072,7 @@
         <v>365</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5017,7 +5083,7 @@
         <v>366</v>
       </c>
       <c r="B240" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5028,7 +5094,7 @@
         <v>367</v>
       </c>
       <c r="B241" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5039,7 +5105,7 @@
         <v>368</v>
       </c>
       <c r="B242" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5050,7 +5116,7 @@
         <v>369</v>
       </c>
       <c r="B243" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5061,7 +5127,7 @@
         <v>370</v>
       </c>
       <c r="B244" t="s">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5072,7 +5138,7 @@
         <v>371</v>
       </c>
       <c r="B245" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5080,10 +5146,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B246" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5091,10 +5157,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B247" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5102,10 +5168,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>376</v>
+      </c>
+      <c r="B248" t="s">
         <v>374</v>
-      </c>
-      <c r="B248" t="s">
-        <v>290</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5113,10 +5179,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B249" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5124,10 +5190,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B250" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5135,10 +5201,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B251" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5146,10 +5212,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B252" t="s">
-        <v>379</v>
+        <v>207</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5157,10 +5223,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B253" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5168,10 +5234,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B254" t="s">
-        <v>382</v>
+        <v>205</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5182,7 +5248,7 @@
         <v>383</v>
       </c>
       <c r="B255" t="s">
-        <v>382</v>
+        <v>205</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5193,7 +5259,7 @@
         <v>384</v>
       </c>
       <c r="B256" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5201,10 +5267,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B257" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5212,10 +5278,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B258" t="s">
-        <v>379</v>
+        <v>297</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5223,10 +5289,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B259" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5234,10 +5300,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B260" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5245,10 +5311,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5256,10 +5322,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B262" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5267,10 +5333,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B263" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5278,10 +5344,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B264" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5289,10 +5355,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B265" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5300,10 +5366,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B266" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5311,10 +5377,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B267" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5322,10 +5388,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B268" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5333,10 +5399,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B269" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5344,10 +5410,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B270" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5355,10 +5421,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B271" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5366,10 +5432,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B272" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5377,10 +5443,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B273" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5388,10 +5454,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B274" t="s">
-        <v>191</v>
+        <v>404</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5399,10 +5465,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B275" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5410,10 +5476,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B276" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5421,10 +5487,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B277" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5432,10 +5498,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5443,10 +5509,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B279" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5454,10 +5520,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B280" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5465,10 +5531,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B281" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5476,10 +5542,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B282" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5487,10 +5553,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5498,10 +5564,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B284" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5509,10 +5575,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B285" t="s">
-        <v>415</v>
+        <v>211</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5520,10 +5586,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B286" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5531,10 +5597,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B287" t="s">
-        <v>418</v>
+        <v>229</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5545,7 +5611,7 @@
         <v>419</v>
       </c>
       <c r="B288" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5556,7 +5622,7 @@
         <v>420</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5567,7 +5633,7 @@
         <v>421</v>
       </c>
       <c r="B290" t="s">
-        <v>422</v>
+        <v>306</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5575,10 +5641,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B291" t="s">
-        <v>418</v>
+        <v>211</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5586,10 +5652,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B292" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5597,10 +5663,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B293" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5608,10 +5674,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B294" t="s">
-        <v>265</v>
+        <v>401</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5619,10 +5685,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B295" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5630,10 +5696,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B296" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5641,10 +5707,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B297" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5652,10 +5718,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B298" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5663,10 +5729,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B299" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5674,10 +5740,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B300" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5685,10 +5751,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B301" t="s">
-        <v>216</v>
+        <v>404</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5696,10 +5762,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B302" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5707,10 +5773,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
+        <v>434</v>
+      </c>
+      <c r="B303" t="s">
         <v>435</v>
-      </c>
-      <c r="B303" t="s">
-        <v>413</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5721,7 +5787,7 @@
         <v>436</v>
       </c>
       <c r="B304" t="s">
-        <v>218</v>
+        <v>437</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5729,10 +5795,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5740,10 +5806,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B306" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5751,10 +5817,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B307" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5762,10 +5828,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B308" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5773,10 +5839,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B309" t="s">
-        <v>218</v>
+        <v>444</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5784,10 +5850,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B310" t="s">
-        <v>218</v>
+        <v>440</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5795,10 +5861,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B311" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5806,10 +5872,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B312" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5817,10 +5883,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B313" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5828,10 +5894,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B314" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5839,10 +5905,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B315" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5850,10 +5916,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B316" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5861,10 +5927,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B317" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5872,10 +5938,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B318" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5883,10 +5949,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B319" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5894,10 +5960,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B320" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5905,10 +5971,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B321" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5916,10 +5982,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B322" t="s">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5927,10 +5993,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B323" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5938,10 +6004,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B324" t="s">
-        <v>457</v>
+        <v>330</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5949,10 +6015,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B325" t="s">
-        <v>224</v>
+        <v>435</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5960,10 +6026,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B326" t="s">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5971,10 +6037,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B327" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5985,7 +6051,7 @@
         <v>463</v>
       </c>
       <c r="B328" t="s">
-        <v>464</v>
+        <v>240</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5993,10 +6059,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B329" t="s">
-        <v>466</v>
+        <v>240</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6004,10 +6070,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B330" t="s">
-        <v>468</v>
+        <v>266</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6015,10 +6081,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B331" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6026,10 +6092,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B332" t="s">
-        <v>471</v>
+        <v>330</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6037,10 +6103,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B333" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6048,10 +6114,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B334" t="s">
-        <v>468</v>
+        <v>236</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6059,10 +6125,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B335" t="s">
-        <v>466</v>
+        <v>330</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6070,10 +6136,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B336" t="s">
-        <v>476</v>
+        <v>287</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6081,10 +6147,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B337" t="s">
-        <v>478</v>
+        <v>236</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6092,10 +6158,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B338" t="s">
-        <v>236</v>
+        <v>437</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6103,10 +6169,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B339" t="s">
-        <v>481</v>
+        <v>330</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6114,7 +6180,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B340" t="s">
         <v>236</v>
@@ -6125,10 +6191,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B341" t="s">
-        <v>484</v>
+        <v>264</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6136,10 +6202,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B342" t="s">
-        <v>476</v>
+        <v>323</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6147,10 +6213,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B343" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6158,10 +6224,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B344" t="s">
-        <v>489</v>
+        <v>246</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6169,10 +6235,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B345" t="s">
-        <v>232</v>
+        <v>482</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6180,10 +6246,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B346" t="s">
-        <v>236</v>
+        <v>484</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6191,10 +6257,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B347" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6202,10 +6268,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B348" t="s">
-        <v>303</v>
+        <v>488</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6213,10 +6279,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B349" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6224,10 +6290,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B350" t="s">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6235,10 +6301,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B351" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6246,10 +6312,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B352" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6257,10 +6323,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B353" t="s">
-        <v>413</v>
+        <v>490</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6268,10 +6334,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B354" t="s">
-        <v>214</v>
+        <v>488</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6279,10 +6345,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B355" t="s">
-        <v>413</v>
+        <v>498</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6290,10 +6356,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B356" t="s">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6301,10 +6367,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6312,10 +6378,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B358" t="s">
-        <v>222</v>
+        <v>503</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6323,10 +6389,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B359" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6334,10 +6400,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
+        <v>505</v>
+      </c>
+      <c r="B360" t="s">
         <v>506</v>
-      </c>
-      <c r="B360" t="s">
-        <v>306</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6348,7 +6414,7 @@
         <v>507</v>
       </c>
       <c r="B361" t="s">
-        <v>379</v>
+        <v>498</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6359,7 +6425,7 @@
         <v>508</v>
       </c>
       <c r="B362" t="s">
-        <v>216</v>
+        <v>509</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6367,10 +6433,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B363" t="s">
-        <v>382</v>
+        <v>511</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6378,10 +6444,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B364" t="s">
-        <v>418</v>
+        <v>254</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6389,10 +6455,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B365" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6400,10 +6466,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B366" t="s">
-        <v>244</v>
+        <v>486</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6411,10 +6477,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B367" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6422,10 +6488,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B368" t="s">
-        <v>216</v>
+        <v>517</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6433,10 +6499,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B369" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6444,10 +6510,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B370" t="s">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6455,10 +6521,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B371" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6466,10 +6532,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B372" t="s">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6477,10 +6543,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B373" t="s">
-        <v>413</v>
+        <v>236</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6488,10 +6554,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B374" t="s">
-        <v>253</v>
+        <v>435</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6499,10 +6565,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B375" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6510,10 +6576,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B376" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6521,10 +6587,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B377" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6532,10 +6598,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B378" t="s">
-        <v>457</v>
+        <v>261</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6543,10 +6609,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B379" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6554,10 +6620,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B380" t="s">
-        <v>222</v>
+        <v>401</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6565,10 +6631,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B381" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6576,10 +6642,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B382" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6587,10 +6653,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B383" t="s">
-        <v>249</v>
+        <v>440</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6598,10 +6664,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B384" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6609,10 +6675,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B385" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6620,10 +6686,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B386" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6631,10 +6697,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B387" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6642,10 +6708,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B388" t="s">
-        <v>181</v>
+        <v>435</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6653,10 +6719,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B389" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6664,10 +6730,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B390" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6675,10 +6741,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B391" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6686,10 +6752,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B392" t="s">
-        <v>154</v>
+        <v>435</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6697,10 +6763,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B393" t="s">
-        <v>540</v>
+        <v>275</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6708,10 +6774,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B394" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6719,10 +6785,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B395" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6730,10 +6796,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B396" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6741,10 +6807,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B397" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6752,10 +6818,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B398" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6763,10 +6829,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B399" t="s">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6774,10 +6840,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B400" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6785,10 +6851,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B401" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6796,10 +6862,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B402" t="s">
-        <v>550</v>
+        <v>271</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6807,10 +6873,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B403" t="s">
-        <v>552</v>
+        <v>310</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6821,7 +6887,7 @@
         <v>553</v>
       </c>
       <c r="B404" t="s">
-        <v>554</v>
+        <v>310</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6829,10 +6895,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B405" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6840,10 +6906,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B406" t="s">
-        <v>557</v>
+        <v>203</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6851,10 +6917,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B407" t="s">
-        <v>559</v>
+        <v>203</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6862,10 +6928,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B408" t="s">
-        <v>559</v>
+        <v>372</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6873,10 +6939,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B409" t="s">
-        <v>162</v>
+        <v>385</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6884,10 +6950,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B410" t="s">
-        <v>563</v>
+        <v>306</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6895,10 +6961,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B411" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6906,10 +6972,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B412" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6917,10 +6983,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B413" t="s">
-        <v>568</v>
+        <v>340</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6928,10 +6994,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B414" t="s">
-        <v>570</v>
+        <v>211</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6939,10 +7005,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>570</v>
+        <v>209</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6950,10 +7016,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B416" t="s">
-        <v>573</v>
+        <v>216</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6961,10 +7027,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B417" t="s">
-        <v>575</v>
+        <v>221</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6972,10 +7038,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B418" t="s">
-        <v>577</v>
+        <v>372</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6983,10 +7049,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B419" t="s">
-        <v>579</v>
+        <v>189</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6994,10 +7060,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B420" t="s">
-        <v>581</v>
+        <v>162</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7005,10 +7071,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B421" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7016,10 +7082,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B422" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7027,10 +7093,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B423" t="s">
-        <v>118</v>
+        <v>576</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7038,10 +7104,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B424" t="s">
-        <v>587</v>
+        <v>362</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7049,10 +7115,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B425" t="s">
-        <v>122</v>
+        <v>579</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7060,10 +7126,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B426" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7071,10 +7137,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B427" t="s">
-        <v>94</v>
+        <v>581</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7082,10 +7148,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B428" t="s">
-        <v>581</v>
+        <v>184</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7093,10 +7159,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B429" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7104,10 +7170,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B430" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7115,10 +7181,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B431" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7126,10 +7192,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B432" t="s">
-        <v>98</v>
+        <v>590</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7137,10 +7203,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B433" t="s">
-        <v>102</v>
+        <v>592</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7148,10 +7214,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B434" t="s">
-        <v>39</v>
+        <v>592</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7159,10 +7225,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B435" t="s">
-        <v>14</v>
+        <v>595</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7170,10 +7236,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B436" t="s">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7181,10 +7247,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B437" t="s">
-        <v>78</v>
+        <v>599</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7192,10 +7258,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B438" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7203,10 +7269,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B439" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7214,10 +7280,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B440" t="s">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7225,10 +7291,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B441" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7236,10 +7302,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B442" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7247,10 +7313,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B443" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7258,10 +7324,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B444" t="s">
-        <v>612</v>
+        <v>144</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7269,7 +7335,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B445" t="s">
         <v>612</v>
@@ -7280,10 +7346,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B446" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7291,10 +7357,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B447" t="s">
-        <v>30</v>
+        <v>603</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7302,10 +7368,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
+        <v>615</v>
+      </c>
+      <c r="B448" t="s">
         <v>616</v>
-      </c>
-      <c r="B448" t="s">
-        <v>30</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7316,7 +7382,7 @@
         <v>617</v>
       </c>
       <c r="B449" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7327,7 +7393,7 @@
         <v>618</v>
       </c>
       <c r="B450" t="s">
-        <v>619</v>
+        <v>47</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7335,10 +7401,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B451" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7346,10 +7412,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B452" t="s">
-        <v>577</v>
+        <v>124</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7357,10 +7423,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B453" t="s">
-        <v>623</v>
+        <v>68</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7368,10 +7434,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B454" t="s">
-        <v>625</v>
+        <v>43</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7379,10 +7445,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B455" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7390,10 +7456,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B456" t="s">
-        <v>628</v>
+        <v>102</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7401,10 +7467,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B457" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7412,10 +7478,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B458" t="s">
-        <v>122</v>
+        <v>626</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7423,10 +7489,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B459" t="s">
-        <v>633</v>
+        <v>4</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7434,10 +7500,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B460" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7445,10 +7511,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B461" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7456,10 +7522,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B462" t="s">
-        <v>120</v>
+        <v>630</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7467,10 +7533,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B463" t="s">
-        <v>114</v>
+        <v>634</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7478,10 +7544,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B464" t="s">
-        <v>114</v>
+        <v>634</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7489,10 +7555,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B465" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7500,10 +7566,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B466" t="s">
-        <v>642</v>
+        <v>59</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7511,10 +7577,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B467" t="s">
-        <v>587</v>
+        <v>59</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7522,10 +7588,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B468" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7533,10 +7599,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B469" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7544,10 +7610,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B470" t="s">
-        <v>648</v>
+        <v>63</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7555,10 +7621,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B471" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7566,10 +7632,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B472" t="s">
-        <v>34</v>
+        <v>645</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7577,10 +7643,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B473" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7588,10 +7654,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B474" t="s">
-        <v>654</v>
+        <v>49</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7599,10 +7665,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B475" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7610,10 +7676,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B476" t="s">
-        <v>124</v>
+        <v>652</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7621,10 +7687,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B477" t="s">
-        <v>587</v>
+        <v>144</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7632,10 +7698,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B478" t="s">
-        <v>132</v>
+        <v>655</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7643,10 +7709,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B479" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7654,10 +7720,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B480" t="s">
-        <v>661</v>
+        <v>142</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7665,10 +7731,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B481" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7676,10 +7742,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B482" t="s">
-        <v>573</v>
+        <v>136</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7687,10 +7753,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B483" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7698,10 +7764,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B484" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7709,10 +7775,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B485" t="s">
-        <v>4</v>
+        <v>664</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7720,10 +7786,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B486" t="s">
-        <v>9</v>
+        <v>609</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7731,10 +7797,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B487" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7742,10 +7808,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B488" t="s">
-        <v>70</v>
+        <v>668</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7753,10 +7819,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
+        <v>669</v>
+      </c>
+      <c r="B489" t="s">
         <v>670</v>
-      </c>
-      <c r="B489" t="s">
-        <v>46</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7767,7 +7833,7 @@
         <v>671</v>
       </c>
       <c r="B490" t="s">
-        <v>49</v>
+        <v>672</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7775,10 +7841,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B491" t="s">
-        <v>673</v>
+        <v>63</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7789,7 +7855,7 @@
         <v>674</v>
       </c>
       <c r="B492" t="s">
-        <v>70</v>
+        <v>672</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7811,7 +7877,7 @@
         <v>677</v>
       </c>
       <c r="B494" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7822,7 +7888,7 @@
         <v>678</v>
       </c>
       <c r="B495" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7833,9 +7899,218 @@
         <v>679</v>
       </c>
       <c r="B496" t="s">
-        <v>28</v>
+        <v>609</v>
       </c>
       <c r="C496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>680</v>
+      </c>
+      <c r="B497" t="s">
+        <v>154</v>
+      </c>
+      <c r="C497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>681</v>
+      </c>
+      <c r="B498" t="s">
+        <v>609</v>
+      </c>
+      <c r="C498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>682</v>
+      </c>
+      <c r="B499" t="s">
+        <v>683</v>
+      </c>
+      <c r="C499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>684</v>
+      </c>
+      <c r="B500" t="s">
+        <v>154</v>
+      </c>
+      <c r="C500" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>685</v>
+      </c>
+      <c r="B501" t="s">
+        <v>595</v>
+      </c>
+      <c r="C501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>686</v>
+      </c>
+      <c r="B502" t="s">
+        <v>55</v>
+      </c>
+      <c r="C502" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>687</v>
+      </c>
+      <c r="B503" t="s">
+        <v>111</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>688</v>
+      </c>
+      <c r="B504" t="s">
+        <v>15</v>
+      </c>
+      <c r="C504" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>689</v>
+      </c>
+      <c r="B505" t="s">
+        <v>39</v>
+      </c>
+      <c r="C505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>690</v>
+      </c>
+      <c r="B506" t="s">
+        <v>15</v>
+      </c>
+      <c r="C506" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>691</v>
+      </c>
+      <c r="B507" t="s">
+        <v>94</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>692</v>
+      </c>
+      <c r="B508" t="s">
+        <v>75</v>
+      </c>
+      <c r="C508" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>693</v>
+      </c>
+      <c r="B509" t="s">
+        <v>19</v>
+      </c>
+      <c r="C509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>694</v>
+      </c>
+      <c r="B510" t="s">
+        <v>695</v>
+      </c>
+      <c r="C510" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>696</v>
+      </c>
+      <c r="B511" t="s">
+        <v>94</v>
+      </c>
+      <c r="C511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>697</v>
+      </c>
+      <c r="B512" t="s">
+        <v>698</v>
+      </c>
+      <c r="C512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>699</v>
+      </c>
+      <c r="B513" t="s">
+        <v>698</v>
+      </c>
+      <c r="C513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>700</v>
+      </c>
+      <c r="B514" t="s">
+        <v>57</v>
+      </c>
+      <c r="C514" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>701</v>
+      </c>
+      <c r="B515" t="s">
+        <v>57</v>
+      </c>
+      <c r="C515" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid529033"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid553028"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,93 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
     <t>10/06/2024</t>
   </si>
   <si>
     <t>0.980</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -1893,9 +1971,6 @@
   </si>
   <si>
     <t>16/08/2022</t>
-  </si>
-  <si>
-    <t>0.986</t>
   </si>
   <si>
     <t>15/08/2022</t>
@@ -2498,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2506,10 +2581,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2517,10 +2592,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2528,10 +2603,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2539,10 +2614,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2550,10 +2625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2561,10 +2636,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2572,10 +2647,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2586,7 +2661,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2594,10 +2669,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2605,10 +2680,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2616,10 +2691,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2627,10 +2702,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2638,10 +2713,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2649,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2660,10 +2735,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2671,10 +2746,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2682,10 +2757,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2693,10 +2768,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2704,10 +2779,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2715,10 +2790,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2726,10 +2801,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2737,10 +2812,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2748,10 +2823,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2759,10 +2834,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2770,10 +2845,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2781,10 +2856,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2792,10 +2867,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2803,10 +2878,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2814,10 +2889,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2825,10 +2900,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2861,7 +2936,7 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2872,7 +2947,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2880,10 +2955,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2905,7 +2980,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2913,10 +2988,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2924,10 +2999,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2935,10 +3010,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2946,10 +3021,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2957,10 +3032,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2968,10 +3043,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2979,10 +3054,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2990,10 +3065,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3001,10 +3076,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3012,10 +3087,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3023,10 +3098,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3034,10 +3109,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3045,10 +3120,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3056,10 +3131,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3067,10 +3142,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3078,10 +3153,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3089,10 +3164,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3100,10 +3175,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3111,10 +3186,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3122,10 +3197,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3133,10 +3208,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3144,10 +3219,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3155,10 +3230,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3166,10 +3241,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3177,10 +3252,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3188,10 +3263,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3199,10 +3274,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3210,10 +3285,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3221,10 +3296,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3232,10 +3307,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3243,10 +3318,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3254,10 +3329,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3265,10 +3340,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3276,10 +3351,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3287,10 +3362,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3298,10 +3373,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3309,10 +3384,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3320,10 +3395,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3331,10 +3406,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3342,10 +3417,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3353,10 +3428,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3364,10 +3439,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3375,10 +3450,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3386,10 +3461,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3397,10 +3472,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3408,10 +3483,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3419,10 +3494,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3488,7 +3563,7 @@
         <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3496,10 +3571,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
         <v>153</v>
-      </c>
-      <c r="B96" t="s">
-        <v>154</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3507,10 +3582,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3518,10 +3593,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
         <v>156</v>
-      </c>
-      <c r="B98" t="s">
-        <v>142</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3664,7 +3739,7 @@
         <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3672,10 +3747,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3683,10 +3758,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3694,10 +3769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3705,10 +3780,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" t="s">
         <v>188</v>
-      </c>
-      <c r="B115" t="s">
-        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3716,10 +3791,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" t="s">
         <v>190</v>
-      </c>
-      <c r="B116" t="s">
-        <v>191</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3727,10 +3802,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
         <v>192</v>
-      </c>
-      <c r="B117" t="s">
-        <v>193</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3738,10 +3813,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" t="s">
         <v>194</v>
-      </c>
-      <c r="B118" t="s">
-        <v>182</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3752,7 +3827,7 @@
         <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3760,10 +3835,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3771,10 +3846,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3782,10 +3857,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3793,10 +3868,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3804,10 +3879,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3815,10 +3890,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3826,10 +3901,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3837,10 +3912,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B127" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3848,10 +3923,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B128" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3859,10 +3934,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B129" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3870,10 +3945,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3881,10 +3956,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3892,10 +3967,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3903,10 +3978,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3914,10 +3989,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3925,10 +4000,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3936,10 +4011,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3947,10 +4022,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3958,10 +4033,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3969,10 +4044,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B139" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3980,10 +4055,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B140" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3991,10 +4066,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B141" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4002,10 +4077,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4013,10 +4088,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4024,10 +4099,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4035,10 +4110,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4046,10 +4121,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4057,10 +4132,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4068,10 +4143,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4079,10 +4154,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B149" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4090,10 +4165,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4101,10 +4176,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" t="s">
         <v>245</v>
-      </c>
-      <c r="B151" t="s">
-        <v>246</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4112,10 +4187,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B152" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4123,10 +4198,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4134,10 +4209,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4145,10 +4220,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4156,10 +4231,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156" t="s">
         <v>255</v>
-      </c>
-      <c r="B156" t="s">
-        <v>256</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4170,7 +4245,7 @@
         <v>257</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4178,10 +4253,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4189,10 +4264,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" t="s">
         <v>260</v>
-      </c>
-      <c r="B159" t="s">
-        <v>261</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4200,10 +4275,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" t="s">
         <v>262</v>
-      </c>
-      <c r="B160" t="s">
-        <v>261</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4236,7 +4311,7 @@
         <v>267</v>
       </c>
       <c r="B163" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4244,10 +4319,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4255,10 +4330,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4266,10 +4341,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4277,10 +4352,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B167" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4288,10 +4363,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4299,10 +4374,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4310,10 +4385,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4321,10 +4396,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4332,10 +4407,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4343,10 +4418,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4354,10 +4429,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B174" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4365,10 +4440,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B175" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4376,10 +4451,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B176" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4387,10 +4462,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B177" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4398,10 +4473,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B178" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4409,10 +4484,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B179" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4420,10 +4495,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4431,10 +4506,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4442,10 +4517,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B182" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4453,10 +4528,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4464,10 +4539,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B184" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4475,10 +4550,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B185" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4486,10 +4561,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4497,10 +4572,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B187" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4508,10 +4583,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B188" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4519,10 +4594,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4530,10 +4605,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4541,10 +4616,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B191" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4552,10 +4627,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4563,10 +4638,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4574,10 +4649,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B194" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4585,10 +4660,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4596,10 +4671,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B196" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4607,10 +4682,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4618,10 +4693,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B198" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4629,10 +4704,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B199" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4640,10 +4715,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B200" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4651,10 +4726,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B201" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4662,10 +4737,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B202" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4673,10 +4748,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4684,10 +4759,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B204" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4695,10 +4770,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B205" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4706,10 +4781,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B206" t="s">
-        <v>328</v>
+        <v>235</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4717,10 +4792,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B207" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4728,10 +4803,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B208" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4739,10 +4814,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B209" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4750,10 +4825,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B210" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4761,10 +4836,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4772,10 +4847,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B212" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4783,10 +4858,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B213" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4794,10 +4869,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4805,10 +4880,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B215" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4816,10 +4891,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B216" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4827,10 +4902,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B217" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4838,10 +4913,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B218" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4849,10 +4924,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B219" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4860,10 +4935,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B220" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4871,10 +4946,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4882,10 +4957,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4893,10 +4968,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4904,10 +4979,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4915,10 +4990,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B225" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4926,10 +5001,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B226" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4937,10 +5012,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B227" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4948,10 +5023,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B228" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4959,10 +5034,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B229" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4970,10 +5045,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B230" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4981,10 +5056,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B231" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4992,10 +5067,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B232" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5003,10 +5078,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5014,10 +5089,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B234" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5025,10 +5100,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B235" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5036,10 +5111,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B236" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5047,10 +5122,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B237" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5058,10 +5133,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B238" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5069,10 +5144,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B239" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5080,10 +5155,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B240" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5091,10 +5166,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B241" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5102,10 +5177,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B242" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5113,10 +5188,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B243" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5124,10 +5199,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B244" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5135,10 +5210,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B245" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5146,10 +5221,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B246" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5157,10 +5232,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B247" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5168,10 +5243,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B248" t="s">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5179,10 +5254,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B249" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5190,10 +5265,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B250" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5201,10 +5276,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B251" t="s">
-        <v>180</v>
+        <v>388</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5212,10 +5287,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B252" t="s">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5223,10 +5298,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B253" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5234,10 +5309,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B254" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5245,10 +5320,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B255" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5256,10 +5331,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B256" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5267,10 +5342,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B257" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5278,10 +5353,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B258" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5289,10 +5364,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B259" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5300,10 +5375,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B260" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5311,10 +5386,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B261" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5322,10 +5397,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B262" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5333,10 +5408,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B263" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5344,10 +5419,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B264" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5355,10 +5430,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B265" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5366,10 +5441,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B266" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5377,10 +5452,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B267" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5388,10 +5463,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B268" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5399,10 +5474,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B269" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5410,10 +5485,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B270" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5421,10 +5496,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B271" t="s">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5432,10 +5507,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5443,10 +5518,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B273" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5454,10 +5529,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B274" t="s">
-        <v>404</v>
+        <v>245</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5465,10 +5540,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B275" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5476,10 +5551,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B276" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5487,10 +5562,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B277" t="s">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5498,10 +5573,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5509,10 +5584,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5520,10 +5595,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B280" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5531,10 +5606,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B281" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5542,10 +5617,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B282" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5553,10 +5628,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B283" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5564,10 +5639,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B284" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5575,10 +5650,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B285" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5586,10 +5661,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B286" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5597,10 +5672,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B287" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5608,10 +5683,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B288" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5619,10 +5694,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B289" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5630,10 +5705,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5641,10 +5716,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B291" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5652,10 +5727,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B292" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5663,10 +5738,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B293" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5674,10 +5749,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B294" t="s">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5685,10 +5760,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B295" t="s">
-        <v>401</v>
+        <v>237</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5696,10 +5771,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B296" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5707,10 +5782,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5718,10 +5793,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5729,10 +5804,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B299" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5740,10 +5815,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B300" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5751,10 +5826,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B301" t="s">
-        <v>404</v>
+        <v>255</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5762,10 +5837,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B302" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5773,10 +5848,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B303" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5784,10 +5859,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B304" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5795,10 +5870,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B305" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5806,10 +5881,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B306" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5817,10 +5892,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B307" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5828,10 +5903,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B308" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5839,10 +5914,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B309" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5850,10 +5925,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B310" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5861,10 +5936,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B311" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5872,10 +5947,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B312" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5883,10 +5958,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B313" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5894,10 +5969,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B314" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5905,10 +5980,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B315" t="s">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5916,10 +5991,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B316" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5927,10 +6002,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B317" t="s">
-        <v>269</v>
+        <v>461</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5938,10 +6013,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B318" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5949,10 +6024,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B319" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5960,10 +6035,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B320" t="s">
-        <v>238</v>
+        <v>466</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5971,10 +6046,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B321" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5982,10 +6057,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B322" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5993,10 +6068,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B323" t="s">
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6004,10 +6079,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B324" t="s">
-        <v>330</v>
+        <v>466</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6015,10 +6090,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B325" t="s">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6026,10 +6101,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B326" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6037,10 +6112,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B327" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6048,10 +6123,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B328" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6059,10 +6134,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B329" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6070,10 +6145,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B330" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6081,10 +6156,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B331" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6092,10 +6167,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B332" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6103,10 +6178,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B333" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6114,10 +6189,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B334" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6125,10 +6200,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B335" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6136,10 +6211,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B336" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6147,10 +6222,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B337" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6158,10 +6233,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B338" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6169,10 +6244,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B339" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6180,10 +6255,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B340" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6191,10 +6266,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B341" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6202,10 +6277,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B342" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6213,10 +6288,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B343" t="s">
-        <v>479</v>
+        <v>266</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6224,10 +6299,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B344" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6235,10 +6310,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B345" t="s">
-        <v>482</v>
+        <v>264</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6246,10 +6321,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B346" t="s">
-        <v>484</v>
+        <v>356</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6257,10 +6332,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B347" t="s">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6268,10 +6343,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>488</v>
+        <v>262</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6279,10 +6354,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B349" t="s">
-        <v>490</v>
+        <v>356</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6290,10 +6365,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B350" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6301,10 +6376,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B351" t="s">
-        <v>493</v>
+        <v>262</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6312,10 +6387,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B352" t="s">
-        <v>248</v>
+        <v>463</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6323,10 +6398,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B353" t="s">
-        <v>490</v>
+        <v>356</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6334,10 +6409,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B354" t="s">
-        <v>488</v>
+        <v>262</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6345,10 +6420,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B355" t="s">
-        <v>498</v>
+        <v>290</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6356,10 +6431,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B356" t="s">
-        <v>500</v>
+        <v>349</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6367,10 +6442,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B357" t="s">
-        <v>258</v>
+        <v>505</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6378,10 +6453,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B358" t="s">
-        <v>503</v>
+        <v>272</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6389,10 +6464,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B359" t="s">
-        <v>258</v>
+        <v>508</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6400,10 +6475,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B360" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6411,10 +6486,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B361" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6422,10 +6497,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B362" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6433,10 +6508,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B363" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6444,10 +6519,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B364" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6455,10 +6530,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B365" t="s">
-        <v>258</v>
+        <v>519</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6466,10 +6541,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B366" t="s">
-        <v>486</v>
+        <v>274</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6477,10 +6552,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B367" t="s">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6488,10 +6563,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B368" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6499,10 +6574,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B369" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6510,10 +6585,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B370" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6521,10 +6596,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B371" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6532,10 +6607,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B372" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6543,10 +6618,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B373" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6554,10 +6629,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B374" t="s">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6565,10 +6640,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
+        <v>533</v>
+      </c>
+      <c r="B375" t="s">
         <v>524</v>
-      </c>
-      <c r="B375" t="s">
-        <v>244</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6576,10 +6651,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B376" t="s">
-        <v>291</v>
+        <v>535</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6587,10 +6662,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B377" t="s">
-        <v>244</v>
+        <v>537</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6598,10 +6673,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B378" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6609,10 +6684,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B379" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6620,10 +6695,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B380" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6631,10 +6706,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B381" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6642,10 +6717,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B382" t="s">
-        <v>404</v>
+        <v>543</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6653,10 +6728,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B383" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6664,10 +6739,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B384" t="s">
-        <v>264</v>
+        <v>505</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6675,10 +6750,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B385" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6686,10 +6761,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B386" t="s">
-        <v>238</v>
+        <v>461</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6697,10 +6772,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B387" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6708,10 +6783,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B388" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6719,10 +6794,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B389" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6730,10 +6805,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B390" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6741,10 +6816,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B391" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6752,10 +6827,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B392" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6763,10 +6838,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B393" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6774,10 +6849,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B394" t="s">
-        <v>280</v>
+        <v>427</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6785,10 +6860,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B395" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6796,10 +6871,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B396" t="s">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6807,10 +6882,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B397" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6818,10 +6893,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B398" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6829,10 +6904,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B399" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6840,10 +6915,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B400" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6851,10 +6926,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B401" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6862,10 +6937,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B402" t="s">
-        <v>271</v>
+        <v>461</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6873,10 +6948,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B403" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6884,10 +6959,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6895,10 +6970,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B405" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6906,10 +6981,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B406" t="s">
-        <v>203</v>
+        <v>461</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6917,10 +6992,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B407" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6928,10 +7003,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B408" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6939,10 +7014,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B409" t="s">
-        <v>385</v>
+        <v>266</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6950,10 +7025,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B410" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6961,10 +7036,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B411" t="s">
-        <v>176</v>
+        <v>505</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6972,10 +7047,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B412" t="s">
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6983,10 +7058,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B413" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6994,10 +7069,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B414" t="s">
-        <v>211</v>
+        <v>354</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7005,10 +7080,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="B415" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7016,10 +7091,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B416" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7027,10 +7102,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B417" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7038,10 +7113,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B418" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7049,10 +7124,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B419" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7060,10 +7135,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B420" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7071,10 +7146,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B421" t="s">
-        <v>572</v>
+        <v>229</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7082,10 +7157,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B422" t="s">
-        <v>574</v>
+        <v>398</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7093,10 +7168,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B423" t="s">
-        <v>576</v>
+        <v>411</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7104,10 +7179,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B424" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7115,10 +7190,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B425" t="s">
-        <v>579</v>
+        <v>202</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7126,10 +7201,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B426" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7137,10 +7212,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B427" t="s">
-        <v>581</v>
+        <v>366</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7148,10 +7223,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B428" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7159,10 +7234,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B429" t="s">
-        <v>585</v>
+        <v>235</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7170,10 +7245,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B430" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7181,10 +7256,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B431" t="s">
-        <v>588</v>
+        <v>247</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7192,10 +7267,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B432" t="s">
-        <v>590</v>
+        <v>398</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7203,10 +7278,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B433" t="s">
-        <v>592</v>
+        <v>215</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7214,10 +7289,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B434" t="s">
-        <v>592</v>
+        <v>188</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7225,10 +7300,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B435" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7236,10 +7311,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B436" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7247,10 +7322,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B437" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7258,10 +7333,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B438" t="s">
-        <v>601</v>
+        <v>388</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7269,10 +7344,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B439" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7280,10 +7355,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B440" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7291,10 +7366,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B441" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7302,10 +7377,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B442" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7313,10 +7388,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B443" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7324,10 +7399,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B444" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7335,10 +7410,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B445" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7346,10 +7421,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B446" t="s">
-        <v>116</v>
+        <v>616</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7357,10 +7432,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B447" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7368,10 +7443,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B448" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7379,10 +7454,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B449" t="s">
-        <v>122</v>
+        <v>621</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7390,10 +7465,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B450" t="s">
-        <v>47</v>
+        <v>623</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7401,10 +7476,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B451" t="s">
-        <v>120</v>
+        <v>625</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7412,10 +7487,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B452" t="s">
-        <v>124</v>
+        <v>627</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7423,10 +7498,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B453" t="s">
-        <v>68</v>
+        <v>629</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7434,10 +7509,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B454" t="s">
-        <v>43</v>
+        <v>621</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7445,10 +7520,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B455" t="s">
-        <v>28</v>
+        <v>632</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7456,10 +7531,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B456" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7467,10 +7542,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B457" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7478,10 +7553,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B458" t="s">
-        <v>626</v>
+        <v>170</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7489,10 +7564,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B459" t="s">
-        <v>4</v>
+        <v>638</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7500,10 +7575,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B460" t="s">
-        <v>630</v>
+        <v>142</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7511,10 +7586,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B461" t="s">
-        <v>19</v>
+        <v>629</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7522,10 +7597,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B462" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7533,10 +7608,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B463" t="s">
-        <v>634</v>
+        <v>148</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7544,10 +7619,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B464" t="s">
-        <v>634</v>
+        <v>73</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7555,10 +7630,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B465" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7566,10 +7641,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B466" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7577,10 +7652,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B467" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7588,10 +7663,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="B468" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7599,10 +7674,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B469" t="s">
-        <v>641</v>
+        <v>54</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7610,10 +7685,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B470" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7621,10 +7696,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B471" t="s">
-        <v>599</v>
+        <v>27</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7632,10 +7707,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B472" t="s">
-        <v>645</v>
+        <v>27</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7643,10 +7718,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B473" t="s">
-        <v>647</v>
+        <v>31</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7654,10 +7729,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B474" t="s">
-        <v>49</v>
+        <v>655</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7665,10 +7740,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B475" t="s">
-        <v>650</v>
+        <v>45</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7676,10 +7751,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B476" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7687,10 +7762,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B477" t="s">
-        <v>144</v>
+        <v>659</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7698,10 +7773,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B478" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7709,10 +7784,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B479" t="s">
-        <v>657</v>
+        <v>69</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7720,10 +7795,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B480" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7731,10 +7806,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B481" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7742,10 +7817,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B482" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7753,10 +7828,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B483" t="s">
-        <v>136</v>
+        <v>666</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7764,10 +7839,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B484" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7775,10 +7850,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B485" t="s">
-        <v>664</v>
+        <v>625</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7786,10 +7861,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B486" t="s">
-        <v>609</v>
+        <v>670</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7797,10 +7872,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B487" t="s">
-        <v>148</v>
+        <v>672</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7808,10 +7883,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B488" t="s">
-        <v>668</v>
+        <v>75</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7819,10 +7894,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B489" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7830,10 +7905,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B490" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7841,10 +7916,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B491" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7852,10 +7927,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B492" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7863,10 +7938,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B493" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7874,10 +7949,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B494" t="s">
-        <v>668</v>
+        <v>168</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7885,10 +7960,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B495" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7896,10 +7971,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B496" t="s">
-        <v>609</v>
+        <v>162</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7907,10 +7982,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B497" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7918,10 +7993,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B498" t="s">
-        <v>609</v>
+        <v>178</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7929,10 +8004,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B499" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7940,10 +8015,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B500" t="s">
-        <v>154</v>
+        <v>635</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7951,10 +8026,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B501" t="s">
-        <v>595</v>
+        <v>174</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7962,10 +8037,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B502" t="s">
-        <v>55</v>
+        <v>693</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7973,10 +8048,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B503" t="s">
-        <v>111</v>
+        <v>695</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7984,10 +8059,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B504" t="s">
-        <v>15</v>
+        <v>697</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7995,10 +8070,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B505" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8006,10 +8081,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="B506" t="s">
-        <v>15</v>
+        <v>697</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8017,10 +8092,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B507" t="s">
-        <v>94</v>
+        <v>701</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8028,10 +8103,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B508" t="s">
-        <v>75</v>
+        <v>693</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8039,10 +8114,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B509" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8050,10 +8125,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B510" t="s">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8061,10 +8136,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B511" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8072,10 +8147,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B512" t="s">
-        <v>698</v>
+        <v>635</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8083,10 +8158,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B513" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8094,10 +8169,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B514" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8105,12 +8180,166 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B515" t="s">
-        <v>57</v>
+        <v>621</v>
       </c>
       <c r="C515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>711</v>
+      </c>
+      <c r="B516" t="s">
+        <v>81</v>
+      </c>
+      <c r="C516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>712</v>
+      </c>
+      <c r="B517" t="s">
+        <v>137</v>
+      </c>
+      <c r="C517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>713</v>
+      </c>
+      <c r="B518" t="s">
+        <v>41</v>
+      </c>
+      <c r="C518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>714</v>
+      </c>
+      <c r="B519" t="s">
+        <v>65</v>
+      </c>
+      <c r="C519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>715</v>
+      </c>
+      <c r="B520" t="s">
+        <v>41</v>
+      </c>
+      <c r="C520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>716</v>
+      </c>
+      <c r="B521" t="s">
+        <v>120</v>
+      </c>
+      <c r="C521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>717</v>
+      </c>
+      <c r="B522" t="s">
+        <v>101</v>
+      </c>
+      <c r="C522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>718</v>
+      </c>
+      <c r="B523" t="s">
+        <v>45</v>
+      </c>
+      <c r="C523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>719</v>
+      </c>
+      <c r="B524" t="s">
+        <v>720</v>
+      </c>
+      <c r="C524" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>721</v>
+      </c>
+      <c r="B525" t="s">
+        <v>120</v>
+      </c>
+      <c r="C525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>722</v>
+      </c>
+      <c r="B526" t="s">
+        <v>723</v>
+      </c>
+      <c r="C526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>724</v>
+      </c>
+      <c r="B527" t="s">
+        <v>723</v>
+      </c>
+      <c r="C527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>725</v>
+      </c>
+      <c r="B528" t="s">
+        <v>83</v>
+      </c>
+      <c r="C528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>726</v>
+      </c>
+      <c r="B529" t="s">
+        <v>83</v>
+      </c>
+      <c r="C529" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid553028"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid852471"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,135 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>29/07/2024</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>16/07/2024</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>1.020</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>10/07/2024</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>1.019</t>
+  </si>
+  <si>
+    <t>04/07/2024</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
     <t>01/07/2024</t>
   </si>
   <si>
-    <t>1.010</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>28/06/2024</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>27/06/2024</t>
   </si>
   <si>
@@ -53,15 +167,9 @@
     <t>25/06/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>24/06/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>21/06/2024</t>
   </si>
   <si>
@@ -92,9 +200,6 @@
     <t>13/06/2024</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>12/06/2024</t>
   </si>
   <si>
@@ -110,9 +215,6 @@
     <t>10/06/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -122,9 +224,6 @@
     <t>06/06/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>05/06/2024</t>
   </si>
   <si>
@@ -179,9 +278,6 @@
     <t>21/05/2024</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>20/05/2024</t>
   </si>
   <si>
@@ -357,9 +453,6 @@
   </si>
   <si>
     <t>22/03/2024</t>
-  </si>
-  <si>
-    <t>0.988</t>
   </si>
   <si>
     <t>21/03/2024</t>
@@ -2562,7 +2655,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2570,10 +2663,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2595,7 +2688,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2603,10 +2696,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2614,10 +2707,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2625,10 +2718,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2636,10 +2729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2647,10 +2740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2658,10 +2751,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2669,10 +2762,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2680,10 +2773,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2691,10 +2784,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2702,10 +2795,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2713,10 +2806,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2724,10 +2817,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2735,10 +2828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2746,10 +2839,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2757,10 +2850,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2768,10 +2861,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2779,10 +2872,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2790,10 +2883,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2801,10 +2894,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2812,10 +2905,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2823,10 +2916,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2834,10 +2927,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2845,10 +2938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2856,10 +2949,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2867,10 +2960,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2878,10 +2971,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2889,10 +2982,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2900,10 +2993,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2911,10 +3004,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2922,10 +3015,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2933,10 +3026,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2944,10 +3037,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2955,10 +3048,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2966,10 +3059,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2977,10 +3070,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2988,10 +3081,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2999,10 +3092,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3010,10 +3103,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3021,10 +3114,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3032,10 +3125,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3043,10 +3136,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3054,10 +3147,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3065,10 +3158,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3076,10 +3169,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3087,10 +3180,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3098,10 +3191,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3109,10 +3202,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3120,10 +3213,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3131,10 +3224,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3142,10 +3235,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3153,10 +3246,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3164,10 +3257,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3175,10 +3268,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3186,10 +3279,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3197,10 +3290,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3208,10 +3301,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3219,10 +3312,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3230,10 +3323,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3241,10 +3334,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3252,10 +3345,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3263,10 +3356,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3274,10 +3367,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3285,10 +3378,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3296,10 +3389,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3307,10 +3400,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s">
         <v>119</v>
-      </c>
-      <c r="B72" t="s">
-        <v>120</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3318,10 +3411,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
         <v>121</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3332,7 +3425,7 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3340,10 +3433,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
         <v>123</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3351,10 +3444,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3362,10 +3455,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3373,10 +3466,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3384,10 +3477,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3395,10 +3488,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3406,10 +3499,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3417,10 +3510,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3428,10 +3521,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3439,10 +3532,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3450,10 +3543,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3461,10 +3554,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3472,10 +3565,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3483,10 +3576,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3494,10 +3587,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3505,10 +3598,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3516,10 +3609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3527,10 +3620,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3538,10 +3631,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3552,7 +3645,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3560,10 +3653,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" t="s">
         <v>151</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3574,7 +3667,7 @@
         <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3582,10 +3675,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3593,10 +3686,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3604,10 +3697,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3615,10 +3708,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3626,10 +3719,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3637,10 +3730,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3648,10 +3741,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3659,10 +3752,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3670,10 +3763,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3681,10 +3774,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3692,10 +3785,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3703,10 +3796,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3714,10 +3807,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3725,10 +3818,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3736,10 +3829,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3747,10 +3840,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3758,10 +3851,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3769,10 +3862,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3780,10 +3873,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3791,10 +3884,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3802,10 +3895,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3813,10 +3906,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3824,10 +3917,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3835,10 +3928,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3846,10 +3939,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3857,10 +3950,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3868,10 +3961,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3879,10 +3972,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3890,10 +3983,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3901,10 +3994,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3912,10 +4005,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3923,10 +4016,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3934,10 +4027,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3945,10 +4038,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3956,10 +4049,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3967,10 +4060,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3978,10 +4071,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3989,10 +4082,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4000,10 +4093,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4011,10 +4104,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4022,10 +4115,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4033,10 +4126,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4044,10 +4137,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4055,10 +4148,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4066,10 +4159,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4077,10 +4170,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4088,10 +4181,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4099,10 +4192,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4110,10 +4203,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4121,10 +4214,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4132,10 +4225,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4143,10 +4236,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B148" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4154,10 +4247,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4165,10 +4258,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4176,10 +4269,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4187,10 +4280,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4198,10 +4291,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4209,10 +4302,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4220,10 +4313,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4231,10 +4324,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B156" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4242,10 +4335,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4253,10 +4346,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B158" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4264,10 +4357,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B159" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4275,10 +4368,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4286,10 +4379,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B161" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4297,10 +4390,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4308,10 +4401,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B163" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4319,10 +4412,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B164" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4330,10 +4423,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4341,10 +4434,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4352,10 +4445,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4363,10 +4456,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4374,10 +4467,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B169" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4385,10 +4478,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B170" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4396,10 +4489,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4407,10 +4500,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4418,10 +4511,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4429,10 +4522,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4440,10 +4533,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4451,10 +4544,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4462,10 +4555,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4473,10 +4566,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4484,10 +4577,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B179" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4495,10 +4588,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4506,10 +4599,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4517,10 +4610,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4528,10 +4621,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B183" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4539,10 +4632,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B184" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4550,10 +4643,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4561,10 +4654,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4572,10 +4665,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B187" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4583,10 +4676,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B188" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4594,10 +4687,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B189" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4605,10 +4698,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B190" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4616,10 +4709,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B191" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4627,10 +4720,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B192" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4638,10 +4731,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B193" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4649,10 +4742,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4660,10 +4753,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B195" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4671,10 +4764,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B196" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4682,10 +4775,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B197" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4693,10 +4786,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B198" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4704,10 +4797,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4715,10 +4808,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4726,10 +4819,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B201" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4737,10 +4830,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B202" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4748,10 +4841,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>329</v>
+      </c>
+      <c r="B203" t="s">
         <v>330</v>
-      </c>
-      <c r="B203" t="s">
-        <v>235</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4773,7 +4866,7 @@
         <v>333</v>
       </c>
       <c r="B205" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4784,7 +4877,7 @@
         <v>334</v>
       </c>
       <c r="B206" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4792,10 +4885,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B207" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4803,10 +4896,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B208" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4817,7 +4910,7 @@
         <v>339</v>
       </c>
       <c r="B209" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4839,7 +4932,7 @@
         <v>342</v>
       </c>
       <c r="B211" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4850,7 +4943,7 @@
         <v>343</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4858,10 +4951,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
+        <v>345</v>
+      </c>
+      <c r="B213" t="s">
         <v>344</v>
-      </c>
-      <c r="B213" t="s">
-        <v>317</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4869,10 +4962,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B214" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4880,10 +4973,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B215" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4891,10 +4984,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B216" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4902,10 +4995,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B217" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4913,10 +5006,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B218" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4927,7 +5020,7 @@
         <v>352</v>
       </c>
       <c r="B219" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4960,7 +5053,7 @@
         <v>357</v>
       </c>
       <c r="B222" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4971,7 +5064,7 @@
         <v>358</v>
       </c>
       <c r="B223" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4982,7 +5075,7 @@
         <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4993,7 +5086,7 @@
         <v>360</v>
       </c>
       <c r="B225" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5004,7 +5097,7 @@
         <v>361</v>
       </c>
       <c r="B226" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5015,7 +5108,7 @@
         <v>362</v>
       </c>
       <c r="B227" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5023,10 +5116,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B228" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5034,10 +5127,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B229" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5045,10 +5138,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B230" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5056,10 +5149,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B231" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5067,10 +5160,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B232" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5078,10 +5171,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B233" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5089,10 +5182,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B234" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5100,10 +5193,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5111,10 +5204,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B236" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5122,10 +5215,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B237" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5133,10 +5226,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B238" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5144,10 +5237,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B239" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5155,10 +5248,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B240" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5166,10 +5259,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B241" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5177,10 +5270,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B242" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5188,10 +5281,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>385</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5199,10 +5292,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5210,10 +5303,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B245" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5221,10 +5314,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B246" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5232,10 +5325,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5243,10 +5336,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5254,10 +5347,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B249" t="s">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5265,10 +5358,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B250" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5276,10 +5369,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B251" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5287,10 +5380,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B252" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5298,10 +5391,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B253" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5309,10 +5402,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B254" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5320,10 +5413,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B255" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5331,10 +5424,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B256" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5342,10 +5435,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B257" t="s">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5353,10 +5446,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B258" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5364,10 +5457,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B259" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5375,10 +5468,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B260" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5386,10 +5479,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B261" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5397,10 +5490,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B262" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5408,10 +5501,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B263" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5419,10 +5512,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B264" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5430,10 +5523,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B265" t="s">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5441,7 +5534,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B266" t="s">
         <v>233</v>
@@ -5452,10 +5545,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B267" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5463,10 +5556,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B268" t="s">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5474,10 +5567,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B269" t="s">
-        <v>231</v>
+        <v>363</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5485,10 +5578,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B270" t="s">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5496,10 +5589,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5507,10 +5600,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B272" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5518,10 +5611,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B273" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5529,10 +5622,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B274" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5540,10 +5633,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B275" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5551,10 +5644,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B276" t="s">
-        <v>255</v>
+        <v>397</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5562,10 +5655,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B277" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5573,10 +5666,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B278" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5584,10 +5677,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B279" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5595,10 +5688,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B280" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5606,10 +5699,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B281" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5617,10 +5710,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B282" t="s">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5628,10 +5721,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B283" t="s">
-        <v>332</v>
+        <v>431</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5639,10 +5732,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B284" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5650,10 +5743,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B285" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5661,10 +5754,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B286" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5672,10 +5765,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B287" t="s">
-        <v>430</v>
+        <v>258</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5683,10 +5776,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B288" t="s">
-        <v>430</v>
+        <v>237</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5694,10 +5787,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B289" t="s">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5705,10 +5798,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B290" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5716,10 +5809,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B291" t="s">
-        <v>427</v>
+        <v>262</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5727,10 +5820,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B292" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5738,10 +5831,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>442</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5749,10 +5842,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B294" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5760,10 +5853,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B295" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5771,7 +5864,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B296" t="s">
         <v>356</v>
@@ -5782,10 +5875,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B297" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5793,10 +5886,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B298" t="s">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5804,10 +5897,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B299" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5815,10 +5908,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B300" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5826,10 +5919,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B301" t="s">
-        <v>255</v>
+        <v>397</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5837,10 +5930,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B302" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5848,10 +5941,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B303" t="s">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5859,10 +5952,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B304" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5870,10 +5963,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B305" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5881,10 +5974,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B306" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5892,10 +5985,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B307" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5903,10 +5996,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B308" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5914,10 +6007,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B309" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5925,10 +6018,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B310" t="s">
-        <v>341</v>
+        <v>461</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5936,10 +6029,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B311" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5947,10 +6040,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B312" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5958,10 +6051,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B313" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5969,10 +6062,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B314" t="s">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5980,10 +6073,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B315" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5991,10 +6084,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B316" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6002,10 +6095,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B317" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6013,10 +6106,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B318" t="s">
-        <v>463</v>
+        <v>268</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6024,10 +6117,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B319" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6035,10 +6128,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B320" t="s">
-        <v>466</v>
+        <v>297</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6046,10 +6139,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B321" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6057,10 +6150,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B322" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6068,10 +6161,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B323" t="s">
-        <v>470</v>
+        <v>268</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6079,10 +6172,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B324" t="s">
-        <v>466</v>
+        <v>286</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6090,10 +6183,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B325" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6101,10 +6194,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B326" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6112,10 +6205,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B327" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6123,10 +6216,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B328" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6134,10 +6227,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B329" t="s">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6145,10 +6238,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B330" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6156,10 +6249,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B331" t="s">
-        <v>295</v>
+        <v>458</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6167,10 +6260,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B332" t="s">
-        <v>341</v>
+        <v>458</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6178,10 +6271,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B333" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6189,10 +6282,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B334" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6200,10 +6293,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B335" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6211,10 +6304,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B336" t="s">
-        <v>461</v>
+        <v>270</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6222,10 +6315,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B337" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6233,10 +6326,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B338" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6244,10 +6337,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B339" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6255,10 +6348,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B340" t="s">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6266,10 +6359,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B341" t="s">
-        <v>313</v>
+        <v>494</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6277,10 +6370,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B342" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6288,10 +6381,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B343" t="s">
-        <v>266</v>
+        <v>497</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6299,10 +6392,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B344" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6310,10 +6403,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B345" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6321,10 +6414,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B346" t="s">
-        <v>356</v>
+        <v>501</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6332,10 +6425,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B347" t="s">
-        <v>306</v>
+        <v>497</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6343,10 +6436,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B348" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6354,10 +6447,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B349" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6365,10 +6458,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B350" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6376,10 +6469,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B351" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6387,10 +6480,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B352" t="s">
-        <v>463</v>
+        <v>332</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6398,10 +6491,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B353" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6409,10 +6502,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B354" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6420,10 +6513,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B355" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6431,10 +6524,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B356" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6442,10 +6535,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B357" t="s">
-        <v>505</v>
+        <v>295</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6453,10 +6546,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B358" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6464,10 +6557,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B359" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6475,10 +6568,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B360" t="s">
-        <v>510</v>
+        <v>297</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6486,10 +6579,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B361" t="s">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6497,10 +6590,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B362" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6508,10 +6601,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B363" t="s">
-        <v>516</v>
+        <v>299</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6519,10 +6612,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B364" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6530,10 +6623,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B365" t="s">
-        <v>519</v>
+        <v>297</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6541,10 +6634,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B366" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6552,10 +6645,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B367" t="s">
-        <v>516</v>
+        <v>323</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6563,10 +6656,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B368" t="s">
-        <v>514</v>
+        <v>295</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6574,10 +6667,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B369" t="s">
-        <v>524</v>
+        <v>387</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6588,7 +6681,7 @@
         <v>525</v>
       </c>
       <c r="B370" t="s">
-        <v>526</v>
+        <v>337</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6596,10 +6689,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B371" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6607,10 +6700,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B372" t="s">
-        <v>529</v>
+        <v>387</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6618,10 +6711,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B373" t="s">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6629,10 +6722,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B374" t="s">
-        <v>532</v>
+        <v>293</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6640,10 +6733,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B375" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6651,10 +6744,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B376" t="s">
-        <v>535</v>
+        <v>387</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6662,10 +6755,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B377" t="s">
-        <v>537</v>
+        <v>293</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6673,10 +6766,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B378" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6684,10 +6777,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B379" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6695,10 +6788,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B380" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6706,10 +6799,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B381" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6717,10 +6810,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B382" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6728,10 +6821,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B383" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6739,10 +6832,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B384" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6750,10 +6843,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B385" t="s">
-        <v>272</v>
+        <v>545</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6761,10 +6854,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
+        <v>546</v>
+      </c>
+      <c r="B386" t="s">
         <v>547</v>
-      </c>
-      <c r="B386" t="s">
-        <v>461</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6775,7 +6868,7 @@
         <v>548</v>
       </c>
       <c r="B387" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6786,7 +6879,7 @@
         <v>549</v>
       </c>
       <c r="B388" t="s">
-        <v>461</v>
+        <v>550</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6794,10 +6887,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B389" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6805,10 +6898,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B390" t="s">
-        <v>317</v>
+        <v>547</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6816,10 +6909,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B391" t="s">
-        <v>270</v>
+        <v>545</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6827,10 +6920,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B392" t="s">
-        <v>287</v>
+        <v>555</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6838,10 +6931,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B393" t="s">
-        <v>354</v>
+        <v>557</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6849,10 +6942,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B394" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6860,10 +6953,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B395" t="s">
-        <v>264</v>
+        <v>560</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6871,10 +6964,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B396" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6882,10 +6975,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B397" t="s">
-        <v>466</v>
+        <v>563</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6893,10 +6986,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B398" t="s">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6904,10 +6997,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>292</v>
+        <v>566</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6915,10 +7008,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B400" t="s">
-        <v>264</v>
+        <v>568</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6926,10 +7019,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B401" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6937,10 +7030,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B402" t="s">
-        <v>461</v>
+        <v>315</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6948,10 +7041,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B403" t="s">
-        <v>317</v>
+        <v>543</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6959,10 +7052,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B404" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6970,10 +7063,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B405" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6981,10 +7074,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B406" t="s">
-        <v>461</v>
+        <v>574</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6992,10 +7085,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B407" t="s">
-        <v>301</v>
+        <v>536</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7003,10 +7096,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B408" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7014,10 +7107,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B409" t="s">
-        <v>266</v>
+        <v>492</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7025,10 +7118,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B410" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7036,10 +7129,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B411" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7047,10 +7140,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B412" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7058,10 +7151,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B413" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7069,10 +7162,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B414" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7080,10 +7173,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B415" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7091,10 +7184,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B416" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7102,10 +7195,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B417" t="s">
-        <v>336</v>
+        <v>458</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7113,10 +7206,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B418" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7124,10 +7217,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B419" t="s">
-        <v>336</v>
+        <v>461</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7135,10 +7228,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B420" t="s">
-        <v>229</v>
+        <v>497</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7146,10 +7239,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B421" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7157,10 +7250,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B422" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7168,10 +7261,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B423" t="s">
-        <v>411</v>
+        <v>295</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7179,10 +7272,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B424" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7190,10 +7283,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B425" t="s">
-        <v>202</v>
+        <v>492</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7201,10 +7294,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B426" t="s">
-        <v>588</v>
+        <v>348</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7212,10 +7305,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B427" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7223,10 +7316,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B428" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7234,10 +7327,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B429" t="s">
-        <v>235</v>
+        <v>492</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7245,10 +7338,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B430" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7256,10 +7349,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B431" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7267,10 +7360,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B432" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7278,10 +7371,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B433" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7289,10 +7382,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B434" t="s">
-        <v>188</v>
+        <v>536</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7300,10 +7393,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B435" t="s">
-        <v>598</v>
+        <v>348</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7311,10 +7404,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B436" t="s">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7322,10 +7415,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B437" t="s">
-        <v>602</v>
+        <v>385</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7333,10 +7426,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B438" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7344,10 +7437,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B439" t="s">
-        <v>605</v>
+        <v>328</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7355,10 +7448,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B440" t="s">
-        <v>607</v>
+        <v>367</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7366,10 +7459,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B441" t="s">
-        <v>607</v>
+        <v>367</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7377,10 +7470,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B442" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7388,10 +7481,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B443" t="s">
-        <v>611</v>
+        <v>260</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7399,10 +7492,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B444" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7410,10 +7503,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B445" t="s">
-        <v>614</v>
+        <v>429</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7424,7 +7517,7 @@
         <v>615</v>
       </c>
       <c r="B446" t="s">
-        <v>616</v>
+        <v>442</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7432,10 +7525,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B447" t="s">
-        <v>618</v>
+        <v>363</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7443,10 +7536,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B448" t="s">
-        <v>618</v>
+        <v>233</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7454,10 +7547,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B449" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7465,10 +7558,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B450" t="s">
-        <v>623</v>
+        <v>397</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7476,10 +7569,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B451" t="s">
-        <v>625</v>
+        <v>268</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7487,10 +7580,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B452" t="s">
-        <v>627</v>
+        <v>266</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7498,10 +7591,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B453" t="s">
-        <v>629</v>
+        <v>273</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7509,10 +7602,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B454" t="s">
-        <v>621</v>
+        <v>278</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7520,10 +7613,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B455" t="s">
-        <v>632</v>
+        <v>429</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7531,10 +7624,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B456" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7542,10 +7635,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B457" t="s">
-        <v>635</v>
+        <v>219</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7553,10 +7646,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B458" t="s">
-        <v>170</v>
+        <v>629</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7564,10 +7657,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B459" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7575,10 +7668,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B460" t="s">
-        <v>142</v>
+        <v>633</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7586,10 +7679,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B461" t="s">
-        <v>629</v>
+        <v>419</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7597,10 +7690,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B462" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7608,10 +7701,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B463" t="s">
-        <v>148</v>
+        <v>638</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7619,10 +7712,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B464" t="s">
-        <v>73</v>
+        <v>638</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7630,10 +7723,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B465" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7641,10 +7734,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B466" t="s">
-        <v>150</v>
+        <v>642</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7652,10 +7745,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B467" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7663,10 +7756,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B468" t="s">
-        <v>69</v>
+        <v>645</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7674,10 +7767,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>54</v>
+        <v>647</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7685,10 +7778,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B470" t="s">
-        <v>128</v>
+        <v>649</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7696,10 +7789,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B471" t="s">
-        <v>27</v>
+        <v>649</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7707,10 +7800,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
+        <v>651</v>
+      </c>
+      <c r="B472" t="s">
         <v>652</v>
-      </c>
-      <c r="B472" t="s">
-        <v>27</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7721,7 +7814,7 @@
         <v>653</v>
       </c>
       <c r="B473" t="s">
-        <v>31</v>
+        <v>654</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7729,10 +7822,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B474" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7740,10 +7833,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B475" t="s">
-        <v>45</v>
+        <v>658</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7751,10 +7844,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B476" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7762,10 +7855,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B477" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7773,10 +7866,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B478" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7784,10 +7877,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B479" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7795,10 +7888,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B480" t="s">
-        <v>85</v>
+        <v>666</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7806,10 +7899,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B481" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7817,10 +7910,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B482" t="s">
-        <v>91</v>
+        <v>669</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7828,10 +7921,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B483" t="s">
-        <v>666</v>
+        <v>173</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7839,10 +7932,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B484" t="s">
-        <v>89</v>
+        <v>660</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7850,10 +7943,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B485" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7861,10 +7954,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B486" t="s">
-        <v>670</v>
+        <v>179</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7872,10 +7965,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B487" t="s">
-        <v>672</v>
+        <v>105</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7883,10 +7976,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B488" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7894,10 +7987,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B489" t="s">
-        <v>675</v>
+        <v>181</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7905,10 +7998,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B490" t="s">
-        <v>677</v>
+        <v>126</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7916,10 +8009,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B491" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7927,10 +8020,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B492" t="s">
-        <v>680</v>
+        <v>4</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7941,7 +8034,7 @@
         <v>681</v>
       </c>
       <c r="B493" t="s">
-        <v>682</v>
+        <v>159</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7949,10 +8042,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B494" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7960,10 +8053,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B495" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7971,10 +8064,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B496" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7982,10 +8075,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
+        <v>685</v>
+      </c>
+      <c r="B497" t="s">
         <v>686</v>
-      </c>
-      <c r="B497" t="s">
-        <v>162</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7996,7 +8089,7 @@
         <v>687</v>
       </c>
       <c r="B498" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8007,7 +8100,7 @@
         <v>688</v>
       </c>
       <c r="B499" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8015,10 +8108,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
+        <v>689</v>
+      </c>
+      <c r="B500" t="s">
         <v>690</v>
-      </c>
-      <c r="B500" t="s">
-        <v>635</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8029,7 +8122,7 @@
         <v>691</v>
       </c>
       <c r="B501" t="s">
-        <v>174</v>
+        <v>690</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8040,7 +8133,7 @@
         <v>692</v>
       </c>
       <c r="B502" t="s">
-        <v>693</v>
+        <v>101</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8048,10 +8141,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B503" t="s">
-        <v>695</v>
+        <v>117</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8059,10 +8152,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B504" t="s">
-        <v>697</v>
+        <v>117</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8070,10 +8163,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B505" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8081,7 +8174,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B506" t="s">
         <v>697</v>
@@ -8092,10 +8185,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B507" t="s">
-        <v>701</v>
+        <v>121</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8103,10 +8196,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B508" t="s">
-        <v>693</v>
+        <v>656</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8114,10 +8207,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B509" t="s">
-        <v>172</v>
+        <v>701</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8125,10 +8218,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B510" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8136,10 +8229,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B511" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8147,10 +8240,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
+        <v>705</v>
+      </c>
+      <c r="B512" t="s">
         <v>706</v>
-      </c>
-      <c r="B512" t="s">
-        <v>635</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8172,7 +8265,7 @@
         <v>709</v>
       </c>
       <c r="B514" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8183,7 +8276,7 @@
         <v>710</v>
       </c>
       <c r="B515" t="s">
-        <v>621</v>
+        <v>711</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8191,10 +8284,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B516" t="s">
-        <v>81</v>
+        <v>713</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8202,10 +8295,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B517" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8213,10 +8306,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B518" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8224,10 +8317,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B519" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8235,10 +8328,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B520" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8246,10 +8339,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B521" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8257,10 +8350,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B522" t="s">
-        <v>101</v>
+        <v>720</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8268,10 +8361,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B523" t="s">
-        <v>45</v>
+        <v>666</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8279,10 +8372,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B524" t="s">
-        <v>720</v>
+        <v>205</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8290,10 +8383,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B525" t="s">
-        <v>120</v>
+        <v>724</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8301,10 +8394,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B526" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8312,10 +8405,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B527" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8323,10 +8416,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B528" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8334,12 +8427,265 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B529" t="s">
-        <v>83</v>
+        <v>728</v>
       </c>
       <c r="C529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>731</v>
+      </c>
+      <c r="B530" t="s">
+        <v>732</v>
+      </c>
+      <c r="C530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>733</v>
+      </c>
+      <c r="B531" t="s">
+        <v>724</v>
+      </c>
+      <c r="C531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>734</v>
+      </c>
+      <c r="B532" t="s">
+        <v>203</v>
+      </c>
+      <c r="C532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>735</v>
+      </c>
+      <c r="B533" t="s">
+        <v>666</v>
+      </c>
+      <c r="C533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>736</v>
+      </c>
+      <c r="B534" t="s">
+        <v>211</v>
+      </c>
+      <c r="C534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>737</v>
+      </c>
+      <c r="B535" t="s">
+        <v>666</v>
+      </c>
+      <c r="C535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>738</v>
+      </c>
+      <c r="B536" t="s">
+        <v>739</v>
+      </c>
+      <c r="C536" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>740</v>
+      </c>
+      <c r="B537" t="s">
+        <v>211</v>
+      </c>
+      <c r="C537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>741</v>
+      </c>
+      <c r="B538" t="s">
+        <v>652</v>
+      </c>
+      <c r="C538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>742</v>
+      </c>
+      <c r="B539" t="s">
+        <v>113</v>
+      </c>
+      <c r="C539" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>743</v>
+      </c>
+      <c r="B540" t="s">
+        <v>168</v>
+      </c>
+      <c r="C540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>744</v>
+      </c>
+      <c r="B541" t="s">
+        <v>74</v>
+      </c>
+      <c r="C541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>745</v>
+      </c>
+      <c r="B542" t="s">
+        <v>97</v>
+      </c>
+      <c r="C542" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>746</v>
+      </c>
+      <c r="B543" t="s">
+        <v>74</v>
+      </c>
+      <c r="C543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>747</v>
+      </c>
+      <c r="B544" t="s">
+        <v>151</v>
+      </c>
+      <c r="C544" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>748</v>
+      </c>
+      <c r="B545" t="s">
+        <v>133</v>
+      </c>
+      <c r="C545" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>749</v>
+      </c>
+      <c r="B546" t="s">
+        <v>78</v>
+      </c>
+      <c r="C546" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>750</v>
+      </c>
+      <c r="B547" t="s">
+        <v>751</v>
+      </c>
+      <c r="C547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>752</v>
+      </c>
+      <c r="B548" t="s">
+        <v>151</v>
+      </c>
+      <c r="C548" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>753</v>
+      </c>
+      <c r="B549" t="s">
+        <v>754</v>
+      </c>
+      <c r="C549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>755</v>
+      </c>
+      <c r="B550" t="s">
+        <v>754</v>
+      </c>
+      <c r="C550" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>756</v>
+      </c>
+      <c r="B551" t="s">
+        <v>115</v>
+      </c>
+      <c r="C551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>757</v>
+      </c>
+      <c r="B552" t="s">
+        <v>115</v>
+      </c>
+      <c r="C552" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid852471"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid601976"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="782">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,129 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>27/08/2024</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>20/08/2024</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>12/08/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>0.906</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
     <t>01/08/2024</t>
   </si>
   <si>
     <t>0.973</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>31/07/2024</t>
   </si>
   <si>
@@ -227,15 +341,9 @@
     <t>05/06/2024</t>
   </si>
   <si>
-    <t>0.976</t>
-  </si>
-  <si>
     <t>04/06/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>03/06/2024</t>
   </si>
   <si>
@@ -260,9 +368,6 @@
     <t>28/05/2024</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>27/05/2024</t>
   </si>
   <si>
@@ -272,9 +377,6 @@
     <t>23/05/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>21/05/2024</t>
   </si>
   <si>
@@ -293,18 +395,12 @@
     <t>14/05/2024</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>13/05/2024</t>
   </si>
   <si>
     <t>10/05/2024</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>09/05/2024</t>
   </si>
   <si>
@@ -332,9 +428,6 @@
     <t>02/05/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>30/04/2024</t>
   </si>
   <si>
@@ -374,9 +467,6 @@
     <t>22/04/2024</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>19/04/2024</t>
   </si>
   <si>
@@ -416,9 +506,6 @@
     <t>08/04/2024</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>05/04/2024</t>
   </si>
   <si>
@@ -431,9 +518,6 @@
     <t>02/04/2024</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>01/04/2024</t>
   </si>
   <si>
@@ -521,9 +605,6 @@
     <t>27/02/2024</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>26/02/2024</t>
   </si>
   <si>
@@ -542,9 +623,6 @@
     <t>20/02/2024</t>
   </si>
   <si>
-    <t>0.922</t>
-  </si>
-  <si>
     <t>19/02/2024</t>
   </si>
   <si>
@@ -2024,9 +2102,6 @@
     <t>01/09/2022</t>
   </si>
   <si>
-    <t>0.906</t>
-  </si>
-  <si>
     <t>31/08/2022</t>
   </si>
   <si>
@@ -2118,9 +2193,6 @@
   </si>
   <si>
     <t>25/07/2022</t>
-  </si>
-  <si>
-    <t>0.924</t>
   </si>
   <si>
     <t>22/07/2022</t>
@@ -2655,7 +2727,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2663,10 +2735,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2674,10 +2746,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2685,10 +2757,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2696,10 +2768,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2707,10 +2779,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2718,10 +2790,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2729,10 +2801,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2740,10 +2812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2754,7 +2826,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2762,10 +2834,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2773,10 +2845,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2784,10 +2856,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2795,10 +2867,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2806,10 +2878,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2817,10 +2889,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2828,10 +2900,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2886,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2894,10 +2966,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2905,10 +2977,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2916,10 +2988,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2927,10 +2999,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2938,10 +3010,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2949,10 +3021,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2960,10 +3032,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2971,10 +3043,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2982,10 +3054,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2993,10 +3065,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3004,10 +3076,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3015,10 +3087,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3026,10 +3098,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3037,10 +3109,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3048,10 +3120,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3059,10 +3131,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3070,10 +3142,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3081,10 +3153,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3092,10 +3164,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3103,10 +3175,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3114,10 +3186,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3125,10 +3197,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
         <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>74</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3136,10 +3208,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3147,10 +3219,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3158,10 +3230,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3169,10 +3241,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3180,10 +3252,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3191,10 +3263,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3202,10 +3274,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3213,10 +3285,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3224,10 +3296,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3235,10 +3307,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3246,10 +3318,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3257,10 +3329,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3268,10 +3340,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3279,10 +3351,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3290,10 +3362,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3301,10 +3373,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3312,10 +3384,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3323,10 +3395,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3334,10 +3406,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3345,10 +3417,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3356,10 +3428,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3367,10 +3439,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3378,10 +3450,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3389,10 +3461,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3403,7 +3475,7 @@
         <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3411,10 +3483,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3422,10 +3494,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3433,10 +3505,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3444,10 +3516,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3455,10 +3527,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3466,10 +3538,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3477,10 +3549,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3488,10 +3560,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3499,10 +3571,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3510,10 +3582,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3521,10 +3593,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3532,10 +3604,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3543,10 +3615,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3554,10 +3626,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3565,10 +3637,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3576,10 +3648,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3587,10 +3659,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3598,10 +3670,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3609,10 +3681,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3620,10 +3692,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
         <v>146</v>
-      </c>
-      <c r="B92" t="s">
-        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3631,10 +3703,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" t="s">
         <v>148</v>
-      </c>
-      <c r="B93" t="s">
-        <v>70</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3645,7 +3717,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3667,7 +3739,7 @@
         <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3675,10 +3747,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s">
         <v>153</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3686,10 +3758,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3697,10 +3769,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3708,10 +3780,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3719,10 +3791,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3730,10 +3802,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3741,10 +3813,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3752,10 +3824,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3763,10 +3835,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3774,10 +3846,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3785,10 +3857,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3796,10 +3868,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3807,10 +3879,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3821,7 +3893,7 @@
         <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3832,7 +3904,7 @@
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3843,7 +3915,7 @@
         <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3851,10 +3923,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3876,7 +3948,7 @@
         <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3884,10 +3956,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3895,10 +3967,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3906,10 +3978,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3917,10 +3989,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3928,10 +4000,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3939,10 +4011,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3950,10 +4022,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3961,10 +4033,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3972,10 +4044,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3983,10 +4055,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3994,10 +4066,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4005,10 +4077,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4016,10 +4088,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4027,10 +4099,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4038,10 +4110,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4049,10 +4121,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4060,10 +4132,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4071,10 +4143,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4082,10 +4154,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4093,10 +4165,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4104,10 +4176,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4115,10 +4187,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4126,10 +4198,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4137,10 +4209,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4148,10 +4220,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4159,10 +4231,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4170,10 +4242,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4181,10 +4253,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4192,10 +4264,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4203,10 +4275,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4214,10 +4286,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B146" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4225,10 +4297,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4236,10 +4308,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4247,10 +4319,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4258,10 +4330,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4269,7 +4341,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
         <v>229</v>
@@ -4280,10 +4352,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4291,10 +4363,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4302,10 +4374,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4313,10 +4385,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4324,7 +4396,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B156" t="s">
         <v>231</v>
@@ -4335,10 +4407,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B157" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4346,10 +4418,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4357,10 +4429,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4368,10 +4440,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4379,10 +4451,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4390,10 +4462,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4401,10 +4473,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B163" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4412,10 +4484,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4423,10 +4495,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4434,10 +4506,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4445,10 +4517,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4456,10 +4528,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4467,10 +4539,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4478,10 +4550,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4489,10 +4561,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4500,10 +4572,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4511,10 +4583,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4522,10 +4594,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4533,10 +4605,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4544,10 +4616,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4555,10 +4627,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4566,10 +4638,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4577,10 +4649,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4588,10 +4660,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4599,10 +4671,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4610,10 +4682,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4621,10 +4693,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B183" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4632,10 +4704,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B184" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4643,10 +4715,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4654,10 +4726,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B186" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4665,10 +4737,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B187" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4676,10 +4748,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4687,10 +4759,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4698,10 +4770,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4709,10 +4781,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4720,10 +4792,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4731,10 +4803,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4742,10 +4814,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B194" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4753,10 +4825,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4764,10 +4836,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4775,10 +4847,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4786,10 +4858,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4797,10 +4869,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4808,10 +4880,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4819,10 +4891,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B201" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4830,10 +4902,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B202" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4841,10 +4913,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4852,10 +4924,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4863,10 +4935,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4874,10 +4946,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4885,10 +4957,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B207" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4896,10 +4968,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4907,10 +4979,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B209" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4918,10 +4990,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B210" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4929,10 +5001,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B211" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4940,10 +5012,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B212" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4951,10 +5023,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B213" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4962,10 +5034,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B214" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4973,10 +5045,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B215" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4984,10 +5056,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B216" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4995,10 +5067,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B217" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5006,10 +5078,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B218" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5017,10 +5089,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B219" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5028,10 +5100,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B220" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5039,10 +5111,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B221" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5050,10 +5122,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B222" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5061,10 +5133,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5072,10 +5144,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B224" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5083,10 +5155,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5094,10 +5166,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B226" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5105,10 +5177,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B227" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5116,10 +5188,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B228" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5127,10 +5199,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B229" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5138,10 +5210,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5149,10 +5221,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B231" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5160,10 +5232,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B232" t="s">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5171,10 +5243,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B233" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5182,10 +5254,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B234" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5193,10 +5265,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B235" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5204,10 +5276,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B236" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5215,10 +5287,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B237" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5226,10 +5298,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B238" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5237,10 +5309,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B239" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5248,10 +5320,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B240" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5259,10 +5331,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B241" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5270,7 +5342,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B242" t="s">
         <v>380</v>
@@ -5281,10 +5353,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B243" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5292,10 +5364,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B244" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5303,10 +5375,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B245" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5314,10 +5386,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B246" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5325,10 +5397,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B247" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5336,10 +5408,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B248" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5347,10 +5419,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B249" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5358,10 +5430,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B250" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5369,10 +5441,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B251" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5380,10 +5452,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B252" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5391,10 +5463,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B253" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5402,10 +5474,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B254" t="s">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5413,10 +5485,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B255" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5424,10 +5496,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B256" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5435,10 +5507,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B257" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5446,10 +5518,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5457,10 +5529,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B259" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5468,10 +5540,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B260" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5479,10 +5551,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B261" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5490,10 +5562,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>405</v>
+      </c>
+      <c r="B262" t="s">
         <v>406</v>
-      </c>
-      <c r="B262" t="s">
-        <v>369</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5504,7 +5576,7 @@
         <v>407</v>
       </c>
       <c r="B263" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5512,10 +5584,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B264" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5523,10 +5595,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B265" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5534,10 +5606,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B266" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5545,10 +5617,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5556,10 +5628,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5567,10 +5639,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B269" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5578,10 +5650,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B270" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5589,10 +5661,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B271" t="s">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5600,10 +5672,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B272" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5611,10 +5683,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B273" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5622,10 +5694,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B274" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5633,10 +5705,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B275" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5644,10 +5716,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B276" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5655,10 +5727,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B277" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5666,10 +5738,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B278" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5677,10 +5749,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B279" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5688,10 +5760,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B280" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5699,10 +5771,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B281" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5710,10 +5782,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B282" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5721,10 +5793,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B283" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5735,7 +5807,7 @@
         <v>432</v>
       </c>
       <c r="B284" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5746,7 +5818,7 @@
         <v>433</v>
       </c>
       <c r="B285" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5757,7 +5829,7 @@
         <v>434</v>
       </c>
       <c r="B286" t="s">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5768,7 +5840,7 @@
         <v>435</v>
       </c>
       <c r="B287" t="s">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5779,7 +5851,7 @@
         <v>436</v>
       </c>
       <c r="B288" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5790,7 +5862,7 @@
         <v>437</v>
       </c>
       <c r="B289" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5801,7 +5873,7 @@
         <v>438</v>
       </c>
       <c r="B290" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5812,7 +5884,7 @@
         <v>439</v>
       </c>
       <c r="B291" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5823,7 +5895,7 @@
         <v>440</v>
       </c>
       <c r="B292" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5834,7 +5906,7 @@
         <v>441</v>
       </c>
       <c r="B293" t="s">
-        <v>442</v>
+        <v>312</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5842,10 +5914,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B294" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5853,10 +5925,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B295" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5864,10 +5936,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>444</v>
+      </c>
+      <c r="B296" t="s">
         <v>445</v>
-      </c>
-      <c r="B296" t="s">
-        <v>356</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5878,7 +5950,7 @@
         <v>446</v>
       </c>
       <c r="B297" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5886,10 +5958,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B298" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5897,10 +5969,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B299" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5908,10 +5980,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B300" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5919,10 +5991,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B301" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5930,10 +6002,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B302" t="s">
-        <v>442</v>
+        <v>261</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5941,10 +6013,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B303" t="s">
-        <v>233</v>
+        <v>445</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5952,10 +6024,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B304" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5963,10 +6035,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B305" t="s">
-        <v>273</v>
+        <v>457</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5974,10 +6046,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B306" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5985,10 +6057,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B307" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5996,10 +6068,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B308" t="s">
-        <v>458</v>
+        <v>284</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6007,10 +6079,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B309" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6018,10 +6090,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B310" t="s">
-        <v>461</v>
+        <v>263</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6029,10 +6101,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B311" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6040,10 +6112,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B312" t="s">
-        <v>458</v>
+        <v>290</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6051,10 +6123,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B313" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6062,10 +6134,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B314" t="s">
-        <v>458</v>
+        <v>288</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6073,10 +6145,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B315" t="s">
-        <v>332</v>
+        <v>468</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6084,10 +6156,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B316" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6095,10 +6167,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B317" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6106,10 +6178,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B318" t="s">
-        <v>268</v>
+        <v>382</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6117,10 +6189,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B319" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6128,10 +6200,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B320" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6139,10 +6211,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B321" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6150,10 +6222,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B322" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6161,10 +6233,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B323" t="s">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6172,10 +6244,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B324" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6183,10 +6255,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B325" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6194,10 +6266,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B326" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6205,10 +6277,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B327" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6216,10 +6288,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B328" t="s">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6227,10 +6299,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B329" t="s">
-        <v>458</v>
+        <v>312</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6238,10 +6310,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B330" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6249,10 +6321,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B331" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6260,10 +6332,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B332" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6271,10 +6343,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B333" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6282,10 +6354,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B334" t="s">
-        <v>356</v>
+        <v>484</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6293,10 +6365,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B335" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6304,10 +6376,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B336" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6315,10 +6387,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B337" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6326,10 +6398,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B338" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6337,10 +6409,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B339" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6348,10 +6420,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B340" t="s">
-        <v>492</v>
+        <v>294</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6359,10 +6431,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B341" t="s">
-        <v>494</v>
+        <v>413</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6370,10 +6442,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B342" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6381,10 +6453,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B343" t="s">
-        <v>497</v>
+        <v>352</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6392,10 +6464,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B344" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6403,10 +6475,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B345" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6414,10 +6486,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B346" t="s">
-        <v>501</v>
+        <v>312</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6428,7 +6500,7 @@
         <v>502</v>
       </c>
       <c r="B347" t="s">
-        <v>497</v>
+        <v>299</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6439,7 +6511,7 @@
         <v>503</v>
       </c>
       <c r="B348" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6450,7 +6522,7 @@
         <v>504</v>
       </c>
       <c r="B349" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6461,7 +6533,7 @@
         <v>505</v>
       </c>
       <c r="B350" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6472,7 +6544,7 @@
         <v>506</v>
       </c>
       <c r="B351" t="s">
-        <v>323</v>
+        <v>484</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6483,7 +6555,7 @@
         <v>507</v>
       </c>
       <c r="B352" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6494,7 +6566,7 @@
         <v>508</v>
       </c>
       <c r="B353" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6505,7 +6577,7 @@
         <v>509</v>
       </c>
       <c r="B354" t="s">
-        <v>326</v>
+        <v>484</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6516,7 +6588,7 @@
         <v>510</v>
       </c>
       <c r="B355" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6527,7 +6599,7 @@
         <v>511</v>
       </c>
       <c r="B356" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6538,7 +6610,7 @@
         <v>512</v>
       </c>
       <c r="B357" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6549,7 +6621,7 @@
         <v>513</v>
       </c>
       <c r="B358" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6560,7 +6632,7 @@
         <v>514</v>
       </c>
       <c r="B359" t="s">
-        <v>492</v>
+        <v>358</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6571,7 +6643,7 @@
         <v>515</v>
       </c>
       <c r="B360" t="s">
-        <v>297</v>
+        <v>487</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6582,7 +6654,7 @@
         <v>516</v>
       </c>
       <c r="B361" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6593,7 +6665,7 @@
         <v>517</v>
       </c>
       <c r="B362" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6601,10 +6673,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B363" t="s">
-        <v>299</v>
+        <v>520</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6612,10 +6684,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B364" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6623,10 +6695,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B365" t="s">
-        <v>297</v>
+        <v>523</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6634,10 +6706,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B366" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6645,10 +6717,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B367" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6656,10 +6728,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B368" t="s">
-        <v>295</v>
+        <v>527</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6667,10 +6739,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B369" t="s">
-        <v>387</v>
+        <v>523</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6678,10 +6750,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B370" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6689,10 +6761,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B371" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6700,10 +6772,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B372" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6711,10 +6783,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B373" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6722,10 +6794,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B374" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6733,10 +6805,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B375" t="s">
-        <v>494</v>
+        <v>354</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6744,10 +6816,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B376" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6755,10 +6827,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B377" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6766,10 +6838,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B378" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6777,10 +6849,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B379" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6788,10 +6860,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B380" t="s">
-        <v>536</v>
+        <v>361</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6799,10 +6871,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B381" t="s">
-        <v>303</v>
+        <v>518</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6810,10 +6882,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B382" t="s">
-        <v>539</v>
+        <v>323</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6821,10 +6893,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B383" t="s">
-        <v>541</v>
+        <v>413</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6832,10 +6904,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B384" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6846,7 +6918,7 @@
         <v>544</v>
       </c>
       <c r="B385" t="s">
-        <v>545</v>
+        <v>325</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6854,10 +6926,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B386" t="s">
-        <v>547</v>
+        <v>370</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6865,10 +6937,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B387" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6876,10 +6948,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B388" t="s">
-        <v>550</v>
+        <v>323</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6887,10 +6959,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B389" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6898,10 +6970,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B390" t="s">
-        <v>547</v>
+        <v>321</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6909,10 +6981,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B391" t="s">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6920,10 +6992,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B392" t="s">
-        <v>555</v>
+        <v>363</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6931,10 +7003,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B393" t="s">
-        <v>557</v>
+        <v>319</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6942,10 +7014,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B394" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6953,10 +7025,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B395" t="s">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6964,10 +7036,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B396" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6975,10 +7047,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B397" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6986,10 +7058,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B398" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6997,10 +7069,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B399" t="s">
-        <v>566</v>
+        <v>319</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7008,10 +7080,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B400" t="s">
-        <v>568</v>
+        <v>347</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7019,10 +7091,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B401" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7030,10 +7102,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B402" t="s">
-        <v>315</v>
+        <v>562</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7041,10 +7113,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B403" t="s">
-        <v>543</v>
+        <v>329</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7052,10 +7124,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B404" t="s">
-        <v>382</v>
+        <v>565</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7063,10 +7135,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B405" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7074,10 +7146,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B406" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7085,10 +7157,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B407" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7096,10 +7168,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B408" t="s">
-        <v>303</v>
+        <v>573</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7107,10 +7179,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B409" t="s">
-        <v>492</v>
+        <v>331</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7118,10 +7190,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B410" t="s">
-        <v>293</v>
+        <v>576</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7129,10 +7201,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B411" t="s">
-        <v>492</v>
+        <v>331</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7140,10 +7212,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B412" t="s">
-        <v>301</v>
+        <v>573</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7151,10 +7223,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B413" t="s">
-        <v>348</v>
+        <v>571</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7162,10 +7234,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B414" t="s">
-        <v>301</v>
+        <v>581</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7173,10 +7245,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B415" t="s">
-        <v>318</v>
+        <v>583</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7184,10 +7256,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B416" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7195,10 +7267,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
+        <v>585</v>
+      </c>
+      <c r="B417" t="s">
         <v>586</v>
-      </c>
-      <c r="B417" t="s">
-        <v>458</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7209,7 +7281,7 @@
         <v>587</v>
       </c>
       <c r="B418" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7220,7 +7292,7 @@
         <v>588</v>
       </c>
       <c r="B419" t="s">
-        <v>461</v>
+        <v>589</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7228,10 +7300,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B420" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7239,10 +7311,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B421" t="s">
-        <v>321</v>
+        <v>592</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7250,10 +7322,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B422" t="s">
-        <v>323</v>
+        <v>594</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7261,10 +7333,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B423" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7272,10 +7344,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B424" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7283,10 +7355,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B425" t="s">
-        <v>492</v>
+        <v>569</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7294,10 +7366,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B426" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7305,10 +7377,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B427" t="s">
-        <v>348</v>
+        <v>600</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7316,10 +7388,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B428" t="s">
-        <v>348</v>
+        <v>600</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7327,10 +7399,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B429" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7338,10 +7410,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B430" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7349,10 +7421,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B431" t="s">
-        <v>337</v>
+        <v>518</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7360,10 +7432,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B432" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7371,10 +7443,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B433" t="s">
-        <v>295</v>
+        <v>518</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7382,10 +7454,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B434" t="s">
-        <v>536</v>
+        <v>327</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7393,10 +7465,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B435" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7404,10 +7476,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B436" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7415,10 +7487,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B437" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7426,10 +7498,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B438" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7437,10 +7509,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B439" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7448,10 +7520,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B440" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7459,10 +7531,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B441" t="s">
-        <v>367</v>
+        <v>487</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7470,10 +7542,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B442" t="s">
-        <v>367</v>
+        <v>523</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7481,10 +7553,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B443" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7492,10 +7564,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B444" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7503,10 +7575,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B445" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7514,10 +7586,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B446" t="s">
-        <v>442</v>
+        <v>321</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7525,10 +7597,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B447" t="s">
-        <v>363</v>
+        <v>518</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7536,10 +7608,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B448" t="s">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7547,10 +7619,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B449" t="s">
-        <v>619</v>
+        <v>374</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7558,10 +7630,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B450" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7569,10 +7641,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B451" t="s">
-        <v>268</v>
+        <v>518</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7580,10 +7652,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B452" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7591,10 +7663,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B453" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7602,10 +7674,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B454" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7613,10 +7685,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B455" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7624,10 +7696,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B456" t="s">
-        <v>246</v>
+        <v>562</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7635,10 +7707,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B457" t="s">
-        <v>219</v>
+        <v>374</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7646,10 +7718,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B458" t="s">
-        <v>629</v>
+        <v>327</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7657,10 +7729,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B459" t="s">
-        <v>631</v>
+        <v>411</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7668,10 +7740,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B460" t="s">
-        <v>633</v>
+        <v>413</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7682,7 +7754,7 @@
         <v>634</v>
       </c>
       <c r="B461" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7693,7 +7765,7 @@
         <v>635</v>
       </c>
       <c r="B462" t="s">
-        <v>636</v>
+        <v>393</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7701,10 +7773,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B463" t="s">
-        <v>638</v>
+        <v>393</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7712,10 +7784,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B464" t="s">
-        <v>638</v>
+        <v>393</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7723,10 +7795,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B465" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7734,10 +7806,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B466" t="s">
-        <v>642</v>
+        <v>286</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7745,10 +7817,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B467" t="s">
-        <v>225</v>
+        <v>455</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7756,10 +7828,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B468" t="s">
-        <v>645</v>
+        <v>468</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7767,10 +7839,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B469" t="s">
-        <v>647</v>
+        <v>389</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7778,10 +7850,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B470" t="s">
-        <v>649</v>
+        <v>259</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7789,10 +7861,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B471" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7800,10 +7872,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B472" t="s">
-        <v>652</v>
+        <v>423</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7811,10 +7883,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B473" t="s">
-        <v>654</v>
+        <v>294</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7822,10 +7894,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B474" t="s">
-        <v>656</v>
+        <v>292</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7833,10 +7905,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B475" t="s">
-        <v>658</v>
+        <v>299</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7844,10 +7916,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B476" t="s">
-        <v>660</v>
+        <v>304</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7855,10 +7927,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B477" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7866,10 +7938,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B478" t="s">
-        <v>663</v>
+        <v>272</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7877,10 +7949,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B479" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7888,10 +7960,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B480" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7899,10 +7971,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B481" t="s">
-        <v>201</v>
+        <v>657</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7910,10 +7982,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B482" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7921,10 +7993,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B483" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7932,10 +8004,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B484" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7943,10 +8015,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B485" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7954,10 +8026,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B486" t="s">
-        <v>179</v>
+        <v>664</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7965,10 +8037,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B487" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7976,10 +8048,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B488" t="s">
-        <v>177</v>
+        <v>668</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7987,10 +8059,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B489" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7998,10 +8070,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B490" t="s">
-        <v>126</v>
+        <v>671</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8009,10 +8081,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B491" t="s">
-        <v>101</v>
+        <v>673</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8020,10 +8092,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B492" t="s">
-        <v>4</v>
+        <v>675</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8031,10 +8103,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B493" t="s">
-        <v>159</v>
+        <v>675</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8042,10 +8114,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B494" t="s">
-        <v>62</v>
+        <v>678</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8053,10 +8125,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B495" t="s">
-        <v>62</v>
+        <v>680</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8064,10 +8136,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B496" t="s">
-        <v>10</v>
+        <v>682</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8075,10 +8147,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B497" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8086,10 +8158,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B498" t="s">
-        <v>78</v>
+        <v>686</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8097,10 +8169,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B499" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8108,10 +8180,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
+        <v>688</v>
+      </c>
+      <c r="B500" t="s">
         <v>689</v>
-      </c>
-      <c r="B500" t="s">
-        <v>690</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8119,10 +8191,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B501" t="s">
-        <v>690</v>
+        <v>223</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8130,10 +8202,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
+        <v>691</v>
+      </c>
+      <c r="B502" t="s">
         <v>692</v>
-      </c>
-      <c r="B502" t="s">
-        <v>101</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8144,7 +8216,7 @@
         <v>693</v>
       </c>
       <c r="B503" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8155,7 +8227,7 @@
         <v>694</v>
       </c>
       <c r="B504" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8166,7 +8238,7 @@
         <v>695</v>
       </c>
       <c r="B505" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8177,7 +8249,7 @@
         <v>696</v>
       </c>
       <c r="B506" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8185,10 +8257,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
+        <v>697</v>
+      </c>
+      <c r="B507" t="s">
         <v>698</v>
-      </c>
-      <c r="B507" t="s">
-        <v>121</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8199,7 +8271,7 @@
         <v>699</v>
       </c>
       <c r="B508" t="s">
-        <v>656</v>
+        <v>205</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8210,7 +8282,7 @@
         <v>700</v>
       </c>
       <c r="B509" t="s">
-        <v>701</v>
+        <v>41</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8218,10 +8290,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B510" t="s">
-        <v>703</v>
+        <v>203</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8229,10 +8301,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B511" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8240,10 +8312,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B512" t="s">
-        <v>706</v>
+        <v>156</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8251,10 +8323,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B513" t="s">
-        <v>708</v>
+        <v>133</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8262,10 +8334,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B514" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8273,10 +8345,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B515" t="s">
-        <v>711</v>
+        <v>187</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8284,10 +8356,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B516" t="s">
-        <v>713</v>
+        <v>100</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8295,10 +8367,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B517" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8306,10 +8378,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B518" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8317,10 +8389,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B519" t="s">
-        <v>193</v>
+        <v>711</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8328,10 +8400,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B520" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8339,10 +8411,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B521" t="s">
-        <v>209</v>
+        <v>711</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8350,10 +8422,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B522" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8361,10 +8433,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B523" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8372,10 +8444,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B524" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8383,10 +8455,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B525" t="s">
-        <v>724</v>
+        <v>148</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8394,10 +8466,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B526" t="s">
-        <v>726</v>
+        <v>148</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8405,10 +8477,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B527" t="s">
-        <v>728</v>
+        <v>153</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8416,10 +8488,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B528" t="s">
-        <v>121</v>
+        <v>722</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8427,10 +8499,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B529" t="s">
-        <v>728</v>
+        <v>151</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8438,10 +8510,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B530" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8449,10 +8521,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B531" t="s">
-        <v>724</v>
+        <v>35</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8460,10 +8532,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B532" t="s">
-        <v>203</v>
+        <v>727</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8471,10 +8543,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B533" t="s">
-        <v>666</v>
+        <v>138</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8482,10 +8554,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B534" t="s">
-        <v>211</v>
+        <v>730</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8493,10 +8565,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B535" t="s">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8504,10 +8576,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B536" t="s">
-        <v>739</v>
+        <v>227</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8515,10 +8587,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B537" t="s">
-        <v>211</v>
+        <v>735</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8526,10 +8598,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B538" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8537,10 +8609,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B539" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8548,10 +8620,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B540" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8559,10 +8631,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B541" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8570,10 +8642,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B542" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8581,10 +8653,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B543" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8592,10 +8664,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B544" t="s">
-        <v>151</v>
+        <v>744</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8603,10 +8675,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B545" t="s">
-        <v>133</v>
+        <v>692</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8614,10 +8686,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B546" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8625,10 +8697,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B547" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8636,10 +8708,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B548" t="s">
-        <v>151</v>
+        <v>750</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8647,10 +8719,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B549" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8658,10 +8730,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B550" t="s">
-        <v>754</v>
+        <v>151</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8669,10 +8741,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B551" t="s">
-        <v>115</v>
+        <v>752</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8680,12 +8752,254 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
+        <v>755</v>
+      </c>
+      <c r="B552" t="s">
+        <v>756</v>
+      </c>
+      <c r="C552" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
         <v>757</v>
       </c>
-      <c r="B552" t="s">
-        <v>115</v>
-      </c>
-      <c r="C552" t="s">
+      <c r="B553" t="s">
+        <v>748</v>
+      </c>
+      <c r="C553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>758</v>
+      </c>
+      <c r="B554" t="s">
+        <v>229</v>
+      </c>
+      <c r="C554" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>759</v>
+      </c>
+      <c r="B555" t="s">
+        <v>692</v>
+      </c>
+      <c r="C555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>760</v>
+      </c>
+      <c r="B556" t="s">
+        <v>237</v>
+      </c>
+      <c r="C556" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>761</v>
+      </c>
+      <c r="B557" t="s">
+        <v>692</v>
+      </c>
+      <c r="C557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>762</v>
+      </c>
+      <c r="B558" t="s">
+        <v>763</v>
+      </c>
+      <c r="C558" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>764</v>
+      </c>
+      <c r="B559" t="s">
+        <v>237</v>
+      </c>
+      <c r="C559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>765</v>
+      </c>
+      <c r="B560" t="s">
+        <v>678</v>
+      </c>
+      <c r="C560" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>766</v>
+      </c>
+      <c r="B561" t="s">
+        <v>144</v>
+      </c>
+      <c r="C561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>767</v>
+      </c>
+      <c r="B562" t="s">
+        <v>28</v>
+      </c>
+      <c r="C562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>768</v>
+      </c>
+      <c r="B563" t="s">
+        <v>110</v>
+      </c>
+      <c r="C563" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>769</v>
+      </c>
+      <c r="B564" t="s">
+        <v>129</v>
+      </c>
+      <c r="C564" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>770</v>
+      </c>
+      <c r="B565" t="s">
+        <v>110</v>
+      </c>
+      <c r="C565" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>771</v>
+      </c>
+      <c r="B566" t="s">
+        <v>179</v>
+      </c>
+      <c r="C566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>772</v>
+      </c>
+      <c r="B567" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>773</v>
+      </c>
+      <c r="B568" t="s">
+        <v>114</v>
+      </c>
+      <c r="C568" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>774</v>
+      </c>
+      <c r="B569" t="s">
+        <v>775</v>
+      </c>
+      <c r="C569" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>776</v>
+      </c>
+      <c r="B570" t="s">
+        <v>179</v>
+      </c>
+      <c r="C570" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>777</v>
+      </c>
+      <c r="B571" t="s">
+        <v>778</v>
+      </c>
+      <c r="C571" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>779</v>
+      </c>
+      <c r="B572" t="s">
+        <v>778</v>
+      </c>
+      <c r="C572" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>780</v>
+      </c>
+      <c r="B573" t="s">
+        <v>146</v>
+      </c>
+      <c r="C573" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>781</v>
+      </c>
+      <c r="B574" t="s">
+        <v>146</v>
+      </c>
+      <c r="C574" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid601976"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid318414"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="806">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,114 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>18/09/2024</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
     <t>03/09/2024</t>
   </si>
   <si>
     <t>0.963</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/09/2024</t>
   </si>
   <si>
@@ -140,9 +239,6 @@
     <t>02/08/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>01/08/2024</t>
   </si>
   <si>
@@ -431,9 +527,6 @@
     <t>30/04/2024</t>
   </si>
   <si>
-    <t>0.943</t>
-  </si>
-  <si>
     <t>29/04/2024</t>
   </si>
   <si>
@@ -443,15 +536,9 @@
     <t>26/04/2024</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
     <t>25/04/2024</t>
   </si>
   <si>
-    <t>0.939</t>
-  </si>
-  <si>
     <t>24/04/2024</t>
   </si>
   <si>
@@ -461,9 +548,6 @@
     <t>23/04/2024</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>22/04/2024</t>
   </si>
   <si>
@@ -476,9 +560,6 @@
     <t>18/04/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>17/04/2024</t>
   </si>
   <si>
@@ -599,9 +680,6 @@
     <t>28/02/2024</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>27/02/2024</t>
   </si>
   <si>
@@ -2183,9 +2261,6 @@
     <t>28/07/2022</t>
   </si>
   <si>
-    <t>0.936</t>
-  </si>
-  <si>
     <t>27/07/2022</t>
   </si>
   <si>
@@ -2349,9 +2424,6 @@
   </si>
   <si>
     <t>27/05/2022</t>
-  </si>
-  <si>
-    <t>0.949</t>
   </si>
   <si>
     <t>26/05/2022</t>
@@ -2716,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2724,10 +2796,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2735,10 +2807,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2746,10 +2818,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2757,10 +2829,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2768,10 +2840,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2779,10 +2851,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2790,10 +2862,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2801,10 +2873,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2812,10 +2884,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2823,10 +2895,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2834,10 +2906,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2845,10 +2917,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2856,10 +2928,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2867,7 +2939,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -2878,10 +2950,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2889,10 +2961,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2900,10 +2972,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2911,10 +2983,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2922,10 +2994,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2933,10 +3005,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2944,10 +3016,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2955,10 +3027,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2966,10 +3038,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2977,10 +3049,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2988,10 +3060,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2999,10 +3071,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3010,10 +3082,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3021,10 +3093,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3032,10 +3104,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3043,10 +3115,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3054,10 +3126,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3065,10 +3137,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3076,10 +3148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3087,10 +3159,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3098,10 +3170,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3109,10 +3181,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3120,10 +3192,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3131,7 +3203,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
@@ -3142,10 +3214,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3153,10 +3225,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3164,10 +3236,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3175,10 +3247,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3186,10 +3258,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3197,10 +3269,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3208,10 +3280,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3219,10 +3291,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3230,10 +3302,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3241,10 +3313,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3252,10 +3324,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3263,10 +3335,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3274,10 +3346,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3285,10 +3357,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3296,10 +3368,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3307,10 +3379,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3318,10 +3390,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3329,10 +3401,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3340,10 +3412,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3351,10 +3423,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3362,10 +3434,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3373,10 +3445,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3384,10 +3456,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3395,10 +3467,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3406,10 +3478,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
         <v>109</v>
-      </c>
-      <c r="B66" t="s">
-        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3417,10 +3489,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
         <v>111</v>
-      </c>
-      <c r="B67" t="s">
-        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3428,10 +3500,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
         <v>113</v>
-      </c>
-      <c r="B68" t="s">
-        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3439,10 +3511,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3450,10 +3522,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3461,10 +3533,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
         <v>117</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3475,7 +3547,7 @@
         <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3486,7 +3558,7 @@
         <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3497,7 +3569,7 @@
         <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3508,7 +3580,7 @@
         <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3519,7 +3591,7 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3527,10 +3599,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3538,10 +3610,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3549,10 +3621,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3560,10 +3632,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3571,10 +3643,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3582,10 +3654,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3593,10 +3665,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3604,10 +3676,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3615,10 +3687,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3626,10 +3698,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3637,10 +3709,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3648,10 +3720,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3659,10 +3731,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3670,10 +3742,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3681,10 +3753,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3692,10 +3764,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3703,10 +3775,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3714,10 +3786,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3725,10 +3797,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3739,7 +3811,7 @@
         <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3747,10 +3819,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3758,10 +3830,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3769,10 +3841,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3780,10 +3852,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3791,10 +3863,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3802,10 +3874,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3813,10 +3885,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3824,10 +3896,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3835,10 +3907,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3846,10 +3918,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3857,10 +3929,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3868,10 +3940,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" t="s">
         <v>167</v>
-      </c>
-      <c r="B108" t="s">
-        <v>48</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3882,7 +3954,7 @@
         <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3893,7 +3965,7 @@
         <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3904,7 +3976,7 @@
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3912,10 +3984,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3926,7 +3998,7 @@
         <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3948,7 +4020,7 @@
         <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3959,7 +4031,7 @@
         <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3981,7 +4053,7 @@
         <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3992,7 +4064,7 @@
         <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4003,7 +4075,7 @@
         <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4011,10 +4083,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4022,10 +4094,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4033,10 +4105,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4044,10 +4116,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4055,10 +4127,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4066,10 +4138,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4077,10 +4149,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4088,10 +4160,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4099,10 +4171,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4110,10 +4182,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4124,7 +4196,7 @@
         <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4135,7 +4207,7 @@
         <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4146,7 +4218,7 @@
         <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4157,7 +4229,7 @@
         <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4165,10 +4237,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4179,7 +4251,7 @@
         <v>201</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4187,10 +4259,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4201,7 +4273,7 @@
         <v>204</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4209,10 +4281,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" t="s">
         <v>206</v>
-      </c>
-      <c r="B139" t="s">
-        <v>207</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4220,10 +4292,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4231,10 +4303,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4242,10 +4314,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4253,10 +4325,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B143" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4264,10 +4336,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4275,10 +4347,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4286,10 +4358,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4297,10 +4369,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4308,10 +4380,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4319,10 +4391,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4330,10 +4402,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4341,10 +4413,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4352,10 +4424,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4363,10 +4435,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4374,10 +4446,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4385,10 +4457,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4396,10 +4468,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4407,10 +4479,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4418,10 +4490,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B158" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4429,10 +4501,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B159" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4440,10 +4512,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4451,10 +4523,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B161" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4462,10 +4534,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>66</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4473,10 +4545,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B163" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4484,10 +4556,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4495,10 +4567,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4506,10 +4578,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4517,10 +4589,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4528,10 +4600,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4539,10 +4611,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4550,10 +4622,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4561,10 +4633,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4572,10 +4644,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4583,7 +4655,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B173" t="s">
         <v>255</v>
@@ -4594,10 +4666,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4605,10 +4677,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4616,10 +4688,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4627,10 +4699,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4638,7 +4710,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B178" t="s">
         <v>257</v>
@@ -4649,10 +4721,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4660,10 +4732,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B180" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4671,10 +4743,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B181" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4682,10 +4754,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B182" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4693,10 +4765,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4704,10 +4776,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4715,10 +4787,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4726,10 +4798,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4737,10 +4809,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4748,10 +4820,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B188" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4759,10 +4831,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4770,10 +4842,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4781,10 +4853,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4792,10 +4864,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B192" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4803,10 +4875,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B193" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4814,10 +4886,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B194" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4825,10 +4897,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B195" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4836,10 +4908,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4847,10 +4919,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B197" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4858,10 +4930,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B198" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4869,10 +4941,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B199" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4880,10 +4952,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B200" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4891,10 +4963,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B201" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4902,10 +4974,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B202" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4913,10 +4985,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B203" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4924,10 +4996,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B204" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4935,10 +5007,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4946,10 +5018,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4957,10 +5029,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B207" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4968,10 +5040,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B208" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4979,10 +5051,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B209" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4990,10 +5062,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B210" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5001,10 +5073,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B211" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5012,10 +5084,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B212" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5023,10 +5095,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B213" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5034,10 +5106,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B214" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5045,10 +5117,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B215" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5056,10 +5128,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B216" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5067,10 +5139,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B217" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5078,10 +5150,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B218" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5089,10 +5161,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B219" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5100,10 +5172,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5111,10 +5183,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B221" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5122,10 +5194,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B222" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5133,10 +5205,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B223" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5144,10 +5216,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5155,10 +5227,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B225" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5166,10 +5238,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B226" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5177,10 +5249,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B227" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5188,10 +5260,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B228" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5199,10 +5271,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B229" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5210,10 +5282,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B230" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5221,10 +5293,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B231" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5232,10 +5304,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B232" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5243,10 +5315,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B233" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5254,10 +5326,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B234" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5265,10 +5337,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B235" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5276,10 +5348,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B236" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5287,10 +5359,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B237" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5298,10 +5370,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B238" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5309,10 +5381,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B239" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5320,10 +5392,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5331,10 +5403,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B241" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5342,10 +5414,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B242" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5353,10 +5425,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B243" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5364,10 +5436,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B244" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5375,10 +5447,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B245" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5386,10 +5458,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B246" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5397,10 +5469,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B247" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5408,10 +5480,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B248" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5419,10 +5491,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B249" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5430,10 +5502,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B250" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5441,10 +5513,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B251" t="s">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5452,10 +5524,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B252" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5463,10 +5535,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B253" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5474,10 +5546,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B254" t="s">
-        <v>296</v>
+        <v>393</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5485,10 +5557,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B255" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5496,10 +5568,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B256" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5507,10 +5579,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B257" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5518,10 +5590,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B258" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5529,10 +5601,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B259" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5540,10 +5612,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B260" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5551,10 +5623,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B261" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5562,10 +5634,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B262" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5573,10 +5645,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B263" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5584,7 +5656,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B264" t="s">
         <v>406</v>
@@ -5595,10 +5667,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B265" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5606,10 +5678,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B266" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5617,10 +5689,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B267" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5628,10 +5700,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B268" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5639,10 +5711,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B269" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5650,10 +5722,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B270" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5661,10 +5733,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B271" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5672,10 +5744,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B272" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5683,10 +5755,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B273" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5694,10 +5766,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B274" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5705,10 +5777,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B275" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5716,10 +5788,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B276" t="s">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5727,10 +5799,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B277" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5738,10 +5810,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B278" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5749,10 +5821,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B279" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5760,10 +5832,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B280" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5771,10 +5843,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B281" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5782,10 +5854,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B282" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5793,10 +5865,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B283" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5804,10 +5876,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
+        <v>431</v>
+      </c>
+      <c r="B284" t="s">
         <v>432</v>
-      </c>
-      <c r="B284" t="s">
-        <v>395</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5818,7 +5890,7 @@
         <v>433</v>
       </c>
       <c r="B285" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5826,10 +5898,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B286" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5837,10 +5909,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B287" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5848,10 +5920,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B288" t="s">
-        <v>259</v>
+        <v>439</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5859,10 +5931,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B289" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5870,10 +5942,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B290" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5881,10 +5953,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B291" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5892,10 +5964,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B292" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5903,10 +5975,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B293" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5914,10 +5986,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B294" t="s">
-        <v>290</v>
+        <v>384</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5925,10 +5997,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B295" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5936,10 +6008,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B296" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5947,10 +6019,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B297" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5958,10 +6030,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B298" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5969,10 +6041,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5980,10 +6052,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>424</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5991,10 +6063,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B301" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6002,10 +6074,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B302" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6013,10 +6085,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B303" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6024,10 +6096,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B304" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6035,10 +6107,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B305" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6049,7 +6121,7 @@
         <v>458</v>
       </c>
       <c r="B306" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6060,7 +6132,7 @@
         <v>459</v>
       </c>
       <c r="B307" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6071,7 +6143,7 @@
         <v>460</v>
       </c>
       <c r="B308" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6082,7 +6154,7 @@
         <v>461</v>
       </c>
       <c r="B309" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6093,7 +6165,7 @@
         <v>462</v>
       </c>
       <c r="B310" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6104,7 +6176,7 @@
         <v>463</v>
       </c>
       <c r="B311" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6115,7 +6187,7 @@
         <v>464</v>
       </c>
       <c r="B312" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6126,7 +6198,7 @@
         <v>465</v>
       </c>
       <c r="B313" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6137,7 +6209,7 @@
         <v>466</v>
       </c>
       <c r="B314" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6148,7 +6220,7 @@
         <v>467</v>
       </c>
       <c r="B315" t="s">
-        <v>468</v>
+        <v>338</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6156,10 +6228,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B316" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6167,10 +6239,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B317" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6178,10 +6250,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
+        <v>470</v>
+      </c>
+      <c r="B318" t="s">
         <v>471</v>
-      </c>
-      <c r="B318" t="s">
-        <v>382</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6192,7 +6264,7 @@
         <v>472</v>
       </c>
       <c r="B319" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6200,10 +6272,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B320" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6211,10 +6283,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B321" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6222,10 +6294,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B322" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6233,10 +6305,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B323" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6244,10 +6316,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B324" t="s">
-        <v>468</v>
+        <v>287</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6255,10 +6327,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B325" t="s">
-        <v>259</v>
+        <v>471</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6266,10 +6338,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B326" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6277,10 +6349,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B327" t="s">
-        <v>299</v>
+        <v>483</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6288,10 +6360,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B328" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6299,10 +6371,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B329" t="s">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6310,10 +6382,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B330" t="s">
-        <v>484</v>
+        <v>310</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6321,10 +6393,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B331" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6332,10 +6404,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B332" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6343,10 +6415,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B333" t="s">
-        <v>487</v>
+        <v>316</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6354,10 +6426,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B334" t="s">
-        <v>484</v>
+        <v>316</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6365,10 +6437,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B335" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6376,10 +6448,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B336" t="s">
-        <v>484</v>
+        <v>314</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6387,10 +6459,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B337" t="s">
-        <v>358</v>
+        <v>494</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6398,10 +6470,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B338" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6409,10 +6481,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B339" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6420,10 +6492,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B340" t="s">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6431,10 +6503,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B341" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6442,10 +6514,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B342" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6453,10 +6525,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B343" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6464,10 +6536,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B344" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6475,10 +6547,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B345" t="s">
-        <v>294</v>
+        <v>449</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6486,10 +6558,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B346" t="s">
-        <v>312</v>
+        <v>494</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6497,10 +6569,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B347" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6508,10 +6580,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B348" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6519,10 +6591,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B349" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6530,10 +6602,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B350" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6541,10 +6613,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B351" t="s">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6552,10 +6624,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B352" t="s">
-        <v>296</v>
+        <v>510</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6563,10 +6635,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B353" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6574,10 +6646,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B354" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6585,10 +6657,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B355" t="s">
-        <v>398</v>
+        <v>513</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6596,10 +6668,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B356" t="s">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6607,10 +6679,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B357" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6618,10 +6690,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B358" t="s">
-        <v>296</v>
+        <v>510</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6629,10 +6701,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6640,10 +6712,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B360" t="s">
-        <v>487</v>
+        <v>384</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6651,10 +6723,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B361" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6662,10 +6734,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B362" t="s">
-        <v>518</v>
+        <v>320</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6673,10 +6745,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B363" t="s">
-        <v>520</v>
+        <v>439</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6684,10 +6756,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B364" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6695,10 +6767,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B365" t="s">
-        <v>523</v>
+        <v>378</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6706,10 +6778,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B366" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6717,10 +6789,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B367" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6728,10 +6800,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B368" t="s">
-        <v>527</v>
+        <v>338</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6742,7 +6814,7 @@
         <v>528</v>
       </c>
       <c r="B369" t="s">
-        <v>523</v>
+        <v>325</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6753,7 +6825,7 @@
         <v>529</v>
       </c>
       <c r="B370" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6764,7 +6836,7 @@
         <v>530</v>
       </c>
       <c r="B371" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6775,7 +6847,7 @@
         <v>531</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6786,7 +6858,7 @@
         <v>532</v>
       </c>
       <c r="B373" t="s">
-        <v>349</v>
+        <v>510</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6797,7 +6869,7 @@
         <v>533</v>
       </c>
       <c r="B374" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6808,7 +6880,7 @@
         <v>534</v>
       </c>
       <c r="B375" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6819,7 +6891,7 @@
         <v>535</v>
       </c>
       <c r="B376" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6830,7 +6902,7 @@
         <v>536</v>
       </c>
       <c r="B377" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6841,7 +6913,7 @@
         <v>537</v>
       </c>
       <c r="B378" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6852,7 +6924,7 @@
         <v>538</v>
       </c>
       <c r="B379" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6863,7 +6935,7 @@
         <v>539</v>
       </c>
       <c r="B380" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6874,7 +6946,7 @@
         <v>540</v>
       </c>
       <c r="B381" t="s">
-        <v>518</v>
+        <v>384</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6885,7 +6957,7 @@
         <v>541</v>
       </c>
       <c r="B382" t="s">
-        <v>323</v>
+        <v>513</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6896,7 +6968,7 @@
         <v>542</v>
       </c>
       <c r="B383" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6907,7 +6979,7 @@
         <v>543</v>
       </c>
       <c r="B384" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6915,10 +6987,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B385" t="s">
-        <v>325</v>
+        <v>546</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6926,10 +6998,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B386" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6937,10 +7009,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B387" t="s">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6948,10 +7020,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B388" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6959,10 +7031,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B389" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6970,10 +7042,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B390" t="s">
-        <v>321</v>
+        <v>553</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6981,10 +7053,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B391" t="s">
-        <v>413</v>
+        <v>549</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6992,10 +7064,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B392" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7003,10 +7075,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B393" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7014,10 +7086,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B394" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7025,10 +7097,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B395" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7036,10 +7108,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B396" t="s">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7047,10 +7119,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B397" t="s">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7058,10 +7130,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B398" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7069,10 +7141,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B399" t="s">
-        <v>319</v>
+        <v>424</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7080,10 +7152,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B400" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7091,10 +7163,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B401" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7102,10 +7174,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>562</v>
+        <v>387</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7113,10 +7185,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B403" t="s">
-        <v>329</v>
+        <v>544</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7124,10 +7196,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B404" t="s">
-        <v>565</v>
+        <v>349</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7135,10 +7207,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B405" t="s">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7146,10 +7218,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B406" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7160,7 +7232,7 @@
         <v>570</v>
       </c>
       <c r="B407" t="s">
-        <v>571</v>
+        <v>351</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7168,10 +7240,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B408" t="s">
-        <v>573</v>
+        <v>396</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7179,10 +7251,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B409" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7190,10 +7262,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B410" t="s">
-        <v>576</v>
+        <v>349</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7201,10 +7273,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B411" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7212,10 +7284,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B412" t="s">
-        <v>573</v>
+        <v>347</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7223,10 +7295,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B413" t="s">
-        <v>571</v>
+        <v>439</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7234,10 +7306,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B414" t="s">
-        <v>581</v>
+        <v>389</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7245,10 +7317,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B415" t="s">
-        <v>583</v>
+        <v>345</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7256,10 +7328,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B416" t="s">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7267,10 +7339,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B417" t="s">
-        <v>586</v>
+        <v>396</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7278,10 +7350,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B418" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7289,10 +7361,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B419" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7300,10 +7372,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B420" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7311,10 +7383,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B421" t="s">
-        <v>592</v>
+        <v>345</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7322,10 +7394,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B422" t="s">
-        <v>594</v>
+        <v>373</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7333,10 +7405,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B423" t="s">
-        <v>337</v>
+        <v>432</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7344,10 +7416,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B424" t="s">
-        <v>341</v>
+        <v>588</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7355,10 +7427,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B425" t="s">
-        <v>569</v>
+        <v>355</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7366,10 +7438,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B426" t="s">
-        <v>408</v>
+        <v>591</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7377,10 +7449,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B427" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7388,10 +7460,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B428" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7399,10 +7471,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B429" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7410,10 +7482,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B430" t="s">
-        <v>329</v>
+        <v>599</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7421,10 +7493,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B431" t="s">
-        <v>518</v>
+        <v>357</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7432,10 +7504,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B432" t="s">
-        <v>319</v>
+        <v>602</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7443,10 +7515,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B433" t="s">
-        <v>518</v>
+        <v>357</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7454,10 +7526,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B434" t="s">
-        <v>327</v>
+        <v>599</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7465,10 +7537,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B435" t="s">
-        <v>374</v>
+        <v>597</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7476,10 +7548,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B436" t="s">
-        <v>327</v>
+        <v>607</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7487,10 +7559,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B437" t="s">
-        <v>344</v>
+        <v>609</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7498,10 +7570,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B438" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7509,10 +7581,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
+        <v>611</v>
+      </c>
+      <c r="B439" t="s">
         <v>612</v>
-      </c>
-      <c r="B439" t="s">
-        <v>484</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7523,7 +7595,7 @@
         <v>613</v>
       </c>
       <c r="B440" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7534,7 +7606,7 @@
         <v>614</v>
       </c>
       <c r="B441" t="s">
-        <v>487</v>
+        <v>615</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7542,10 +7614,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B442" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7553,10 +7625,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B443" t="s">
-        <v>347</v>
+        <v>618</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7564,10 +7636,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B444" t="s">
-        <v>349</v>
+        <v>620</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7575,10 +7647,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B445" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7586,10 +7658,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B446" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7597,10 +7669,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B447" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7608,10 +7680,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B448" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7619,10 +7691,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B449" t="s">
-        <v>374</v>
+        <v>626</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7630,10 +7702,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B450" t="s">
-        <v>374</v>
+        <v>626</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7641,10 +7713,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B451" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7652,10 +7724,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B452" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7663,10 +7735,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B453" t="s">
-        <v>363</v>
+        <v>544</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7674,10 +7746,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B454" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7685,10 +7757,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B455" t="s">
-        <v>321</v>
+        <v>544</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7696,10 +7768,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B456" t="s">
-        <v>562</v>
+        <v>353</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7707,10 +7779,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B457" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7718,10 +7790,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B458" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7729,10 +7801,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B459" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7740,10 +7812,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B460" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7751,10 +7823,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B461" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7762,10 +7834,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B462" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7773,10 +7845,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B463" t="s">
-        <v>393</v>
+        <v>513</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7784,10 +7856,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B464" t="s">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7795,10 +7867,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B465" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7806,10 +7878,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B466" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7817,10 +7889,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B467" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7828,10 +7900,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B468" t="s">
-        <v>468</v>
+        <v>347</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7839,10 +7911,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>389</v>
+        <v>544</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7850,10 +7922,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B470" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7861,10 +7933,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>645</v>
+        <v>400</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7872,10 +7944,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B472" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7883,10 +7955,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B473" t="s">
-        <v>294</v>
+        <v>544</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7894,10 +7966,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B474" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7905,10 +7977,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B475" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7916,10 +7988,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B476" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7927,10 +7999,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B477" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7938,10 +8010,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B478" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7949,10 +8021,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B479" t="s">
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7960,10 +8032,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B480" t="s">
-        <v>655</v>
+        <v>353</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7971,10 +8043,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B481" t="s">
-        <v>657</v>
+        <v>437</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7982,10 +8054,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B482" t="s">
-        <v>659</v>
+        <v>439</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7996,7 +8068,7 @@
         <v>660</v>
       </c>
       <c r="B483" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8007,7 +8079,7 @@
         <v>661</v>
       </c>
       <c r="B484" t="s">
-        <v>662</v>
+        <v>419</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8015,10 +8087,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B485" t="s">
-        <v>664</v>
+        <v>419</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8026,10 +8098,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B486" t="s">
-        <v>664</v>
+        <v>419</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8037,10 +8109,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B487" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8048,10 +8120,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B488" t="s">
-        <v>668</v>
+        <v>312</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8059,10 +8131,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B489" t="s">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8070,10 +8142,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B490" t="s">
-        <v>671</v>
+        <v>494</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8081,10 +8153,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B491" t="s">
-        <v>673</v>
+        <v>415</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8092,10 +8164,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B492" t="s">
-        <v>675</v>
+        <v>285</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8103,10 +8175,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B493" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8114,10 +8186,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B494" t="s">
-        <v>678</v>
+        <v>449</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8125,10 +8197,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B495" t="s">
-        <v>680</v>
+        <v>320</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8136,10 +8208,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B496" t="s">
-        <v>682</v>
+        <v>318</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8147,10 +8219,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B497" t="s">
-        <v>684</v>
+        <v>325</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8158,10 +8230,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B498" t="s">
-        <v>686</v>
+        <v>330</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8169,10 +8241,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B499" t="s">
-        <v>678</v>
+        <v>481</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8180,10 +8252,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B500" t="s">
-        <v>689</v>
+        <v>298</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8191,10 +8263,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B501" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8202,10 +8274,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B502" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8213,10 +8285,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="B503" t="s">
-        <v>227</v>
+        <v>683</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8224,10 +8296,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B504" t="s">
-        <v>39</v>
+        <v>685</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8235,10 +8307,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B505" t="s">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8246,10 +8318,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B506" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8257,10 +8329,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B507" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8268,10 +8340,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B508" t="s">
-        <v>205</v>
+        <v>690</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8279,10 +8351,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B509" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8290,10 +8362,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B510" t="s">
-        <v>203</v>
+        <v>694</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8301,10 +8373,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B511" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8312,10 +8384,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B512" t="s">
-        <v>156</v>
+        <v>697</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8323,10 +8395,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B513" t="s">
-        <v>133</v>
+        <v>699</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8334,10 +8406,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B514" t="s">
-        <v>43</v>
+        <v>701</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8345,10 +8417,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B515" t="s">
-        <v>187</v>
+        <v>701</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8356,10 +8428,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B516" t="s">
-        <v>100</v>
+        <v>704</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8367,10 +8439,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B517" t="s">
-        <v>100</v>
+        <v>706</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8378,10 +8450,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B518" t="s">
-        <v>48</v>
+        <v>708</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8389,10 +8461,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
+        <v>709</v>
+      </c>
+      <c r="B519" t="s">
         <v>710</v>
-      </c>
-      <c r="B519" t="s">
-        <v>711</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8400,10 +8472,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
+        <v>711</v>
+      </c>
+      <c r="B520" t="s">
         <v>712</v>
-      </c>
-      <c r="B520" t="s">
-        <v>114</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8414,7 +8486,7 @@
         <v>713</v>
       </c>
       <c r="B521" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8436,7 +8508,7 @@
         <v>716</v>
       </c>
       <c r="B523" t="s">
-        <v>715</v>
+        <v>249</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8447,7 +8519,7 @@
         <v>717</v>
       </c>
       <c r="B524" t="s">
-        <v>133</v>
+        <v>718</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8455,10 +8527,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B525" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8466,10 +8538,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B526" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8477,10 +8549,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B527" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8488,10 +8560,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B528" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8502,7 +8574,7 @@
         <v>723</v>
       </c>
       <c r="B529" t="s">
-        <v>151</v>
+        <v>724</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8510,10 +8582,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B530" t="s">
-        <v>682</v>
+        <v>231</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8521,10 +8593,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B531" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8532,10 +8604,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B532" t="s">
-        <v>727</v>
+        <v>229</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8546,7 +8618,7 @@
         <v>728</v>
       </c>
       <c r="B533" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8557,7 +8629,7 @@
         <v>729</v>
       </c>
       <c r="B534" t="s">
-        <v>730</v>
+        <v>183</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8565,10 +8637,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B535" t="s">
-        <v>732</v>
+        <v>165</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8576,10 +8648,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B536" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8587,10 +8659,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B537" t="s">
-        <v>735</v>
+        <v>214</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8598,10 +8670,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B538" t="s">
-        <v>737</v>
+        <v>132</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8609,10 +8681,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B539" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8620,10 +8692,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B540" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8631,10 +8703,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B541" t="s">
-        <v>219</v>
+        <v>737</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8642,10 +8714,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B542" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8653,10 +8725,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B543" t="s">
-        <v>235</v>
+        <v>737</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8664,10 +8736,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B544" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8675,10 +8747,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B545" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8686,10 +8758,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B546" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8697,10 +8769,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B547" t="s">
-        <v>748</v>
+        <v>26</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8708,10 +8780,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B548" t="s">
-        <v>750</v>
+        <v>26</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8719,10 +8791,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B549" t="s">
-        <v>752</v>
+        <v>14</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8730,10 +8802,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B550" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8741,10 +8813,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B551" t="s">
-        <v>752</v>
+        <v>179</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8752,10 +8824,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B552" t="s">
-        <v>756</v>
+        <v>708</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8763,10 +8835,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B553" t="s">
-        <v>748</v>
+        <v>68</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8774,10 +8846,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B554" t="s">
-        <v>229</v>
+        <v>752</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8785,10 +8857,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B555" t="s">
-        <v>692</v>
+        <v>4</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8796,10 +8868,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B556" t="s">
-        <v>237</v>
+        <v>755</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8807,10 +8879,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B557" t="s">
-        <v>692</v>
+        <v>757</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8818,10 +8890,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B558" t="s">
-        <v>763</v>
+        <v>253</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8829,10 +8901,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B559" t="s">
-        <v>237</v>
+        <v>760</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8840,10 +8912,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B560" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8851,10 +8923,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B561" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8862,10 +8934,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B562" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8873,10 +8945,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B563" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8884,10 +8956,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B564" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8895,10 +8967,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B565" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8906,10 +8978,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B566" t="s">
-        <v>179</v>
+        <v>769</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8917,10 +8989,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B567" t="s">
-        <v>4</v>
+        <v>718</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -8928,10 +9000,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B568" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -8939,10 +9011,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B569" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -8950,10 +9022,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B570" t="s">
-        <v>179</v>
+        <v>775</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -8961,10 +9033,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
+        <v>776</v>
+      </c>
+      <c r="B571" t="s">
         <v>777</v>
-      </c>
-      <c r="B571" t="s">
-        <v>778</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -8972,10 +9044,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B572" t="s">
-        <v>778</v>
+        <v>179</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -8983,10 +9055,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B573" t="s">
-        <v>146</v>
+        <v>777</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -8994,12 +9066,254 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
+        <v>780</v>
+      </c>
+      <c r="B574" t="s">
         <v>781</v>
       </c>
-      <c r="B574" t="s">
+      <c r="C574" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>782</v>
+      </c>
+      <c r="B575" t="s">
+        <v>773</v>
+      </c>
+      <c r="C575" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>783</v>
+      </c>
+      <c r="B576" t="s">
+        <v>255</v>
+      </c>
+      <c r="C576" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>784</v>
+      </c>
+      <c r="B577" t="s">
+        <v>718</v>
+      </c>
+      <c r="C577" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>785</v>
+      </c>
+      <c r="B578" t="s">
+        <v>263</v>
+      </c>
+      <c r="C578" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>786</v>
+      </c>
+      <c r="B579" t="s">
+        <v>718</v>
+      </c>
+      <c r="C579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>787</v>
+      </c>
+      <c r="B580" t="s">
+        <v>788</v>
+      </c>
+      <c r="C580" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>789</v>
+      </c>
+      <c r="B581" t="s">
+        <v>263</v>
+      </c>
+      <c r="C581" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>790</v>
+      </c>
+      <c r="B582" t="s">
+        <v>704</v>
+      </c>
+      <c r="C582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>791</v>
+      </c>
+      <c r="B583" t="s">
+        <v>21</v>
+      </c>
+      <c r="C583" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>792</v>
+      </c>
+      <c r="B584" t="s">
+        <v>61</v>
+      </c>
+      <c r="C584" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>793</v>
+      </c>
+      <c r="B585" t="s">
+        <v>142</v>
+      </c>
+      <c r="C585" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>794</v>
+      </c>
+      <c r="B586" t="s">
+        <v>161</v>
+      </c>
+      <c r="C586" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>795</v>
+      </c>
+      <c r="B587" t="s">
+        <v>142</v>
+      </c>
+      <c r="C587" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>796</v>
+      </c>
+      <c r="B588" t="s">
+        <v>206</v>
+      </c>
+      <c r="C588" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>797</v>
+      </c>
+      <c r="B589" t="s">
+        <v>38</v>
+      </c>
+      <c r="C589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>798</v>
+      </c>
+      <c r="B590" t="s">
         <v>146</v>
       </c>
-      <c r="C574" t="s">
+      <c r="C590" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>799</v>
+      </c>
+      <c r="B591" t="s">
+        <v>800</v>
+      </c>
+      <c r="C591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>801</v>
+      </c>
+      <c r="B592" t="s">
+        <v>206</v>
+      </c>
+      <c r="C592" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>802</v>
+      </c>
+      <c r="B593" t="s">
+        <v>28</v>
+      </c>
+      <c r="C593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>803</v>
+      </c>
+      <c r="B594" t="s">
+        <v>28</v>
+      </c>
+      <c r="C594" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>804</v>
+      </c>
+      <c r="B595" t="s">
+        <v>175</v>
+      </c>
+      <c r="C595" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>805</v>
+      </c>
+      <c r="B596" t="s">
+        <v>175</v>
+      </c>
+      <c r="C596" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid318414"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid33204"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="825">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,102 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>0.949</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>04/10/2024</t>
+  </si>
+  <si>
     <t>03/10/2024</t>
   </si>
   <si>
     <t>0.943</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/10/2024</t>
   </si>
   <si>
@@ -47,21 +134,12 @@
     <t>27/09/2024</t>
   </si>
   <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>26/09/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>25/09/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>24/09/2024</t>
   </si>
   <si>
@@ -89,21 +167,12 @@
     <t>16/09/2024</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
     <t>13/09/2024</t>
   </si>
   <si>
-    <t>0.947</t>
-  </si>
-  <si>
     <t>12/09/2024</t>
   </si>
   <si>
-    <t>0.949</t>
-  </si>
-  <si>
     <t>11/09/2024</t>
   </si>
   <si>
@@ -125,9 +194,6 @@
     <t>04/09/2024</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>03/09/2024</t>
   </si>
   <si>
@@ -200,9 +266,6 @@
     <t>14/08/2024</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>13/08/2024</t>
   </si>
   <si>
@@ -518,9 +581,6 @@
     <t>03/05/2024</t>
   </si>
   <si>
-    <t>0.954</t>
-  </si>
-  <si>
     <t>02/05/2024</t>
   </si>
   <si>
@@ -564,9 +624,6 @@
   </si>
   <si>
     <t>16/04/2024</t>
-  </si>
-  <si>
-    <t>0.945</t>
   </si>
   <si>
     <t>15/04/2024</t>
@@ -2788,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2796,10 +2853,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2807,10 +2864,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2818,10 +2875,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2829,10 +2886,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2840,10 +2897,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2851,10 +2908,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2862,10 +2919,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2873,10 +2930,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2884,10 +2941,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2895,10 +2952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2906,10 +2963,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2917,10 +2974,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2953,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2961,10 +3018,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2972,10 +3029,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2983,10 +3040,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2994,10 +3051,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3005,10 +3062,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3019,7 +3076,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3027,10 +3084,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3038,10 +3095,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3049,10 +3106,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3060,10 +3117,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3071,10 +3128,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3082,10 +3139,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3093,10 +3150,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3104,10 +3161,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3115,10 +3172,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3126,10 +3183,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3137,10 +3194,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3148,10 +3205,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3159,10 +3216,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3170,10 +3227,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3181,10 +3238,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3192,10 +3249,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3203,10 +3260,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3214,10 +3271,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3225,10 +3282,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3236,10 +3293,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3247,10 +3304,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3258,10 +3315,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3269,10 +3326,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3280,10 +3337,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3291,10 +3348,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3302,10 +3359,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3313,10 +3370,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3324,10 +3381,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3335,10 +3392,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3346,10 +3403,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3357,10 +3414,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3368,10 +3425,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3379,10 +3436,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3390,10 +3447,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3401,10 +3458,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3412,10 +3469,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3423,10 +3480,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3434,10 +3491,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3445,10 +3502,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3456,10 +3513,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3467,10 +3524,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3478,10 +3535,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3489,10 +3546,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3500,10 +3557,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3511,10 +3568,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3522,10 +3579,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3533,10 +3590,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3544,10 +3601,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3555,10 +3612,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3566,10 +3623,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3577,10 +3634,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3588,10 +3645,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3599,10 +3656,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3610,10 +3667,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3621,10 +3678,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3632,10 +3689,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3643,10 +3700,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3654,10 +3711,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3665,10 +3722,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3676,10 +3733,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3687,10 +3744,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3698,10 +3755,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3709,10 +3766,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3720,10 +3777,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3731,10 +3788,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3742,10 +3799,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3753,10 +3810,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3764,10 +3821,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3775,10 +3832,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3786,10 +3843,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3797,10 +3854,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3808,10 +3865,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3819,10 +3876,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3830,10 +3887,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3841,10 +3898,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3852,10 +3909,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3863,10 +3920,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3874,10 +3931,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3885,10 +3942,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3896,10 +3953,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3907,10 +3964,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3918,10 +3975,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3929,10 +3986,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3940,10 +3997,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3951,10 +4008,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3962,10 +4019,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3973,10 +4030,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3984,10 +4041,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3995,10 +4052,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4006,10 +4063,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4017,10 +4074,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4028,10 +4085,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4039,10 +4096,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4050,10 +4107,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4061,10 +4118,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4072,10 +4129,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4083,10 +4140,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4094,10 +4151,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4105,10 +4162,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4116,10 +4173,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4127,10 +4184,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4138,10 +4195,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4149,10 +4206,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4160,10 +4217,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4171,10 +4228,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4182,10 +4239,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4193,10 +4250,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4204,10 +4261,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4215,10 +4272,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4226,10 +4283,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4237,10 +4294,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4248,10 +4305,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4259,10 +4316,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4270,10 +4327,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4281,10 +4338,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4292,10 +4349,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B140" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4303,10 +4360,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4314,10 +4371,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4325,10 +4382,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4336,10 +4393,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4347,10 +4404,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4358,10 +4415,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4369,10 +4426,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4380,10 +4437,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4391,10 +4448,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4402,10 +4459,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B150" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4413,10 +4470,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4424,10 +4481,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4435,10 +4492,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B153" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4446,10 +4503,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B154" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4457,10 +4514,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4468,10 +4525,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4479,10 +4536,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4490,10 +4547,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4501,10 +4558,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4512,10 +4569,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B160" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4523,10 +4580,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B161" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4534,10 +4591,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B162" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4545,10 +4602,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4556,10 +4613,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4567,10 +4624,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4578,10 +4635,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4589,10 +4646,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B167" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4600,10 +4657,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4611,10 +4668,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B169" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4622,10 +4679,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B170" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4633,10 +4690,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4644,10 +4701,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4655,10 +4712,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B173" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4666,10 +4723,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B174" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4677,10 +4734,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B175" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4688,10 +4745,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4699,10 +4756,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B177" t="s">
-        <v>263</v>
+        <v>91</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4710,10 +4767,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4721,10 +4778,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B179" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4732,10 +4789,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4743,10 +4800,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B181" t="s">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4754,10 +4811,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4765,10 +4822,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B183" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4776,10 +4833,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B184" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4787,10 +4844,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4798,10 +4855,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4809,10 +4866,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4820,10 +4877,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4831,10 +4888,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4842,10 +4899,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4853,10 +4910,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B191" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4864,10 +4921,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B192" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4875,10 +4932,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B193" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4886,10 +4943,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B194" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4897,10 +4954,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B195" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4908,10 +4965,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4919,10 +4976,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B197" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4930,10 +4987,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4941,10 +4998,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B199" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4952,10 +5009,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B200" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4963,10 +5020,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B201" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4974,10 +5031,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B202" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4985,10 +5042,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4996,10 +5053,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5007,10 +5064,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B205" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5018,10 +5075,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B206" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5029,10 +5086,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B207" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5040,10 +5097,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B208" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5051,10 +5108,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B209" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5062,10 +5119,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B210" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5073,10 +5130,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B211" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5084,10 +5141,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B212" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5095,10 +5152,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B213" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5106,10 +5163,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B214" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5117,10 +5174,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B215" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5128,10 +5185,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B216" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5139,10 +5196,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B217" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5150,10 +5207,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B218" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5161,10 +5218,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B219" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5172,10 +5229,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B220" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5183,10 +5240,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B221" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5194,10 +5251,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B222" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5205,10 +5262,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B223" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5216,10 +5273,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B224" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5227,10 +5284,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5238,10 +5295,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B226" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5249,10 +5306,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B227" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5260,10 +5317,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B228" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5271,10 +5328,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B229" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5282,10 +5339,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B230" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5293,10 +5350,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B231" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5304,10 +5361,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B232" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5315,10 +5372,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B233" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5326,10 +5383,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B234" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5337,10 +5394,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B235" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5348,10 +5405,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B236" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5359,10 +5416,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B237" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5370,10 +5427,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B238" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5381,10 +5438,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B239" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5392,10 +5449,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B240" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5403,10 +5460,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B241" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5414,10 +5471,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B242" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5425,10 +5482,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B243" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5436,10 +5493,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B244" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5447,10 +5504,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5458,10 +5515,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B246" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5469,10 +5526,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B247" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5480,10 +5537,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B248" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5491,10 +5548,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B249" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5502,10 +5559,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B250" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5513,10 +5570,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B251" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5524,10 +5581,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B252" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5535,10 +5592,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B253" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5546,10 +5603,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B254" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5557,10 +5614,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B255" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5568,10 +5625,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B256" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5579,10 +5636,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B257" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5590,10 +5647,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B258" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5601,10 +5658,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B259" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5612,10 +5669,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B260" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5623,10 +5680,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B261" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5634,10 +5691,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B262" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5645,10 +5702,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B263" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5656,10 +5713,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5667,10 +5724,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B265" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5678,10 +5735,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B266" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5689,10 +5746,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B267" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5700,10 +5757,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B268" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5711,10 +5768,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B269" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5722,10 +5779,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B270" t="s">
-        <v>318</v>
+        <v>408</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5733,10 +5790,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B271" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5744,10 +5801,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B272" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5755,10 +5812,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B273" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5766,10 +5823,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B274" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5777,10 +5834,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B275" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5788,10 +5845,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B276" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5799,10 +5856,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B277" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5810,10 +5867,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B278" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5821,10 +5878,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B279" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5832,10 +5889,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B280" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5843,10 +5900,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B281" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5854,10 +5911,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B282" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5865,10 +5922,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B283" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5876,10 +5933,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B284" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5887,10 +5944,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B285" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5898,10 +5955,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B286" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5909,10 +5966,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B287" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5920,10 +5977,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B288" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5931,10 +5988,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B289" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5942,10 +5999,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B290" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5953,10 +6010,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B291" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5964,10 +6021,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B292" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5975,10 +6032,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B293" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5986,10 +6043,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B294" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5997,10 +6054,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B295" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6008,10 +6065,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B296" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6019,10 +6076,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B297" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6030,10 +6087,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B298" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6041,7 +6098,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B299" t="s">
         <v>419</v>
@@ -6052,10 +6109,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B300" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6063,10 +6120,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B301" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6074,10 +6131,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B302" t="s">
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6085,10 +6142,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B303" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6096,10 +6153,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B304" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6107,10 +6164,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B305" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6118,10 +6175,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B306" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6129,10 +6186,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B307" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6140,10 +6197,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B308" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6151,10 +6208,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B309" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6162,10 +6219,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B310" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6173,10 +6230,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B311" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6184,10 +6241,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B312" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6195,10 +6252,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B313" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6206,10 +6263,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B314" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6217,10 +6274,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B315" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6228,10 +6285,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
+        <v>467</v>
+      </c>
+      <c r="B316" t="s">
         <v>468</v>
-      </c>
-      <c r="B316" t="s">
-        <v>316</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6242,7 +6299,7 @@
         <v>469</v>
       </c>
       <c r="B317" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6253,7 +6310,7 @@
         <v>470</v>
       </c>
       <c r="B318" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6261,10 +6318,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B319" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6272,10 +6329,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B320" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6283,10 +6340,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B321" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6294,10 +6351,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B322" t="s">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6305,10 +6362,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B323" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6316,10 +6373,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B324" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6327,10 +6384,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B325" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6338,10 +6395,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B326" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6349,10 +6406,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B327" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6360,10 +6417,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B328" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6371,10 +6428,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B329" t="s">
-        <v>483</v>
+        <v>304</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6382,10 +6439,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B330" t="s">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6393,10 +6450,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B331" t="s">
-        <v>310</v>
+        <v>468</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6404,10 +6461,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B332" t="s">
-        <v>289</v>
+        <v>434</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6415,10 +6472,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B333" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6426,10 +6483,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B334" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6437,10 +6494,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B335" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6448,10 +6505,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B336" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6459,10 +6516,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B337" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6470,10 +6527,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6481,10 +6538,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B339" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6492,10 +6549,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B340" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6503,10 +6560,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B341" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6514,10 +6571,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B342" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6525,10 +6582,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B343" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6536,10 +6593,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B344" t="s">
-        <v>338</v>
+        <v>490</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6547,10 +6604,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B345" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6558,10 +6615,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B346" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6569,10 +6626,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B347" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6580,10 +6637,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B348" t="s">
-        <v>421</v>
+        <v>502</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6591,10 +6648,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B349" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6602,10 +6659,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B350" t="s">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6613,10 +6670,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B351" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6624,10 +6681,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B352" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6635,10 +6692,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B353" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6646,10 +6703,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B354" t="s">
-        <v>513</v>
+        <v>333</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6657,10 +6714,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B355" t="s">
-        <v>513</v>
+        <v>333</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6668,10 +6725,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B356" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6679,10 +6736,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B357" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6690,10 +6747,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B358" t="s">
-        <v>510</v>
+        <v>425</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6701,10 +6758,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B359" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6712,10 +6769,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B360" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6723,10 +6780,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B361" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6734,10 +6791,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B362" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6745,10 +6802,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B363" t="s">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6756,10 +6813,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B364" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6767,10 +6824,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B365" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6778,10 +6835,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B366" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6789,10 +6846,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B367" t="s">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6800,10 +6857,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B368" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6811,10 +6868,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B369" t="s">
-        <v>325</v>
+        <v>434</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6822,10 +6879,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B370" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6833,10 +6890,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B371" t="s">
-        <v>415</v>
+        <v>529</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6844,10 +6901,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B372" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6855,10 +6912,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
+        <v>531</v>
+      </c>
+      <c r="B373" t="s">
         <v>532</v>
-      </c>
-      <c r="B373" t="s">
-        <v>510</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6869,7 +6926,7 @@
         <v>533</v>
       </c>
       <c r="B374" t="s">
-        <v>322</v>
+        <v>532</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6880,7 +6937,7 @@
         <v>534</v>
       </c>
       <c r="B375" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6891,7 +6948,7 @@
         <v>535</v>
       </c>
       <c r="B376" t="s">
-        <v>510</v>
+        <v>339</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6902,7 +6959,7 @@
         <v>536</v>
       </c>
       <c r="B377" t="s">
-        <v>424</v>
+        <v>529</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6913,7 +6970,7 @@
         <v>537</v>
       </c>
       <c r="B378" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6924,7 +6981,7 @@
         <v>538</v>
       </c>
       <c r="B379" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6935,7 +6992,7 @@
         <v>539</v>
       </c>
       <c r="B380" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6946,7 +7003,7 @@
         <v>540</v>
       </c>
       <c r="B381" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6957,7 +7014,7 @@
         <v>541</v>
       </c>
       <c r="B382" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6968,7 +7025,7 @@
         <v>542</v>
       </c>
       <c r="B383" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6979,7 +7036,7 @@
         <v>543</v>
       </c>
       <c r="B384" t="s">
-        <v>544</v>
+        <v>397</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6987,10 +7044,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B385" t="s">
-        <v>546</v>
+        <v>339</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6998,10 +7055,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B386" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7009,10 +7066,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B387" t="s">
-        <v>549</v>
+        <v>357</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7020,10 +7077,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B388" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7031,10 +7088,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B389" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7042,10 +7099,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B390" t="s">
-        <v>553</v>
+        <v>434</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7053,10 +7110,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B391" t="s">
-        <v>549</v>
+        <v>339</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7064,10 +7121,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B392" t="s">
-        <v>355</v>
+        <v>529</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7075,10 +7132,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B393" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7086,10 +7143,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B394" t="s">
-        <v>396</v>
+        <v>529</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7097,10 +7154,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B395" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7108,10 +7165,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B396" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7119,10 +7176,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B397" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7130,10 +7187,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B398" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7141,10 +7198,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B399" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7152,10 +7209,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B400" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7163,10 +7220,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B401" t="s">
-        <v>347</v>
+        <v>532</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7174,10 +7231,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B402" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7185,10 +7242,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B403" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7196,10 +7253,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B404" t="s">
-        <v>349</v>
+        <v>565</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7207,10 +7264,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B405" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7218,10 +7275,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B406" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7229,10 +7286,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B407" t="s">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7240,10 +7297,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B408" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7251,10 +7308,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
+        <v>571</v>
+      </c>
+      <c r="B409" t="s">
         <v>572</v>
-      </c>
-      <c r="B409" t="s">
-        <v>349</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7265,7 +7322,7 @@
         <v>573</v>
       </c>
       <c r="B410" t="s">
-        <v>349</v>
+        <v>568</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7276,7 +7333,7 @@
         <v>574</v>
       </c>
       <c r="B411" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7287,7 +7344,7 @@
         <v>575</v>
       </c>
       <c r="B412" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7298,7 +7355,7 @@
         <v>576</v>
       </c>
       <c r="B413" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7309,7 +7366,7 @@
         <v>577</v>
       </c>
       <c r="B414" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7320,7 +7377,7 @@
         <v>578</v>
       </c>
       <c r="B415" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7331,7 +7388,7 @@
         <v>579</v>
       </c>
       <c r="B416" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7342,7 +7399,7 @@
         <v>580</v>
       </c>
       <c r="B417" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7353,7 +7410,7 @@
         <v>581</v>
       </c>
       <c r="B418" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7364,7 +7421,7 @@
         <v>582</v>
       </c>
       <c r="B419" t="s">
-        <v>546</v>
+        <v>401</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7375,7 +7432,7 @@
         <v>583</v>
       </c>
       <c r="B420" t="s">
-        <v>439</v>
+        <v>366</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7386,7 +7443,7 @@
         <v>584</v>
       </c>
       <c r="B421" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7397,7 +7454,7 @@
         <v>585</v>
       </c>
       <c r="B422" t="s">
-        <v>373</v>
+        <v>563</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7408,7 +7465,7 @@
         <v>586</v>
       </c>
       <c r="B423" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7419,7 +7476,7 @@
         <v>587</v>
       </c>
       <c r="B424" t="s">
-        <v>588</v>
+        <v>458</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7427,10 +7484,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B425" t="s">
-        <v>355</v>
+        <v>563</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7438,10 +7495,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B426" t="s">
-        <v>591</v>
+        <v>370</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7449,10 +7506,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B427" t="s">
-        <v>593</v>
+        <v>415</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7460,10 +7517,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B428" t="s">
-        <v>595</v>
+        <v>368</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7471,10 +7528,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B429" t="s">
-        <v>597</v>
+        <v>368</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7482,10 +7539,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B430" t="s">
-        <v>599</v>
+        <v>394</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7493,10 +7550,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B431" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7504,10 +7561,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B432" t="s">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7515,10 +7572,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B433" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7526,10 +7583,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B434" t="s">
-        <v>599</v>
+        <v>364</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7537,10 +7594,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B435" t="s">
-        <v>597</v>
+        <v>458</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7548,10 +7605,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B436" t="s">
-        <v>607</v>
+        <v>415</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7559,10 +7616,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B437" t="s">
-        <v>609</v>
+        <v>364</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7570,10 +7627,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B438" t="s">
-        <v>367</v>
+        <v>565</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7581,10 +7638,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B439" t="s">
-        <v>612</v>
+        <v>458</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7592,10 +7649,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B440" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7603,10 +7660,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B441" t="s">
-        <v>615</v>
+        <v>392</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7614,10 +7671,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B442" t="s">
-        <v>607</v>
+        <v>451</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7625,10 +7682,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B443" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7636,10 +7693,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B444" t="s">
-        <v>620</v>
+        <v>374</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7647,10 +7704,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B445" t="s">
-        <v>363</v>
+        <v>610</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7658,10 +7715,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B446" t="s">
-        <v>367</v>
+        <v>612</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7669,10 +7726,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B447" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7680,10 +7737,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B448" t="s">
-        <v>434</v>
+        <v>616</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7691,10 +7748,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B449" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7702,10 +7759,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B450" t="s">
-        <v>626</v>
+        <v>376</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7713,10 +7770,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B451" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7724,10 +7781,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B452" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7735,10 +7792,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B453" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7746,10 +7803,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B454" t="s">
-        <v>345</v>
+        <v>616</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7757,10 +7814,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B455" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7768,10 +7825,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B456" t="s">
-        <v>353</v>
+        <v>628</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7779,10 +7836,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B457" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7790,10 +7847,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B458" t="s">
-        <v>353</v>
+        <v>631</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7801,10 +7858,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B459" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7812,10 +7869,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B460" t="s">
-        <v>437</v>
+        <v>634</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7823,10 +7880,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B461" t="s">
-        <v>510</v>
+        <v>626</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7834,10 +7891,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B462" t="s">
-        <v>347</v>
+        <v>637</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7845,10 +7902,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B463" t="s">
-        <v>513</v>
+        <v>639</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7856,10 +7913,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B464" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7867,10 +7924,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B465" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7878,10 +7935,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B466" t="s">
-        <v>375</v>
+        <v>614</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7889,10 +7946,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B467" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7900,10 +7957,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
+        <v>644</v>
+      </c>
+      <c r="B468" t="s">
         <v>645</v>
-      </c>
-      <c r="B468" t="s">
-        <v>347</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7914,7 +7971,7 @@
         <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>544</v>
+        <v>645</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7925,7 +7982,7 @@
         <v>647</v>
       </c>
       <c r="B470" t="s">
-        <v>400</v>
+        <v>607</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7936,7 +7993,7 @@
         <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7947,7 +8004,7 @@
         <v>649</v>
       </c>
       <c r="B472" t="s">
-        <v>400</v>
+        <v>563</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7958,7 +8015,7 @@
         <v>650</v>
       </c>
       <c r="B473" t="s">
-        <v>544</v>
+        <v>364</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7969,7 +8026,7 @@
         <v>651</v>
       </c>
       <c r="B474" t="s">
-        <v>384</v>
+        <v>563</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7980,7 +8037,7 @@
         <v>652</v>
       </c>
       <c r="B475" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7991,7 +8048,7 @@
         <v>653</v>
       </c>
       <c r="B476" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8002,7 +8059,7 @@
         <v>654</v>
       </c>
       <c r="B477" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8013,7 +8070,7 @@
         <v>655</v>
       </c>
       <c r="B478" t="s">
-        <v>588</v>
+        <v>389</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8024,7 +8081,7 @@
         <v>656</v>
       </c>
       <c r="B479" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8035,7 +8092,7 @@
         <v>657</v>
       </c>
       <c r="B480" t="s">
-        <v>353</v>
+        <v>529</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8046,7 +8103,7 @@
         <v>658</v>
       </c>
       <c r="B481" t="s">
-        <v>437</v>
+        <v>366</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8057,7 +8114,7 @@
         <v>659</v>
       </c>
       <c r="B482" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8068,7 +8125,7 @@
         <v>660</v>
       </c>
       <c r="B483" t="s">
-        <v>380</v>
+        <v>568</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8079,7 +8136,7 @@
         <v>661</v>
       </c>
       <c r="B484" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8090,7 +8147,7 @@
         <v>662</v>
       </c>
       <c r="B485" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8101,7 +8158,7 @@
         <v>663</v>
       </c>
       <c r="B486" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8112,7 +8169,7 @@
         <v>664</v>
       </c>
       <c r="B487" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8123,7 +8180,7 @@
         <v>665</v>
       </c>
       <c r="B488" t="s">
-        <v>312</v>
+        <v>563</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8134,7 +8191,7 @@
         <v>666</v>
       </c>
       <c r="B489" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8145,7 +8202,7 @@
         <v>667</v>
       </c>
       <c r="B490" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8156,7 +8213,7 @@
         <v>668</v>
       </c>
       <c r="B491" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8167,7 +8224,7 @@
         <v>669</v>
       </c>
       <c r="B492" t="s">
-        <v>285</v>
+        <v>563</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8178,7 +8235,7 @@
         <v>670</v>
       </c>
       <c r="B493" t="s">
-        <v>671</v>
+        <v>403</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8186,10 +8243,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B494" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8197,10 +8254,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B495" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8208,10 +8265,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B496" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8219,10 +8276,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B497" t="s">
-        <v>325</v>
+        <v>607</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8230,10 +8287,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B498" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8241,10 +8298,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B499" t="s">
-        <v>481</v>
+        <v>372</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8252,10 +8309,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B500" t="s">
-        <v>298</v>
+        <v>456</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8263,10 +8320,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B501" t="s">
-        <v>271</v>
+        <v>458</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8274,10 +8331,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B502" t="s">
-        <v>681</v>
+        <v>399</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8285,10 +8342,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B503" t="s">
-        <v>683</v>
+        <v>438</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8296,10 +8353,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B504" t="s">
-        <v>685</v>
+        <v>438</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8307,10 +8364,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B505" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8318,10 +8375,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B506" t="s">
-        <v>688</v>
+        <v>331</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8329,10 +8386,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B507" t="s">
-        <v>690</v>
+        <v>331</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8340,10 +8397,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B508" t="s">
-        <v>690</v>
+        <v>500</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8351,10 +8408,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B509" t="s">
-        <v>293</v>
+        <v>513</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8362,10 +8419,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B510" t="s">
-        <v>694</v>
+        <v>434</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8373,10 +8430,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B511" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8384,10 +8441,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B512" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8395,10 +8452,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B513" t="s">
-        <v>699</v>
+        <v>468</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8406,10 +8463,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B514" t="s">
-        <v>701</v>
+        <v>339</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8417,10 +8474,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B515" t="s">
-        <v>701</v>
+        <v>337</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8428,10 +8485,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B516" t="s">
-        <v>704</v>
+        <v>344</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8439,10 +8496,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B517" t="s">
-        <v>706</v>
+        <v>349</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8450,10 +8507,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="B518" t="s">
-        <v>708</v>
+        <v>500</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8461,10 +8518,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B519" t="s">
-        <v>710</v>
+        <v>317</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8472,10 +8529,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B520" t="s">
-        <v>712</v>
+        <v>290</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8483,10 +8540,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="B521" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8494,10 +8551,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B522" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8505,10 +8562,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B523" t="s">
-        <v>249</v>
+        <v>704</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8516,10 +8573,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B524" t="s">
-        <v>718</v>
+        <v>490</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8527,10 +8584,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B525" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8538,10 +8595,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B526" t="s">
-        <v>72</v>
+        <v>709</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8549,10 +8606,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B527" t="s">
-        <v>226</v>
+        <v>709</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8560,10 +8617,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="B528" t="s">
-        <v>712</v>
+        <v>312</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8571,10 +8628,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B529" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8582,10 +8639,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B530" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8593,10 +8650,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B531" t="s">
-        <v>12</v>
+        <v>716</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8604,10 +8661,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B532" t="s">
-        <v>229</v>
+        <v>718</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8615,10 +8672,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B533" t="s">
-        <v>233</v>
+        <v>720</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8626,10 +8683,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B534" t="s">
-        <v>183</v>
+        <v>720</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8637,10 +8694,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B535" t="s">
-        <v>165</v>
+        <v>723</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8648,10 +8705,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B536" t="s">
-        <v>75</v>
+        <v>725</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8659,10 +8716,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B537" t="s">
-        <v>214</v>
+        <v>727</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8670,10 +8727,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B538" t="s">
-        <v>132</v>
+        <v>729</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8681,10 +8738,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B539" t="s">
-        <v>132</v>
+        <v>731</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8692,10 +8749,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B540" t="s">
-        <v>80</v>
+        <v>723</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8703,10 +8760,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B541" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8714,10 +8771,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B542" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8725,7 +8782,7 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B543" t="s">
         <v>737</v>
@@ -8736,10 +8793,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B544" t="s">
-        <v>741</v>
+        <v>272</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8747,10 +8804,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B545" t="s">
-        <v>741</v>
+        <v>93</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8758,10 +8815,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B546" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8769,10 +8826,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B547" t="s">
-        <v>26</v>
+        <v>731</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8780,10 +8837,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B548" t="s">
-        <v>26</v>
+        <v>743</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8791,10 +8848,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B549" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8802,10 +8859,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B550" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8813,10 +8870,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B551" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8824,10 +8881,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B552" t="s">
-        <v>708</v>
+        <v>252</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8835,10 +8892,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B553" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8846,10 +8903,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B554" t="s">
-        <v>752</v>
+        <v>186</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8857,10 +8914,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B555" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8868,10 +8925,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B556" t="s">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8879,10 +8936,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B557" t="s">
-        <v>757</v>
+        <v>153</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8890,10 +8947,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B558" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8901,10 +8958,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B559" t="s">
-        <v>760</v>
+        <v>101</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8912,10 +8969,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B560" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8923,10 +8980,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B561" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8934,10 +8991,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B562" t="s">
-        <v>251</v>
+        <v>756</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8945,10 +9002,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B563" t="s">
-        <v>245</v>
+        <v>760</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8956,10 +9013,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B564" t="s">
-        <v>245</v>
+        <v>760</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8967,10 +9024,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B565" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8978,10 +9035,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B566" t="s">
-        <v>769</v>
+        <v>4</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8989,10 +9046,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B567" t="s">
-        <v>718</v>
+        <v>4</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9000,10 +9057,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B568" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9011,10 +9068,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B569" t="s">
-        <v>773</v>
+        <v>56</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9022,10 +9079,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B570" t="s">
-        <v>775</v>
+        <v>199</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9033,10 +9090,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B571" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9044,10 +9101,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B572" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9055,10 +9112,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B573" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9066,10 +9123,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B574" t="s">
-        <v>781</v>
+        <v>34</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9077,10 +9134,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B575" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9088,10 +9145,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B576" t="s">
-        <v>255</v>
+        <v>776</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9099,10 +9156,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B577" t="s">
-        <v>718</v>
+        <v>272</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9110,10 +9167,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B578" t="s">
-        <v>263</v>
+        <v>779</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9121,10 +9178,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B579" t="s">
-        <v>718</v>
+        <v>781</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9132,10 +9189,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B580" t="s">
-        <v>788</v>
+        <v>270</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9143,10 +9200,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B581" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9154,10 +9211,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B582" t="s">
-        <v>704</v>
+        <v>264</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9165,10 +9222,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B583" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9176,10 +9233,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B584" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9187,10 +9244,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B585" t="s">
-        <v>142</v>
+        <v>788</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9198,10 +9255,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B586" t="s">
-        <v>161</v>
+        <v>737</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9209,10 +9266,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B587" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9220,10 +9277,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B588" t="s">
-        <v>206</v>
+        <v>792</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9231,10 +9288,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B589" t="s">
-        <v>38</v>
+        <v>794</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9242,10 +9299,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B590" t="s">
-        <v>146</v>
+        <v>796</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9253,10 +9310,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B591" t="s">
-        <v>800</v>
+        <v>199</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9264,10 +9321,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B592" t="s">
-        <v>206</v>
+        <v>796</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9275,10 +9332,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B593" t="s">
-        <v>28</v>
+        <v>800</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9286,10 +9343,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B594" t="s">
-        <v>28</v>
+        <v>792</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9297,10 +9354,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B595" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9308,12 +9365,221 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
+        <v>803</v>
+      </c>
+      <c r="B596" t="s">
+        <v>737</v>
+      </c>
+      <c r="C596" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>804</v>
+      </c>
+      <c r="B597" t="s">
+        <v>282</v>
+      </c>
+      <c r="C597" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
         <v>805</v>
       </c>
-      <c r="B596" t="s">
-        <v>175</v>
-      </c>
-      <c r="C596" t="s">
+      <c r="B598" t="s">
+        <v>737</v>
+      </c>
+      <c r="C598" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>806</v>
+      </c>
+      <c r="B599" t="s">
+        <v>807</v>
+      </c>
+      <c r="C599" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>808</v>
+      </c>
+      <c r="B600" t="s">
+        <v>282</v>
+      </c>
+      <c r="C600" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>809</v>
+      </c>
+      <c r="B601" t="s">
+        <v>723</v>
+      </c>
+      <c r="C601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>810</v>
+      </c>
+      <c r="B602" t="s">
+        <v>47</v>
+      </c>
+      <c r="C602" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>811</v>
+      </c>
+      <c r="B603" t="s">
+        <v>20</v>
+      </c>
+      <c r="C603" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>812</v>
+      </c>
+      <c r="B604" t="s">
+        <v>163</v>
+      </c>
+      <c r="C604" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>813</v>
+      </c>
+      <c r="B605" t="s">
+        <v>182</v>
+      </c>
+      <c r="C605" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>814</v>
+      </c>
+      <c r="B606" t="s">
+        <v>163</v>
+      </c>
+      <c r="C606" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>815</v>
+      </c>
+      <c r="B607" t="s">
+        <v>225</v>
+      </c>
+      <c r="C607" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>816</v>
+      </c>
+      <c r="B608" t="s">
+        <v>60</v>
+      </c>
+      <c r="C608" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>817</v>
+      </c>
+      <c r="B609" t="s">
+        <v>167</v>
+      </c>
+      <c r="C609" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>818</v>
+      </c>
+      <c r="B610" t="s">
+        <v>819</v>
+      </c>
+      <c r="C610" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>820</v>
+      </c>
+      <c r="B611" t="s">
+        <v>225</v>
+      </c>
+      <c r="C611" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>821</v>
+      </c>
+      <c r="B612" t="s">
+        <v>7</v>
+      </c>
+      <c r="C612" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>822</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>823</v>
+      </c>
+      <c r="B614" t="s">
+        <v>195</v>
+      </c>
+      <c r="C614" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>824</v>
+      </c>
+      <c r="B615" t="s">
+        <v>195</v>
+      </c>
+      <c r="C615" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid33204"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid200448"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,144 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>02/12/2024</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>26/11/2024</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>21/11/2024</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>18/11/2024</t>
+  </si>
+  <si>
+    <t>0.938</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>05/11/2024</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
     <t>30/10/2024</t>
   </si>
   <si>
     <t>0.947</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/10/2024</t>
   </si>
   <si>
@@ -59,27 +188,18 @@
     <t>23/10/2024</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>22/10/2024</t>
   </si>
   <si>
     <t>21/10/2024</t>
   </si>
   <si>
-    <t>0.954</t>
-  </si>
-  <si>
     <t>18/10/2024</t>
   </si>
   <si>
     <t>17/10/2024</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>16/10/2024</t>
   </si>
   <si>
@@ -101,15 +221,9 @@
     <t>09/10/2024</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>08/10/2024</t>
   </si>
   <si>
-    <t>0.941</t>
-  </si>
-  <si>
     <t>07/10/2024</t>
   </si>
   <si>
@@ -215,9 +329,6 @@
     <t>29/08/2024</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>28/08/2024</t>
   </si>
   <si>
@@ -260,9 +371,6 @@
     <t>15/08/2024</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>14/08/2024</t>
   </si>
   <si>
@@ -272,15 +380,9 @@
     <t>12/08/2024</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>08/08/2024</t>
   </si>
   <si>
-    <t>0.937</t>
-  </si>
-  <si>
     <t>07/08/2024</t>
   </si>
   <si>
@@ -506,9 +608,6 @@
     <t>03/06/2024</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>31/05/2024</t>
   </si>
   <si>
@@ -518,9 +617,6 @@
     <t>30/05/2024</t>
   </si>
   <si>
-    <t>0.959</t>
-  </si>
-  <si>
     <t>29/05/2024</t>
   </si>
   <si>
@@ -602,9 +698,6 @@
     <t>24/04/2024</t>
   </si>
   <si>
-    <t>0.950</t>
-  </si>
-  <si>
     <t>23/04/2024</t>
   </si>
   <si>
@@ -692,9 +785,6 @@
     <t>18/03/2024</t>
   </si>
   <si>
-    <t>0.957</t>
-  </si>
-  <si>
     <t>15/03/2024</t>
   </si>
   <si>
@@ -767,9 +857,6 @@
     <t>16/02/2024</t>
   </si>
   <si>
-    <t>0.932</t>
-  </si>
-  <si>
     <t>15/02/2024</t>
   </si>
   <si>
@@ -2328,9 +2415,6 @@
   </si>
   <si>
     <t>22/07/2022</t>
-  </si>
-  <si>
-    <t>0.931</t>
   </si>
   <si>
     <t>21/07/2022</t>
@@ -2845,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2853,10 +2937,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2864,10 +2948,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2875,10 +2959,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2900,7 +2984,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2908,10 +2992,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2919,10 +3003,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2930,10 +3014,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2941,10 +3025,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2952,10 +3036,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2963,10 +3047,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2974,10 +3058,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2985,10 +3069,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2996,10 +3080,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3007,10 +3091,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3018,10 +3102,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3029,10 +3113,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3040,10 +3124,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3051,10 +3135,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3062,10 +3146,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3073,10 +3157,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3084,10 +3168,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3095,10 +3179,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3106,10 +3190,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3117,10 +3201,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3128,10 +3212,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3139,10 +3223,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3150,10 +3234,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3161,10 +3245,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3172,10 +3256,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3183,10 +3267,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3194,10 +3278,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3205,10 +3289,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3216,10 +3300,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3227,10 +3311,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3238,10 +3322,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3249,10 +3333,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3260,10 +3344,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3271,10 +3355,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3282,10 +3366,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3293,10 +3377,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3304,10 +3388,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3315,10 +3399,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3326,10 +3410,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3337,10 +3421,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3348,7 +3432,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
@@ -3359,10 +3443,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3370,10 +3454,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3381,10 +3465,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3392,10 +3476,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3403,10 +3487,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3414,10 +3498,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3425,10 +3509,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3436,10 +3520,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3447,10 +3531,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3458,10 +3542,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3469,10 +3553,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3480,10 +3564,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3494,7 +3578,7 @@
         <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3502,10 +3586,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3513,10 +3597,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3524,10 +3608,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3535,10 +3619,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3546,10 +3630,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3557,10 +3641,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3568,10 +3652,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3579,10 +3663,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3590,10 +3674,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3601,10 +3685,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3612,10 +3696,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3623,10 +3707,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3634,10 +3718,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3645,10 +3729,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3656,10 +3740,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3667,10 +3751,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3678,10 +3762,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3689,10 +3773,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3700,10 +3784,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3711,10 +3795,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3722,10 +3806,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3733,10 +3817,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3744,10 +3828,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3755,10 +3839,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3766,10 +3850,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3777,10 +3861,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3788,10 +3872,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3799,10 +3883,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3810,10 +3894,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3821,10 +3905,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3832,10 +3916,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3843,10 +3927,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3854,10 +3938,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3865,10 +3949,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3876,10 +3960,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3887,10 +3971,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3898,10 +3982,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3909,10 +3993,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3920,10 +4004,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3931,10 +4015,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3942,10 +4026,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3953,10 +4037,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3964,10 +4048,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3975,10 +4059,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3986,10 +4070,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3997,10 +4081,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4008,10 +4092,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4019,10 +4103,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4030,10 +4114,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4041,10 +4125,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4052,10 +4136,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4063,10 +4147,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4074,10 +4158,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4085,10 +4169,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4096,10 +4180,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4107,10 +4191,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4118,10 +4202,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4129,10 +4213,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" t="s">
         <v>178</v>
-      </c>
-      <c r="B120" t="s">
-        <v>70</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4143,7 +4227,7 @@
         <v>179</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4151,10 +4235,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4162,10 +4246,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4173,10 +4257,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4184,10 +4268,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4195,10 +4279,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4206,10 +4290,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4217,10 +4301,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4228,10 +4312,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4239,10 +4323,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4250,10 +4334,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4261,10 +4345,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4272,10 +4356,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4283,10 +4367,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4294,10 +4378,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4305,10 +4389,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4316,10 +4400,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4327,10 +4411,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4338,10 +4422,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4349,10 +4433,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4360,10 +4444,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4371,10 +4455,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4382,10 +4466,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4393,10 +4477,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4404,10 +4488,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4415,10 +4499,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4426,10 +4510,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4437,10 +4521,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B148" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4448,10 +4532,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B149" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4459,10 +4543,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4470,10 +4554,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B151" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4481,10 +4565,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4492,10 +4576,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4503,10 +4587,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4514,10 +4598,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4525,10 +4609,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4536,10 +4620,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4547,10 +4631,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4558,10 +4642,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B159" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4569,10 +4653,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B160" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4580,10 +4664,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4591,10 +4675,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4602,10 +4686,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4613,10 +4697,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4624,10 +4708,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4635,10 +4719,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B166" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4646,10 +4730,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B167" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4657,10 +4741,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4668,10 +4752,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B169" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4679,10 +4763,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4690,10 +4774,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4701,10 +4785,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4712,10 +4796,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B173" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4723,10 +4807,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4734,10 +4818,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4745,10 +4829,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4756,10 +4840,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B177" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4767,10 +4851,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B178" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4778,10 +4862,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B179" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4803,7 +4887,7 @@
         <v>253</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4814,7 +4898,7 @@
         <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4822,10 +4906,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B183" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4833,10 +4917,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B184" t="s">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4844,10 +4928,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B185" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4855,10 +4939,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B186" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4866,10 +4950,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B187" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4877,10 +4961,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B188" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4888,10 +4972,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B189" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4899,10 +4983,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4910,10 +4994,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B191" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4921,10 +5005,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B192" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4932,10 +5016,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4943,10 +5027,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4954,10 +5038,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B195" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4965,10 +5049,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B196" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4976,10 +5060,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4987,10 +5071,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4998,10 +5082,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5009,10 +5093,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5020,10 +5104,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5031,10 +5115,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B202" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5042,10 +5126,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5053,10 +5137,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5064,10 +5148,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5075,10 +5159,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5086,10 +5170,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B207" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5097,10 +5181,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5108,10 +5192,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5119,10 +5203,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5130,10 +5214,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B211" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5141,10 +5225,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5152,10 +5236,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5163,10 +5247,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B214" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5174,10 +5258,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5185,10 +5269,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5196,10 +5280,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B217" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5207,10 +5291,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B218" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5218,10 +5302,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5229,10 +5313,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B220" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5240,10 +5324,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B221" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5251,10 +5335,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5262,10 +5346,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5273,10 +5357,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B224" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5284,10 +5368,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5295,10 +5379,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5306,10 +5390,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B227" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5317,10 +5401,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B228" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5328,10 +5412,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B229" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5339,10 +5423,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B230" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5350,10 +5434,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B231" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5361,10 +5445,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B232" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5372,10 +5456,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B233" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5383,10 +5467,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B234" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5394,10 +5478,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B235" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5405,10 +5489,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B236" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5416,10 +5500,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B237" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5427,10 +5511,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B238" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5438,10 +5522,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B239" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5449,10 +5533,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B240" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5460,10 +5544,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B241" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5471,10 +5555,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5482,10 +5566,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5493,10 +5577,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B244" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5504,10 +5588,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B245" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5515,10 +5599,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B246" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5526,10 +5610,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B247" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5537,10 +5621,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B248" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5548,10 +5632,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B249" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5559,10 +5643,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B250" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5570,10 +5654,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B251" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5581,10 +5665,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B252" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5592,10 +5676,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B253" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5603,10 +5687,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B254" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5614,10 +5698,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B255" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5625,10 +5709,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B256" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5636,10 +5720,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B257" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5647,10 +5731,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B258" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5658,10 +5742,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B259" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5669,10 +5753,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B260" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5680,10 +5764,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B261" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5691,10 +5775,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B262" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5702,10 +5786,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B263" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5713,10 +5797,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B264" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5724,10 +5808,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B265" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5735,10 +5819,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B266" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5746,10 +5830,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B267" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5757,10 +5841,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B268" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5768,10 +5852,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B269" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5779,10 +5863,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B270" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5790,10 +5874,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B271" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5801,10 +5885,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B272" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5812,10 +5896,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B273" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5823,10 +5907,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B274" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5834,10 +5918,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B275" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5845,10 +5929,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B276" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5856,10 +5940,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B277" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5867,10 +5951,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B278" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5878,10 +5962,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B279" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5889,10 +5973,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B280" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5900,10 +5984,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B281" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5911,10 +5995,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B282" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5922,10 +6006,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B283" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5933,10 +6017,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B284" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5944,10 +6028,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B285" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5955,10 +6039,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B286" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5966,10 +6050,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B287" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5977,10 +6061,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B288" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5988,10 +6072,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B289" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5999,10 +6083,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B290" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6010,10 +6094,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B291" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6021,10 +6105,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B292" t="s">
-        <v>337</v>
+        <v>432</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6032,10 +6116,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B293" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6043,10 +6127,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B294" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6054,10 +6138,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B295" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6065,10 +6149,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B296" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6076,10 +6160,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B297" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6087,10 +6171,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B298" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6098,10 +6182,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B299" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6109,10 +6193,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B300" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6120,10 +6204,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B301" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6131,10 +6215,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B302" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6142,10 +6226,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B303" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6153,10 +6237,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B304" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6164,10 +6248,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B305" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6175,10 +6259,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B306" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6186,10 +6270,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B307" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6197,10 +6281,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B308" t="s">
-        <v>366</v>
+        <v>454</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6208,10 +6292,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B309" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6219,10 +6303,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B310" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6230,10 +6314,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B311" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6241,10 +6325,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B312" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6252,10 +6336,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B313" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6263,10 +6347,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B314" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6274,10 +6358,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B315" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6285,10 +6369,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B316" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6296,10 +6380,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B317" t="s">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6307,10 +6391,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B318" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6318,10 +6402,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B319" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6329,10 +6413,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B320" t="s">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6340,10 +6424,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B321" t="s">
-        <v>341</v>
+        <v>472</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6351,10 +6435,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B322" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6362,10 +6446,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B323" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6373,10 +6457,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B324" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6384,10 +6468,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B325" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6395,10 +6479,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B326" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6406,10 +6490,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B327" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6417,10 +6501,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
+        <v>479</v>
+      </c>
+      <c r="B328" t="s">
         <v>480</v>
-      </c>
-      <c r="B328" t="s">
-        <v>438</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6431,7 +6515,7 @@
         <v>481</v>
       </c>
       <c r="B329" t="s">
-        <v>304</v>
+        <v>482</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6439,10 +6523,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B330" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6450,10 +6534,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B331" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6461,10 +6545,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B332" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6472,10 +6556,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B333" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6483,10 +6567,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B334" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6494,10 +6578,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B335" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6505,10 +6589,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B336" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6516,10 +6600,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B337" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6527,10 +6611,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B338" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6538,10 +6622,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B339" t="s">
-        <v>468</v>
+        <v>391</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6549,10 +6633,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B340" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6560,10 +6644,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B341" t="s">
-        <v>344</v>
+        <v>497</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6571,10 +6655,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B342" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6582,10 +6666,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B343" t="s">
-        <v>306</v>
+        <v>467</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6593,10 +6677,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B344" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6604,10 +6688,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B345" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6615,10 +6699,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B346" t="s">
-        <v>502</v>
+        <v>370</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6629,7 +6713,7 @@
         <v>503</v>
       </c>
       <c r="B347" t="s">
-        <v>312</v>
+        <v>430</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6640,7 +6724,7 @@
         <v>504</v>
       </c>
       <c r="B348" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6651,7 +6735,7 @@
         <v>505</v>
       </c>
       <c r="B349" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6662,7 +6746,7 @@
         <v>506</v>
       </c>
       <c r="B350" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6673,7 +6757,7 @@
         <v>507</v>
       </c>
       <c r="B351" t="s">
-        <v>308</v>
+        <v>467</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6684,7 +6768,7 @@
         <v>508</v>
       </c>
       <c r="B352" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6695,7 +6779,7 @@
         <v>509</v>
       </c>
       <c r="B353" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6717,7 +6801,7 @@
         <v>511</v>
       </c>
       <c r="B355" t="s">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6728,7 +6812,7 @@
         <v>512</v>
       </c>
       <c r="B356" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6736,10 +6820,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B357" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6747,10 +6831,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B358" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6758,10 +6842,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B359" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6769,10 +6853,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B360" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6780,10 +6864,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B361" t="s">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6791,10 +6875,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
+        <v>518</v>
+      </c>
+      <c r="B362" t="s">
         <v>519</v>
-      </c>
-      <c r="B362" t="s">
-        <v>357</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6805,7 +6889,7 @@
         <v>520</v>
       </c>
       <c r="B363" t="s">
-        <v>357</v>
+        <v>521</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6813,10 +6897,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B364" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6824,10 +6908,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B365" t="s">
-        <v>513</v>
+        <v>373</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6835,10 +6919,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B366" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6846,10 +6930,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B367" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6857,10 +6941,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B368" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6868,10 +6952,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B369" t="s">
-        <v>434</v>
+        <v>519</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6879,10 +6963,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B370" t="s">
-        <v>357</v>
+        <v>529</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6890,10 +6974,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B371" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6901,10 +6985,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B372" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6912,10 +6996,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
+        <v>533</v>
+      </c>
+      <c r="B373" t="s">
         <v>531</v>
-      </c>
-      <c r="B373" t="s">
-        <v>532</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6923,10 +7007,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B374" t="s">
-        <v>532</v>
+        <v>358</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6934,10 +7018,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B375" t="s">
-        <v>529</v>
+        <v>358</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6945,10 +7029,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B376" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6956,10 +7040,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B377" t="s">
-        <v>529</v>
+        <v>364</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6967,10 +7051,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B378" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6978,10 +7062,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B379" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6989,10 +7073,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B380" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7000,10 +7084,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B381" t="s">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7011,10 +7095,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B382" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7022,10 +7106,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B383" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7033,10 +7117,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B384" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7044,10 +7128,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B385" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7055,10 +7139,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B386" t="s">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7066,10 +7150,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B387" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7077,10 +7161,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B388" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7088,10 +7172,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B389" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7099,10 +7183,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B390" t="s">
-        <v>434</v>
+        <v>542</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7110,10 +7194,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B391" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7121,10 +7205,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B392" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7132,10 +7216,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B393" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7143,10 +7227,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B394" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7154,10 +7238,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B395" t="s">
-        <v>529</v>
+        <v>386</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7165,10 +7249,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B396" t="s">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7176,10 +7260,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B397" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7187,10 +7271,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B398" t="s">
-        <v>434</v>
+        <v>561</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7198,10 +7282,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B399" t="s">
-        <v>341</v>
+        <v>561</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7209,10 +7293,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B400" t="s">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7220,10 +7304,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B401" t="s">
-        <v>532</v>
+        <v>368</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7231,10 +7315,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>458</v>
+        <v>558</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7242,10 +7326,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B403" t="s">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7253,10 +7337,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B404" t="s">
-        <v>565</v>
+        <v>432</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7264,10 +7348,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B405" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7275,10 +7359,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B406" t="s">
-        <v>568</v>
+        <v>368</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7286,10 +7370,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B407" t="s">
-        <v>412</v>
+        <v>487</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7297,10 +7381,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B408" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7308,10 +7392,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B409" t="s">
-        <v>572</v>
+        <v>426</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7322,7 +7406,7 @@
         <v>573</v>
       </c>
       <c r="B410" t="s">
-        <v>568</v>
+        <v>368</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7333,7 +7417,7 @@
         <v>574</v>
       </c>
       <c r="B411" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7344,7 +7428,7 @@
         <v>575</v>
       </c>
       <c r="B412" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7355,7 +7439,7 @@
         <v>576</v>
       </c>
       <c r="B413" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7366,7 +7450,7 @@
         <v>577</v>
       </c>
       <c r="B414" t="s">
-        <v>394</v>
+        <v>497</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7377,7 +7461,7 @@
         <v>578</v>
       </c>
       <c r="B415" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7388,7 +7472,7 @@
         <v>579</v>
       </c>
       <c r="B416" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7399,7 +7483,7 @@
         <v>580</v>
       </c>
       <c r="B417" t="s">
-        <v>397</v>
+        <v>558</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7410,7 +7494,7 @@
         <v>581</v>
       </c>
       <c r="B418" t="s">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7421,7 +7505,7 @@
         <v>582</v>
       </c>
       <c r="B419" t="s">
-        <v>401</v>
+        <v>558</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7432,7 +7516,7 @@
         <v>583</v>
       </c>
       <c r="B420" t="s">
-        <v>366</v>
+        <v>558</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7443,7 +7527,7 @@
         <v>584</v>
       </c>
       <c r="B421" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7454,7 +7538,7 @@
         <v>585</v>
       </c>
       <c r="B422" t="s">
-        <v>563</v>
+        <v>456</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7465,7 +7549,7 @@
         <v>586</v>
       </c>
       <c r="B423" t="s">
-        <v>368</v>
+        <v>463</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7476,7 +7560,7 @@
         <v>587</v>
       </c>
       <c r="B424" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7487,7 +7571,7 @@
         <v>588</v>
       </c>
       <c r="B425" t="s">
-        <v>563</v>
+        <v>432</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7498,7 +7582,7 @@
         <v>589</v>
       </c>
       <c r="B426" t="s">
-        <v>370</v>
+        <v>561</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7509,7 +7593,7 @@
         <v>590</v>
       </c>
       <c r="B427" t="s">
-        <v>415</v>
+        <v>487</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7520,7 +7604,7 @@
         <v>591</v>
       </c>
       <c r="B428" t="s">
-        <v>368</v>
+        <v>592</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7528,10 +7612,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B429" t="s">
-        <v>368</v>
+        <v>594</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7539,10 +7623,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B430" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7550,10 +7634,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B431" t="s">
-        <v>366</v>
+        <v>597</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7561,10 +7645,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B432" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7572,10 +7656,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B433" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7583,10 +7667,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B434" t="s">
-        <v>364</v>
+        <v>601</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7594,10 +7678,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B435" t="s">
-        <v>458</v>
+        <v>597</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7605,10 +7689,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B436" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7616,10 +7700,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B437" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7627,10 +7711,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B438" t="s">
-        <v>565</v>
+        <v>444</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7638,10 +7722,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B439" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7649,10 +7733,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B440" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7660,10 +7744,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B441" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7671,10 +7755,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B442" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7682,10 +7766,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B443" t="s">
-        <v>607</v>
+        <v>472</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7693,10 +7777,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B444" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7704,10 +7788,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B445" t="s">
-        <v>610</v>
+        <v>395</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7715,10 +7799,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B446" t="s">
-        <v>612</v>
+        <v>435</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7726,10 +7810,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B447" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7740,7 +7824,7 @@
         <v>615</v>
       </c>
       <c r="B448" t="s">
-        <v>616</v>
+        <v>397</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7748,10 +7832,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B449" t="s">
-        <v>618</v>
+        <v>487</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7759,10 +7843,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B450" t="s">
-        <v>376</v>
+        <v>592</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7770,10 +7854,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B451" t="s">
-        <v>621</v>
+        <v>399</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7781,10 +7865,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B452" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7792,10 +7876,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B453" t="s">
-        <v>618</v>
+        <v>397</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7803,10 +7887,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B454" t="s">
-        <v>616</v>
+        <v>397</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7814,10 +7898,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B455" t="s">
-        <v>626</v>
+        <v>423</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7825,10 +7909,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B456" t="s">
-        <v>628</v>
+        <v>395</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7836,10 +7920,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B457" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7847,10 +7931,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B458" t="s">
-        <v>631</v>
+        <v>437</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7858,10 +7942,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B459" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7869,10 +7953,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B460" t="s">
-        <v>634</v>
+        <v>487</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7880,10 +7964,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B461" t="s">
-        <v>626</v>
+        <v>444</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7891,10 +7975,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B462" t="s">
-        <v>637</v>
+        <v>393</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7902,10 +7986,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B463" t="s">
-        <v>639</v>
+        <v>594</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7913,10 +7997,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B464" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7924,10 +8008,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B465" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7935,10 +8019,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B466" t="s">
-        <v>614</v>
+        <v>421</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7946,10 +8030,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B467" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7957,10 +8041,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B468" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7968,10 +8052,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B469" t="s">
-        <v>645</v>
+        <v>403</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7979,10 +8063,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B470" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7990,10 +8074,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B471" t="s">
-        <v>374</v>
+        <v>641</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8001,10 +8085,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B472" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8012,10 +8096,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B473" t="s">
-        <v>364</v>
+        <v>645</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8023,10 +8107,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B474" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8034,10 +8118,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B475" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8045,10 +8129,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B476" t="s">
-        <v>419</v>
+        <v>650</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8056,10 +8140,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B477" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8067,10 +8151,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B478" t="s">
-        <v>389</v>
+        <v>647</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8078,10 +8162,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B479" t="s">
-        <v>456</v>
+        <v>645</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8089,10 +8173,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B480" t="s">
-        <v>529</v>
+        <v>655</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8100,10 +8184,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B481" t="s">
-        <v>366</v>
+        <v>657</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8111,10 +8195,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B482" t="s">
-        <v>532</v>
+        <v>415</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8122,10 +8206,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
+        <v>659</v>
+      </c>
+      <c r="B483" t="s">
         <v>660</v>
-      </c>
-      <c r="B483" t="s">
-        <v>568</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8136,7 +8220,7 @@
         <v>661</v>
       </c>
       <c r="B484" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8147,7 +8231,7 @@
         <v>662</v>
       </c>
       <c r="B485" t="s">
-        <v>394</v>
+        <v>663</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8155,10 +8239,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B486" t="s">
-        <v>366</v>
+        <v>655</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8166,10 +8250,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B487" t="s">
-        <v>366</v>
+        <v>666</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8177,10 +8261,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B488" t="s">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8188,10 +8272,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B489" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8199,10 +8283,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B490" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8210,10 +8294,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B491" t="s">
-        <v>419</v>
+        <v>643</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8221,10 +8305,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B492" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8232,10 +8316,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B493" t="s">
-        <v>403</v>
+        <v>674</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8243,10 +8327,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B494" t="s">
-        <v>408</v>
+        <v>674</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8254,10 +8338,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B495" t="s">
-        <v>368</v>
+        <v>636</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8265,10 +8349,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B496" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8276,10 +8360,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B497" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8287,10 +8371,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B498" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8298,10 +8382,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B499" t="s">
-        <v>372</v>
+        <v>592</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8309,10 +8393,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B500" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8320,10 +8404,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B501" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8331,10 +8415,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B502" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8342,10 +8426,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B503" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8353,10 +8437,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B504" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8364,10 +8448,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B505" t="s">
-        <v>438</v>
+        <v>558</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8375,10 +8459,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B506" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8386,10 +8470,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B507" t="s">
-        <v>331</v>
+        <v>561</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8397,10 +8481,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B508" t="s">
-        <v>500</v>
+        <v>597</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8408,10 +8492,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B509" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8419,10 +8503,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B510" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8430,10 +8514,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B511" t="s">
-        <v>304</v>
+        <v>395</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8441,10 +8525,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B512" t="s">
-        <v>690</v>
+        <v>395</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8452,10 +8536,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B513" t="s">
-        <v>468</v>
+        <v>592</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8463,10 +8547,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B514" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8474,10 +8558,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B515" t="s">
-        <v>337</v>
+        <v>448</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8485,10 +8569,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B516" t="s">
-        <v>344</v>
+        <v>448</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8496,10 +8580,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B517" t="s">
-        <v>349</v>
+        <v>592</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8507,10 +8591,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B518" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8518,10 +8602,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B519" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8529,10 +8613,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B520" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8540,10 +8624,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B521" t="s">
-        <v>700</v>
+        <v>395</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8551,10 +8635,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B522" t="s">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8562,10 +8646,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B523" t="s">
-        <v>704</v>
+        <v>448</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8576,7 +8660,7 @@
         <v>705</v>
       </c>
       <c r="B524" t="s">
-        <v>490</v>
+        <v>401</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8587,7 +8671,7 @@
         <v>706</v>
       </c>
       <c r="B525" t="s">
-        <v>707</v>
+        <v>485</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8595,10 +8679,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B526" t="s">
-        <v>709</v>
+        <v>487</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8606,10 +8690,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B527" t="s">
-        <v>709</v>
+        <v>428</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8617,10 +8701,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B528" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8628,10 +8712,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B529" t="s">
-        <v>713</v>
+        <v>467</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8639,10 +8723,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B530" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8650,10 +8734,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B531" t="s">
-        <v>716</v>
+        <v>360</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8661,10 +8745,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B532" t="s">
-        <v>718</v>
+        <v>360</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8672,10 +8756,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B533" t="s">
-        <v>720</v>
+        <v>529</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8683,10 +8767,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B534" t="s">
-        <v>720</v>
+        <v>542</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8694,10 +8778,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B535" t="s">
-        <v>723</v>
+        <v>463</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8705,10 +8789,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B536" t="s">
-        <v>725</v>
+        <v>333</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8716,10 +8800,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B537" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8727,10 +8811,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B538" t="s">
-        <v>729</v>
+        <v>497</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8738,10 +8822,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B539" t="s">
-        <v>731</v>
+        <v>368</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8749,10 +8833,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B540" t="s">
-        <v>723</v>
+        <v>366</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8760,10 +8844,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B541" t="s">
-        <v>734</v>
+        <v>373</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8771,10 +8855,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B542" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8782,10 +8866,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B543" t="s">
-        <v>737</v>
+        <v>529</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8793,10 +8877,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B544" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8804,10 +8888,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="B545" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8815,10 +8899,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B546" t="s">
-        <v>245</v>
+        <v>729</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8826,7 +8910,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B547" t="s">
         <v>731</v>
@@ -8837,10 +8921,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B548" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8848,10 +8932,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B549" t="s">
-        <v>250</v>
+        <v>519</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8859,10 +8943,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B550" t="s">
-        <v>28</v>
+        <v>736</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8870,10 +8954,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B551" t="s">
-        <v>248</v>
+        <v>738</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8881,10 +8965,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B552" t="s">
-        <v>252</v>
+        <v>738</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8892,10 +8976,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B553" t="s">
-        <v>26</v>
+        <v>341</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8903,10 +8987,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B554" t="s">
-        <v>186</v>
+        <v>742</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8914,10 +8998,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B555" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8925,10 +9009,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B556" t="s">
-        <v>233</v>
+        <v>745</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8936,10 +9020,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B557" t="s">
-        <v>153</v>
+        <v>747</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8947,10 +9031,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B558" t="s">
-        <v>153</v>
+        <v>749</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8958,10 +9042,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B559" t="s">
-        <v>101</v>
+        <v>749</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8969,10 +9053,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B560" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8980,10 +9064,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B561" t="s">
-        <v>167</v>
+        <v>754</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8991,7 +9075,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B562" t="s">
         <v>756</v>
@@ -9002,10 +9086,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B563" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9013,7 +9097,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B564" t="s">
         <v>760</v>
@@ -9024,10 +9108,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B565" t="s">
-        <v>186</v>
+        <v>752</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9035,10 +9119,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
+        <v>762</v>
+      </c>
+      <c r="B566" t="s">
         <v>763</v>
-      </c>
-      <c r="B566" t="s">
-        <v>4</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9049,7 +9133,7 @@
         <v>764</v>
       </c>
       <c r="B567" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9060,7 +9144,7 @@
         <v>765</v>
       </c>
       <c r="B568" t="s">
-        <v>30</v>
+        <v>766</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9068,10 +9152,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B569" t="s">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9079,10 +9163,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B570" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9090,10 +9174,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B571" t="s">
-        <v>727</v>
+        <v>275</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9101,10 +9185,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B572" t="s">
-        <v>89</v>
+        <v>760</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9112,10 +9196,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B573" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9123,10 +9207,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B574" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9134,10 +9218,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B575" t="s">
-        <v>774</v>
+        <v>20</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9148,7 +9232,7 @@
         <v>775</v>
       </c>
       <c r="B576" t="s">
-        <v>776</v>
+        <v>278</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9156,10 +9240,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B577" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9167,10 +9251,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B578" t="s">
-        <v>779</v>
+        <v>66</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9178,10 +9262,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B579" t="s">
-        <v>781</v>
+        <v>218</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9189,10 +9273,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B580" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9200,10 +9284,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B581" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9211,10 +9295,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B582" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9222,10 +9306,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B583" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9233,10 +9317,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B584" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9244,10 +9328,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B585" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9255,10 +9339,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B586" t="s">
-        <v>737</v>
+        <v>36</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9266,10 +9350,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B587" t="s">
-        <v>276</v>
+        <v>785</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9277,10 +9361,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B588" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9288,10 +9372,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B589" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9299,10 +9383,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B590" t="s">
-        <v>796</v>
+        <v>218</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9310,10 +9394,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B591" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9321,10 +9405,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B592" t="s">
-        <v>796</v>
+        <v>48</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9332,10 +9416,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B593" t="s">
-        <v>800</v>
+        <v>22</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9343,10 +9427,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B594" t="s">
-        <v>792</v>
+        <v>94</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9354,10 +9438,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B595" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9365,10 +9449,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B596" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9376,10 +9460,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B597" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9387,10 +9471,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B598" t="s">
-        <v>737</v>
+        <v>45</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9398,10 +9482,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B599" t="s">
-        <v>807</v>
+        <v>72</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9409,10 +9493,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B600" t="s">
-        <v>282</v>
+        <v>802</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9420,10 +9504,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B601" t="s">
-        <v>723</v>
+        <v>804</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9431,10 +9515,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B602" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9442,10 +9526,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B603" t="s">
-        <v>20</v>
+        <v>807</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9453,10 +9537,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B604" t="s">
-        <v>163</v>
+        <v>809</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9464,10 +9548,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B605" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9475,10 +9559,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B606" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9486,10 +9570,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B607" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9497,10 +9581,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B608" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9508,10 +9592,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B609" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9519,10 +9603,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B610" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9530,10 +9614,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B611" t="s">
-        <v>225</v>
+        <v>766</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9541,10 +9625,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B612" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9552,10 +9636,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B613" t="s">
-        <v>7</v>
+        <v>820</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9563,10 +9647,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B614" t="s">
-        <v>195</v>
+        <v>822</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9574,12 +9658,287 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
+        <v>823</v>
+      </c>
+      <c r="B615" t="s">
         <v>824</v>
       </c>
-      <c r="B615" t="s">
-        <v>195</v>
-      </c>
       <c r="C615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>825</v>
+      </c>
+      <c r="B616" t="s">
+        <v>230</v>
+      </c>
+      <c r="C616" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>826</v>
+      </c>
+      <c r="B617" t="s">
+        <v>824</v>
+      </c>
+      <c r="C617" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>827</v>
+      </c>
+      <c r="B618" t="s">
+        <v>828</v>
+      </c>
+      <c r="C618" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>829</v>
+      </c>
+      <c r="B619" t="s">
+        <v>820</v>
+      </c>
+      <c r="C619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>830</v>
+      </c>
+      <c r="B620" t="s">
+        <v>303</v>
+      </c>
+      <c r="C620" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>831</v>
+      </c>
+      <c r="B621" t="s">
+        <v>766</v>
+      </c>
+      <c r="C621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>832</v>
+      </c>
+      <c r="B622" t="s">
+        <v>311</v>
+      </c>
+      <c r="C622" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>833</v>
+      </c>
+      <c r="B623" t="s">
+        <v>766</v>
+      </c>
+      <c r="C623" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>834</v>
+      </c>
+      <c r="B624" t="s">
+        <v>835</v>
+      </c>
+      <c r="C624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>836</v>
+      </c>
+      <c r="B625" t="s">
+        <v>311</v>
+      </c>
+      <c r="C625" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>837</v>
+      </c>
+      <c r="B626" t="s">
+        <v>752</v>
+      </c>
+      <c r="C626" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>838</v>
+      </c>
+      <c r="B627" t="s">
+        <v>85</v>
+      </c>
+      <c r="C627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>839</v>
+      </c>
+      <c r="B628" t="s">
+        <v>18</v>
+      </c>
+      <c r="C628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>840</v>
+      </c>
+      <c r="B629" t="s">
+        <v>8</v>
+      </c>
+      <c r="C629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>841</v>
+      </c>
+      <c r="B630" t="s">
+        <v>214</v>
+      </c>
+      <c r="C630" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>842</v>
+      </c>
+      <c r="B631" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>843</v>
+      </c>
+      <c r="B632" t="s">
+        <v>38</v>
+      </c>
+      <c r="C632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>844</v>
+      </c>
+      <c r="B633" t="s">
+        <v>98</v>
+      </c>
+      <c r="C633" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>845</v>
+      </c>
+      <c r="B634" t="s">
+        <v>36</v>
+      </c>
+      <c r="C634" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>846</v>
+      </c>
+      <c r="B635" t="s">
+        <v>847</v>
+      </c>
+      <c r="C635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>848</v>
+      </c>
+      <c r="B636" t="s">
+        <v>38</v>
+      </c>
+      <c r="C636" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>849</v>
+      </c>
+      <c r="B637" t="s">
+        <v>50</v>
+      </c>
+      <c r="C637" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>850</v>
+      </c>
+      <c r="B638" t="s">
+        <v>50</v>
+      </c>
+      <c r="C638" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>851</v>
+      </c>
+      <c r="B639" t="s">
+        <v>16</v>
+      </c>
+      <c r="C639" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>852</v>
+      </c>
+      <c r="B640" t="s">
+        <v>16</v>
+      </c>
+      <c r="C640" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid200448"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid482787"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="884">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,30 +26,165 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
     <t>05/12/2024</t>
   </si>
   <si>
     <t>0.969</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
     <t>03/12/2024</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>02/12/2024</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>29/11/2024</t>
   </si>
   <si>
@@ -65,9 +200,6 @@
     <t>27/11/2024</t>
   </si>
   <si>
-    <t>0.950</t>
-  </si>
-  <si>
     <t>26/11/2024</t>
   </si>
   <si>
@@ -140,9 +272,6 @@
     <t>06/11/2024</t>
   </si>
   <si>
-    <t>0.955</t>
-  </si>
-  <si>
     <t>05/11/2024</t>
   </si>
   <si>
@@ -317,9 +446,6 @@
     <t>02/09/2024</t>
   </si>
   <si>
-    <t>0.976</t>
-  </si>
-  <si>
     <t>30/08/2024</t>
   </si>
   <si>
@@ -332,21 +458,12 @@
     <t>28/08/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>27/08/2024</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>26/08/2024</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>23/08/2024</t>
   </si>
   <si>
@@ -428,9 +545,6 @@
     <t>26/07/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>25/07/2024</t>
   </si>
   <si>
@@ -578,15 +692,9 @@
     <t>12/06/2024</t>
   </si>
   <si>
-    <t>0.986</t>
-  </si>
-  <si>
     <t>11/06/2024</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>10/06/2024</t>
   </si>
   <si>
@@ -773,9 +881,6 @@
     <t>21/03/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>20/03/2024</t>
   </si>
   <si>
@@ -806,9 +911,6 @@
     <t>07/03/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>06/03/2024</t>
   </si>
   <si>
@@ -2372,9 +2474,6 @@
     <t>11/08/2022</t>
   </si>
   <si>
-    <t>0.966</t>
-  </si>
-  <si>
     <t>10/08/2022</t>
   </si>
   <si>
@@ -2384,9 +2483,6 @@
     <t>05/08/2022</t>
   </si>
   <si>
-    <t>0.970</t>
-  </si>
-  <si>
     <t>04/08/2022</t>
   </si>
   <si>
@@ -2556,9 +2652,6 @@
   </si>
   <si>
     <t>31/05/2022</t>
-  </si>
-  <si>
-    <t>0.960</t>
   </si>
   <si>
     <t>30/05/2022</t>
@@ -2929,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2937,10 +3030,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2948,10 +3041,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2959,10 +3052,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2984,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2992,10 +3085,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3003,10 +3096,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3014,10 +3107,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3025,10 +3118,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3036,10 +3129,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3047,10 +3140,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3058,10 +3151,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3069,10 +3162,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3083,7 +3176,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3091,10 +3184,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3102,10 +3195,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3113,10 +3206,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3124,10 +3217,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3135,10 +3228,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3146,7 +3239,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -3157,10 +3250,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3171,7 +3264,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3179,10 +3272,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3193,7 +3286,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3201,10 +3294,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3212,10 +3305,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3223,10 +3316,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3234,7 +3327,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -3245,10 +3338,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3256,10 +3349,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3267,10 +3360,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3278,10 +3371,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3292,7 +3385,7 @@
         <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3303,7 +3396,7 @@
         <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3311,10 +3404,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3322,10 +3415,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3333,10 +3426,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3344,10 +3437,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3355,10 +3448,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3366,10 +3459,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3377,10 +3470,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3388,10 +3481,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3399,10 +3492,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3410,10 +3503,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3421,10 +3514,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3432,10 +3525,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3443,10 +3536,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3454,10 +3547,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3465,10 +3558,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3476,10 +3569,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3487,10 +3580,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3498,10 +3591,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3509,10 +3602,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3520,10 +3613,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3531,10 +3624,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3542,10 +3635,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3553,10 +3646,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3564,10 +3657,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3575,10 +3668,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3586,10 +3679,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3597,10 +3690,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3608,10 +3701,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3619,10 +3712,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3630,10 +3723,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3641,10 +3734,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3652,10 +3745,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3663,10 +3756,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3674,10 +3767,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3685,10 +3778,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3696,10 +3789,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3707,10 +3800,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3718,10 +3811,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3729,10 +3822,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3740,10 +3833,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3751,10 +3844,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3762,10 +3855,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3773,10 +3866,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3784,10 +3877,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3795,10 +3888,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3806,10 +3899,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3817,10 +3910,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3828,10 +3921,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3839,10 +3932,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3850,10 +3943,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3861,10 +3954,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3872,10 +3965,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3883,10 +3976,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3894,10 +3987,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3905,10 +3998,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3916,10 +4009,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3927,10 +4020,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3938,10 +4031,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3949,10 +4042,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3960,10 +4053,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3971,10 +4064,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3982,10 +4075,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3996,7 +4089,7 @@
         <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4004,10 +4097,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4015,10 +4108,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4026,10 +4119,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4037,10 +4130,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4048,10 +4141,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4059,10 +4152,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4070,10 +4163,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4081,10 +4174,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4092,10 +4185,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4103,10 +4196,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4114,10 +4207,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4125,10 +4218,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4136,10 +4229,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4147,10 +4240,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B114" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4158,10 +4251,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4169,10 +4262,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4180,10 +4273,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4191,10 +4284,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4202,10 +4295,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4213,10 +4306,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4224,10 +4317,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4235,10 +4328,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4246,10 +4339,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4257,10 +4350,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4268,10 +4361,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4279,10 +4372,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4290,10 +4383,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4301,10 +4394,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4312,10 +4405,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4323,10 +4416,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4334,10 +4427,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4345,10 +4438,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4356,10 +4449,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4367,10 +4460,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4378,10 +4471,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4389,10 +4482,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4400,10 +4493,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4411,10 +4504,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4422,10 +4515,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" t="s">
         <v>204</v>
-      </c>
-      <c r="B139" t="s">
-        <v>102</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4436,7 +4529,7 @@
         <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4444,10 +4537,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4455,10 +4548,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4466,10 +4559,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4477,10 +4570,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4488,10 +4581,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4499,10 +4592,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4510,10 +4603,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4521,10 +4614,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4532,10 +4625,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4543,10 +4636,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4554,10 +4647,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4565,10 +4658,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4576,10 +4669,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4587,10 +4680,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4598,10 +4691,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4609,10 +4702,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4620,10 +4713,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B157" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4631,10 +4724,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4642,10 +4735,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B159" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4653,10 +4746,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4664,10 +4757,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4675,10 +4768,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4686,10 +4779,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4697,10 +4790,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4708,10 +4801,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4719,10 +4812,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4730,10 +4823,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4741,10 +4834,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4752,10 +4845,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B169" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4763,10 +4856,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4774,10 +4867,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4785,10 +4878,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4796,10 +4889,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B173" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4807,10 +4900,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B174" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4818,10 +4911,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4829,10 +4922,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4840,10 +4933,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B177" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4851,10 +4944,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B178" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4862,10 +4955,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B179" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4873,10 +4966,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B180" t="s">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4884,10 +4977,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4895,10 +4988,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4906,10 +4999,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4917,10 +5010,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4928,10 +5021,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4939,10 +5032,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4950,10 +5043,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4961,10 +5054,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4972,10 +5065,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4983,10 +5076,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4994,10 +5087,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B191" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5005,10 +5098,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5016,10 +5109,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B193" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5027,10 +5120,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B194" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5038,10 +5131,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5049,10 +5142,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5060,10 +5153,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5071,10 +5164,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5082,10 +5175,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5093,10 +5186,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5104,10 +5197,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5115,10 +5208,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5126,10 +5219,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5137,10 +5230,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5148,10 +5241,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5159,10 +5252,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5170,10 +5263,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5181,10 +5274,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B208" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5192,10 +5285,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5203,10 +5296,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5217,7 +5310,7 @@
         <v>290</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5225,10 +5318,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5236,10 +5329,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5247,10 +5340,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5258,10 +5351,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5269,10 +5362,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5280,10 +5373,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5291,10 +5384,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B218" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5302,10 +5395,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5313,10 +5406,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5324,10 +5417,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B221" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5335,10 +5428,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5346,10 +5439,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5357,10 +5450,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5368,10 +5461,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B225" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5379,10 +5472,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B226" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5390,10 +5483,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B227" t="s">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5401,10 +5494,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B228" t="s">
-        <v>323</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5412,10 +5505,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B229" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5423,10 +5516,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B230" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5434,10 +5527,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B231" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5445,10 +5538,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B232" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5456,10 +5549,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B233" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5467,10 +5560,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B234" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5478,10 +5571,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B235" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5489,10 +5582,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B236" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5500,10 +5593,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B237" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5511,10 +5604,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5522,10 +5615,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5533,10 +5626,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="B240" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5544,10 +5637,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B241" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5555,10 +5648,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5566,10 +5659,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B243" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5577,10 +5670,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5588,10 +5681,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B245" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5599,7 +5692,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B246" t="s">
         <v>339</v>
@@ -5610,10 +5703,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B247" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5621,10 +5714,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B248" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5632,10 +5725,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B249" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5643,10 +5736,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B250" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5654,10 +5747,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B251" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5665,10 +5758,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B252" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5676,10 +5769,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B253" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5687,10 +5780,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B254" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5698,10 +5791,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B255" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5709,10 +5802,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B256" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5720,10 +5813,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B257" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5731,10 +5824,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B258" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5742,10 +5835,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B259" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5753,10 +5846,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B260" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5764,10 +5857,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B261" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5775,10 +5868,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B262" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5786,10 +5879,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B263" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5797,10 +5890,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B264" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5808,10 +5901,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B265" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5819,10 +5912,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B266" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5830,10 +5923,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B267" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5841,10 +5934,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B268" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5852,10 +5945,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B269" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5863,10 +5956,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B270" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5874,10 +5967,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B271" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5885,10 +5978,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B272" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5896,10 +5989,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B273" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5907,10 +6000,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B274" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5918,10 +6011,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5929,10 +6022,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B276" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5940,10 +6033,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B277" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5951,10 +6044,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B278" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5962,10 +6055,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B279" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5973,10 +6066,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B280" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5984,10 +6077,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B281" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5995,10 +6088,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B282" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6006,10 +6099,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B283" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6017,10 +6110,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B284" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6028,10 +6121,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B285" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6039,10 +6132,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B286" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6050,10 +6143,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B287" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6061,10 +6154,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B288" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6072,10 +6165,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B289" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6083,10 +6176,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B290" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6094,10 +6187,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B291" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6105,10 +6198,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B292" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6116,10 +6209,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B293" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6127,10 +6220,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B294" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6138,10 +6231,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B295" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6149,10 +6242,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B296" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6160,10 +6253,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B297" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6171,10 +6264,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B298" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6182,10 +6275,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B299" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6193,10 +6286,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B300" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6204,10 +6297,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B301" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6215,10 +6308,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B302" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6226,10 +6319,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B303" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6237,10 +6330,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B304" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6248,10 +6341,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B305" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6259,10 +6352,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B306" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6270,10 +6363,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B307" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6281,10 +6374,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B308" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6292,10 +6385,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B309" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6303,10 +6396,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B310" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6314,10 +6407,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B311" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6325,10 +6418,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B312" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6336,10 +6429,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B313" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6347,10 +6440,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B314" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6358,10 +6451,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B315" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6369,10 +6462,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B316" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6380,10 +6473,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B317" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6391,10 +6484,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6402,10 +6495,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B319" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6413,10 +6506,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B320" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6424,10 +6517,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B321" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6435,10 +6528,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B322" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6446,10 +6539,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B323" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6457,10 +6550,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B324" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6468,10 +6561,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B325" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6479,10 +6572,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B326" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6490,10 +6583,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B327" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6501,10 +6594,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B328" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6512,10 +6605,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B329" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6523,10 +6616,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B330" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6534,10 +6627,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B331" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6545,10 +6638,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B332" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6556,10 +6649,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B333" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6567,10 +6660,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B334" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6578,10 +6671,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B335" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6589,10 +6682,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B336" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6600,10 +6693,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B337" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6611,10 +6704,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B338" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6622,10 +6715,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B339" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6633,10 +6726,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B340" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6644,10 +6737,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B341" t="s">
-        <v>497</v>
+        <v>412</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6655,10 +6748,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B342" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6666,10 +6759,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B343" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6677,10 +6770,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B344" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6688,10 +6781,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B345" t="s">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6699,10 +6792,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B346" t="s">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6710,10 +6803,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
+        <v>502</v>
+      </c>
+      <c r="B347" t="s">
         <v>503</v>
-      </c>
-      <c r="B347" t="s">
-        <v>430</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6724,7 +6817,7 @@
         <v>504</v>
       </c>
       <c r="B348" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6735,7 +6828,7 @@
         <v>505</v>
       </c>
       <c r="B349" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6743,10 +6836,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B350" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6754,10 +6847,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B351" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6765,10 +6858,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B352" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6776,10 +6869,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B353" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6787,10 +6880,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B354" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6798,10 +6891,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B355" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6809,10 +6902,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B356" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6820,10 +6913,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B357" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6831,10 +6924,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
+        <v>517</v>
+      </c>
+      <c r="B358" t="s">
         <v>514</v>
-      </c>
-      <c r="B358" t="s">
-        <v>370</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6842,10 +6935,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B359" t="s">
-        <v>386</v>
+        <v>519</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6853,10 +6946,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B360" t="s">
-        <v>364</v>
+        <v>521</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6864,10 +6957,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6875,10 +6968,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B362" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6886,10 +6979,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B363" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6897,10 +6990,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B364" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6908,10 +7001,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B365" t="s">
-        <v>373</v>
+        <v>466</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6919,10 +7012,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B366" t="s">
-        <v>373</v>
+        <v>466</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6930,10 +7023,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B367" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6941,10 +7034,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B368" t="s">
-        <v>335</v>
+        <v>464</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6952,10 +7045,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B369" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6963,10 +7056,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B370" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6974,10 +7067,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B371" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6985,10 +7078,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B372" t="s">
-        <v>341</v>
+        <v>506</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6996,10 +7089,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B373" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7007,10 +7100,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B374" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7018,10 +7111,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B375" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7029,10 +7122,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B376" t="s">
-        <v>337</v>
+        <v>488</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7040,10 +7133,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B377" t="s">
-        <v>364</v>
+        <v>464</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7051,10 +7144,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B378" t="s">
-        <v>364</v>
+        <v>503</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7062,10 +7155,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B379" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7073,10 +7166,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B380" t="s">
-        <v>362</v>
+        <v>501</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7084,10 +7177,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B381" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7095,10 +7188,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B382" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7106,10 +7199,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B383" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7117,10 +7210,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B384" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7128,10 +7221,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B385" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7139,10 +7232,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B386" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7150,10 +7243,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7161,10 +7254,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B388" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7172,10 +7265,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B389" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7183,10 +7276,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B390" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7194,10 +7287,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B391" t="s">
-        <v>333</v>
+        <v>555</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7205,10 +7298,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B392" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7216,10 +7309,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B393" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7227,10 +7320,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B394" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7238,10 +7331,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B395" t="s">
-        <v>386</v>
+        <v>531</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7249,10 +7342,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B396" t="s">
-        <v>558</v>
+        <v>369</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7260,10 +7353,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B397" t="s">
-        <v>428</v>
+        <v>553</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7271,10 +7364,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B398" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7282,10 +7375,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B399" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7293,10 +7386,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B400" t="s">
-        <v>558</v>
+        <v>375</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7304,10 +7397,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B401" t="s">
-        <v>368</v>
+        <v>565</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7315,10 +7408,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B402" t="s">
-        <v>558</v>
+        <v>392</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7326,10 +7419,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B403" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7337,10 +7430,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B404" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7348,10 +7441,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B405" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7359,10 +7452,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B406" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7370,10 +7463,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B407" t="s">
-        <v>487</v>
+        <v>396</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7381,10 +7474,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B408" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7392,10 +7485,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B409" t="s">
-        <v>426</v>
+        <v>576</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7403,10 +7496,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B410" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7414,10 +7507,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B411" t="s">
-        <v>368</v>
+        <v>488</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7425,10 +7518,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B412" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7436,10 +7529,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B413" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7447,10 +7540,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B414" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7458,10 +7551,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B415" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7469,10 +7562,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B416" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7480,10 +7573,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B417" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7491,10 +7584,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B418" t="s">
-        <v>370</v>
+        <v>576</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7502,10 +7595,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B419" t="s">
-        <v>558</v>
+        <v>367</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7513,10 +7606,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B420" t="s">
-        <v>558</v>
+        <v>503</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7524,10 +7617,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B421" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7535,10 +7628,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B422" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7546,10 +7639,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B423" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7557,10 +7650,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B424" t="s">
-        <v>370</v>
+        <v>592</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7568,10 +7661,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B425" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7579,10 +7672,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B426" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7590,10 +7683,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B427" t="s">
-        <v>487</v>
+        <v>595</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7601,7 +7694,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B428" t="s">
         <v>592</v>
@@ -7612,10 +7705,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B429" t="s">
-        <v>594</v>
+        <v>402</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7623,10 +7716,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B430" t="s">
-        <v>399</v>
+        <v>592</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7634,10 +7727,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B431" t="s">
-        <v>597</v>
+        <v>466</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7645,10 +7738,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B432" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7656,10 +7749,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B433" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7667,10 +7760,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B434" t="s">
-        <v>601</v>
+        <v>402</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7678,10 +7771,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B435" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7689,10 +7782,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B436" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7700,10 +7793,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B437" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7711,10 +7804,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B438" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7722,10 +7815,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B439" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7733,10 +7826,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B440" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7744,10 +7837,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B441" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7755,10 +7848,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B442" t="s">
-        <v>426</v>
+        <v>531</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7766,10 +7859,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B443" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7777,10 +7870,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B444" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7788,10 +7881,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B445" t="s">
-        <v>395</v>
+        <v>592</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7799,10 +7892,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B446" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7810,7 +7903,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B447" t="s">
         <v>592</v>
@@ -7821,10 +7914,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B448" t="s">
-        <v>397</v>
+        <v>592</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7832,10 +7925,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B449" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7843,10 +7936,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B450" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7854,10 +7947,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B451" t="s">
-        <v>399</v>
+        <v>497</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7865,10 +7958,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B452" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7876,10 +7969,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B453" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7887,10 +7980,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B454" t="s">
-        <v>397</v>
+        <v>595</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7898,10 +7991,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B455" t="s">
-        <v>423</v>
+        <v>521</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7909,10 +8002,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B456" t="s">
-        <v>395</v>
+        <v>626</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7920,10 +8013,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B457" t="s">
-        <v>487</v>
+        <v>628</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7931,10 +8024,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B458" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7942,10 +8035,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B459" t="s">
-        <v>393</v>
+        <v>631</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7953,10 +8046,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B460" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7964,10 +8057,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B461" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7975,10 +8068,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B462" t="s">
-        <v>393</v>
+        <v>635</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7986,10 +8079,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B463" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7997,10 +8090,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B464" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8008,10 +8101,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B465" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8019,10 +8112,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B466" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8030,10 +8123,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B467" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8041,10 +8134,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B468" t="s">
-        <v>636</v>
+        <v>466</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8052,10 +8145,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B469" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8063,10 +8156,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B470" t="s">
-        <v>639</v>
+        <v>460</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8074,10 +8167,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B471" t="s">
-        <v>641</v>
+        <v>506</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8085,10 +8178,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B472" t="s">
-        <v>643</v>
+        <v>464</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8096,10 +8189,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B473" t="s">
-        <v>645</v>
+        <v>429</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8107,10 +8200,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B474" t="s">
-        <v>647</v>
+        <v>469</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8121,7 +8214,7 @@
         <v>648</v>
       </c>
       <c r="B475" t="s">
-        <v>405</v>
+        <v>626</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8132,7 +8225,7 @@
         <v>649</v>
       </c>
       <c r="B476" t="s">
-        <v>650</v>
+        <v>431</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8140,10 +8233,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B477" t="s">
-        <v>405</v>
+        <v>521</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8151,10 +8244,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B478" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8162,10 +8255,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B479" t="s">
-        <v>645</v>
+        <v>433</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8173,10 +8266,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B480" t="s">
-        <v>655</v>
+        <v>478</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8184,10 +8277,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B481" t="s">
-        <v>657</v>
+        <v>431</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8195,10 +8288,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B482" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8206,10 +8299,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B483" t="s">
-        <v>660</v>
+        <v>457</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8217,10 +8310,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B484" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8228,10 +8321,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B485" t="s">
-        <v>663</v>
+        <v>521</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8239,10 +8332,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B486" t="s">
-        <v>655</v>
+        <v>471</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8250,10 +8343,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B487" t="s">
-        <v>666</v>
+        <v>427</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8261,10 +8354,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B488" t="s">
-        <v>668</v>
+        <v>521</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8272,10 +8365,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B489" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8283,10 +8376,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B490" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8294,10 +8387,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B491" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8305,10 +8398,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B492" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8316,10 +8409,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B493" t="s">
-        <v>674</v>
+        <v>427</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8327,10 +8420,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B494" t="s">
-        <v>674</v>
+        <v>455</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8338,10 +8431,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B495" t="s">
-        <v>636</v>
+        <v>514</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8349,10 +8442,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B496" t="s">
-        <v>403</v>
+        <v>670</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8360,10 +8453,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B497" t="s">
-        <v>592</v>
+        <v>437</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8371,10 +8464,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B498" t="s">
-        <v>393</v>
+        <v>673</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8382,10 +8475,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B499" t="s">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8393,10 +8486,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B500" t="s">
-        <v>401</v>
+        <v>677</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8404,10 +8497,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B501" t="s">
-        <v>448</v>
+        <v>679</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8415,10 +8508,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B502" t="s">
-        <v>401</v>
+        <v>681</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8426,10 +8519,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B503" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8437,10 +8530,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B504" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8448,10 +8541,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B505" t="s">
-        <v>558</v>
+        <v>439</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8459,10 +8552,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B506" t="s">
-        <v>395</v>
+        <v>681</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8470,10 +8563,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B507" t="s">
-        <v>561</v>
+        <v>679</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8481,10 +8574,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
+        <v>688</v>
+      </c>
+      <c r="B508" t="s">
         <v>689</v>
-      </c>
-      <c r="B508" t="s">
-        <v>597</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8495,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B509" t="s">
-        <v>421</v>
+        <v>691</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8503,10 +8596,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B510" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8514,10 +8607,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B511" t="s">
-        <v>395</v>
+        <v>694</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8525,10 +8618,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B512" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8536,10 +8629,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B513" t="s">
-        <v>592</v>
+        <v>697</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8547,10 +8640,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B514" t="s">
-        <v>448</v>
+        <v>689</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8558,10 +8651,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B515" t="s">
-        <v>448</v>
+        <v>700</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8569,10 +8662,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B516" t="s">
-        <v>448</v>
+        <v>702</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8580,10 +8673,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B517" t="s">
-        <v>592</v>
+        <v>445</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8591,10 +8684,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B518" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8602,10 +8695,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B519" t="s">
-        <v>437</v>
+        <v>677</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8613,10 +8706,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B520" t="s">
-        <v>397</v>
+        <v>516</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8624,10 +8717,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B521" t="s">
-        <v>395</v>
+        <v>708</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8635,10 +8728,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B522" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8646,10 +8739,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B523" t="s">
-        <v>448</v>
+        <v>670</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8657,10 +8750,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B524" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8668,10 +8761,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B525" t="s">
-        <v>485</v>
+        <v>626</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8679,10 +8772,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B526" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8690,10 +8783,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B527" t="s">
-        <v>428</v>
+        <v>626</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8701,10 +8794,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B528" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8712,10 +8805,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B529" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8723,10 +8816,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B530" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8734,10 +8827,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B531" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8745,10 +8838,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B532" t="s">
-        <v>360</v>
+        <v>519</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8756,10 +8849,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B533" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8767,10 +8860,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B534" t="s">
-        <v>542</v>
+        <v>429</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8778,10 +8871,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B535" t="s">
-        <v>463</v>
+        <v>595</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8789,10 +8882,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B536" t="s">
-        <v>333</v>
+        <v>631</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8800,10 +8893,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B537" t="s">
-        <v>719</v>
+        <v>455</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8811,10 +8904,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B538" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8822,10 +8915,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B539" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8833,10 +8926,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B540" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8844,10 +8937,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B541" t="s">
-        <v>373</v>
+        <v>626</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8855,10 +8948,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B542" t="s">
-        <v>378</v>
+        <v>482</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8866,10 +8959,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B543" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8877,10 +8970,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B544" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8888,10 +8981,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B545" t="s">
-        <v>319</v>
+        <v>626</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8899,10 +8992,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B546" t="s">
-        <v>729</v>
+        <v>466</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8910,10 +9003,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B547" t="s">
-        <v>731</v>
+        <v>471</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8921,10 +9014,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B548" t="s">
-        <v>733</v>
+        <v>431</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8932,10 +9025,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B549" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8943,10 +9036,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B550" t="s">
-        <v>736</v>
+        <v>670</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8954,10 +9047,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B551" t="s">
-        <v>738</v>
+        <v>482</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8968,7 +9061,7 @@
         <v>739</v>
       </c>
       <c r="B552" t="s">
-        <v>738</v>
+        <v>435</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8979,7 +9072,7 @@
         <v>740</v>
       </c>
       <c r="B553" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8990,7 +9083,7 @@
         <v>741</v>
       </c>
       <c r="B554" t="s">
-        <v>742</v>
+        <v>521</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8998,10 +9091,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B555" t="s">
-        <v>325</v>
+        <v>462</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9009,10 +9102,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B556" t="s">
-        <v>745</v>
+        <v>501</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9020,10 +9113,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B557" t="s">
-        <v>747</v>
+        <v>501</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9031,10 +9124,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B558" t="s">
-        <v>749</v>
+        <v>501</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9042,10 +9135,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B559" t="s">
-        <v>749</v>
+        <v>394</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9053,10 +9146,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B560" t="s">
-        <v>752</v>
+        <v>394</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9064,10 +9157,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B561" t="s">
-        <v>754</v>
+        <v>563</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9075,10 +9168,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B562" t="s">
-        <v>756</v>
+        <v>576</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9086,10 +9179,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B563" t="s">
-        <v>758</v>
+        <v>497</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9097,10 +9190,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B564" t="s">
-        <v>760</v>
+        <v>367</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9108,10 +9201,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B565" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9119,10 +9212,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B566" t="s">
-        <v>763</v>
+        <v>531</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9130,10 +9223,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B567" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9141,10 +9234,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B568" t="s">
-        <v>766</v>
+        <v>400</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9152,10 +9245,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B569" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9163,10 +9256,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B570" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9174,10 +9267,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B571" t="s">
-        <v>275</v>
+        <v>563</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9185,10 +9278,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B572" t="s">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9196,10 +9289,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B573" t="s">
-        <v>772</v>
+        <v>353</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9207,10 +9300,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B574" t="s">
-        <v>43</v>
+        <v>763</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9218,10 +9311,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="B575" t="s">
-        <v>20</v>
+        <v>765</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9229,10 +9322,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B576" t="s">
-        <v>278</v>
+        <v>767</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9240,10 +9333,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B577" t="s">
-        <v>281</v>
+        <v>553</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9251,10 +9344,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B578" t="s">
-        <v>66</v>
+        <v>770</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9262,10 +9355,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B579" t="s">
-        <v>218</v>
+        <v>772</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9273,10 +9366,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B580" t="s">
-        <v>130</v>
+        <v>772</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9284,10 +9377,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B581" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9295,10 +9388,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B582" t="s">
-        <v>187</v>
+        <v>776</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9306,10 +9399,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B583" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9317,10 +9410,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B584" t="s">
-        <v>135</v>
+        <v>779</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9328,10 +9421,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B585" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9339,10 +9432,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B586" t="s">
-        <v>36</v>
+        <v>783</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9350,10 +9443,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B587" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9361,10 +9454,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B588" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9372,10 +9465,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B589" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9383,10 +9476,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B590" t="s">
-        <v>218</v>
+        <v>790</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9394,10 +9487,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
+        <v>791</v>
+      </c>
+      <c r="B591" t="s">
         <v>792</v>
-      </c>
-      <c r="B591" t="s">
-        <v>48</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9408,7 +9501,7 @@
         <v>793</v>
       </c>
       <c r="B592" t="s">
-        <v>48</v>
+        <v>794</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9416,10 +9509,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B593" t="s">
-        <v>22</v>
+        <v>786</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9427,10 +9520,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B594" t="s">
-        <v>94</v>
+        <v>797</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9438,10 +9531,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B595" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9449,10 +9542,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B596" t="s">
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9460,10 +9553,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B597" t="s">
-        <v>123</v>
+        <v>335</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9471,10 +9564,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B598" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9482,10 +9575,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B599" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9493,10 +9586,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B600" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9504,10 +9597,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B601" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9515,10 +9608,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B602" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9526,10 +9619,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B603" t="s">
-        <v>807</v>
+        <v>64</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9537,10 +9630,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B604" t="s">
-        <v>809</v>
+        <v>312</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9551,7 +9644,7 @@
         <v>810</v>
       </c>
       <c r="B605" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9562,7 +9655,7 @@
         <v>811</v>
       </c>
       <c r="B606" t="s">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9573,7 +9666,7 @@
         <v>812</v>
       </c>
       <c r="B607" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9584,7 +9677,7 @@
         <v>813</v>
       </c>
       <c r="B608" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9595,7 +9688,7 @@
         <v>814</v>
       </c>
       <c r="B609" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9606,7 +9699,7 @@
         <v>815</v>
       </c>
       <c r="B610" t="s">
-        <v>816</v>
+        <v>41</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9614,10 +9707,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B611" t="s">
-        <v>766</v>
+        <v>41</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9625,10 +9718,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B612" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9636,10 +9729,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B613" t="s">
-        <v>820</v>
+        <v>7</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9647,10 +9740,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B614" t="s">
-        <v>822</v>
+        <v>80</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9658,10 +9751,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B615" t="s">
-        <v>824</v>
+        <v>7</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9669,10 +9762,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B616" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9680,10 +9773,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B617" t="s">
-        <v>824</v>
+        <v>26</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9691,10 +9784,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B618" t="s">
-        <v>828</v>
+        <v>254</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9702,10 +9795,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B619" t="s">
-        <v>820</v>
+        <v>91</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9713,10 +9806,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B620" t="s">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9724,10 +9817,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B621" t="s">
-        <v>766</v>
+        <v>66</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9735,10 +9828,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B622" t="s">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9746,10 +9839,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B623" t="s">
-        <v>766</v>
+        <v>266</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9757,10 +9850,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B624" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9768,10 +9861,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B625" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9779,10 +9872,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B626" t="s">
-        <v>752</v>
+        <v>88</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9790,10 +9883,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B627" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9801,10 +9894,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B628" t="s">
-        <v>18</v>
+        <v>834</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9812,10 +9905,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B629" t="s">
-        <v>8</v>
+        <v>836</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -9823,10 +9916,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B630" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -9834,10 +9927,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B631" t="s">
-        <v>8</v>
+        <v>839</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -9845,10 +9938,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B632" t="s">
-        <v>38</v>
+        <v>841</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -9856,10 +9949,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B633" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -9867,10 +9960,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B634" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -9878,10 +9971,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B635" t="s">
-        <v>847</v>
+        <v>327</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -9889,10 +9982,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B636" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -9900,10 +9993,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B637" t="s">
-        <v>50</v>
+        <v>343</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -9911,10 +10004,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B638" t="s">
-        <v>50</v>
+        <v>848</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -9922,10 +10015,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B639" t="s">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -9933,12 +10026,320 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
+        <v>850</v>
+      </c>
+      <c r="B640" t="s">
+        <v>339</v>
+      </c>
+      <c r="C640" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>851</v>
+      </c>
+      <c r="B641" t="s">
         <v>852</v>
       </c>
-      <c r="B640" t="s">
-        <v>16</v>
-      </c>
-      <c r="C640" t="s">
+      <c r="C641" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>853</v>
+      </c>
+      <c r="B642" t="s">
+        <v>854</v>
+      </c>
+      <c r="C642" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>855</v>
+      </c>
+      <c r="B643" t="s">
+        <v>856</v>
+      </c>
+      <c r="C643" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>857</v>
+      </c>
+      <c r="B644" t="s">
+        <v>266</v>
+      </c>
+      <c r="C644" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>858</v>
+      </c>
+      <c r="B645" t="s">
+        <v>856</v>
+      </c>
+      <c r="C645" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>859</v>
+      </c>
+      <c r="B646" t="s">
+        <v>860</v>
+      </c>
+      <c r="C646" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>861</v>
+      </c>
+      <c r="B647" t="s">
+        <v>852</v>
+      </c>
+      <c r="C647" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>862</v>
+      </c>
+      <c r="B648" t="s">
+        <v>337</v>
+      </c>
+      <c r="C648" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>863</v>
+      </c>
+      <c r="B649" t="s">
+        <v>800</v>
+      </c>
+      <c r="C649" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>864</v>
+      </c>
+      <c r="B650" t="s">
+        <v>345</v>
+      </c>
+      <c r="C650" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>865</v>
+      </c>
+      <c r="B651" t="s">
+        <v>800</v>
+      </c>
+      <c r="C651" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>866</v>
+      </c>
+      <c r="B652" t="s">
+        <v>867</v>
+      </c>
+      <c r="C652" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>868</v>
+      </c>
+      <c r="B653" t="s">
+        <v>345</v>
+      </c>
+      <c r="C653" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>869</v>
+      </c>
+      <c r="B654" t="s">
+        <v>786</v>
+      </c>
+      <c r="C654" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>870</v>
+      </c>
+      <c r="B655" t="s">
+        <v>128</v>
+      </c>
+      <c r="C655" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>871</v>
+      </c>
+      <c r="B656" t="s">
+        <v>62</v>
+      </c>
+      <c r="C656" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>872</v>
+      </c>
+      <c r="B657" t="s">
+        <v>23</v>
+      </c>
+      <c r="C657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>873</v>
+      </c>
+      <c r="B658" t="s">
+        <v>250</v>
+      </c>
+      <c r="C658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>874</v>
+      </c>
+      <c r="B659" t="s">
+        <v>23</v>
+      </c>
+      <c r="C659" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>875</v>
+      </c>
+      <c r="B660" t="s">
+        <v>82</v>
+      </c>
+      <c r="C660" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>876</v>
+      </c>
+      <c r="B661" t="s">
+        <v>141</v>
+      </c>
+      <c r="C661" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>877</v>
+      </c>
+      <c r="B662" t="s">
+        <v>80</v>
+      </c>
+      <c r="C662" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>878</v>
+      </c>
+      <c r="B663" t="s">
+        <v>4</v>
+      </c>
+      <c r="C663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>879</v>
+      </c>
+      <c r="B664" t="s">
+        <v>82</v>
+      </c>
+      <c r="C664" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>880</v>
+      </c>
+      <c r="B665" t="s">
+        <v>93</v>
+      </c>
+      <c r="C665" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>881</v>
+      </c>
+      <c r="B666" t="s">
+        <v>93</v>
+      </c>
+      <c r="C666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>882</v>
+      </c>
+      <c r="B667" t="s">
+        <v>9</v>
+      </c>
+      <c r="C667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>883</v>
+      </c>
+      <c r="B668" t="s">
+        <v>9</v>
+      </c>
+      <c r="C668" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid482787"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid103599"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="914">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,147 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>21/02/2025</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>20/02/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>14/02/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>13/02/2025</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>12/02/2025</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
     <t>16/01/2025</t>
   </si>
   <si>
-    <t>0.960</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/01/2025</t>
   </si>
   <si>
@@ -59,9 +191,6 @@
     <t>09/01/2025</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>08/01/2025</t>
   </si>
   <si>
@@ -74,21 +203,12 @@
     <t>06/01/2025</t>
   </si>
   <si>
-    <t>0.984</t>
-  </si>
-  <si>
     <t>03/01/2025</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>02/01/2025</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>31/12/2024</t>
   </si>
   <si>
@@ -107,15 +227,9 @@
     <t>26/12/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>24/12/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>23/12/2024</t>
   </si>
   <si>
@@ -167,15 +281,9 @@
     <t>06/12/2024</t>
   </si>
   <si>
-    <t>0.976</t>
-  </si>
-  <si>
     <t>05/12/2024</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
@@ -554,9 +662,6 @@
     <t>23/07/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>22/07/2024</t>
   </si>
   <si>
@@ -578,9 +683,6 @@
     <t>17/07/2024</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>16/07/2024</t>
   </si>
   <si>
@@ -677,15 +779,9 @@
     <t>18/06/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>14/06/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>13/06/2024</t>
   </si>
   <si>
@@ -701,9 +797,6 @@
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>06/06/2024</t>
   </si>
   <si>
@@ -870,9 +963,6 @@
   </si>
   <si>
     <t>25/03/2024</t>
-  </si>
-  <si>
-    <t>0.982</t>
   </si>
   <si>
     <t>22/03/2024</t>
@@ -3055,7 +3145,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3063,10 +3153,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3074,10 +3164,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3085,10 +3175,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3096,10 +3186,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3107,10 +3197,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3118,10 +3208,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3129,10 +3219,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3140,10 +3230,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3151,10 +3241,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3162,10 +3252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3173,10 +3263,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3184,10 +3274,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3195,10 +3285,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3206,10 +3296,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3217,10 +3307,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3228,10 +3318,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3239,10 +3329,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3250,10 +3340,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3261,10 +3351,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3272,10 +3362,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3283,10 +3373,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3294,10 +3384,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3305,10 +3395,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3316,10 +3406,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3327,10 +3417,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3338,10 +3428,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3349,10 +3439,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3360,10 +3450,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3371,10 +3461,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3382,10 +3472,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3393,10 +3483,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3404,10 +3494,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3440,7 +3530,7 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3448,10 +3538,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3459,10 +3549,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
         <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3470,10 +3560,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3484,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3492,10 +3582,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3503,10 +3593,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3514,10 +3604,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
         <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3528,7 +3618,7 @@
         <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3536,10 +3626,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3547,10 +3637,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
         <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3561,7 +3651,7 @@
         <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3569,10 +3659,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3580,10 +3670,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3591,10 +3681,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3602,10 +3692,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3613,10 +3703,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3624,10 +3714,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3635,10 +3725,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3646,10 +3736,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3657,10 +3747,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3668,10 +3758,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3679,10 +3769,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3690,10 +3780,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3701,10 +3791,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
         <v>104</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3715,7 +3805,7 @@
         <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3723,10 +3813,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3734,10 +3824,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3745,7 +3835,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
         <v>109</v>
@@ -3756,10 +3846,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3767,10 +3857,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3778,10 +3868,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3789,10 +3879,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3800,10 +3890,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3811,10 +3901,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3822,10 +3912,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3833,10 +3923,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3844,10 +3934,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3855,10 +3945,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3866,10 +3956,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3877,10 +3967,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3888,10 +3978,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3899,10 +3989,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3910,10 +4000,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3921,10 +4011,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3932,10 +4022,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
         <v>129</v>
-      </c>
-      <c r="B86" t="s">
-        <v>115</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3943,10 +4033,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3954,10 +4044,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3965,10 +4055,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3976,10 +4066,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3987,10 +4077,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3998,10 +4088,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4009,10 +4099,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4020,10 +4110,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4031,10 +4121,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4042,10 +4132,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4053,10 +4143,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4064,10 +4154,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4075,10 +4165,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4086,10 +4176,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4097,10 +4187,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4108,10 +4198,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4119,10 +4209,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4130,10 +4220,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4141,10 +4231,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4152,10 +4242,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4163,10 +4253,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4174,10 +4264,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4185,10 +4275,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4196,10 +4286,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4207,10 +4297,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4218,10 +4308,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4229,10 +4319,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4240,10 +4330,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4251,10 +4341,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4262,10 +4352,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4273,10 +4363,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4284,10 +4374,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4295,10 +4385,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4306,10 +4396,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4317,10 +4407,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4328,10 +4418,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4339,10 +4429,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4350,10 +4440,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4361,10 +4451,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4372,10 +4462,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4383,10 +4473,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4394,10 +4484,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4405,10 +4495,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4419,7 +4509,7 @@
         <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4427,10 +4517,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4438,10 +4528,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4449,10 +4539,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4460,10 +4550,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4471,10 +4561,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4482,10 +4572,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4493,10 +4583,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4504,10 +4594,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4515,10 +4605,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4526,10 +4616,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4537,10 +4627,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4548,10 +4638,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4559,10 +4649,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4570,10 +4660,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4581,10 +4671,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4592,10 +4682,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4603,10 +4693,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4614,10 +4704,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4625,10 +4715,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4636,10 +4726,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B150" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4647,10 +4737,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4658,10 +4748,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4669,10 +4759,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B153" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4680,10 +4770,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B154" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4691,10 +4781,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4702,10 +4792,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4713,10 +4803,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4724,10 +4814,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4735,10 +4825,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4746,10 +4836,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4757,10 +4847,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4768,10 +4858,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4779,10 +4869,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" t="s">
         <v>236</v>
-      </c>
-      <c r="B163" t="s">
-        <v>23</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4793,7 +4883,7 @@
         <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4801,10 +4891,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4812,10 +4902,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4823,10 +4913,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4834,10 +4924,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4845,10 +4935,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4856,10 +4946,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4867,10 +4957,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B171" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4878,10 +4968,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B172" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4889,10 +4979,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4900,10 +4990,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4911,10 +5001,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4922,10 +5012,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4933,10 +5023,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4944,10 +5034,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4955,10 +5045,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4966,10 +5056,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4977,10 +5067,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4988,10 +5078,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B182" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4999,10 +5089,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5010,10 +5100,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5021,10 +5111,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B185" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5032,10 +5122,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5043,10 +5133,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5054,10 +5144,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B188" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5065,10 +5155,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B189" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5076,10 +5166,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B190" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5087,10 +5177,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5098,10 +5188,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B192" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5109,10 +5199,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5120,10 +5210,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B194" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5131,10 +5221,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5142,10 +5232,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B196" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5153,10 +5243,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B197" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5164,10 +5254,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B198" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5175,10 +5265,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B199" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5186,10 +5276,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5197,10 +5287,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5208,10 +5298,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B202" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5219,10 +5309,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B203" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5230,10 +5320,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5241,10 +5331,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5252,10 +5342,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B206" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5263,10 +5353,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B207" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5274,10 +5364,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5285,10 +5375,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5296,10 +5386,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5307,10 +5397,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B211" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5318,10 +5408,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5329,10 +5419,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5340,10 +5430,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5351,10 +5441,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5362,10 +5452,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5373,10 +5463,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B217" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5384,10 +5474,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5395,10 +5485,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5406,10 +5496,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5417,10 +5507,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5428,10 +5518,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5439,10 +5529,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5450,10 +5540,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5461,10 +5551,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5472,10 +5562,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5483,10 +5573,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5494,10 +5584,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5505,10 +5595,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>309</v>
+        <v>68</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5516,10 +5606,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5527,10 +5617,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5538,10 +5628,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5549,10 +5639,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5560,10 +5650,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5571,10 +5661,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5582,10 +5672,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5593,10 +5683,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B237" t="s">
-        <v>321</v>
+        <v>53</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5607,7 +5697,7 @@
         <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5615,10 +5705,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5626,10 +5716,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5637,10 +5727,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B241" t="s">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5648,10 +5738,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B242" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5659,10 +5749,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>72</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5670,10 +5760,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B244" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5681,10 +5771,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5692,10 +5782,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>205</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5703,10 +5793,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>341</v>
+        <v>60</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5714,10 +5804,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B248" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5725,10 +5815,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B249" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5736,10 +5826,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B250" t="s">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5747,10 +5837,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5758,10 +5848,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B252" t="s">
-        <v>349</v>
+        <v>95</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5769,10 +5859,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B253" t="s">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5780,10 +5870,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B254" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5791,10 +5881,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B255" t="s">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5802,10 +5892,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B256" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5813,10 +5903,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B257" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5824,10 +5914,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B258" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5835,10 +5925,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B259" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5846,10 +5936,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B260" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5857,10 +5947,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B261" t="s">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5868,10 +5958,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B262" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5879,10 +5969,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B263" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5890,10 +5980,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5901,10 +5991,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B265" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5912,10 +6002,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B266" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5923,10 +6013,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B267" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5934,10 +6024,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B268" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5945,10 +6035,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B269" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5956,10 +6046,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B270" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5967,10 +6057,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5978,10 +6068,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B272" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5989,10 +6079,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B273" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6000,10 +6090,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B274" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6011,10 +6101,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B275" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6022,10 +6112,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B276" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6033,10 +6123,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B277" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6044,10 +6134,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B278" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6055,10 +6145,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6066,10 +6156,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B280" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6077,10 +6167,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B281" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6088,10 +6178,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B282" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6099,10 +6189,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B283" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6110,10 +6200,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B284" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6121,10 +6211,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B285" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6132,10 +6222,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B286" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6143,10 +6233,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B287" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6154,10 +6244,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B288" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6165,10 +6255,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B289" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6176,10 +6266,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B290" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6187,7 +6277,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B291" t="s">
         <v>407</v>
@@ -6198,10 +6288,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B292" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6209,10 +6299,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6220,10 +6310,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B294" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6231,10 +6321,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B295" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6242,10 +6332,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B296" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6253,10 +6343,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B297" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6264,10 +6354,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B298" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6275,10 +6365,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B299" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6286,10 +6376,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B300" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6297,10 +6387,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B301" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6308,10 +6398,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B302" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6319,10 +6409,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B303" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6330,10 +6420,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B304" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6341,10 +6431,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B305" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6352,10 +6442,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B306" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6363,10 +6453,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B307" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6374,10 +6464,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B308" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6385,10 +6475,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B309" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6396,10 +6486,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B310" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6407,10 +6497,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B311" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6418,10 +6508,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B312" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6429,10 +6519,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B313" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6440,10 +6530,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B314" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6451,10 +6541,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B315" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6462,10 +6552,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B316" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6473,10 +6563,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B317" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6484,10 +6574,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B318" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6495,10 +6585,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B319" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6506,10 +6596,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B320" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6517,10 +6607,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B321" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6528,10 +6618,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B322" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6539,10 +6629,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B323" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6550,10 +6640,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B324" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6561,10 +6651,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B325" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6572,10 +6662,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B326" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6583,10 +6673,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B327" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6594,10 +6684,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B328" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6605,10 +6695,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B329" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6616,10 +6706,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B330" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6627,10 +6717,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B331" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6638,10 +6728,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B332" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6649,10 +6739,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6660,10 +6750,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B334" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6671,10 +6761,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B335" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6682,10 +6772,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B336" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6693,10 +6783,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B337" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6704,10 +6794,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B338" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6715,10 +6805,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B339" t="s">
-        <v>410</v>
+        <v>485</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6726,10 +6816,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B340" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6737,10 +6827,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B341" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6748,10 +6838,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B342" t="s">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6759,10 +6849,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B343" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6770,10 +6860,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B344" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6781,10 +6871,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B345" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6792,10 +6882,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B346" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6803,10 +6893,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B347" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6814,10 +6904,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B348" t="s">
-        <v>404</v>
+        <v>501</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6825,10 +6915,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B349" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6836,10 +6926,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B350" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6847,10 +6937,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B351" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6858,10 +6948,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B352" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6869,10 +6959,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B353" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6880,10 +6970,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B354" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6891,10 +6981,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B355" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6902,10 +6992,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6913,10 +7003,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B357" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6924,10 +7014,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B358" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6935,10 +7025,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B359" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6946,10 +7036,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B360" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6957,10 +7047,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B361" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6968,10 +7058,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B362" t="s">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6979,10 +7069,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B363" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6990,10 +7080,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B364" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7001,10 +7091,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B365" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7012,10 +7102,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B366" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7023,10 +7113,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B367" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7034,10 +7124,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B368" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7045,10 +7135,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B369" t="s">
-        <v>531</v>
+        <v>450</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7056,10 +7146,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B370" t="s">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7067,10 +7157,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B371" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7078,10 +7168,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B372" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7089,10 +7179,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B373" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7100,10 +7190,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
+        <v>535</v>
+      </c>
+      <c r="B374" t="s">
         <v>536</v>
-      </c>
-      <c r="B374" t="s">
-        <v>404</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7114,7 +7204,7 @@
         <v>537</v>
       </c>
       <c r="B375" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7125,7 +7215,7 @@
         <v>538</v>
       </c>
       <c r="B376" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7136,7 +7226,7 @@
         <v>539</v>
       </c>
       <c r="B377" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7147,7 +7237,7 @@
         <v>540</v>
       </c>
       <c r="B378" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7158,7 +7248,7 @@
         <v>541</v>
       </c>
       <c r="B379" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7169,7 +7259,7 @@
         <v>542</v>
       </c>
       <c r="B380" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7180,7 +7270,7 @@
         <v>543</v>
       </c>
       <c r="B381" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7188,10 +7278,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B382" t="s">
-        <v>367</v>
+        <v>546</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7199,10 +7289,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B383" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7210,10 +7300,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B384" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7221,10 +7311,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B385" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7232,10 +7322,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B386" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7243,10 +7333,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B387" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7254,10 +7344,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B388" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7265,10 +7355,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B389" t="s">
-        <v>394</v>
+        <v>496</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7276,10 +7366,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B390" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7287,10 +7377,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B391" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7298,10 +7388,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B392" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7309,10 +7399,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B393" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7320,10 +7410,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B394" t="s">
-        <v>407</v>
+        <v>561</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7331,7 +7421,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B395" t="s">
         <v>531</v>
@@ -7342,10 +7432,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B396" t="s">
-        <v>369</v>
+        <v>531</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7353,10 +7443,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B397" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7364,10 +7454,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7375,10 +7465,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B399" t="s">
-        <v>565</v>
+        <v>434</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7386,10 +7476,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B400" t="s">
-        <v>375</v>
+        <v>494</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7397,10 +7487,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B401" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7408,10 +7498,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B402" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7419,10 +7509,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B403" t="s">
-        <v>392</v>
+        <v>533</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7430,10 +7520,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B404" t="s">
-        <v>371</v>
+        <v>531</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7441,10 +7531,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B405" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7452,10 +7542,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B406" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7463,10 +7553,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B407" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7474,10 +7564,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B408" t="s">
-        <v>396</v>
+        <v>531</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7485,10 +7575,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B409" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7499,7 +7589,7 @@
         <v>577</v>
       </c>
       <c r="B410" t="s">
-        <v>420</v>
+        <v>527</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7510,7 +7600,7 @@
         <v>578</v>
       </c>
       <c r="B411" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7521,7 +7611,7 @@
         <v>579</v>
       </c>
       <c r="B412" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7532,7 +7622,7 @@
         <v>580</v>
       </c>
       <c r="B413" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7543,7 +7633,7 @@
         <v>581</v>
       </c>
       <c r="B414" t="s">
-        <v>501</v>
+        <v>424</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7554,7 +7644,7 @@
         <v>582</v>
       </c>
       <c r="B415" t="s">
-        <v>420</v>
+        <v>583</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7562,10 +7652,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B416" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7573,10 +7663,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B417" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7584,10 +7674,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B418" t="s">
-        <v>576</v>
+        <v>437</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7595,10 +7685,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B419" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7606,10 +7696,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B420" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7617,10 +7707,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B421" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7628,10 +7718,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B422" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7639,10 +7729,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B423" t="s">
-        <v>420</v>
+        <v>593</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7650,10 +7740,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B424" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7661,10 +7751,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B425" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7672,7 +7762,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B426" t="s">
         <v>595</v>
@@ -7683,10 +7773,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B427" t="s">
-        <v>595</v>
+        <v>422</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7694,10 +7784,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B428" t="s">
-        <v>592</v>
+        <v>422</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7705,10 +7795,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B429" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7716,10 +7806,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B430" t="s">
-        <v>592</v>
+        <v>428</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7727,10 +7817,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B431" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7738,10 +7828,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B432" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7749,10 +7839,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B433" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7760,10 +7850,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B434" t="s">
-        <v>402</v>
+        <v>606</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7771,10 +7861,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B435" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7782,10 +7872,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B436" t="s">
-        <v>431</v>
+        <v>518</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7793,10 +7883,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B437" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7804,10 +7894,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B438" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7815,10 +7905,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B439" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7826,10 +7916,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B440" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7837,10 +7927,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B441" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7848,10 +7938,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B442" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7859,10 +7949,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B443" t="s">
-        <v>497</v>
+        <v>606</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7870,10 +7960,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B444" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7881,10 +7971,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B445" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7892,10 +7982,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B446" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7903,10 +7993,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B447" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7914,10 +8004,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B448" t="s">
-        <v>592</v>
+        <v>450</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7925,10 +8015,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B449" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7936,10 +8026,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B450" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7947,10 +8037,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B451" t="s">
-        <v>497</v>
+        <v>625</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7958,10 +8048,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B452" t="s">
-        <v>404</v>
+        <v>625</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7969,10 +8059,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
+        <v>627</v>
+      </c>
+      <c r="B453" t="s">
         <v>622</v>
-      </c>
-      <c r="B453" t="s">
-        <v>466</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7980,10 +8070,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B454" t="s">
-        <v>595</v>
+        <v>432</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7991,10 +8081,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B455" t="s">
-        <v>521</v>
+        <v>622</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8002,10 +8092,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B456" t="s">
-        <v>626</v>
+        <v>496</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8013,10 +8103,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B457" t="s">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8024,10 +8114,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B458" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8035,10 +8125,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B459" t="s">
-        <v>631</v>
+        <v>432</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8046,10 +8136,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B460" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8057,10 +8147,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B461" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8068,10 +8158,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B462" t="s">
-        <v>635</v>
+        <v>490</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8079,10 +8169,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B463" t="s">
-        <v>631</v>
+        <v>432</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8090,10 +8180,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B464" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8101,10 +8191,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B465" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8112,10 +8202,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B466" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8123,10 +8213,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B467" t="s">
-        <v>457</v>
+        <v>561</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8134,10 +8224,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B468" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8145,10 +8235,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B469" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8156,10 +8246,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B470" t="s">
-        <v>460</v>
+        <v>622</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8167,10 +8257,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B471" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8178,10 +8268,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B472" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8189,10 +8279,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B473" t="s">
-        <v>429</v>
+        <v>622</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8200,10 +8290,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B474" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8211,10 +8301,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B475" t="s">
-        <v>626</v>
+        <v>520</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8222,10 +8312,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B476" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8233,10 +8323,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B477" t="s">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8244,10 +8334,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B478" t="s">
-        <v>626</v>
+        <v>496</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8255,10 +8345,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B479" t="s">
-        <v>433</v>
+        <v>625</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8266,10 +8356,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B480" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8277,10 +8367,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B481" t="s">
-        <v>431</v>
+        <v>656</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8288,10 +8378,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B482" t="s">
-        <v>431</v>
+        <v>658</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8299,10 +8389,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B483" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8310,10 +8400,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B484" t="s">
-        <v>429</v>
+        <v>661</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8321,10 +8411,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B485" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8332,10 +8422,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B486" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8343,10 +8433,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B487" t="s">
-        <v>427</v>
+        <v>665</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8354,10 +8444,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
+        <v>666</v>
+      </c>
+      <c r="B488" t="s">
         <v>661</v>
-      </c>
-      <c r="B488" t="s">
-        <v>521</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8365,10 +8455,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B489" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8376,10 +8466,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B490" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8387,10 +8477,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B491" t="s">
-        <v>628</v>
+        <v>508</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8398,10 +8488,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B492" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8409,10 +8499,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B493" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8420,10 +8510,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B494" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8431,10 +8521,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B495" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8442,10 +8532,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B496" t="s">
-        <v>670</v>
+        <v>536</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8453,10 +8543,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B497" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8464,10 +8554,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B498" t="s">
-        <v>673</v>
+        <v>459</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8475,10 +8565,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B499" t="s">
-        <v>675</v>
+        <v>499</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8486,10 +8576,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B500" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8497,10 +8587,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B501" t="s">
-        <v>679</v>
+        <v>461</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8511,7 +8601,7 @@
         <v>680</v>
       </c>
       <c r="B502" t="s">
-        <v>681</v>
+        <v>551</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8519,10 +8609,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B503" t="s">
-        <v>439</v>
+        <v>656</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8530,10 +8620,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B504" t="s">
-        <v>684</v>
+        <v>463</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8541,10 +8631,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B505" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8552,10 +8642,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B506" t="s">
-        <v>681</v>
+        <v>461</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8563,10 +8653,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B507" t="s">
-        <v>679</v>
+        <v>461</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8574,10 +8664,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B508" t="s">
-        <v>689</v>
+        <v>487</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8585,10 +8675,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B509" t="s">
-        <v>691</v>
+        <v>459</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8596,10 +8686,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B510" t="s">
-        <v>449</v>
+        <v>551</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8607,10 +8697,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B511" t="s">
-        <v>694</v>
+        <v>501</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8618,10 +8708,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B512" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8629,10 +8719,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B513" t="s">
-        <v>697</v>
+        <v>551</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8640,10 +8730,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B514" t="s">
-        <v>689</v>
+        <v>508</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8651,10 +8741,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B515" t="s">
-        <v>700</v>
+        <v>457</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8662,10 +8752,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B516" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8673,10 +8763,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B517" t="s">
-        <v>445</v>
+        <v>551</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8684,10 +8774,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B518" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8695,10 +8785,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B519" t="s">
-        <v>677</v>
+        <v>485</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8706,10 +8796,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B520" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8717,10 +8807,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B521" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8728,10 +8818,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B522" t="s">
-        <v>708</v>
+        <v>467</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8739,10 +8829,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B523" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8750,10 +8840,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B524" t="s">
-        <v>437</v>
+        <v>705</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8761,10 +8851,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B525" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8772,10 +8862,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B526" t="s">
-        <v>427</v>
+        <v>709</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8783,10 +8873,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B527" t="s">
-        <v>626</v>
+        <v>711</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8794,10 +8884,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B528" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8805,10 +8895,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B529" t="s">
-        <v>482</v>
+        <v>714</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8816,10 +8906,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B530" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8827,10 +8917,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B531" t="s">
-        <v>452</v>
+        <v>711</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8838,10 +8928,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B532" t="s">
-        <v>519</v>
+        <v>709</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8849,10 +8939,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B533" t="s">
-        <v>592</v>
+        <v>719</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8860,10 +8950,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
+        <v>720</v>
+      </c>
+      <c r="B534" t="s">
         <v>721</v>
-      </c>
-      <c r="B534" t="s">
-        <v>429</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8874,7 +8964,7 @@
         <v>722</v>
       </c>
       <c r="B535" t="s">
-        <v>595</v>
+        <v>479</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8885,7 +8975,7 @@
         <v>723</v>
       </c>
       <c r="B536" t="s">
-        <v>631</v>
+        <v>724</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8893,10 +8983,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B537" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8904,10 +8994,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B538" t="s">
-        <v>457</v>
+        <v>727</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8915,10 +9005,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B539" t="s">
-        <v>429</v>
+        <v>719</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8926,10 +9016,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B540" t="s">
-        <v>429</v>
+        <v>730</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8937,10 +9027,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B541" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8948,10 +9038,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B542" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8959,10 +9049,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B543" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8970,10 +9060,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B544" t="s">
-        <v>482</v>
+        <v>707</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8981,10 +9071,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B545" t="s">
-        <v>626</v>
+        <v>546</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8992,10 +9082,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B546" t="s">
-        <v>466</v>
+        <v>738</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9003,10 +9093,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B547" t="s">
-        <v>471</v>
+        <v>738</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9014,10 +9104,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B548" t="s">
-        <v>431</v>
+        <v>700</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9025,10 +9115,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B549" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9036,10 +9126,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B550" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9047,10 +9137,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B551" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9058,10 +9148,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B552" t="s">
-        <v>435</v>
+        <v>656</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9069,10 +9159,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B553" t="s">
-        <v>519</v>
+        <v>465</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9080,10 +9170,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B554" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9091,10 +9181,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B555" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9102,10 +9192,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B556" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9113,10 +9203,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B557" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9124,10 +9214,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B558" t="s">
-        <v>501</v>
+        <v>622</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9135,10 +9225,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B559" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9146,10 +9236,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B560" t="s">
-        <v>394</v>
+        <v>625</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9157,10 +9247,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B561" t="s">
-        <v>563</v>
+        <v>661</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9168,10 +9258,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B562" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9179,10 +9269,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B563" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9190,10 +9280,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B564" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9201,10 +9291,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B565" t="s">
-        <v>753</v>
+        <v>459</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9212,10 +9302,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B566" t="s">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9223,10 +9313,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B567" t="s">
-        <v>402</v>
+        <v>512</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9234,10 +9324,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B568" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9245,10 +9335,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B569" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9256,10 +9346,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B570" t="s">
-        <v>412</v>
+        <v>656</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9267,10 +9357,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B571" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9278,10 +9368,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B572" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9289,10 +9379,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B573" t="s">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9300,10 +9390,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B574" t="s">
-        <v>763</v>
+        <v>459</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9311,10 +9401,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B575" t="s">
-        <v>765</v>
+        <v>700</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9322,10 +9412,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B576" t="s">
-        <v>767</v>
+        <v>512</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9333,10 +9423,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B577" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9344,10 +9434,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B578" t="s">
-        <v>770</v>
+        <v>549</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9358,7 +9448,7 @@
         <v>771</v>
       </c>
       <c r="B579" t="s">
-        <v>772</v>
+        <v>551</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9366,10 +9456,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B580" t="s">
-        <v>772</v>
+        <v>492</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9377,10 +9467,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B581" t="s">
-        <v>375</v>
+        <v>531</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9388,10 +9478,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B582" t="s">
-        <v>776</v>
+        <v>531</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9399,10 +9489,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B583" t="s">
-        <v>359</v>
+        <v>531</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9410,10 +9500,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B584" t="s">
-        <v>779</v>
+        <v>424</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9421,10 +9511,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B585" t="s">
-        <v>781</v>
+        <v>424</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9432,10 +9522,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B586" t="s">
-        <v>783</v>
+        <v>593</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9443,10 +9533,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B587" t="s">
-        <v>783</v>
+        <v>606</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9454,10 +9544,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B588" t="s">
-        <v>786</v>
+        <v>527</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9465,10 +9555,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B589" t="s">
-        <v>788</v>
+        <v>397</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9476,10 +9566,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B590" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9487,10 +9577,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B591" t="s">
-        <v>792</v>
+        <v>561</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9498,10 +9588,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B592" t="s">
-        <v>794</v>
+        <v>432</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9509,10 +9599,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B593" t="s">
-        <v>786</v>
+        <v>430</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9520,10 +9610,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B594" t="s">
-        <v>797</v>
+        <v>437</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9531,10 +9621,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B595" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9542,10 +9632,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B596" t="s">
-        <v>800</v>
+        <v>593</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9553,10 +9643,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B597" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9564,10 +9654,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B598" t="s">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9575,10 +9665,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B599" t="s">
-        <v>309</v>
+        <v>793</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9586,10 +9676,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B600" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9597,10 +9687,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B601" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9608,10 +9698,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B602" t="s">
-        <v>86</v>
+        <v>583</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9619,10 +9709,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B603" t="s">
-        <v>64</v>
+        <v>800</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9630,10 +9720,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B604" t="s">
-        <v>312</v>
+        <v>802</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9641,10 +9731,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B605" t="s">
-        <v>315</v>
+        <v>802</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9652,10 +9742,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B606" t="s">
-        <v>109</v>
+        <v>405</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9663,10 +9753,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B607" t="s">
-        <v>254</v>
+        <v>806</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9674,10 +9764,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B608" t="s">
-        <v>169</v>
+        <v>389</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9685,10 +9775,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B609" t="s">
-        <v>34</v>
+        <v>809</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9696,10 +9786,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B610" t="s">
-        <v>41</v>
+        <v>811</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9707,10 +9797,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B611" t="s">
-        <v>41</v>
+        <v>813</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9718,10 +9808,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B612" t="s">
-        <v>174</v>
+        <v>813</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9729,10 +9819,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B613" t="s">
-        <v>7</v>
+        <v>816</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9740,10 +9830,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B614" t="s">
-        <v>80</v>
+        <v>818</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9751,10 +9841,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
+        <v>819</v>
+      </c>
+      <c r="B615" t="s">
         <v>820</v>
-      </c>
-      <c r="B615" t="s">
-        <v>7</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9765,7 +9855,7 @@
         <v>821</v>
       </c>
       <c r="B616" t="s">
-        <v>26</v>
+        <v>822</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9773,10 +9863,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B617" t="s">
-        <v>26</v>
+        <v>824</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9784,10 +9874,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B618" t="s">
-        <v>254</v>
+        <v>816</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9795,10 +9885,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B619" t="s">
-        <v>91</v>
+        <v>827</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9806,10 +9896,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B620" t="s">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9817,10 +9907,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B621" t="s">
-        <v>66</v>
+        <v>830</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9828,10 +9918,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B622" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9839,10 +9929,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B623" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9850,10 +9940,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B624" t="s">
-        <v>790</v>
+        <v>339</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9861,10 +9951,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B625" t="s">
-        <v>162</v>
+        <v>824</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9872,10 +9962,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B626" t="s">
-        <v>88</v>
+        <v>836</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9883,10 +9973,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B627" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9894,10 +9984,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B628" t="s">
-        <v>834</v>
+        <v>100</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9905,10 +9995,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B629" t="s">
-        <v>836</v>
+        <v>342</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -9916,10 +10006,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B630" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -9927,10 +10017,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B631" t="s">
-        <v>839</v>
+        <v>145</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -9938,10 +10028,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B632" t="s">
-        <v>841</v>
+        <v>285</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -9949,10 +10039,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B633" t="s">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -9960,10 +10050,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B634" t="s">
-        <v>333</v>
+        <v>72</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -9971,10 +10061,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B635" t="s">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -9982,10 +10072,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B636" t="s">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -9993,10 +10083,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B637" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10004,10 +10094,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B638" t="s">
-        <v>848</v>
+        <v>51</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10018,7 +10108,7 @@
         <v>849</v>
       </c>
       <c r="B639" t="s">
-        <v>800</v>
+        <v>116</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10029,7 +10119,7 @@
         <v>850</v>
       </c>
       <c r="B640" t="s">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10040,7 +10130,7 @@
         <v>851</v>
       </c>
       <c r="B641" t="s">
-        <v>852</v>
+        <v>66</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10048,10 +10138,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B642" t="s">
-        <v>854</v>
+        <v>66</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10059,10 +10149,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B643" t="s">
-        <v>856</v>
+        <v>285</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10070,10 +10160,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B644" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10081,10 +10171,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B645" t="s">
-        <v>856</v>
+        <v>127</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10092,10 +10182,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B646" t="s">
-        <v>860</v>
+        <v>102</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10103,10 +10193,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B647" t="s">
-        <v>852</v>
+        <v>173</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10114,10 +10204,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B648" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10125,10 +10215,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B649" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10136,10 +10226,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B650" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10147,10 +10237,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B651" t="s">
-        <v>800</v>
+        <v>124</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10158,10 +10248,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B652" t="s">
-        <v>867</v>
+        <v>151</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10169,10 +10259,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B653" t="s">
-        <v>345</v>
+        <v>864</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10180,10 +10270,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B654" t="s">
-        <v>786</v>
+        <v>866</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10191,10 +10281,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B655" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10202,10 +10292,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B656" t="s">
-        <v>62</v>
+        <v>869</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10213,10 +10303,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B657" t="s">
-        <v>23</v>
+        <v>871</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10224,10 +10314,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B658" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10235,10 +10325,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B659" t="s">
-        <v>23</v>
+        <v>363</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10246,10 +10336,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B660" t="s">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10257,10 +10347,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B661" t="s">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10268,10 +10358,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B662" t="s">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10279,10 +10369,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
+        <v>877</v>
+      </c>
+      <c r="B663" t="s">
         <v>878</v>
-      </c>
-      <c r="B663" t="s">
-        <v>4</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10293,7 +10383,7 @@
         <v>879</v>
       </c>
       <c r="B664" t="s">
-        <v>82</v>
+        <v>830</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10304,7 +10394,7 @@
         <v>880</v>
       </c>
       <c r="B665" t="s">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10315,7 +10405,7 @@
         <v>881</v>
       </c>
       <c r="B666" t="s">
-        <v>93</v>
+        <v>882</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10323,10 +10413,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B667" t="s">
-        <v>9</v>
+        <v>884</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10334,12 +10424,287 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B668" t="s">
-        <v>9</v>
+        <v>886</v>
       </c>
       <c r="C668" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>887</v>
+      </c>
+      <c r="B669" t="s">
+        <v>297</v>
+      </c>
+      <c r="C669" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>888</v>
+      </c>
+      <c r="B670" t="s">
+        <v>886</v>
+      </c>
+      <c r="C670" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>889</v>
+      </c>
+      <c r="B671" t="s">
+        <v>890</v>
+      </c>
+      <c r="C671" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>891</v>
+      </c>
+      <c r="B672" t="s">
+        <v>882</v>
+      </c>
+      <c r="C672" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>892</v>
+      </c>
+      <c r="B673" t="s">
+        <v>367</v>
+      </c>
+      <c r="C673" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>893</v>
+      </c>
+      <c r="B674" t="s">
+        <v>830</v>
+      </c>
+      <c r="C674" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>894</v>
+      </c>
+      <c r="B675" t="s">
+        <v>375</v>
+      </c>
+      <c r="C675" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>895</v>
+      </c>
+      <c r="B676" t="s">
+        <v>830</v>
+      </c>
+      <c r="C676" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>896</v>
+      </c>
+      <c r="B677" t="s">
+        <v>897</v>
+      </c>
+      <c r="C677" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>898</v>
+      </c>
+      <c r="B678" t="s">
+        <v>375</v>
+      </c>
+      <c r="C678" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>899</v>
+      </c>
+      <c r="B679" t="s">
+        <v>816</v>
+      </c>
+      <c r="C679" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>900</v>
+      </c>
+      <c r="B680" t="s">
+        <v>164</v>
+      </c>
+      <c r="C680" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>901</v>
+      </c>
+      <c r="B681" t="s">
+        <v>98</v>
+      </c>
+      <c r="C681" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>902</v>
+      </c>
+      <c r="B682" t="s">
+        <v>46</v>
+      </c>
+      <c r="C682" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>903</v>
+      </c>
+      <c r="B683" t="s">
+        <v>281</v>
+      </c>
+      <c r="C683" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>904</v>
+      </c>
+      <c r="B684" t="s">
+        <v>46</v>
+      </c>
+      <c r="C684" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>905</v>
+      </c>
+      <c r="B685" t="s">
+        <v>118</v>
+      </c>
+      <c r="C685" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>906</v>
+      </c>
+      <c r="B686" t="s">
+        <v>177</v>
+      </c>
+      <c r="C686" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>907</v>
+      </c>
+      <c r="B687" t="s">
+        <v>116</v>
+      </c>
+      <c r="C687" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>908</v>
+      </c>
+      <c r="B688" t="s">
+        <v>39</v>
+      </c>
+      <c r="C688" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>909</v>
+      </c>
+      <c r="B689" t="s">
+        <v>118</v>
+      </c>
+      <c r="C689" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>910</v>
+      </c>
+      <c r="B690" t="s">
+        <v>129</v>
+      </c>
+      <c r="C690" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>911</v>
+      </c>
+      <c r="B691" t="s">
+        <v>129</v>
+      </c>
+      <c r="C691" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>912</v>
+      </c>
+      <c r="B692" t="s">
+        <v>53</v>
+      </c>
+      <c r="C692" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>913</v>
+      </c>
+      <c r="B693" t="s">
+        <v>53</v>
+      </c>
+      <c r="C693" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid103599"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid787071"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="930">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,93 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>0.881</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>0.919</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>0.930</t>
+  </si>
+  <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>27/02/2025</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>26/02/2025</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>25/02/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
     <t>24/02/2025</t>
   </si>
   <si>
     <t>0.971</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
@@ -302,9 +380,6 @@
     <t>28/11/2024</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>27/11/2024</t>
   </si>
   <si>
@@ -335,9 +410,6 @@
     <t>20/11/2024</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>19/11/2024</t>
   </si>
   <si>
@@ -359,9 +431,6 @@
     <t>12/11/2024</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
     <t>11/11/2024</t>
   </si>
   <si>
@@ -872,9 +941,6 @@
     <t>06/05/2024</t>
   </si>
   <si>
-    <t>0.961</t>
-  </si>
-  <si>
     <t>03/05/2024</t>
   </si>
   <si>
@@ -908,9 +974,6 @@
     <t>19/04/2024</t>
   </si>
   <si>
-    <t>0.930</t>
-  </si>
-  <si>
     <t>18/04/2024</t>
   </si>
   <si>
@@ -1034,18 +1097,12 @@
     <t>21/02/2024</t>
   </si>
   <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>20/02/2024</t>
   </si>
   <si>
     <t>19/02/2024</t>
   </si>
   <si>
-    <t>0.933</t>
-  </si>
-  <si>
     <t>16/02/2024</t>
   </si>
   <si>
@@ -1061,9 +1118,6 @@
     <t>13/02/2024</t>
   </si>
   <si>
-    <t>0.926</t>
-  </si>
-  <si>
     <t>09/02/2024</t>
   </si>
   <si>
@@ -1076,9 +1130,6 @@
     <t>07/02/2024</t>
   </si>
   <si>
-    <t>0.919</t>
-  </si>
-  <si>
     <t>06/02/2024</t>
   </si>
   <si>
@@ -1104,9 +1155,6 @@
   </si>
   <si>
     <t>31/01/2024</t>
-  </si>
-  <si>
-    <t>0.887</t>
   </si>
   <si>
     <t>30/01/2024</t>
@@ -3233,7 +3281,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3241,10 +3289,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3252,10 +3300,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3263,10 +3311,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3274,10 +3322,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3285,10 +3333,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3296,10 +3344,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3307,10 +3355,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3318,10 +3366,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3329,10 +3377,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3340,10 +3388,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3351,10 +3399,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3362,10 +3410,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3373,10 +3421,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3384,10 +3432,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3395,10 +3443,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3406,10 +3454,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3417,10 +3465,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3428,10 +3476,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3439,10 +3487,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3450,10 +3498,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3461,10 +3509,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3472,10 +3520,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3483,10 +3531,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3494,10 +3542,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3505,10 +3553,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3516,10 +3564,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3527,10 +3575,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3538,10 +3586,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3549,10 +3597,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3560,10 +3608,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3571,10 +3619,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3582,10 +3630,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3593,10 +3641,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3604,10 +3652,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3615,10 +3663,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3626,10 +3674,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3637,10 +3685,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3648,10 +3696,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3659,10 +3707,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3670,10 +3718,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3681,10 +3729,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3692,10 +3740,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3703,10 +3751,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3714,10 +3762,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3725,10 +3773,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3736,10 +3784,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3747,10 +3795,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3758,10 +3806,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3769,10 +3817,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3780,10 +3828,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3791,10 +3839,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3802,10 +3850,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3813,10 +3861,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3824,10 +3872,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3835,10 +3883,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3846,10 +3894,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3857,10 +3905,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3868,10 +3916,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3879,10 +3927,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3890,10 +3938,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3901,10 +3949,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3912,10 +3960,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3923,10 +3971,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3934,10 +3982,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3945,10 +3993,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3956,7 +4004,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
         <v>127</v>
@@ -3967,10 +4015,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3978,10 +4026,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3989,10 +4037,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4000,10 +4048,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4011,10 +4059,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4022,10 +4070,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4033,10 +4081,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4044,10 +4092,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4055,10 +4103,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4066,10 +4114,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4077,10 +4125,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4088,10 +4136,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4099,10 +4147,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4110,10 +4158,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4121,10 +4169,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4132,10 +4180,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4143,10 +4191,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4154,10 +4202,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4165,10 +4213,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4176,10 +4224,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4187,10 +4235,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4198,10 +4246,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4209,10 +4257,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4220,10 +4268,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4231,10 +4279,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4242,10 +4290,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4253,10 +4301,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4264,10 +4312,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4275,10 +4323,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4286,10 +4334,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4297,10 +4345,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4308,10 +4356,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4319,10 +4367,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4330,10 +4378,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4341,10 +4389,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4352,10 +4400,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4363,10 +4411,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4374,10 +4422,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4385,10 +4433,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4396,10 +4444,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4407,10 +4455,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4418,10 +4466,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4429,10 +4477,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4440,10 +4488,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4451,10 +4499,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4462,10 +4510,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4473,10 +4521,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4484,10 +4532,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4495,10 +4543,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4506,10 +4554,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4517,10 +4565,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4528,10 +4576,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4539,10 +4587,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4550,10 +4598,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4561,10 +4609,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4572,10 +4620,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4583,10 +4631,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4594,10 +4642,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4605,10 +4653,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4616,10 +4664,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4627,10 +4675,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4638,10 +4686,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4649,10 +4697,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4660,10 +4708,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4671,10 +4719,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4682,10 +4730,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4693,10 +4741,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4704,10 +4752,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4715,10 +4763,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4726,10 +4774,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4737,10 +4785,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4748,10 +4796,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4759,10 +4807,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4770,10 +4818,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4781,10 +4829,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4792,10 +4840,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4803,10 +4851,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B157" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4814,10 +4862,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>231</v>
+      </c>
+      <c r="B158" t="s">
         <v>228</v>
-      </c>
-      <c r="B158" t="s">
-        <v>227</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4825,10 +4873,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4836,10 +4884,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4847,10 +4895,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4858,10 +4906,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" t="s">
         <v>233</v>
-      </c>
-      <c r="B162" t="s">
-        <v>234</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4869,10 +4917,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4880,10 +4928,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4891,10 +4939,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B165" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4902,10 +4950,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4913,10 +4961,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4924,10 +4972,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B168" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4935,10 +4983,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B169" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4946,10 +4994,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4957,10 +5005,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B171" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4968,10 +5016,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4979,10 +5027,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4990,10 +5038,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5001,10 +5049,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5012,10 +5060,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5023,10 +5071,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5034,10 +5082,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B178" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5045,10 +5093,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5056,10 +5104,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5067,10 +5115,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5078,10 +5126,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B182" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5089,10 +5137,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B183" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5100,10 +5148,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B184" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5111,10 +5159,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5122,10 +5170,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5133,10 +5181,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5144,10 +5192,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5155,10 +5203,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B189" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5166,10 +5214,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B190" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5177,10 +5225,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B191" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5188,10 +5236,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B192" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5199,10 +5247,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5210,10 +5258,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5221,10 +5269,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5232,10 +5280,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5243,10 +5291,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5254,10 +5302,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5265,10 +5313,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5276,10 +5324,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B200" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5287,10 +5335,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5298,10 +5346,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B202" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5309,10 +5357,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B203" t="s">
-        <v>265</v>
+        <v>60</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5320,10 +5368,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B204" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5331,10 +5379,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B205" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5342,10 +5390,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B206" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5353,10 +5401,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B207" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5364,10 +5412,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5375,10 +5423,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B209" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5386,10 +5434,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B210" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5397,10 +5445,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5408,10 +5456,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B212" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5419,10 +5467,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B213" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5430,10 +5478,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B214" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5441,7 +5489,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>102</v>
@@ -5452,10 +5500,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5463,10 +5511,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5474,10 +5522,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5485,10 +5533,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5496,10 +5544,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5507,10 +5555,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5518,10 +5566,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5529,10 +5577,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5540,10 +5588,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5551,10 +5599,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5562,10 +5610,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5573,10 +5621,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5584,10 +5632,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5595,10 +5643,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B229" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5606,10 +5654,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B230" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5617,10 +5665,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B231" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5628,10 +5676,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B232" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5639,10 +5687,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5650,10 +5698,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5661,10 +5709,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B235" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5672,10 +5720,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B236" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5683,10 +5731,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B237" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5694,10 +5742,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B238" t="s">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5705,10 +5753,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B239" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5716,10 +5764,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5727,10 +5775,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5738,10 +5786,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B242" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5749,10 +5797,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B243" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5760,10 +5808,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B244" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5771,10 +5819,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B245" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5782,10 +5830,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B246" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5793,7 +5841,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B247" t="s">
         <v>60</v>
@@ -5804,10 +5852,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B248" t="s">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5815,10 +5863,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5826,10 +5874,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5837,10 +5885,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B251" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5848,10 +5896,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B252" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5859,10 +5907,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B253" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5870,10 +5918,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B254" t="s">
-        <v>339</v>
+        <v>141</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5881,10 +5929,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B255" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5892,10 +5940,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B256" t="s">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5903,10 +5951,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B257" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5914,10 +5962,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B258" t="s">
-        <v>345</v>
+        <v>141</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5925,10 +5973,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B259" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5936,10 +5984,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B260" t="s">
-        <v>348</v>
+        <v>86</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5947,10 +5995,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B261" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5958,10 +6006,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>23</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5969,10 +6017,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B263" t="s">
-        <v>353</v>
+        <v>123</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5980,10 +6028,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B264" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5991,10 +6039,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B265" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6005,7 +6053,7 @@
         <v>358</v>
       </c>
       <c r="B266" t="s">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6013,10 +6061,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B267" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6024,10 +6072,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B268" t="s">
-        <v>363</v>
+        <v>223</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6035,10 +6083,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B269" t="s">
-        <v>365</v>
+        <v>17</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6046,10 +6094,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>145</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6057,10 +6105,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B271" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6068,10 +6116,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B272" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6079,10 +6127,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B273" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6090,10 +6138,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B274" t="s">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6101,7 +6149,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B275" t="s">
         <v>369</v>
@@ -6112,10 +6160,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B276" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6123,10 +6171,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B277" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6134,10 +6182,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B278" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6145,10 +6193,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6156,10 +6204,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B280" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6167,10 +6215,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B281" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6178,10 +6226,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B282" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6189,10 +6237,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B283" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6200,10 +6248,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B284" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6211,10 +6259,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B285" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6222,10 +6270,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B286" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6233,10 +6281,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B287" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6244,10 +6292,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B288" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6255,10 +6303,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B289" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6266,10 +6314,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B290" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6277,10 +6325,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B291" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6288,10 +6336,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B292" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6299,10 +6347,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B293" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6310,10 +6358,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B294" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6321,10 +6369,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B295" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6332,10 +6380,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B296" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6343,10 +6391,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B297" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6354,10 +6402,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B298" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6365,10 +6413,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B299" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6376,10 +6424,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B300" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6387,10 +6435,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B301" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6398,10 +6446,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B302" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6409,10 +6457,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B303" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6420,10 +6468,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B304" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6431,10 +6479,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B305" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6442,10 +6490,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B306" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6453,10 +6501,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B307" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6464,10 +6512,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B308" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6475,10 +6523,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B309" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6486,10 +6534,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B310" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6497,10 +6545,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B311" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6508,10 +6556,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B312" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6519,10 +6567,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B313" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6530,10 +6578,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B314" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6541,7 +6589,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B315" t="s">
         <v>440</v>
@@ -6552,10 +6600,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B316" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6563,10 +6611,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B317" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6574,10 +6622,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B318" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6585,10 +6633,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B319" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6596,7 +6644,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B320" t="s">
         <v>450</v>
@@ -6607,10 +6655,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B321" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6618,10 +6666,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
+        <v>452</v>
+      </c>
+      <c r="B322" t="s">
         <v>453</v>
-      </c>
-      <c r="B322" t="s">
-        <v>442</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6632,7 +6680,7 @@
         <v>454</v>
       </c>
       <c r="B323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6640,10 +6688,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
+        <v>455</v>
+      </c>
+      <c r="B324" t="s">
         <v>456</v>
-      </c>
-      <c r="B324" t="s">
-        <v>457</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6651,10 +6699,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
+        <v>457</v>
+      </c>
+      <c r="B325" t="s">
         <v>458</v>
-      </c>
-      <c r="B325" t="s">
-        <v>459</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6662,10 +6710,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B326" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6673,10 +6721,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B327" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6684,10 +6732,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B328" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6695,10 +6743,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B329" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6706,10 +6754,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B330" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6717,10 +6765,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B331" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6728,10 +6776,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B332" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6739,10 +6787,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B333" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6750,10 +6798,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B334" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6761,10 +6809,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B335" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6772,10 +6820,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B336" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6783,10 +6831,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B337" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6794,10 +6842,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B338" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6805,10 +6853,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B339" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6816,10 +6864,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B340" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6827,10 +6875,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B341" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6838,10 +6886,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B342" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6849,10 +6897,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B343" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6860,10 +6908,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B344" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6871,10 +6919,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B345" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6882,10 +6930,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B346" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6893,10 +6941,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B347" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6904,10 +6952,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B348" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6915,10 +6963,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B349" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6926,10 +6974,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B350" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6937,10 +6985,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B351" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6948,7 +6996,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B352" t="s">
         <v>501</v>
@@ -6959,10 +7007,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B353" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6970,10 +7018,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B354" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6981,10 +7029,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B355" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6992,10 +7040,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B356" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7003,10 +7051,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B357" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7014,10 +7062,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B358" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7025,10 +7073,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B359" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7036,10 +7084,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B360" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7047,10 +7095,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
+        <v>516</v>
+      </c>
+      <c r="B361" t="s">
         <v>517</v>
-      </c>
-      <c r="B361" t="s">
-        <v>518</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7058,10 +7106,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B362" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7069,10 +7117,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B363" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7080,10 +7128,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B364" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7091,10 +7139,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B365" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7102,10 +7150,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
+        <v>523</v>
+      </c>
+      <c r="B366" t="s">
         <v>524</v>
-      </c>
-      <c r="B366" t="s">
-        <v>442</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7116,7 +7164,7 @@
         <v>525</v>
       </c>
       <c r="B367" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7127,7 +7175,7 @@
         <v>526</v>
       </c>
       <c r="B368" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7135,10 +7183,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
+        <v>527</v>
+      </c>
+      <c r="B369" t="s">
         <v>528</v>
-      </c>
-      <c r="B369" t="s">
-        <v>450</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7149,7 +7197,7 @@
         <v>529</v>
       </c>
       <c r="B370" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7160,7 +7208,7 @@
         <v>530</v>
       </c>
       <c r="B371" t="s">
-        <v>531</v>
+        <v>477</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7168,10 +7216,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B372" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7179,10 +7227,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B373" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7190,10 +7238,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B374" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7201,10 +7249,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B375" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7212,10 +7260,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B376" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7223,10 +7271,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B377" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7234,10 +7282,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B378" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7245,10 +7293,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B379" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7256,10 +7304,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B380" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7267,10 +7315,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
+        <v>542</v>
+      </c>
+      <c r="B381" t="s">
         <v>543</v>
-      </c>
-      <c r="B381" t="s">
-        <v>544</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7278,10 +7326,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B382" t="s">
-        <v>546</v>
+        <v>466</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7289,10 +7337,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B383" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7300,10 +7348,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B384" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7311,10 +7359,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B385" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7322,10 +7370,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B386" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7333,10 +7381,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B387" t="s">
-        <v>461</v>
+        <v>552</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7344,10 +7392,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B388" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7355,10 +7403,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B389" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7366,10 +7414,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B390" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7377,10 +7425,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B391" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7388,10 +7436,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B392" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7399,10 +7447,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B393" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7410,10 +7458,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
+        <v>559</v>
+      </c>
+      <c r="B394" t="s">
         <v>560</v>
-      </c>
-      <c r="B394" t="s">
-        <v>561</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7421,10 +7469,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
+        <v>561</v>
+      </c>
+      <c r="B395" t="s">
         <v>562</v>
-      </c>
-      <c r="B395" t="s">
-        <v>531</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7435,7 +7483,7 @@
         <v>563</v>
       </c>
       <c r="B396" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7446,7 +7494,7 @@
         <v>564</v>
       </c>
       <c r="B397" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7454,10 +7502,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B398" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7465,10 +7513,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B399" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7476,10 +7524,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B400" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7487,10 +7535,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B401" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7498,10 +7546,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B402" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7509,10 +7557,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B403" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7520,10 +7568,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B404" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7531,10 +7579,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B405" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7542,10 +7590,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B406" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7553,10 +7601,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B407" t="s">
-        <v>397</v>
+        <v>577</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7564,10 +7612,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B408" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7575,10 +7623,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B409" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7586,10 +7634,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B410" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7597,10 +7645,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B411" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7608,7 +7656,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B412" t="s">
         <v>450</v>
@@ -7619,10 +7667,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B413" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7630,10 +7678,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B414" t="s">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7641,10 +7689,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B415" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7652,10 +7700,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B416" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7663,10 +7711,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B417" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7674,10 +7722,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B418" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7685,10 +7733,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B419" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7696,10 +7744,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B420" t="s">
-        <v>561</v>
+        <v>413</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7707,10 +7755,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B421" t="s">
-        <v>399</v>
+        <v>547</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7718,10 +7766,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B422" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7729,10 +7777,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B423" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7743,7 +7791,7 @@
         <v>594</v>
       </c>
       <c r="B424" t="s">
-        <v>595</v>
+        <v>450</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7751,10 +7799,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B425" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7762,10 +7810,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B426" t="s">
-        <v>595</v>
+        <v>444</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7773,10 +7821,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B427" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7784,10 +7832,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
+        <v>598</v>
+      </c>
+      <c r="B428" t="s">
         <v>599</v>
-      </c>
-      <c r="B428" t="s">
-        <v>422</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7798,7 +7846,7 @@
         <v>600</v>
       </c>
       <c r="B429" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7806,10 +7854,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B430" t="s">
-        <v>428</v>
+        <v>577</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7817,10 +7865,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B431" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7828,10 +7876,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B432" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7839,10 +7887,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B433" t="s">
-        <v>426</v>
+        <v>577</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7850,10 +7898,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B434" t="s">
-        <v>606</v>
+        <v>415</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7864,7 +7912,7 @@
         <v>607</v>
       </c>
       <c r="B435" t="s">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7875,7 +7923,7 @@
         <v>608</v>
       </c>
       <c r="B436" t="s">
-        <v>518</v>
+        <v>609</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7883,10 +7931,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B437" t="s">
-        <v>520</v>
+        <v>611</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7894,10 +7942,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B438" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7905,10 +7953,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
+        <v>613</v>
+      </c>
+      <c r="B439" t="s">
         <v>611</v>
-      </c>
-      <c r="B439" t="s">
-        <v>531</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7916,10 +7964,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B440" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7927,10 +7975,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B441" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7938,10 +7986,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B442" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7949,10 +7997,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B443" t="s">
-        <v>606</v>
+        <v>444</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7960,10 +8008,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B444" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7971,10 +8019,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B445" t="s">
-        <v>533</v>
+        <v>442</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7982,10 +8030,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B446" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7993,10 +8041,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B447" t="s">
-        <v>527</v>
+        <v>622</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8004,10 +8052,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B448" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8015,10 +8063,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B449" t="s">
-        <v>622</v>
+        <v>534</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8026,10 +8074,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B450" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8037,10 +8085,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B451" t="s">
-        <v>625</v>
+        <v>456</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8048,10 +8096,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B452" t="s">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8059,10 +8107,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B453" t="s">
-        <v>622</v>
+        <v>466</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8070,10 +8118,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B454" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8081,10 +8129,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B455" t="s">
-        <v>622</v>
+        <v>577</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8092,10 +8140,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B456" t="s">
-        <v>496</v>
+        <v>622</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8103,10 +8151,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B457" t="s">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8114,10 +8162,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B458" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8125,10 +8173,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B459" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8136,10 +8184,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B460" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8147,10 +8195,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B461" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8158,10 +8206,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B462" t="s">
-        <v>490</v>
+        <v>638</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8169,10 +8217,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B463" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8180,10 +8228,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B464" t="s">
-        <v>432</v>
+        <v>641</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8191,10 +8239,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B465" t="s">
-        <v>450</v>
+        <v>641</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8202,10 +8250,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B466" t="s">
-        <v>437</v>
+        <v>638</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8213,10 +8261,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B467" t="s">
-        <v>561</v>
+        <v>448</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8224,10 +8272,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B468" t="s">
-        <v>527</v>
+        <v>638</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8235,10 +8283,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8246,10 +8294,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B470" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8257,10 +8305,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>434</v>
+        <v>534</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8268,10 +8316,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B472" t="s">
-        <v>622</v>
+        <v>448</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8279,10 +8327,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B473" t="s">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8290,10 +8338,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B474" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8301,10 +8349,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B475" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8312,10 +8360,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B476" t="s">
-        <v>527</v>
+        <v>448</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8323,10 +8371,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B477" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8334,10 +8382,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B478" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8345,10 +8393,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B479" t="s">
-        <v>625</v>
+        <v>453</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8356,10 +8404,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B480" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8367,10 +8415,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B481" t="s">
-        <v>656</v>
+        <v>543</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8378,10 +8426,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B482" t="s">
-        <v>658</v>
+        <v>448</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8389,10 +8437,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B483" t="s">
-        <v>463</v>
+        <v>638</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8400,10 +8448,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B484" t="s">
-        <v>661</v>
+        <v>450</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8414,7 +8462,7 @@
         <v>662</v>
       </c>
       <c r="B485" t="s">
-        <v>505</v>
+        <v>638</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8425,7 +8473,7 @@
         <v>663</v>
       </c>
       <c r="B486" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8436,7 +8484,7 @@
         <v>664</v>
       </c>
       <c r="B487" t="s">
-        <v>665</v>
+        <v>552</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8444,10 +8492,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B488" t="s">
-        <v>661</v>
+        <v>536</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8455,10 +8503,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B489" t="s">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8466,10 +8514,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B490" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8477,10 +8525,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B491" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8488,10 +8536,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B492" t="s">
-        <v>487</v>
+        <v>641</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8499,10 +8547,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B493" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8510,10 +8558,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
+        <v>671</v>
+      </c>
+      <c r="B494" t="s">
         <v>672</v>
-      </c>
-      <c r="B494" t="s">
-        <v>492</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8524,7 +8572,7 @@
         <v>673</v>
       </c>
       <c r="B495" t="s">
-        <v>490</v>
+        <v>674</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8532,10 +8580,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B496" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8543,10 +8591,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B497" t="s">
-        <v>494</v>
+        <v>677</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8554,10 +8602,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B498" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8565,10 +8613,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B499" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8576,10 +8624,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B500" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8587,10 +8635,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B501" t="s">
-        <v>461</v>
+        <v>677</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8598,10 +8646,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B502" t="s">
-        <v>551</v>
+        <v>483</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8609,10 +8657,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B503" t="s">
-        <v>656</v>
+        <v>473</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8620,10 +8668,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B504" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8631,10 +8679,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B505" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8642,10 +8690,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B506" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8653,10 +8701,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B507" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8664,10 +8712,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B508" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8675,10 +8723,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B509" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8686,10 +8734,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B510" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8697,10 +8745,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B511" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8708,10 +8756,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B512" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8719,10 +8767,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B513" t="s">
-        <v>551</v>
+        <v>672</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8730,10 +8778,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B514" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8741,10 +8789,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B515" t="s">
-        <v>457</v>
+        <v>567</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8752,10 +8800,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B516" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8763,10 +8811,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B517" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8774,10 +8822,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B518" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8785,10 +8833,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B519" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8796,10 +8844,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B520" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8807,10 +8855,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B521" t="s">
-        <v>700</v>
+        <v>503</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8818,10 +8866,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B522" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8829,10 +8877,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B523" t="s">
-        <v>703</v>
+        <v>567</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8840,10 +8888,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B524" t="s">
-        <v>705</v>
+        <v>517</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8854,7 +8902,7 @@
         <v>706</v>
       </c>
       <c r="B525" t="s">
-        <v>707</v>
+        <v>473</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8862,10 +8910,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B526" t="s">
-        <v>709</v>
+        <v>567</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8873,10 +8921,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B527" t="s">
-        <v>711</v>
+        <v>524</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8884,10 +8932,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B528" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8895,10 +8943,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B529" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8906,10 +8954,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B530" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8917,10 +8965,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B531" t="s">
-        <v>711</v>
+        <v>473</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8928,10 +8976,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B532" t="s">
-        <v>709</v>
+        <v>501</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8939,10 +8987,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B533" t="s">
-        <v>719</v>
+        <v>560</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8950,10 +8998,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B534" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8961,10 +9009,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B535" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8972,10 +9020,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B536" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8983,10 +9031,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B537" t="s">
-        <v>479</v>
+        <v>721</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8994,10 +9042,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B538" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9005,10 +9053,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B539" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9016,10 +9064,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B540" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9027,10 +9075,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B541" t="s">
-        <v>732</v>
+        <v>485</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9038,10 +9086,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B542" t="s">
-        <v>475</v>
+        <v>730</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9049,10 +9097,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B543" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9060,10 +9108,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B544" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9071,10 +9119,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B545" t="s">
-        <v>546</v>
+        <v>725</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9082,10 +9130,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B546" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9093,10 +9141,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B547" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9104,10 +9152,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B548" t="s">
-        <v>700</v>
+        <v>495</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9115,10 +9163,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B549" t="s">
-        <v>467</v>
+        <v>740</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9126,10 +9174,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B550" t="s">
-        <v>656</v>
+        <v>495</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9137,10 +9185,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
+        <v>742</v>
+      </c>
+      <c r="B551" t="s">
         <v>743</v>
-      </c>
-      <c r="B551" t="s">
-        <v>457</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9151,7 +9199,7 @@
         <v>744</v>
       </c>
       <c r="B552" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9162,7 +9210,7 @@
         <v>745</v>
       </c>
       <c r="B553" t="s">
-        <v>465</v>
+        <v>746</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9170,10 +9218,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B554" t="s">
-        <v>512</v>
+        <v>748</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9181,10 +9229,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B555" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9192,10 +9240,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B556" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9203,10 +9251,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B557" t="s">
-        <v>549</v>
+        <v>723</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9214,10 +9262,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B558" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9225,10 +9273,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B559" t="s">
-        <v>459</v>
+        <v>754</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9236,10 +9284,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B560" t="s">
-        <v>625</v>
+        <v>754</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9247,10 +9295,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B561" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9258,10 +9306,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B562" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9269,10 +9317,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B563" t="s">
-        <v>487</v>
+        <v>672</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9280,10 +9328,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B564" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9291,10 +9339,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B565" t="s">
-        <v>459</v>
+        <v>672</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9302,10 +9350,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B566" t="s">
-        <v>656</v>
+        <v>481</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9313,10 +9361,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B567" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9324,10 +9372,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B568" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9335,10 +9383,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B569" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9346,10 +9394,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B570" t="s">
-        <v>656</v>
+        <v>565</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9357,10 +9405,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B571" t="s">
-        <v>496</v>
+        <v>638</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9368,10 +9416,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B572" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9379,10 +9427,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B573" t="s">
-        <v>461</v>
+        <v>641</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9390,10 +9438,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B574" t="s">
-        <v>459</v>
+        <v>677</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9401,10 +9449,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B575" t="s">
-        <v>700</v>
+        <v>501</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9412,10 +9460,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B576" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9423,10 +9471,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B577" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9434,10 +9482,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B578" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9445,10 +9493,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B579" t="s">
-        <v>551</v>
+        <v>672</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9456,10 +9504,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B580" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9467,10 +9515,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B581" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9478,10 +9526,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B582" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9489,10 +9537,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B583" t="s">
-        <v>531</v>
+        <v>672</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9500,10 +9548,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B584" t="s">
-        <v>424</v>
+        <v>512</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9511,10 +9559,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B585" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9522,10 +9570,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B586" t="s">
-        <v>593</v>
+        <v>477</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9533,10 +9581,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B587" t="s">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9544,10 +9592,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B588" t="s">
-        <v>527</v>
+        <v>716</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9555,10 +9603,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B589" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9566,10 +9614,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B590" t="s">
-        <v>783</v>
+        <v>481</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9577,10 +9625,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B591" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9588,10 +9636,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B592" t="s">
-        <v>432</v>
+        <v>567</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9599,10 +9647,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B593" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9610,10 +9658,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B594" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9621,10 +9669,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B595" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9632,10 +9680,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B596" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9643,10 +9691,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B597" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9654,10 +9702,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B598" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9665,10 +9713,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B599" t="s">
-        <v>793</v>
+        <v>609</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9676,10 +9724,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B600" t="s">
-        <v>795</v>
+        <v>622</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9690,7 +9738,7 @@
         <v>796</v>
       </c>
       <c r="B601" t="s">
-        <v>797</v>
+        <v>543</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9698,10 +9746,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B602" t="s">
-        <v>583</v>
+        <v>413</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9709,10 +9757,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
+        <v>798</v>
+      </c>
+      <c r="B603" t="s">
         <v>799</v>
-      </c>
-      <c r="B603" t="s">
-        <v>800</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9720,10 +9768,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B604" t="s">
-        <v>802</v>
+        <v>577</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9731,10 +9779,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B605" t="s">
-        <v>802</v>
+        <v>448</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9742,10 +9790,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B606" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9753,10 +9801,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B607" t="s">
-        <v>806</v>
+        <v>453</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9764,10 +9812,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B608" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9775,10 +9823,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B609" t="s">
-        <v>809</v>
+        <v>609</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9786,10 +9834,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B610" t="s">
-        <v>811</v>
+        <v>426</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9797,10 +9845,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B611" t="s">
-        <v>813</v>
+        <v>399</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9808,10 +9856,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B612" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9819,10 +9867,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B613" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9830,10 +9878,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B614" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9841,10 +9889,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B615" t="s">
-        <v>820</v>
+        <v>599</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9852,10 +9900,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B616" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9863,10 +9911,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B617" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9874,10 +9922,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B618" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9885,10 +9933,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B619" t="s">
-        <v>827</v>
+        <v>421</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9896,10 +9944,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B620" t="s">
-        <v>361</v>
+        <v>822</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9907,10 +9955,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B621" t="s">
-        <v>830</v>
+        <v>405</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9918,10 +9966,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B622" t="s">
-        <v>365</v>
+        <v>825</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9929,10 +9977,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B623" t="s">
-        <v>202</v>
+        <v>827</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9940,10 +9988,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B624" t="s">
-        <v>339</v>
+        <v>829</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9951,10 +9999,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B625" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9962,10 +10010,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B626" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9973,10 +10021,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B627" t="s">
-        <v>122</v>
+        <v>834</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9984,10 +10032,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B628" t="s">
-        <v>100</v>
+        <v>836</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9995,10 +10043,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B629" t="s">
-        <v>342</v>
+        <v>838</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10006,10 +10054,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
+        <v>839</v>
+      </c>
+      <c r="B630" t="s">
         <v>840</v>
-      </c>
-      <c r="B630" t="s">
-        <v>345</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10020,7 +10068,7 @@
         <v>841</v>
       </c>
       <c r="B631" t="s">
-        <v>145</v>
+        <v>832</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10031,7 +10079,7 @@
         <v>842</v>
       </c>
       <c r="B632" t="s">
-        <v>285</v>
+        <v>843</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10039,10 +10087,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B633" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10050,10 +10098,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B634" t="s">
-        <v>72</v>
+        <v>846</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10061,10 +10109,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B635" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10072,10 +10120,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B636" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10083,10 +10131,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B637" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10094,10 +10142,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B638" t="s">
-        <v>51</v>
+        <v>840</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10105,10 +10153,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B639" t="s">
-        <v>116</v>
+        <v>852</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10116,10 +10164,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B640" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10127,10 +10175,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B641" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10138,10 +10186,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B642" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10149,10 +10197,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B643" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10160,10 +10208,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B644" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10171,10 +10219,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B645" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10182,10 +10230,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B646" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10193,10 +10241,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B647" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10204,10 +10252,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B648" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10215,10 +10263,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B649" t="s">
-        <v>820</v>
+        <v>105</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10226,10 +10274,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B650" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10237,10 +10285,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B651" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10248,10 +10296,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B652" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10259,10 +10307,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B653" t="s">
-        <v>864</v>
+        <v>77</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10270,10 +10318,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B654" t="s">
-        <v>866</v>
+        <v>92</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10281,10 +10329,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B655" t="s">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10292,10 +10340,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B656" t="s">
-        <v>869</v>
+        <v>27</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10306,7 +10354,7 @@
         <v>870</v>
       </c>
       <c r="B657" t="s">
-        <v>871</v>
+        <v>150</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10314,10 +10362,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B658" t="s">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10325,10 +10373,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B659" t="s">
-        <v>363</v>
+        <v>127</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10336,10 +10384,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B660" t="s">
-        <v>357</v>
+        <v>196</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10347,10 +10395,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B661" t="s">
-        <v>357</v>
+        <v>21</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10358,10 +10406,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B662" t="s">
-        <v>373</v>
+        <v>836</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10369,10 +10417,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B663" t="s">
-        <v>878</v>
+        <v>221</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10380,10 +10428,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B664" t="s">
-        <v>830</v>
+        <v>147</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10391,10 +10439,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B665" t="s">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10402,10 +10450,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B666" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10413,10 +10461,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B667" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10424,10 +10472,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B668" t="s">
-        <v>886</v>
+        <v>381</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10435,10 +10483,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B669" t="s">
-        <v>297</v>
+        <v>885</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10446,10 +10494,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B670" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10457,10 +10505,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B671" t="s">
-        <v>890</v>
+        <v>11</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10468,10 +10516,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B672" t="s">
-        <v>882</v>
+        <v>11</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10479,10 +10527,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B673" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10490,10 +10538,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B674" t="s">
-        <v>830</v>
+        <v>374</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10501,10 +10549,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B675" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10512,10 +10560,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B676" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10523,10 +10571,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B677" t="s">
-        <v>897</v>
+        <v>846</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10534,10 +10582,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B678" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10545,10 +10593,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B679" t="s">
-        <v>816</v>
+        <v>898</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10556,10 +10604,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
+        <v>899</v>
+      </c>
+      <c r="B680" t="s">
         <v>900</v>
-      </c>
-      <c r="B680" t="s">
-        <v>164</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10570,7 +10618,7 @@
         <v>901</v>
       </c>
       <c r="B681" t="s">
-        <v>98</v>
+        <v>902</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10578,10 +10626,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B682" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10589,10 +10637,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B683" t="s">
-        <v>281</v>
+        <v>902</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10600,10 +10648,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B684" t="s">
-        <v>46</v>
+        <v>906</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10611,10 +10659,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B685" t="s">
-        <v>118</v>
+        <v>898</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10622,10 +10670,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B686" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10633,10 +10681,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B687" t="s">
-        <v>116</v>
+        <v>846</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10644,10 +10692,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B688" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10655,10 +10703,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B689" t="s">
-        <v>118</v>
+        <v>846</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10666,10 +10714,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B690" t="s">
-        <v>129</v>
+        <v>913</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10677,10 +10725,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B691" t="s">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10688,10 +10736,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B692" t="s">
-        <v>53</v>
+        <v>832</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10699,12 +10747,155 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B693" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C693" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>917</v>
+      </c>
+      <c r="B694" t="s">
+        <v>123</v>
+      </c>
+      <c r="C694" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>918</v>
+      </c>
+      <c r="B695" t="s">
+        <v>72</v>
+      </c>
+      <c r="C695" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>919</v>
+      </c>
+      <c r="B696" t="s">
+        <v>304</v>
+      </c>
+      <c r="C696" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>920</v>
+      </c>
+      <c r="B697" t="s">
+        <v>72</v>
+      </c>
+      <c r="C697" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>921</v>
+      </c>
+      <c r="B698" t="s">
+        <v>141</v>
+      </c>
+      <c r="C698" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>922</v>
+      </c>
+      <c r="B699" t="s">
+        <v>200</v>
+      </c>
+      <c r="C699" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>923</v>
+      </c>
+      <c r="B700" t="s">
+        <v>139</v>
+      </c>
+      <c r="C700" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>924</v>
+      </c>
+      <c r="B701" t="s">
+        <v>65</v>
+      </c>
+      <c r="C701" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>925</v>
+      </c>
+      <c r="B702" t="s">
+        <v>141</v>
+      </c>
+      <c r="C702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>926</v>
+      </c>
+      <c r="B703" t="s">
+        <v>152</v>
+      </c>
+      <c r="C703" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>927</v>
+      </c>
+      <c r="B704" t="s">
+        <v>152</v>
+      </c>
+      <c r="C704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>928</v>
+      </c>
+      <c r="B705" t="s">
+        <v>79</v>
+      </c>
+      <c r="C705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>929</v>
+      </c>
+      <c r="B706" t="s">
+        <v>79</v>
+      </c>
+      <c r="C706" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid787071"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid900829"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid900829"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid81534"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="950">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>0.836</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>0.907</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
     <t>13/03/2025</t>
   </si>
   <si>
     <t>0.878</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>12/03/2025</t>
   </si>
   <si>
@@ -50,9 +140,6 @@
     <t>10/03/2025</t>
   </si>
   <si>
-    <t>0.887</t>
-  </si>
-  <si>
     <t>07/03/2025</t>
   </si>
   <si>
@@ -1151,9 +1238,6 @@
     <t>01/02/2024</t>
   </si>
   <si>
-    <t>0.892</t>
-  </si>
-  <si>
     <t>31/01/2024</t>
   </si>
   <si>
@@ -1166,9 +1250,6 @@
     <t>29/01/2024</t>
   </si>
   <si>
-    <t>0.904</t>
-  </si>
-  <si>
     <t>26/01/2024</t>
   </si>
   <si>
@@ -1619,9 +1700,6 @@
     <t>19/09/2023</t>
   </si>
   <si>
-    <t>0.807</t>
-  </si>
-  <si>
     <t>18/09/2023</t>
   </si>
   <si>
@@ -2033,9 +2111,6 @@
     <t>27/03/2023</t>
   </si>
   <si>
-    <t>0.791</t>
-  </si>
-  <si>
     <t>24/03/2023</t>
   </si>
   <si>
@@ -2498,9 +2573,6 @@
     <t>20/09/2022</t>
   </si>
   <si>
-    <t>0.889</t>
-  </si>
-  <si>
     <t>19/09/2022</t>
   </si>
   <si>
@@ -2555,9 +2627,6 @@
     <t>05/09/2022</t>
   </si>
   <si>
-    <t>0.896</t>
-  </si>
-  <si>
     <t>02/09/2022</t>
   </si>
   <si>
@@ -2672,9 +2741,6 @@
     <t>15/07/2022</t>
   </si>
   <si>
-    <t>0.894</t>
-  </si>
-  <si>
     <t>14/07/2022</t>
   </si>
   <si>
@@ -2711,13 +2777,7 @@
     <t>30/06/2022</t>
   </si>
   <si>
-    <t>0.893</t>
-  </si>
-  <si>
     <t>29/06/2022</t>
-  </si>
-  <si>
-    <t>0.907</t>
   </si>
   <si>
     <t>28/06/2022</t>
@@ -3270,7 +3330,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3278,10 +3338,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3289,10 +3349,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3300,10 +3360,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3311,10 +3371,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3322,10 +3382,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3333,10 +3393,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3344,10 +3404,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3355,10 +3415,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3366,10 +3426,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3377,10 +3437,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3388,10 +3448,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3399,10 +3459,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3410,10 +3470,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3421,10 +3481,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3432,10 +3492,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3443,10 +3503,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3454,10 +3514,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3465,10 +3525,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3476,10 +3536,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3487,10 +3547,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3498,10 +3558,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3509,10 +3569,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3523,7 +3583,7 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3531,10 +3591,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3542,10 +3602,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3553,10 +3613,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3564,10 +3624,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3575,10 +3635,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3586,10 +3646,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3597,10 +3657,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3608,10 +3668,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3619,10 +3679,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3630,10 +3690,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3641,10 +3701,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3652,10 +3712,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3663,10 +3723,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3674,10 +3734,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3685,10 +3745,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3696,10 +3756,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3707,10 +3767,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3718,10 +3778,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3729,10 +3789,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3740,10 +3800,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3751,10 +3811,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3762,10 +3822,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3773,10 +3833,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3784,10 +3844,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3795,10 +3855,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3806,10 +3866,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3817,10 +3877,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3828,10 +3888,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3839,10 +3899,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3850,10 +3910,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3861,10 +3921,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3872,10 +3932,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3883,10 +3943,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3894,10 +3954,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3905,10 +3965,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3916,10 +3976,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3927,10 +3987,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3938,10 +3998,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3949,10 +4009,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3960,10 +4020,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3971,10 +4031,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3982,10 +4042,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3993,10 +4053,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4004,10 +4064,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4015,10 +4075,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4026,10 +4086,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4037,10 +4097,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4048,10 +4108,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4059,10 +4119,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4070,10 +4130,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4081,10 +4141,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4092,10 +4152,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4103,10 +4163,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4114,10 +4174,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4125,10 +4185,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4136,10 +4196,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4147,10 +4207,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4158,10 +4218,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4169,10 +4229,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4180,7 +4240,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B96" t="s">
         <v>156</v>
@@ -4191,10 +4251,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4202,10 +4262,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4213,10 +4273,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4224,10 +4284,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4235,10 +4295,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4246,10 +4306,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4257,10 +4317,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4268,10 +4328,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4279,10 +4339,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4290,10 +4350,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4301,10 +4361,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4312,10 +4372,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4323,10 +4383,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4334,10 +4394,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4345,10 +4405,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4356,10 +4416,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4367,10 +4427,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4378,10 +4438,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4389,10 +4449,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4400,10 +4460,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4411,10 +4471,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4422,10 +4482,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4433,10 +4493,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4444,10 +4504,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4455,10 +4515,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4466,10 +4526,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4477,10 +4537,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4488,10 +4548,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4499,10 +4559,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4510,10 +4570,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4521,10 +4581,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4532,10 +4592,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4543,10 +4603,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4554,10 +4614,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4565,10 +4625,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4576,10 +4636,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4587,10 +4647,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4598,10 +4658,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4609,10 +4669,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4620,10 +4680,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4631,10 +4691,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4642,10 +4702,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4653,10 +4713,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4664,10 +4724,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4675,10 +4735,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4686,10 +4746,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4697,10 +4757,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4708,10 +4768,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4719,10 +4779,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4730,10 +4790,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B146" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4741,10 +4801,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B147" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4752,10 +4812,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4763,10 +4823,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4774,10 +4834,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4785,10 +4845,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4796,10 +4856,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4807,10 +4867,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4818,10 +4878,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4829,10 +4889,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4840,10 +4900,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4851,10 +4911,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B157" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4862,10 +4922,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B158" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4873,10 +4933,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4884,10 +4944,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4895,10 +4955,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4906,10 +4966,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B162" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4917,10 +4977,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4928,10 +4988,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4939,10 +4999,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B165" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4950,10 +5010,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4961,10 +5021,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4972,10 +5032,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B168" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4983,10 +5043,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B169" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4994,10 +5054,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5005,10 +5065,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B171" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5016,10 +5076,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5027,10 +5087,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B173" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5038,10 +5098,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B174" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5049,10 +5109,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B175" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5060,10 +5120,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B176" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5071,10 +5131,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B177" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5082,10 +5142,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>265</v>
+      </c>
+      <c r="B178" t="s">
         <v>262</v>
-      </c>
-      <c r="B178" t="s">
-        <v>263</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5093,10 +5153,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5104,10 +5164,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5115,10 +5175,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5126,10 +5186,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B182" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5137,10 +5197,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5148,10 +5208,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5159,10 +5219,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5170,10 +5230,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5181,10 +5241,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5192,10 +5252,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5203,10 +5263,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>283</v>
+      </c>
+      <c r="B189" t="s">
         <v>277</v>
-      </c>
-      <c r="B189" t="s">
-        <v>47</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5214,10 +5274,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5225,10 +5285,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B191" t="s">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5236,10 +5296,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5247,10 +5307,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5258,10 +5318,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5269,10 +5329,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B195" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5280,10 +5340,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B196" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5291,10 +5351,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5302,10 +5362,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5313,10 +5373,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5324,10 +5384,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5335,10 +5395,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5346,10 +5406,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5357,10 +5417,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5368,10 +5428,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B204" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5379,10 +5439,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5390,10 +5450,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B206" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5401,10 +5461,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5412,10 +5472,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5423,10 +5483,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5434,10 +5494,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5445,10 +5505,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5456,10 +5516,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B212" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5467,10 +5527,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B213" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5478,10 +5538,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B214" t="s">
-        <v>304</v>
+        <v>101</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5489,10 +5549,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B215" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5500,10 +5560,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5511,10 +5571,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B217" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5522,10 +5582,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B218" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5533,10 +5593,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B219" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5544,10 +5604,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5555,10 +5615,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B221" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5566,10 +5626,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B222" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5577,10 +5637,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B223" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5588,10 +5648,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B224" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5599,10 +5659,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B225" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5610,10 +5670,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B226" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5621,10 +5681,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B227" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5632,10 +5692,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B228" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5643,10 +5703,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B229" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5654,10 +5714,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B230" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5665,10 +5725,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5676,10 +5736,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5687,10 +5747,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B233" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5698,10 +5758,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B234" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5709,10 +5769,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B235" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5720,10 +5780,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B236" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5731,10 +5791,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B237" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5742,10 +5802,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B238" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5753,10 +5813,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5764,10 +5824,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B240" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5775,10 +5835,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B241" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5786,10 +5846,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B242" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5797,10 +5857,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B243" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5808,10 +5868,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B244" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5819,10 +5879,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B245" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5830,10 +5890,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B246" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5841,10 +5901,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B247" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5852,10 +5912,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B248" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5863,10 +5923,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B249" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5874,10 +5934,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B250" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5885,10 +5945,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B251" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5896,10 +5956,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B252" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5907,10 +5967,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B253" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5918,10 +5978,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B254" t="s">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5929,10 +5989,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B255" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5940,10 +6000,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B256" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5951,10 +6011,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B257" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5962,10 +6022,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B258" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5973,10 +6033,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B259" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5984,10 +6044,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B260" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5995,10 +6055,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B261" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6006,10 +6066,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B262" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6017,10 +6077,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B263" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6028,10 +6088,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B264" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6039,10 +6099,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B265" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6050,10 +6110,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6061,10 +6121,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6072,10 +6132,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B268" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6083,10 +6143,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B269" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6094,10 +6154,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B270" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6105,10 +6165,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B271" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6116,10 +6176,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B272" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6127,10 +6187,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B273" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6138,10 +6198,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B274" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6149,10 +6209,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B275" t="s">
-        <v>369</v>
+        <v>257</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6160,10 +6220,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6171,10 +6231,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B277" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6182,10 +6242,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B278" t="s">
-        <v>374</v>
+        <v>52</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6193,10 +6253,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B279" t="s">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6204,10 +6264,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B280" t="s">
-        <v>378</v>
+        <v>170</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6215,10 +6275,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6226,10 +6286,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B282" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6237,10 +6297,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B283" t="s">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6248,10 +6308,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B284" t="s">
-        <v>385</v>
+        <v>252</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6259,10 +6319,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B285" t="s">
-        <v>387</v>
+        <v>46</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6270,10 +6330,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B286" t="s">
-        <v>389</v>
+        <v>174</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6281,10 +6341,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B287" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6292,10 +6352,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B288" t="s">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6303,10 +6363,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6314,10 +6374,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B290" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6325,10 +6385,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B291" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6336,10 +6396,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6383,7 +6443,7 @@
         <v>406</v>
       </c>
       <c r="B296" t="s">
-        <v>407</v>
+        <v>19</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6391,10 +6451,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6402,10 +6462,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B298" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6413,10 +6473,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6424,10 +6484,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B300" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6435,10 +6495,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B301" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6446,10 +6506,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B302" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6457,10 +6517,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B303" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6468,10 +6528,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B304" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6479,10 +6539,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B305" t="s">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6490,10 +6550,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B306" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6501,10 +6561,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B307" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6512,10 +6572,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B308" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6523,10 +6583,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B309" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6534,10 +6594,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B310" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6545,10 +6605,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B311" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6556,10 +6616,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
+        <v>433</v>
+      </c>
+      <c r="B312" t="s">
         <v>434</v>
-      </c>
-      <c r="B312" t="s">
-        <v>419</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6658,7 +6718,7 @@
         <v>451</v>
       </c>
       <c r="B321" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6680,7 +6740,7 @@
         <v>454</v>
       </c>
       <c r="B323" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6688,10 +6748,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B324" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6699,10 +6759,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B325" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6713,7 +6773,7 @@
         <v>459</v>
       </c>
       <c r="B326" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6724,7 +6784,7 @@
         <v>460</v>
       </c>
       <c r="B327" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6735,7 +6795,7 @@
         <v>461</v>
       </c>
       <c r="B328" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6746,7 +6806,7 @@
         <v>462</v>
       </c>
       <c r="B329" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6754,10 +6814,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B330" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6765,10 +6825,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B331" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6776,10 +6836,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B332" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6787,10 +6847,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B333" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6798,10 +6858,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B334" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6809,10 +6869,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B335" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6820,10 +6880,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B336" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6831,10 +6891,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B337" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6842,10 +6902,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B338" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6853,10 +6913,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B339" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6864,10 +6924,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B340" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6875,10 +6935,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B341" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6886,10 +6946,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B342" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6897,7 +6957,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B343" t="s">
         <v>485</v>
@@ -6908,10 +6968,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B344" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6919,10 +6979,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B345" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6933,7 +6993,7 @@
         <v>490</v>
       </c>
       <c r="B346" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6941,10 +7001,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B347" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6952,10 +7012,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B348" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6963,10 +7023,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B349" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6974,10 +7034,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B350" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6985,10 +7045,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B351" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6996,10 +7056,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B352" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -7007,10 +7067,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B353" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7018,10 +7078,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B354" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7029,10 +7089,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B355" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -7040,10 +7100,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B356" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7051,10 +7111,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B357" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7062,10 +7122,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B358" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7073,10 +7133,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B359" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7084,10 +7144,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
+        <v>513</v>
+      </c>
+      <c r="B360" t="s">
         <v>514</v>
-      </c>
-      <c r="B360" t="s">
-        <v>515</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7095,10 +7155,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
+        <v>515</v>
+      </c>
+      <c r="B361" t="s">
         <v>516</v>
-      </c>
-      <c r="B361" t="s">
-        <v>517</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7106,10 +7166,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
+        <v>517</v>
+      </c>
+      <c r="B362" t="s">
         <v>518</v>
-      </c>
-      <c r="B362" t="s">
-        <v>479</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7120,7 +7180,7 @@
         <v>519</v>
       </c>
       <c r="B363" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7128,10 +7188,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B364" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7139,10 +7199,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B365" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7150,10 +7210,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B366" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7161,10 +7221,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
+        <v>526</v>
+      </c>
+      <c r="B367" t="s">
         <v>525</v>
-      </c>
-      <c r="B367" t="s">
-        <v>524</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7172,10 +7232,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B368" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7183,10 +7243,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B369" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7194,10 +7254,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B370" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7205,10 +7265,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B371" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7216,10 +7276,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B372" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7227,10 +7287,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B373" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7238,10 +7298,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B374" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7249,10 +7309,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B375" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7260,10 +7320,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B376" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7271,10 +7331,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B377" t="s">
-        <v>456</v>
+        <v>544</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7282,10 +7342,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B378" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7293,10 +7353,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B379" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7304,10 +7364,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B380" t="s">
-        <v>446</v>
+        <v>548</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7315,10 +7375,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B381" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7326,10 +7386,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B382" t="s">
-        <v>466</v>
+        <v>551</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7337,10 +7397,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B383" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7348,10 +7408,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B384" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7359,10 +7419,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B385" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7370,10 +7430,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B386" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7381,10 +7441,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B387" t="s">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7392,10 +7452,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B388" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7403,10 +7463,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B389" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7414,10 +7474,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B390" t="s">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7425,10 +7485,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B391" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7436,10 +7496,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B392" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7447,10 +7507,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B393" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7458,10 +7518,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7469,10 +7529,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B395" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7480,10 +7540,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B396" t="s">
-        <v>560</v>
+        <v>473</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7491,10 +7551,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B397" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7502,10 +7562,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B398" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7513,10 +7573,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B399" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7524,10 +7584,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B400" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7535,10 +7595,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B401" t="s">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7546,10 +7606,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B402" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7557,10 +7617,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B403" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7568,10 +7628,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B404" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7579,10 +7639,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B405" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7590,10 +7650,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B406" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7601,10 +7661,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B407" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7612,10 +7672,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B408" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7623,10 +7683,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B409" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7634,10 +7694,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B410" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7645,10 +7705,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B411" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7656,10 +7716,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B412" t="s">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7667,10 +7727,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B413" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7678,10 +7738,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B414" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7689,10 +7749,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B415" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7700,10 +7760,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B416" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7711,10 +7771,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B417" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7722,10 +7782,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B418" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7733,10 +7793,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B419" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7744,10 +7804,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B420" t="s">
-        <v>413</v>
+        <v>539</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7755,10 +7815,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B421" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7766,10 +7826,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B422" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7777,10 +7837,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B423" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7788,10 +7848,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B424" t="s">
-        <v>450</v>
+        <v>573</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7799,10 +7859,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B425" t="s">
-        <v>466</v>
+        <v>573</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7810,10 +7870,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B426" t="s">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7821,10 +7881,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B427" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7832,10 +7892,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B428" t="s">
-        <v>599</v>
+        <v>477</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7843,10 +7903,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B429" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7854,10 +7914,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B430" t="s">
-        <v>577</v>
+        <v>7</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7865,10 +7925,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B431" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7876,10 +7936,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B432" t="s">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7887,10 +7947,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B433" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7898,10 +7958,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B434" t="s">
-        <v>415</v>
+        <v>573</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7909,10 +7969,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B435" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7920,10 +7980,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B436" t="s">
-        <v>609</v>
+        <v>440</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7931,10 +7991,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B437" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7942,10 +8002,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B438" t="s">
-        <v>421</v>
+        <v>603</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7953,10 +8013,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B439" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7964,10 +8024,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B440" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7975,10 +8035,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B441" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7986,10 +8046,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B442" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7997,10 +8057,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B443" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -8008,10 +8068,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B444" t="s">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8019,10 +8079,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B445" t="s">
-        <v>442</v>
+        <v>627</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8030,10 +8090,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B446" t="s">
-        <v>442</v>
+        <v>603</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8041,10 +8101,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B447" t="s">
-        <v>622</v>
+        <v>480</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8052,10 +8112,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B448" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8063,10 +8123,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B449" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8074,10 +8134,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B450" t="s">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8085,10 +8145,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B451" t="s">
-        <v>456</v>
+        <v>625</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8096,10 +8156,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B452" t="s">
-        <v>547</v>
+        <v>635</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8107,10 +8167,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B453" t="s">
-        <v>466</v>
+        <v>637</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8118,10 +8178,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="B454" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8129,10 +8189,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B455" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8140,10 +8200,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B456" t="s">
-        <v>622</v>
+        <v>465</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8151,10 +8211,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B457" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8162,10 +8222,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B458" t="s">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8173,10 +8233,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B459" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8184,10 +8244,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B460" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8195,10 +8255,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B461" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8206,10 +8266,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B462" t="s">
-        <v>638</v>
+        <v>469</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8217,10 +8277,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B463" t="s">
-        <v>508</v>
+        <v>648</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8228,10 +8288,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B464" t="s">
-        <v>641</v>
+        <v>493</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8239,10 +8299,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B465" t="s">
-        <v>641</v>
+        <v>7</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8250,10 +8310,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B466" t="s">
-        <v>638</v>
+        <v>562</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8261,10 +8321,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B467" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8272,10 +8332,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B468" t="s">
-        <v>638</v>
+        <v>573</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8283,10 +8343,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B469" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8294,10 +8354,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B470" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8305,10 +8365,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B471" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8316,10 +8376,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B472" t="s">
-        <v>448</v>
+        <v>648</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8327,10 +8387,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B473" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8338,10 +8398,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B474" t="s">
-        <v>477</v>
+        <v>575</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8349,10 +8409,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B475" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8360,10 +8420,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B476" t="s">
-        <v>448</v>
+        <v>569</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8371,10 +8431,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B477" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8382,10 +8442,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B478" t="s">
-        <v>466</v>
+        <v>664</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8393,10 +8453,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B479" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8404,10 +8464,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="B480" t="s">
-        <v>577</v>
+        <v>667</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8415,10 +8475,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="B481" t="s">
-        <v>543</v>
+        <v>667</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8426,10 +8486,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B482" t="s">
-        <v>448</v>
+        <v>664</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8437,10 +8497,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B483" t="s">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8448,10 +8508,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B484" t="s">
-        <v>450</v>
+        <v>664</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8459,10 +8519,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B485" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8470,10 +8530,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B486" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8481,10 +8541,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B487" t="s">
-        <v>552</v>
+        <v>7</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8492,10 +8552,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B488" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8503,10 +8563,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="B489" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8514,10 +8574,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B490" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8525,10 +8585,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B491" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8536,10 +8596,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B492" t="s">
-        <v>641</v>
+        <v>475</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8547,10 +8607,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="B493" t="s">
-        <v>567</v>
+        <v>475</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8558,10 +8618,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B494" t="s">
-        <v>672</v>
+        <v>493</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8569,10 +8629,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B495" t="s">
-        <v>674</v>
+        <v>480</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8580,10 +8640,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B496" t="s">
-        <v>479</v>
+        <v>603</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8591,10 +8651,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B497" t="s">
-        <v>677</v>
+        <v>569</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8602,10 +8662,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B498" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8613,10 +8673,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B499" t="s">
-        <v>560</v>
+        <v>664</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8624,10 +8684,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B500" t="s">
-        <v>681</v>
+        <v>477</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8635,10 +8695,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B501" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8646,10 +8706,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B502" t="s">
-        <v>483</v>
+        <v>664</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8657,10 +8717,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B503" t="s">
-        <v>473</v>
+        <v>578</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8668,10 +8728,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B504" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8679,10 +8739,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B505" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8690,10 +8750,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B506" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8701,10 +8761,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B507" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8712,10 +8772,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B508" t="s">
-        <v>506</v>
+        <v>667</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8723,10 +8783,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B509" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8734,10 +8794,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B510" t="s">
-        <v>510</v>
+        <v>4</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8745,10 +8805,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B511" t="s">
-        <v>475</v>
+        <v>699</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8756,10 +8816,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="B512" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8767,10 +8827,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B513" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8778,10 +8838,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B514" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8789,10 +8849,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B515" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8800,10 +8860,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B516" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8811,10 +8871,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B517" t="s">
-        <v>479</v>
+        <v>702</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8822,10 +8882,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B518" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8833,10 +8893,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B519" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8844,10 +8904,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B520" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8855,10 +8915,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B521" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8866,10 +8926,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B522" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8877,10 +8937,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B523" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8888,10 +8948,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B524" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8899,10 +8959,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B525" t="s">
-        <v>473</v>
+        <v>578</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8910,10 +8970,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B526" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8921,10 +8981,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="B527" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8932,10 +8992,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B528" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8943,10 +9003,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B529" t="s">
-        <v>674</v>
+        <v>4</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8954,10 +9014,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B530" t="s">
-        <v>567</v>
+        <v>504</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8965,10 +9025,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B531" t="s">
-        <v>473</v>
+        <v>593</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8976,10 +9036,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="B532" t="s">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8987,10 +9047,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B533" t="s">
-        <v>560</v>
+        <v>506</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8998,10 +9058,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B534" t="s">
-        <v>716</v>
+        <v>551</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -9009,10 +9069,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B535" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9020,10 +9080,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B536" t="s">
-        <v>719</v>
+        <v>504</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9031,10 +9091,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B537" t="s">
-        <v>721</v>
+        <v>530</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9042,10 +9102,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B538" t="s">
-        <v>723</v>
+        <v>502</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9053,10 +9113,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B539" t="s">
-        <v>725</v>
+        <v>593</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9064,10 +9124,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B540" t="s">
-        <v>727</v>
+        <v>544</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9075,10 +9135,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B541" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9086,10 +9146,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B542" t="s">
-        <v>730</v>
+        <v>593</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9097,10 +9157,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B543" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9108,10 +9168,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B544" t="s">
-        <v>727</v>
+        <v>500</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9119,10 +9179,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B545" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9130,10 +9190,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B546" t="s">
-        <v>735</v>
+        <v>593</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9141,10 +9201,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B547" t="s">
-        <v>737</v>
+        <v>500</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9155,7 +9215,7 @@
         <v>738</v>
       </c>
       <c r="B548" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9166,7 +9226,7 @@
         <v>739</v>
       </c>
       <c r="B549" t="s">
-        <v>740</v>
+        <v>586</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9174,10 +9234,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
+        <v>740</v>
+      </c>
+      <c r="B550" t="s">
         <v>741</v>
-      </c>
-      <c r="B550" t="s">
-        <v>495</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9188,7 +9248,7 @@
         <v>742</v>
       </c>
       <c r="B551" t="s">
-        <v>743</v>
+        <v>510</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9196,10 +9256,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
+        <v>743</v>
+      </c>
+      <c r="B552" t="s">
         <v>744</v>
-      </c>
-      <c r="B552" t="s">
-        <v>735</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9232,7 +9292,7 @@
         <v>749</v>
       </c>
       <c r="B555" t="s">
-        <v>491</v>
+        <v>750</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9240,10 +9300,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B556" t="s">
-        <v>495</v>
+        <v>752</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9251,10 +9311,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B557" t="s">
-        <v>723</v>
+        <v>512</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9262,10 +9322,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B558" t="s">
-        <v>562</v>
+        <v>755</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9273,10 +9333,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B559" t="s">
-        <v>754</v>
+        <v>512</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9284,10 +9344,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B560" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9295,10 +9355,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B561" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9306,10 +9366,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B562" t="s">
-        <v>483</v>
+        <v>760</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9317,10 +9377,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B563" t="s">
-        <v>672</v>
+        <v>762</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9328,10 +9388,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B564" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9339,10 +9399,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B565" t="s">
-        <v>672</v>
+        <v>765</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9350,10 +9410,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B566" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9361,10 +9421,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B567" t="s">
-        <v>528</v>
+        <v>768</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9372,10 +9432,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B568" t="s">
-        <v>481</v>
+        <v>760</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9383,10 +9443,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B569" t="s">
-        <v>498</v>
+        <v>771</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9394,10 +9454,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B570" t="s">
-        <v>565</v>
+        <v>773</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9405,10 +9465,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B571" t="s">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9416,10 +9476,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B572" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9427,10 +9487,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B573" t="s">
-        <v>641</v>
+        <v>748</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9438,10 +9498,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B574" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9449,10 +9509,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B575" t="s">
-        <v>501</v>
+        <v>779</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9460,10 +9520,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B576" t="s">
-        <v>503</v>
+        <v>779</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9471,10 +9531,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B577" t="s">
-        <v>475</v>
+        <v>741</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9482,10 +9542,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="B578" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9493,10 +9553,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="B579" t="s">
-        <v>672</v>
+        <v>4</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9504,10 +9564,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="B580" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9515,10 +9575,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B581" t="s">
-        <v>528</v>
+        <v>4</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9526,10 +9586,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B582" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9537,10 +9597,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="B583" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9548,10 +9608,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="B584" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9559,10 +9619,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B585" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9570,10 +9630,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B586" t="s">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9581,10 +9641,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B587" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9592,10 +9652,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="B588" t="s">
-        <v>716</v>
+        <v>502</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9603,10 +9663,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="B589" t="s">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9614,10 +9674,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B590" t="s">
-        <v>481</v>
+        <v>702</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9625,10 +9685,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B591" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9636,10 +9696,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="B592" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9647,10 +9707,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B593" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9658,10 +9718,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B594" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9669,10 +9729,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B595" t="s">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9680,10 +9740,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B596" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9691,10 +9751,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B597" t="s">
-        <v>440</v>
+        <v>555</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9702,10 +9762,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="B598" t="s">
-        <v>440</v>
+        <v>555</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9713,10 +9773,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="B599" t="s">
-        <v>609</v>
+        <v>4</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9724,10 +9784,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="B600" t="s">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9735,10 +9795,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B601" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9746,10 +9806,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="B602" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9757,10 +9817,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="B603" t="s">
-        <v>799</v>
+        <v>502</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9768,10 +9828,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="B604" t="s">
-        <v>577</v>
+        <v>741</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9779,10 +9839,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="B605" t="s">
-        <v>448</v>
+        <v>555</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9790,10 +9850,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="B606" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9801,10 +9861,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B607" t="s">
-        <v>453</v>
+        <v>591</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9812,10 +9872,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="B608" t="s">
-        <v>458</v>
+        <v>593</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9823,10 +9883,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="B609" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9834,10 +9894,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B610" t="s">
-        <v>426</v>
+        <v>573</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9845,10 +9905,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="B611" t="s">
-        <v>399</v>
+        <v>573</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9856,10 +9916,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="B612" t="s">
-        <v>809</v>
+        <v>573</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9867,10 +9927,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B613" t="s">
-        <v>811</v>
+        <v>467</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9878,10 +9938,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B614" t="s">
-        <v>813</v>
+        <v>467</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9889,10 +9949,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B615" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9900,10 +9960,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B616" t="s">
-        <v>816</v>
+        <v>648</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9911,10 +9971,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B617" t="s">
-        <v>818</v>
+        <v>569</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9922,10 +9982,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B618" t="s">
-        <v>818</v>
+        <v>440</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9933,10 +9993,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B619" t="s">
-        <v>421</v>
+        <v>824</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9944,10 +10004,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B620" t="s">
-        <v>822</v>
+        <v>603</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9955,10 +10015,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B621" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9966,10 +10026,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B622" t="s">
-        <v>825</v>
+        <v>473</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9977,10 +10037,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B623" t="s">
-        <v>827</v>
+        <v>480</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9988,10 +10048,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B624" t="s">
-        <v>829</v>
+        <v>485</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -10002,7 +10062,7 @@
         <v>830</v>
       </c>
       <c r="B625" t="s">
-        <v>829</v>
+        <v>635</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10013,7 +10073,7 @@
         <v>831</v>
       </c>
       <c r="B626" t="s">
-        <v>832</v>
+        <v>453</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10021,10 +10081,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B627" t="s">
-        <v>834</v>
+        <v>426</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -10032,10 +10092,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B628" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10043,10 +10103,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B629" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10054,10 +10114,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B630" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10065,10 +10125,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B631" t="s">
-        <v>832</v>
+        <v>625</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10076,10 +10136,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B632" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10087,10 +10147,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B633" t="s">
-        <v>378</v>
+        <v>843</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10098,10 +10158,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B634" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10109,10 +10169,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B635" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10120,10 +10180,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B636" t="s">
-        <v>225</v>
+        <v>847</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10131,10 +10191,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B637" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10142,10 +10202,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
+        <v>849</v>
+      </c>
+      <c r="B638" t="s">
         <v>850</v>
-      </c>
-      <c r="B638" t="s">
-        <v>840</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10156,7 +10216,7 @@
         <v>851</v>
       </c>
       <c r="B639" t="s">
-        <v>852</v>
+        <v>30</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10164,10 +10224,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
+        <v>852</v>
+      </c>
+      <c r="B640" t="s">
         <v>853</v>
-      </c>
-      <c r="B640" t="s">
-        <v>145</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10178,7 +10238,7 @@
         <v>854</v>
       </c>
       <c r="B641" t="s">
-        <v>125</v>
+        <v>853</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10189,7 +10249,7 @@
         <v>855</v>
       </c>
       <c r="B642" t="s">
-        <v>17</v>
+        <v>856</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10197,10 +10257,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B643" t="s">
-        <v>364</v>
+        <v>858</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10208,10 +10268,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B644" t="s">
-        <v>168</v>
+        <v>860</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10219,10 +10279,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B645" t="s">
-        <v>27</v>
+        <v>862</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10230,10 +10290,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B646" t="s">
-        <v>228</v>
+        <v>864</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10241,10 +10301,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="B647" t="s">
-        <v>98</v>
+        <v>856</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10252,10 +10312,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B648" t="s">
-        <v>105</v>
+        <v>867</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10263,10 +10323,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B649" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10274,10 +10334,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="B650" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10285,10 +10345,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B651" t="s">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10296,10 +10356,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="B652" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10307,10 +10367,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B653" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10318,10 +10378,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="B654" t="s">
-        <v>92</v>
+        <v>864</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10329,10 +10389,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B655" t="s">
-        <v>92</v>
+        <v>875</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10340,10 +10400,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="B656" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10351,10 +10411,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="B657" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10362,10 +10422,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B658" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10373,10 +10433,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="B659" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10384,10 +10444,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="B660" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10395,10 +10455,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="B661" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10406,10 +10466,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B662" t="s">
-        <v>836</v>
+        <v>257</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10417,10 +10477,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="B663" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10428,10 +10488,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B664" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10439,10 +10499,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="B665" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10450,10 +10510,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B666" t="s">
-        <v>880</v>
+        <v>262</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10461,10 +10521,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="B667" t="s">
-        <v>882</v>
+        <v>106</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10472,10 +10532,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B668" t="s">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10483,10 +10543,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B669" t="s">
-        <v>885</v>
+        <v>106</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10494,10 +10554,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B670" t="s">
-        <v>887</v>
+        <v>121</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10505,10 +10565,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B671" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10516,10 +10576,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B672" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10527,10 +10587,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B673" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10538,10 +10598,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B674" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10549,10 +10609,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B675" t="s">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10560,10 +10620,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B676" t="s">
-        <v>894</v>
+        <v>225</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10571,10 +10631,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B677" t="s">
-        <v>846</v>
+        <v>50</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10582,10 +10642,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B678" t="s">
-        <v>385</v>
+        <v>860</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10593,10 +10653,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B679" t="s">
-        <v>898</v>
+        <v>250</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10604,10 +10664,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B680" t="s">
-        <v>900</v>
+        <v>176</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10618,7 +10678,7 @@
         <v>901</v>
       </c>
       <c r="B681" t="s">
-        <v>902</v>
+        <v>203</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10626,10 +10686,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
+        <v>902</v>
+      </c>
+      <c r="B682" t="s">
         <v>903</v>
-      </c>
-      <c r="B682" t="s">
-        <v>21</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10640,7 +10700,7 @@
         <v>904</v>
       </c>
       <c r="B683" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10648,10 +10708,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B684" t="s">
-        <v>906</v>
+        <v>409</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10662,7 +10722,7 @@
         <v>907</v>
       </c>
       <c r="B685" t="s">
-        <v>898</v>
+        <v>32</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10673,7 +10733,7 @@
         <v>908</v>
       </c>
       <c r="B686" t="s">
-        <v>383</v>
+        <v>909</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10681,10 +10741,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B687" t="s">
-        <v>846</v>
+        <v>17</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10692,10 +10752,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B688" t="s">
-        <v>391</v>
+        <v>17</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10703,10 +10763,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B689" t="s">
-        <v>846</v>
+        <v>403</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10714,10 +10774,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B690" t="s">
-        <v>913</v>
+        <v>403</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10728,7 +10788,7 @@
         <v>914</v>
       </c>
       <c r="B691" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10739,7 +10799,7 @@
         <v>915</v>
       </c>
       <c r="B692" t="s">
-        <v>832</v>
+        <v>916</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10747,10 +10807,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B693" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10758,10 +10818,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B694" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10769,10 +10829,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B695" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10780,10 +10840,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B696" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10791,10 +10851,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B697" t="s">
-        <v>72</v>
+        <v>922</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10802,10 +10862,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B698" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10813,10 +10873,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
+        <v>924</v>
+      </c>
+      <c r="B699" t="s">
         <v>922</v>
-      </c>
-      <c r="B699" t="s">
-        <v>200</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10824,10 +10884,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B700" t="s">
-        <v>139</v>
+        <v>926</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10835,10 +10895,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B701" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C701" t="s">
         <v>5</v>
@@ -10846,10 +10906,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B702" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C702" t="s">
         <v>5</v>
@@ -10857,10 +10917,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B703" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -10868,10 +10928,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B704" t="s">
-        <v>152</v>
+        <v>418</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -10879,10 +10939,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B705" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -10890,12 +10950,188 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B706" t="s">
-        <v>79</v>
+        <v>933</v>
       </c>
       <c r="C706" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>934</v>
+      </c>
+      <c r="B707" t="s">
+        <v>418</v>
+      </c>
+      <c r="C707" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>935</v>
+      </c>
+      <c r="B708" t="s">
+        <v>856</v>
+      </c>
+      <c r="C708" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>936</v>
+      </c>
+      <c r="B709" t="s">
+        <v>216</v>
+      </c>
+      <c r="C709" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>937</v>
+      </c>
+      <c r="B710" t="s">
+        <v>152</v>
+      </c>
+      <c r="C710" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>938</v>
+      </c>
+      <c r="B711" t="s">
+        <v>101</v>
+      </c>
+      <c r="C711" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>939</v>
+      </c>
+      <c r="B712" t="s">
+        <v>333</v>
+      </c>
+      <c r="C712" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>940</v>
+      </c>
+      <c r="B713" t="s">
+        <v>101</v>
+      </c>
+      <c r="C713" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>941</v>
+      </c>
+      <c r="B714" t="s">
+        <v>170</v>
+      </c>
+      <c r="C714" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>942</v>
+      </c>
+      <c r="B715" t="s">
+        <v>229</v>
+      </c>
+      <c r="C715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>943</v>
+      </c>
+      <c r="B716" t="s">
+        <v>168</v>
+      </c>
+      <c r="C716" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>944</v>
+      </c>
+      <c r="B717" t="s">
+        <v>94</v>
+      </c>
+      <c r="C717" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>945</v>
+      </c>
+      <c r="B718" t="s">
+        <v>170</v>
+      </c>
+      <c r="C718" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>946</v>
+      </c>
+      <c r="B719" t="s">
+        <v>181</v>
+      </c>
+      <c r="C719" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>947</v>
+      </c>
+      <c r="B720" t="s">
+        <v>181</v>
+      </c>
+      <c r="C720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>948</v>
+      </c>
+      <c r="B721" t="s">
+        <v>108</v>
+      </c>
+      <c r="C721" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>949</v>
+      </c>
+      <c r="B722" t="s">
+        <v>108</v>
+      </c>
+      <c r="C722" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
+++ b/data/GreatLink/GreatLink Global Disruptive Innovation Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid81534"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid34255"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="967">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>0.820</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>0.836</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
     <t>0.791</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/04/2025</t>
   </si>
   <si>
@@ -44,9 +134,6 @@
     <t>03/04/2025</t>
   </si>
   <si>
-    <t>0.836</t>
-  </si>
-  <si>
     <t>02/04/2025</t>
   </si>
   <si>
@@ -1325,9 +1412,6 @@
     <t>09/01/2024</t>
   </si>
   <si>
-    <t>0.845</t>
-  </si>
-  <si>
     <t>08/01/2024</t>
   </si>
   <si>
@@ -1355,9 +1439,6 @@
     <t>02/01/2024</t>
   </si>
   <si>
-    <t>0.833</t>
-  </si>
-  <si>
     <t>29/12/2023</t>
   </si>
   <si>
@@ -1367,9 +1448,6 @@
     <t>28/12/2023</t>
   </si>
   <si>
-    <t>0.844</t>
-  </si>
-  <si>
     <t>27/12/2023</t>
   </si>
   <si>
@@ -1424,15 +1502,9 @@
     <t>11/12/2023</t>
   </si>
   <si>
-    <t>0.820</t>
-  </si>
-  <si>
     <t>08/12/2023</t>
   </si>
   <si>
-    <t>0.819</t>
-  </si>
-  <si>
     <t>07/12/2023</t>
   </si>
   <si>
@@ -1622,9 +1694,6 @@
     <t>13/10/2023</t>
   </si>
   <si>
-    <t>0.799</t>
-  </si>
-  <si>
     <t>12/10/2023</t>
   </si>
   <si>
@@ -1661,9 +1730,6 @@
     <t>03/10/2023</t>
   </si>
   <si>
-    <t>0.784</t>
-  </si>
-  <si>
     <t>02/10/2023</t>
   </si>
   <si>
@@ -1703,9 +1769,6 @@
     <t>18/09/2023</t>
   </si>
   <si>
-    <t>0.809</t>
-  </si>
-  <si>
     <t>15/09/2023</t>
   </si>
   <si>
@@ -1736,9 +1799,6 @@
     <t>05/09/2023</t>
   </si>
   <si>
-    <t>0.816</t>
-  </si>
-  <si>
     <t>04/09/2023</t>
   </si>
   <si>
@@ -1790,9 +1850,6 @@
     <t>16/08/2023</t>
   </si>
   <si>
-    <t>0.783</t>
-  </si>
-  <si>
     <t>15/08/2023</t>
   </si>
   <si>
@@ -2018,9 +2075,6 @@
     <t>10/05/2023</t>
   </si>
   <si>
-    <t>0.798</t>
-  </si>
-  <si>
     <t>09/05/2023</t>
   </si>
   <si>
@@ -2544,9 +2598,6 @@
   </si>
   <si>
     <t>28/09/2022</t>
-  </si>
-  <si>
-    <t>0.847</t>
   </si>
   <si>
     <t>27/09/2022</t>
@@ -3308,7 +3359,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3316,10 +3367,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3327,10 +3378,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3338,10 +3389,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3349,10 +3400,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3360,10 +3411,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3371,10 +3422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3407,7 +3458,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3415,10 +3466,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3506,7 +3557,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3514,10 +3565,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3525,10 +3576,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3536,10 +3587,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3547,10 +3598,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3558,10 +3609,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3569,10 +3620,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3580,10 +3631,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3591,10 +3642,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3602,10 +3653,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3613,10 +3664,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3624,10 +3675,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3635,10 +3686,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3646,10 +3697,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3657,10 +3708,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3668,10 +3719,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3679,10 +3730,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3690,10 +3741,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3701,10 +3752,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3712,10 +3763,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3723,10 +3774,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3734,10 +3785,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
         <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3745,10 +3796,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
         <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3759,7 +3810,7 @@
         <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3767,10 +3818,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3778,10 +3829,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3789,10 +3840,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3800,10 +3851,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3811,10 +3862,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3822,10 +3873,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3833,10 +3884,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3844,10 +3895,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3855,10 +3906,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3866,10 +3917,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3877,10 +3928,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3888,10 +3939,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3899,10 +3950,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3910,10 +3961,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3921,10 +3972,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3932,10 +3983,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3943,10 +3994,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3954,10 +4005,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3965,10 +4016,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3976,10 +4027,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3987,10 +4038,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3998,10 +4049,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4009,10 +4060,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4020,10 +4071,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4031,10 +4082,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4042,10 +4093,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4053,10 +4104,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4064,10 +4115,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4075,10 +4126,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4086,10 +4137,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4097,10 +4148,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4108,10 +4159,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4119,10 +4170,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4130,10 +4181,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4141,10 +4192,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4152,10 +4203,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4163,10 +4214,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4174,10 +4225,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4185,10 +4236,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4196,10 +4247,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4207,10 +4258,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4218,10 +4269,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4229,10 +4280,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4240,10 +4291,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4251,10 +4302,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4262,10 +4313,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4273,10 +4324,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4284,10 +4335,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4295,10 +4346,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4306,10 +4357,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4317,10 +4368,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4328,10 +4379,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4339,10 +4390,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4350,10 +4401,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4361,10 +4412,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4372,10 +4423,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4383,10 +4434,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4394,10 +4445,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4405,10 +4456,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4416,7 +4467,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B112" t="s">
         <v>185</v>
@@ -4427,10 +4478,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4438,10 +4489,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4449,10 +4500,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4460,10 +4511,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4471,10 +4522,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4482,10 +4533,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4493,10 +4544,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4504,10 +4555,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4515,10 +4566,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4526,10 +4577,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4537,10 +4588,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B123" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4548,10 +4599,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B124" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4559,10 +4610,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4570,10 +4621,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4581,10 +4632,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4592,10 +4643,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4603,10 +4654,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4614,10 +4665,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4625,10 +4676,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4636,10 +4687,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4647,10 +4698,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4658,10 +4709,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4669,10 +4720,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4680,10 +4731,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4691,10 +4742,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4702,10 +4753,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4713,10 +4764,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4724,10 +4775,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4735,10 +4786,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B141" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4746,10 +4797,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4757,10 +4808,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4768,10 +4819,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4779,10 +4830,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4790,10 +4841,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4801,10 +4852,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4812,10 +4863,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4823,10 +4874,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4834,10 +4885,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4845,10 +4896,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4856,10 +4907,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B152" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4867,10 +4918,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4878,10 +4929,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4889,10 +4940,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4900,10 +4951,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4911,10 +4962,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4922,10 +4973,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4933,10 +4984,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4944,10 +4995,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4955,10 +5006,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B161" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4966,10 +5017,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B162" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4977,10 +5028,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4988,10 +5039,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B164" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4999,10 +5050,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B165" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5010,10 +5061,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>258</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5021,10 +5072,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5032,10 +5083,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5043,10 +5094,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5054,10 +5105,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5065,10 +5116,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5076,10 +5127,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5087,10 +5138,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B173" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5098,10 +5149,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5109,10 +5160,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5120,10 +5171,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5131,10 +5182,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5142,10 +5193,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5153,10 +5204,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5164,10 +5215,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5175,10 +5226,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5186,10 +5237,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5197,10 +5248,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B183" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5208,10 +5259,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5219,10 +5270,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5230,10 +5281,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5241,10 +5292,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5252,10 +5303,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5263,10 +5314,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5274,10 +5325,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B190" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5285,10 +5336,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5296,10 +5347,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5307,10 +5358,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B193" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5318,10 +5369,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>294</v>
+      </c>
+      <c r="B194" t="s">
         <v>291</v>
-      </c>
-      <c r="B194" t="s">
-        <v>292</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5329,10 +5380,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B195" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5340,10 +5391,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B196" t="s">
-        <v>70</v>
+        <v>297</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5351,10 +5402,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5362,10 +5413,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B198" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5373,10 +5424,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B199" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5384,10 +5435,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5395,10 +5446,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B201" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5406,10 +5457,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B202" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5417,10 +5468,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5428,10 +5479,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5439,10 +5490,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>312</v>
+      </c>
+      <c r="B205" t="s">
         <v>306</v>
-      </c>
-      <c r="B205" t="s">
-        <v>76</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5450,10 +5501,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5461,10 +5512,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5472,10 +5523,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5483,10 +5534,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B209" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5494,10 +5545,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B210" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5505,10 +5556,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B211" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5516,10 +5567,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B212" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5527,10 +5578,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B213" t="s">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5538,10 +5589,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B214" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5549,10 +5600,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B215" t="s">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5560,10 +5611,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B216" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5571,10 +5622,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B217" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5582,10 +5633,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B218" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5593,10 +5644,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B219" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5604,10 +5655,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B220" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5615,10 +5666,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B221" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5626,10 +5677,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B222" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5637,10 +5688,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B223" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5648,10 +5699,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B224" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5659,10 +5710,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B225" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5670,10 +5721,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B226" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5681,10 +5732,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B227" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5692,10 +5743,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B228" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5703,10 +5754,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B229" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5714,10 +5765,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B230" t="s">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5725,10 +5776,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B231" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5736,10 +5787,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B232" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5747,10 +5798,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B233" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5758,10 +5809,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B234" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5769,10 +5820,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B235" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5780,10 +5831,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B236" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5791,10 +5842,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B237" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5802,10 +5853,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B238" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5813,10 +5864,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B239" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5824,10 +5875,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B240" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5835,10 +5886,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B241" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5846,10 +5897,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5857,10 +5908,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B243" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5868,10 +5919,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B244" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5879,10 +5930,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B245" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5890,10 +5941,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B246" t="s">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5901,10 +5952,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B247" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5912,10 +5963,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B248" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5923,10 +5974,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B249" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5934,10 +5985,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B250" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5945,10 +5996,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B251" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5956,10 +6007,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B252" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5967,10 +6018,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B253" t="s">
-        <v>168</v>
+        <v>370</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5978,10 +6029,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B254" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5989,10 +6040,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6000,10 +6051,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B256" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6011,10 +6062,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B257" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6022,10 +6073,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B258" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6033,10 +6084,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B259" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6044,10 +6095,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B260" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6055,10 +6106,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6066,10 +6117,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B262" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6077,10 +6128,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B263" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6088,10 +6139,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B264" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6099,10 +6150,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B265" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6110,10 +6161,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B266" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6121,10 +6172,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B267" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6132,10 +6183,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B268" t="s">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6143,10 +6194,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B269" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6154,10 +6205,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B270" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6165,10 +6216,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B271" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6176,10 +6227,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B272" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6187,10 +6238,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B273" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6198,10 +6249,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B274" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6209,10 +6260,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B275" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6220,10 +6271,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B276" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6231,10 +6282,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B277" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6242,10 +6293,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B278" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6253,10 +6304,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B279" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6264,10 +6315,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B280" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6275,10 +6326,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B281" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6286,10 +6337,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B282" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6297,10 +6348,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B283" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6308,10 +6359,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B284" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6319,10 +6370,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B285" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6330,10 +6381,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B286" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6341,10 +6392,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B287" t="s">
-        <v>393</v>
+        <v>85</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6352,10 +6403,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B288" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6363,10 +6414,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B289" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6374,10 +6425,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B290" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6385,10 +6436,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B291" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6396,10 +6447,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B292" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6407,10 +6458,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B293" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6418,10 +6469,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B294" t="s">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6429,10 +6480,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>181</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6440,10 +6491,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B296" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6451,10 +6502,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6462,10 +6513,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B298" t="s">
-        <v>409</v>
+        <v>137</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6473,10 +6524,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B299" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6484,10 +6535,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B300" t="s">
-        <v>412</v>
+        <v>281</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6495,10 +6546,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B301" t="s">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6506,10 +6557,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6517,10 +6568,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B303" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6528,10 +6579,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B304" t="s">
-        <v>412</v>
+        <v>187</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6539,10 +6590,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6550,10 +6601,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B306" t="s">
-        <v>422</v>
+        <v>245</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6561,10 +6612,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B307" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6572,10 +6623,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B308" t="s">
-        <v>426</v>
+        <v>71</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6583,10 +6634,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B309" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6594,10 +6645,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B310" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6605,10 +6656,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B311" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6616,10 +6667,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B312" t="s">
-        <v>434</v>
+        <v>48</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6627,10 +6678,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B313" t="s">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6652,7 +6703,7 @@
         <v>439</v>
       </c>
       <c r="B315" t="s">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6660,10 +6711,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
+        <v>440</v>
+      </c>
+      <c r="B316" t="s">
         <v>441</v>
-      </c>
-      <c r="B316" t="s">
-        <v>442</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6671,10 +6722,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>442</v>
+      </c>
+      <c r="B317" t="s">
         <v>443</v>
-      </c>
-      <c r="B317" t="s">
-        <v>444</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6682,10 +6733,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
+        <v>444</v>
+      </c>
+      <c r="B318" t="s">
         <v>445</v>
-      </c>
-      <c r="B318" t="s">
-        <v>446</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6693,10 +6744,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
+        <v>446</v>
+      </c>
+      <c r="B319" t="s">
         <v>447</v>
-      </c>
-      <c r="B319" t="s">
-        <v>448</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6704,10 +6755,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B320" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6715,10 +6766,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B321" t="s">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6726,10 +6777,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B322" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6737,10 +6788,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6748,10 +6799,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B324" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6759,10 +6810,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B325" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6770,10 +6821,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
+        <v>458</v>
+      </c>
+      <c r="B326" t="s">
         <v>459</v>
-      </c>
-      <c r="B326" t="s">
-        <v>438</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6784,7 +6835,7 @@
         <v>460</v>
       </c>
       <c r="B327" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6792,10 +6843,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B328" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6803,10 +6854,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B329" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6814,10 +6865,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B330" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6825,10 +6876,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B331" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6836,10 +6887,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B332" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6847,10 +6898,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B333" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6858,10 +6909,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B334" t="s">
-        <v>473</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6883,7 +6934,7 @@
         <v>476</v>
       </c>
       <c r="B336" t="s">
-        <v>477</v>
+        <v>9</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6891,10 +6942,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B337" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6902,10 +6953,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
+        <v>478</v>
+      </c>
+      <c r="B338" t="s">
         <v>479</v>
-      </c>
-      <c r="B338" t="s">
-        <v>480</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6913,10 +6964,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
+        <v>480</v>
+      </c>
+      <c r="B339" t="s">
         <v>481</v>
-      </c>
-      <c r="B339" t="s">
-        <v>480</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6938,7 +6989,7 @@
         <v>484</v>
       </c>
       <c r="B341" t="s">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6946,10 +6997,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B342" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6957,10 +7008,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B343" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6968,10 +7019,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B344" t="s">
-        <v>483</v>
+        <v>13</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6979,10 +7030,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
+        <v>488</v>
+      </c>
+      <c r="B345" t="s">
         <v>489</v>
-      </c>
-      <c r="B345" t="s">
-        <v>480</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6993,7 +7044,7 @@
         <v>490</v>
       </c>
       <c r="B346" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -7001,10 +7052,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B347" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -7012,10 +7063,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B348" t="s">
-        <v>493</v>
+        <v>24</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -7023,10 +7074,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B349" t="s">
-        <v>493</v>
+        <v>15</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -7034,10 +7085,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B350" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -7045,10 +7096,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B351" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -7056,10 +7107,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B352" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -7067,10 +7118,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B353" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7078,10 +7129,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B354" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7089,7 +7140,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B355" t="s">
         <v>504</v>
@@ -7100,10 +7151,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B356" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7111,10 +7162,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B357" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7122,10 +7173,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
+        <v>510</v>
+      </c>
+      <c r="B358" t="s">
         <v>509</v>
-      </c>
-      <c r="B358" t="s">
-        <v>510</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7136,7 +7187,7 @@
         <v>511</v>
       </c>
       <c r="B359" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7144,10 +7195,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B360" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7155,10 +7206,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B361" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7166,10 +7217,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B362" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7177,10 +7228,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B363" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7188,10 +7239,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B364" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7199,10 +7250,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B365" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7210,10 +7261,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B366" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7221,10 +7272,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B367" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7232,10 +7283,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B368" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7243,10 +7294,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B369" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7254,10 +7305,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B370" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7265,10 +7316,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B371" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7276,10 +7327,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B372" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7287,10 +7338,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B373" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7298,10 +7349,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B374" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7309,10 +7360,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B375" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7320,10 +7371,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B376" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7331,10 +7382,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B377" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7342,10 +7393,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B378" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7353,10 +7404,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B379" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7364,10 +7415,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B380" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7375,10 +7426,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B381" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7386,10 +7437,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B382" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7397,10 +7448,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B383" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7408,10 +7459,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B384" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7419,10 +7470,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
+        <v>553</v>
+      </c>
+      <c r="B385" t="s">
         <v>554</v>
-      </c>
-      <c r="B385" t="s">
-        <v>555</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7430,10 +7481,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B386" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7441,10 +7492,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
+        <v>556</v>
+      </c>
+      <c r="B387" t="s">
         <v>557</v>
-      </c>
-      <c r="B387" t="s">
-        <v>504</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7455,7 +7506,7 @@
         <v>558</v>
       </c>
       <c r="B388" t="s">
-        <v>542</v>
+        <v>21</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7466,7 +7517,7 @@
         <v>559</v>
       </c>
       <c r="B389" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7474,10 +7525,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>562</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7485,10 +7536,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B391" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7496,10 +7547,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B392" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7507,10 +7558,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B393" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7518,10 +7569,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B394" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7529,10 +7580,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B395" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7540,10 +7591,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B396" t="s">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7551,10 +7602,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B397" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7562,10 +7613,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B398" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7573,10 +7624,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B399" t="s">
-        <v>473</v>
+        <v>573</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7584,10 +7635,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B400" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7595,10 +7646,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B401" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7606,10 +7657,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B402" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7617,10 +7668,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B403" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7628,10 +7679,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B404" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7639,10 +7690,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B405" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7650,10 +7701,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B406" t="s">
-        <v>555</v>
+        <v>37</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7661,10 +7712,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B407" t="s">
-        <v>528</v>
+        <v>29</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7672,10 +7723,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B408" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7683,10 +7734,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B409" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7694,10 +7745,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B410" t="s">
-        <v>586</v>
+        <v>29</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7708,7 +7759,7 @@
         <v>587</v>
       </c>
       <c r="B411" t="s">
-        <v>588</v>
+        <v>509</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7716,10 +7767,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B412" t="s">
-        <v>586</v>
+        <v>497</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7727,10 +7778,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
+        <v>589</v>
+      </c>
+      <c r="B413" t="s">
         <v>590</v>
-      </c>
-      <c r="B413" t="s">
-        <v>591</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7738,10 +7789,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B414" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7749,10 +7800,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B415" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7760,10 +7811,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B416" t="s">
-        <v>504</v>
+        <v>27</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7771,10 +7822,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B417" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7782,10 +7833,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B418" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7793,10 +7844,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
+        <v>597</v>
+      </c>
+      <c r="B419" t="s">
         <v>598</v>
-      </c>
-      <c r="B419" t="s">
-        <v>539</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7807,7 +7858,7 @@
         <v>599</v>
       </c>
       <c r="B420" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7818,7 +7869,7 @@
         <v>600</v>
       </c>
       <c r="B421" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7829,7 +7880,7 @@
         <v>601</v>
       </c>
       <c r="B422" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7840,7 +7891,7 @@
         <v>602</v>
       </c>
       <c r="B423" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7848,7 +7899,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B424" t="s">
         <v>573</v>
@@ -7859,10 +7910,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B425" t="s">
-        <v>573</v>
+        <v>19</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7870,10 +7921,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
+        <v>605</v>
+      </c>
+      <c r="B426" t="s">
         <v>606</v>
-      </c>
-      <c r="B426" t="s">
-        <v>578</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7884,7 +7935,7 @@
         <v>607</v>
       </c>
       <c r="B427" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7892,10 +7943,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B428" t="s">
-        <v>477</v>
+        <v>606</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7903,10 +7954,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B429" t="s">
-        <v>537</v>
+        <v>33</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7914,10 +7965,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B430" t="s">
-        <v>7</v>
+        <v>612</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7925,10 +7976,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B431" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7936,10 +7987,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B432" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7947,10 +7998,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B433" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7958,10 +8009,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B434" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7969,10 +8020,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B435" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7980,10 +8031,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B436" t="s">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7991,10 +8042,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B437" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -8002,10 +8053,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B438" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -8013,10 +8064,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B439" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -8024,10 +8075,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B440" t="s">
-        <v>477</v>
+        <v>27</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -8035,10 +8086,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B441" t="s">
-        <v>493</v>
+        <v>27</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -8046,10 +8097,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B442" t="s">
-        <v>471</v>
+        <v>598</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -8057,10 +8108,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B443" t="s">
-        <v>467</v>
+        <v>598</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -8068,10 +8119,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B444" t="s">
-        <v>625</v>
+        <v>501</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8079,10 +8130,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B445" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8090,10 +8141,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B446" t="s">
-        <v>603</v>
+        <v>37</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8101,10 +8152,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B447" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8112,10 +8163,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B448" t="s">
-        <v>480</v>
+        <v>595</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8123,10 +8174,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B449" t="s">
-        <v>603</v>
+        <v>27</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8134,10 +8185,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B450" t="s">
-        <v>442</v>
+        <v>27</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8145,10 +8196,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B451" t="s">
-        <v>625</v>
+        <v>27</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8156,10 +8207,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B452" t="s">
-        <v>635</v>
+        <v>468</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8170,7 +8221,7 @@
         <v>636</v>
       </c>
       <c r="B453" t="s">
-        <v>637</v>
+        <v>27</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8178,10 +8229,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B454" t="s">
-        <v>448</v>
+        <v>622</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8189,10 +8240,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B455" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8200,10 +8251,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B456" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8211,10 +8262,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B457" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8222,10 +8273,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B458" t="s">
-        <v>444</v>
+        <v>15</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8233,10 +8284,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B459" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8244,10 +8295,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
+        <v>643</v>
+      </c>
+      <c r="B460" t="s">
         <v>644</v>
-      </c>
-      <c r="B460" t="s">
-        <v>471</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8258,7 +8309,7 @@
         <v>645</v>
       </c>
       <c r="B461" t="s">
-        <v>469</v>
+        <v>646</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8266,10 +8317,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B462" t="s">
-        <v>469</v>
+        <v>622</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8277,10 +8328,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B463" t="s">
-        <v>648</v>
+        <v>504</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8291,7 +8342,7 @@
         <v>649</v>
       </c>
       <c r="B464" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8302,7 +8353,7 @@
         <v>650</v>
       </c>
       <c r="B465" t="s">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8313,7 +8364,7 @@
         <v>651</v>
       </c>
       <c r="B466" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8324,7 +8375,7 @@
         <v>652</v>
       </c>
       <c r="B467" t="s">
-        <v>483</v>
+        <v>644</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8335,7 +8386,7 @@
         <v>653</v>
       </c>
       <c r="B468" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8343,10 +8394,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B469" t="s">
-        <v>493</v>
+        <v>656</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8354,10 +8405,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B470" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8365,10 +8416,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
+        <v>658</v>
+      </c>
+      <c r="B471" t="s">
         <v>656</v>
-      </c>
-      <c r="B471" t="s">
-        <v>603</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8376,10 +8427,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B472" t="s">
-        <v>648</v>
+        <v>491</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8387,10 +8438,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B473" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8398,10 +8449,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B474" t="s">
-        <v>575</v>
+        <v>472</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8409,10 +8460,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B475" t="s">
-        <v>480</v>
+        <v>15</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8420,10 +8471,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B476" t="s">
-        <v>569</v>
+        <v>15</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8431,10 +8482,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B477" t="s">
-        <v>493</v>
+        <v>24</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8442,10 +8493,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B478" t="s">
-        <v>664</v>
+        <v>24</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8453,10 +8504,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B479" t="s">
-        <v>535</v>
+        <v>667</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8464,10 +8515,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B480" t="s">
-        <v>667</v>
+        <v>517</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8475,10 +8526,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B481" t="s">
-        <v>667</v>
+        <v>37</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8486,10 +8537,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B482" t="s">
-        <v>664</v>
+        <v>29</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8497,10 +8548,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B483" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8508,10 +8559,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B484" t="s">
-        <v>664</v>
+        <v>27</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8519,10 +8570,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B485" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8530,10 +8581,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B486" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8541,10 +8592,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B487" t="s">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8552,10 +8603,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B488" t="s">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8563,10 +8614,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B489" t="s">
-        <v>593</v>
+        <v>468</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8574,10 +8625,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B490" t="s">
-        <v>504</v>
+        <v>595</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8585,10 +8636,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B491" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8596,10 +8647,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B492" t="s">
-        <v>475</v>
+        <v>590</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8607,10 +8658,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B493" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8618,10 +8669,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B494" t="s">
-        <v>493</v>
+        <v>683</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8629,10 +8680,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B495" t="s">
-        <v>480</v>
+        <v>21</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8640,10 +8691,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B496" t="s">
-        <v>603</v>
+        <v>17</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8651,10 +8702,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B497" t="s">
-        <v>569</v>
+        <v>17</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8662,10 +8713,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B498" t="s">
-        <v>475</v>
+        <v>683</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8673,10 +8724,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B499" t="s">
-        <v>664</v>
+        <v>499</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8684,10 +8735,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B500" t="s">
-        <v>477</v>
+        <v>683</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8695,10 +8746,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B501" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8706,10 +8757,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B502" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8717,10 +8768,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B503" t="s">
-        <v>578</v>
+        <v>37</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8728,10 +8779,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B504" t="s">
-        <v>562</v>
+        <v>499</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8739,10 +8790,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B505" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8750,10 +8801,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B506" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8761,10 +8812,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B507" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8772,10 +8823,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B508" t="s">
-        <v>667</v>
+        <v>499</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8783,10 +8834,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B509" t="s">
-        <v>593</v>
+        <v>499</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8794,10 +8845,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B510" t="s">
-        <v>4</v>
+        <v>517</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8805,10 +8856,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B511" t="s">
-        <v>699</v>
+        <v>504</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8816,10 +8867,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B512" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8827,10 +8878,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B513" t="s">
-        <v>702</v>
+        <v>590</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8841,7 +8892,7 @@
         <v>703</v>
       </c>
       <c r="B514" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8852,7 +8903,7 @@
         <v>704</v>
       </c>
       <c r="B515" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8863,7 +8914,7 @@
         <v>705</v>
       </c>
       <c r="B516" t="s">
-        <v>706</v>
+        <v>501</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8871,10 +8922,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B517" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8882,10 +8933,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B518" t="s">
-        <v>510</v>
+        <v>683</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8893,10 +8944,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B519" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8904,10 +8955,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B520" t="s">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8915,10 +8966,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B521" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8926,10 +8977,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B522" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8937,10 +8988,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B523" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8948,10 +8999,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B524" t="s">
-        <v>533</v>
+        <v>17</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8959,10 +9010,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B525" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8970,10 +9021,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B526" t="s">
-        <v>537</v>
+        <v>35</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8981,10 +9032,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
+        <v>716</v>
+      </c>
+      <c r="B527" t="s">
         <v>717</v>
-      </c>
-      <c r="B527" t="s">
-        <v>502</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8995,7 +9046,7 @@
         <v>718</v>
       </c>
       <c r="B528" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -9006,7 +9057,7 @@
         <v>719</v>
       </c>
       <c r="B529" t="s">
-        <v>4</v>
+        <v>720</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -9014,10 +9065,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B530" t="s">
-        <v>504</v>
+        <v>19</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -9025,10 +9076,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B531" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -9036,10 +9087,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B532" t="s">
-        <v>4</v>
+        <v>724</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -9047,10 +9098,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B533" t="s">
-        <v>506</v>
+        <v>720</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -9058,10 +9109,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B534" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -9069,10 +9120,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B535" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9080,10 +9131,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B536" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9091,10 +9142,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B537" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9102,10 +9153,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B538" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9113,10 +9164,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B539" t="s">
-        <v>593</v>
+        <v>21</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9124,10 +9175,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B540" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9135,10 +9186,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B541" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9146,10 +9197,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B542" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9157,10 +9208,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B543" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9168,10 +9219,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B544" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9179,10 +9230,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B545" t="s">
-        <v>699</v>
+        <v>35</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9190,10 +9241,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B546" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9201,10 +9252,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B547" t="s">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9212,10 +9263,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B548" t="s">
-        <v>528</v>
+        <v>35</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9223,10 +9274,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B549" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9234,10 +9285,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B550" t="s">
-        <v>741</v>
+        <v>573</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9245,10 +9296,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B551" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9256,10 +9307,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B552" t="s">
-        <v>744</v>
+        <v>528</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9270,7 +9321,7 @@
         <v>745</v>
       </c>
       <c r="B553" t="s">
-        <v>746</v>
+        <v>554</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9278,10 +9329,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B554" t="s">
-        <v>748</v>
+        <v>526</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9289,10 +9340,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B555" t="s">
-        <v>750</v>
+        <v>612</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9300,10 +9351,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B556" t="s">
-        <v>752</v>
+        <v>567</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9311,10 +9362,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B557" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9322,10 +9373,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B558" t="s">
-        <v>755</v>
+        <v>612</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9333,10 +9384,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B559" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9344,10 +9395,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B560" t="s">
-        <v>752</v>
+        <v>524</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9355,10 +9406,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B561" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9366,10 +9417,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B562" t="s">
-        <v>760</v>
+        <v>612</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9377,10 +9428,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B563" t="s">
-        <v>762</v>
+        <v>524</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9388,10 +9439,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B564" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9399,10 +9450,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B565" t="s">
-        <v>765</v>
+        <v>606</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9410,10 +9461,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B566" t="s">
-        <v>522</v>
+        <v>759</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9421,10 +9472,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B567" t="s">
-        <v>768</v>
+        <v>534</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9432,10 +9483,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B568" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9443,10 +9494,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B569" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9454,10 +9505,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B570" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9465,10 +9516,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B571" t="s">
-        <v>518</v>
+        <v>768</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9476,10 +9527,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B572" t="s">
-        <v>522</v>
+        <v>770</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9487,10 +9538,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B573" t="s">
-        <v>748</v>
+        <v>536</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9498,10 +9549,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B574" t="s">
-        <v>588</v>
+        <v>773</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9509,10 +9560,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B575" t="s">
-        <v>779</v>
+        <v>536</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9520,10 +9571,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B576" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9531,10 +9582,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B577" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9542,10 +9593,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B578" t="s">
-        <v>510</v>
+        <v>778</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9553,10 +9604,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B579" t="s">
-        <v>4</v>
+        <v>780</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9564,10 +9615,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B580" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9575,10 +9626,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B581" t="s">
-        <v>4</v>
+        <v>783</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9586,10 +9637,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B582" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9597,10 +9648,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B583" t="s">
-        <v>555</v>
+        <v>786</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9608,10 +9659,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B584" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9619,10 +9670,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
+        <v>788</v>
+      </c>
+      <c r="B585" t="s">
         <v>789</v>
-      </c>
-      <c r="B585" t="s">
-        <v>525</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9633,7 +9684,7 @@
         <v>790</v>
       </c>
       <c r="B586" t="s">
-        <v>591</v>
+        <v>791</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9641,10 +9692,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B587" t="s">
-        <v>664</v>
+        <v>542</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9652,10 +9703,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B588" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9663,10 +9714,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B589" t="s">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9674,10 +9725,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B590" t="s">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9685,10 +9736,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B591" t="s">
-        <v>528</v>
+        <v>797</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9696,10 +9747,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B592" t="s">
-        <v>530</v>
+        <v>797</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9707,10 +9758,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B593" t="s">
-        <v>502</v>
+        <v>759</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9718,10 +9769,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B594" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9729,10 +9780,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B595" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9740,10 +9791,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B596" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9751,10 +9802,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B597" t="s">
-        <v>555</v>
+        <v>35</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9762,10 +9813,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B598" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9773,10 +9824,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B599" t="s">
-        <v>4</v>
+        <v>577</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9784,10 +9835,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B600" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9795,10 +9846,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B601" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9806,10 +9857,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B602" t="s">
-        <v>504</v>
+        <v>33</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9817,10 +9868,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B603" t="s">
-        <v>502</v>
+        <v>683</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9828,10 +9879,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B604" t="s">
-        <v>741</v>
+        <v>526</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9839,10 +9890,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B605" t="s">
-        <v>555</v>
+        <v>17</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9850,10 +9901,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B606" t="s">
-        <v>508</v>
+        <v>720</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9861,10 +9912,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B607" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9872,10 +9923,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B608" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9883,10 +9934,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B609" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9894,10 +9945,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B610" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9905,10 +9956,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B611" t="s">
-        <v>573</v>
+        <v>35</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9916,10 +9967,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B612" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9927,10 +9978,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B613" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9938,10 +9989,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B614" t="s">
-        <v>467</v>
+        <v>577</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9949,10 +10000,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B615" t="s">
-        <v>635</v>
+        <v>35</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9960,10 +10011,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B616" t="s">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9971,10 +10022,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B617" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9982,10 +10033,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B618" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9993,10 +10044,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B619" t="s">
-        <v>824</v>
+        <v>526</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -10004,10 +10055,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B620" t="s">
-        <v>603</v>
+        <v>759</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -10015,10 +10066,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B621" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -10026,10 +10077,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B622" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -10037,10 +10088,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B623" t="s">
-        <v>480</v>
+        <v>33</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -10048,10 +10099,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B624" t="s">
-        <v>485</v>
+        <v>612</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -10059,10 +10110,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B625" t="s">
-        <v>635</v>
+        <v>21</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10070,10 +10121,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B626" t="s">
-        <v>453</v>
+        <v>27</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10081,10 +10132,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B627" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -10092,10 +10143,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B628" t="s">
-        <v>834</v>
+        <v>27</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10106,7 +10157,7 @@
         <v>835</v>
       </c>
       <c r="B629" t="s">
-        <v>836</v>
+        <v>493</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10114,10 +10165,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B630" t="s">
-        <v>838</v>
+        <v>493</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10125,10 +10176,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B631" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10136,10 +10187,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B632" t="s">
-        <v>841</v>
+        <v>667</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10147,10 +10198,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B633" t="s">
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10158,10 +10209,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B634" t="s">
-        <v>843</v>
+        <v>468</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10169,10 +10220,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B635" t="s">
-        <v>448</v>
+        <v>842</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10180,10 +10231,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B636" t="s">
-        <v>847</v>
+        <v>622</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10191,10 +10242,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B637" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10202,10 +10253,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B638" t="s">
-        <v>850</v>
+        <v>497</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10213,10 +10264,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B639" t="s">
-        <v>30</v>
+        <v>504</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10224,10 +10275,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B640" t="s">
-        <v>853</v>
+        <v>509</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10235,10 +10286,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B641" t="s">
-        <v>853</v>
+        <v>654</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10246,10 +10297,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B642" t="s">
-        <v>856</v>
+        <v>479</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10257,10 +10308,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B643" t="s">
-        <v>858</v>
+        <v>455</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10268,10 +10319,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B644" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10279,10 +10330,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B645" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10290,10 +10341,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B646" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10301,10 +10352,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B647" t="s">
-        <v>856</v>
+        <v>644</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10312,10 +10363,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B648" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10323,10 +10374,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B649" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10334,10 +10385,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B650" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10345,10 +10396,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B651" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10356,10 +10407,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B652" t="s">
-        <v>254</v>
+        <v>864</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10367,10 +10418,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B653" t="s">
-        <v>44</v>
+        <v>461</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10378,10 +10429,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B654" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10389,10 +10440,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B655" t="s">
-        <v>875</v>
+        <v>59</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10400,10 +10451,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B656" t="s">
-        <v>174</v>
+        <v>870</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10411,10 +10462,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B657" t="s">
-        <v>154</v>
+        <v>870</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10422,10 +10473,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B658" t="s">
-        <v>46</v>
+        <v>873</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10433,10 +10484,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B659" t="s">
-        <v>393</v>
+        <v>875</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10444,10 +10495,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B660" t="s">
-        <v>197</v>
+        <v>877</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10455,10 +10506,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B661" t="s">
-        <v>56</v>
+        <v>879</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10466,10 +10517,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B662" t="s">
-        <v>257</v>
+        <v>881</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10477,10 +10528,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B663" t="s">
-        <v>127</v>
+        <v>873</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10488,10 +10539,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
+        <v>883</v>
+      </c>
+      <c r="B664" t="s">
         <v>884</v>
-      </c>
-      <c r="B664" t="s">
-        <v>134</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10502,7 +10553,7 @@
         <v>885</v>
       </c>
       <c r="B665" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10513,7 +10564,7 @@
         <v>886</v>
       </c>
       <c r="B666" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10524,7 +10575,7 @@
         <v>887</v>
       </c>
       <c r="B667" t="s">
-        <v>106</v>
+        <v>438</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10535,7 +10586,7 @@
         <v>888</v>
       </c>
       <c r="B668" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10546,7 +10597,7 @@
         <v>889</v>
       </c>
       <c r="B669" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10557,7 +10608,7 @@
         <v>890</v>
       </c>
       <c r="B670" t="s">
-        <v>121</v>
+        <v>881</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10568,7 +10619,7 @@
         <v>891</v>
       </c>
       <c r="B671" t="s">
-        <v>121</v>
+        <v>892</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10576,10 +10627,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B672" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10587,10 +10638,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B673" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10598,10 +10649,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B674" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10609,10 +10660,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B675" t="s">
-        <v>156</v>
+        <v>422</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10620,10 +10671,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B676" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10631,10 +10682,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B677" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10642,10 +10693,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B678" t="s">
-        <v>860</v>
+        <v>286</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10653,10 +10704,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B679" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10664,10 +10715,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B680" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10675,10 +10726,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B681" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10686,10 +10737,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B682" t="s">
-        <v>903</v>
+        <v>291</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10700,7 +10751,7 @@
         <v>904</v>
       </c>
       <c r="B683" t="s">
-        <v>905</v>
+        <v>135</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10708,10 +10759,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B684" t="s">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10719,10 +10770,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B685" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10730,10 +10781,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B686" t="s">
-        <v>909</v>
+        <v>150</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10741,10 +10792,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B687" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10752,10 +10803,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B688" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10763,10 +10814,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B689" t="s">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10774,10 +10825,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B690" t="s">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10785,10 +10836,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B691" t="s">
-        <v>416</v>
+        <v>185</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10796,10 +10847,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B692" t="s">
-        <v>916</v>
+        <v>254</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10807,10 +10858,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B693" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10818,10 +10869,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B694" t="s">
-        <v>412</v>
+        <v>877</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10829,10 +10880,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B695" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10840,10 +10891,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B696" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10851,10 +10902,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B697" t="s">
-        <v>922</v>
+        <v>232</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10862,10 +10913,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B698" t="s">
-        <v>50</v>
+        <v>920</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10873,7 +10924,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B699" t="s">
         <v>922</v>
@@ -10884,10 +10935,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B700" t="s">
-        <v>926</v>
+        <v>438</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10895,10 +10946,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B701" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C701" t="s">
         <v>5</v>
@@ -10906,10 +10957,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B702" t="s">
-        <v>21</v>
+        <v>926</v>
       </c>
       <c r="C702" t="s">
         <v>5</v>
@@ -10917,10 +10968,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B703" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -10928,10 +10979,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B704" t="s">
-        <v>418</v>
+        <v>46</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -10939,10 +10990,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B705" t="s">
-        <v>28</v>
+        <v>432</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -10950,10 +11001,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B706" t="s">
-        <v>933</v>
+        <v>432</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -10961,10 +11012,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B707" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="C707" t="s">
         <v>5</v>
@@ -10972,10 +11023,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B708" t="s">
-        <v>856</v>
+        <v>933</v>
       </c>
       <c r="C708" t="s">
         <v>5</v>
@@ -10983,10 +11034,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B709" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C709" t="s">
         <v>5</v>
@@ -10994,10 +11045,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B710" t="s">
-        <v>152</v>
+        <v>441</v>
       </c>
       <c r="C710" t="s">
         <v>5</v>
@@ -11005,10 +11056,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B711" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C711" t="s">
         <v>5</v>
@@ -11016,10 +11067,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B712" t="s">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="C712" t="s">
         <v>5</v>
@@ -11027,10 +11078,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B713" t="s">
-        <v>101</v>
+        <v>939</v>
       </c>
       <c r="C713" t="s">
         <v>5</v>
@@ -11038,10 +11089,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B714" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="C714" t="s">
         <v>5</v>
@@ -11049,10 +11100,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B715" t="s">
-        <v>229</v>
+        <v>939</v>
       </c>
       <c r="C715" t="s">
         <v>5</v>
@@ -11060,10 +11111,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
+        <v>942</v>
+      </c>
+      <c r="B716" t="s">
         <v>943</v>
-      </c>
-      <c r="B716" t="s">
-        <v>168</v>
       </c>
       <c r="C716" t="s">
         <v>5</v>
@@ -11074,7 +11125,7 @@
         <v>944</v>
       </c>
       <c r="B717" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C717" t="s">
         <v>5</v>
@@ -11085,7 +11136,7 @@
         <v>945</v>
       </c>
       <c r="B718" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C718" t="s">
         <v>5</v>
@@ -11096,7 +11147,7 @@
         <v>946</v>
       </c>
       <c r="B719" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -11107,7 +11158,7 @@
         <v>947</v>
       </c>
       <c r="B720" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="C720" t="s">
         <v>5</v>
@@ -11118,7 +11169,7 @@
         <v>948</v>
       </c>
       <c r="B721" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C721" t="s">
         <v>5</v>
@@ -11129,9 +11180,185 @@
         <v>949</v>
       </c>
       <c r="B722" t="s">
-        <v>108</v>
+        <v>950</v>
       </c>
       <c r="C722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>951</v>
+      </c>
+      <c r="B723" t="s">
+        <v>447</v>